--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1203.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1203.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7920883091822406</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03960441545911203</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03960441545911203</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06336706473457925</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06247539086962028</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01247539086962028</v>
+        <v>0.01929876046313414</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01272044319027354</v>
+        <v>0.01967784325794571</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0007109717721355199</v>
+        <v>0.001154757776533878</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008074659359084666</v>
+        <v>0.0008129090108739297</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001063248797292575</v>
+        <v>0.003314168337238826</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008186065121988334</v>
+        <v>0.0007974495568345393</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003322144473583866</v>
+        <v>0.004752811671846269</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007474532255018892</v>
+        <v>0.0007971813580394911</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006464565086619356</v>
+        <v>0.001154757776533878</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008143876925774509</v>
+        <v>0.0008129090108739297</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002534975401141372</v>
+        <v>0.002581752322028022</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001614931871816933</v>
+        <v>0.001625818021747859</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002310547516835876</v>
+        <v>0.006545288380856606</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001637213024397667</v>
+        <v>0.001594899113669079</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.006283306200081606</v>
+        <v>0.01116205903423728</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001494906451003778</v>
+        <v>0.001594362716078982</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01186584598539508</v>
+        <v>0.002581752322028022</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001628775385154902</v>
+        <v>0.001625818021747859</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.001709122965577174</v>
+        <v>0.003672329191291859</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.0024223978077254</v>
+        <v>0.002438727032621789</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.00342022375717764</v>
+        <v>0.009934865178162583</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.0024558195365965</v>
+        <v>0.002392348670503618</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.009443905344702269</v>
+        <v>0.01623733082997314</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002242359676505667</v>
+        <v>0.002391544074118473</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01800000000000002</v>
+        <v>0.003672329191291859</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002424056603773588</v>
+        <v>0.002438727032621789</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004782752366918386</v>
+        <v>0.004917833939134836</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003229863743633866</v>
+        <v>0.003251636043495719</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.004570605116865654</v>
+        <v>0.01299999999999998</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003274426048795334</v>
+        <v>0.003092916666666663</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01256436207265474</v>
+        <v>0.02168821580185409</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002989812902007557</v>
+        <v>0.003188725432157964</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0220841709633201</v>
+        <v>0.004917833939134836</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003257550770309803</v>
+        <v>0.003251636043495719</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004240147730091179</v>
+        <v>0.007851249999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0059406623188668</v>
+        <v>0.011</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.0059406623188668</v>
+        <v>0.00620961212036638</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004240147730091179</v>
+        <v>0.004064545054369648</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.005740019194447686</v>
+        <v>0.01596998425203308</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004093032560994167</v>
+        <v>0.003987247784172696</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01550509654914817</v>
+        <v>0.0277243026926805</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003737266127509446</v>
+        <v>0.003985906790197455</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02645152959358271</v>
+        <v>0.00620961212036638</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004071938462887254</v>
+        <v>0.004064545054369648</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00453909972093388</v>
+        <v>0.00753900928979595</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.0048447956154508</v>
+        <v>0.004877454065243579</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.01851708189536155</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004996250000000001</v>
+        <v>0.004784697341007236</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01752652893939133</v>
+        <v>0.03399999999999997</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004484719353011334</v>
+        <v>0.00510894736842105</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03155764753991913</v>
+        <v>0.00753900928979595</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004886326155464704</v>
+        <v>0.004877454065243579</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.00527371968854623</v>
+        <v>0.008397371002232951</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005652261551359266</v>
+        <v>0.005690363076117508</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007567728001253979</v>
+        <v>0.0203731518579586</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005730245585391834</v>
+        <v>0.005582146897841775</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02099999999999999</v>
+        <v>0.03506433469320774</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005372311827956986</v>
+        <v>0.005580269506276437</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03484228933121702</v>
+        <v>0.008397371002232951</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005700713848042156</v>
+        <v>0.005690363076117508</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.005946303759135345</v>
+        <v>0.009376042812486857</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006459727487267732</v>
+        <v>0.006503272086991438</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008448104273014984</v>
+        <v>0.02294235786295581</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006548852097590667</v>
+        <v>0.006379596454676314</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02179030405940885</v>
+        <v>0.03942100354236094</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005979625804015114</v>
+        <v>0.006377450864315929</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03904521949636369</v>
+        <v>0.009376042812486857</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006515101540619607</v>
+        <v>0.006503272086991438</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008569716934385616</v>
+        <v>0.01036637027536708</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0072671934231762</v>
+        <v>0.007316181097865367</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009059327462173625</v>
+        <v>0.0248288636334851</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.0073674586097895</v>
+        <v>0.007177046011510853</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02410100044151745</v>
+        <v>0.04247621758256093</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006727079029517003</v>
+        <v>0.007174632222355419</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04270620256424656</v>
+        <v>0.01036637027536708</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007329489233197057</v>
+        <v>0.007316181097865367</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009156824215981421</v>
+        <v>0.011</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008074659359084666</v>
+        <v>0.007851249999999999</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.009912615729120423</v>
+        <v>0.02753683289267797</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008186065121988334</v>
+        <v>0.007974495568345391</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02585072286934337</v>
+        <v>0.04544872476050427</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007474532255018892</v>
+        <v>0.00797181358039491</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04526500306375325</v>
+        <v>0.011</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008143876925774509</v>
+        <v>0.007851249999999999</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.00872049060560718</v>
+        <v>0.01179025287648001</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008882125294993132</v>
+        <v>0.008941999119613226</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01031918723424594</v>
+        <v>0.02987042936366624</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.009004671634187167</v>
+        <v>0.00877194512517993</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02796744405894597</v>
+        <v>0.04875727302288757</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008221985480520782</v>
+        <v>0.008768994938434402</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04966138552377108</v>
+        <v>0.01179025287648001</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00895826461835196</v>
+        <v>0.008941999119613226</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01027358110494728</v>
+        <v>0.01256558358074085</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009689591230901599</v>
+        <v>0.009754908130487157</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01109026013794071</v>
+        <v>0.03123381676958156</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009823278146386</v>
+        <v>0.009569394682014471</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02937913672638481</v>
+        <v>0.05222061031640757</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008969438706022669</v>
+        <v>0.009566176296473891</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05333511447318756</v>
+        <v>0.01256558358074085</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009772652310929409</v>
+        <v>0.009754908130487157</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.008828960715686118</v>
+        <v>0.01319508904827783</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01049705716681006</v>
+        <v>0.01056781714136109</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01163705260059529</v>
+        <v>0.03323115883355571</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01064188465858483</v>
+        <v>0.01036684423884901</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03081377358771928</v>
+        <v>0.05505748458776089</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009716891931524559</v>
+        <v>0.01036335765451338</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05562595444089008</v>
+        <v>0.01319508904827783</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01058704000350686</v>
+        <v>0.01056781714136109</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01139949443950809</v>
+        <v>0.01378568833246298</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01130452310271853</v>
+        <v>0.01138072615223502</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01197078278260019</v>
+        <v>0.03546661927872027</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01146049117078367</v>
+        <v>0.01116429379568355</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03139932735900888</v>
+        <v>0.0576866437836443</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01046434515702645</v>
+        <v>0.01116053901255287</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05937366995576615</v>
+        <v>0.01378568833246298</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01140142769608431</v>
+        <v>0.01138072615223502</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.00999804727809759</v>
+        <v>0.01434430048666827</v>
       </c>
       <c r="G80" t="n">
-        <v>0.012111989038627</v>
+        <v>0.01219363516310895</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01270266884434602</v>
+        <v>0.03784436182820708</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0122790976829825</v>
+        <v>0.01196174335251809</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03366377075631313</v>
+        <v>0.06032683585075432</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01121179838252834</v>
+        <v>0.01195772037059237</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06341802554670306</v>
+        <v>0.01434430048666827</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01221581538866176</v>
+        <v>0.01219363516310895</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01247539086962028</v>
+        <v>0.01477784456426573</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01272044319027354</v>
+        <v>0.01300654417398288</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01324392894622327</v>
+        <v>0.03956855020514782</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01309770419518133</v>
+        <v>0.01275919290935263</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03453507649569149</v>
+        <v>0.06259680873578749</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01195925160803023</v>
+        <v>0.01275490172863186</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06689878574258845</v>
+        <v>0.01477784456426573</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01303020308123921</v>
+        <v>0.01300654417398288</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01135300466593</v>
+        <v>0.01539323961862735</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01372692091044393</v>
+        <v>0.0138194531848568</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0138057812486225</v>
+        <v>0.04104334813267413</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01391631070738017</v>
+        <v>0.01355664246618717</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03644121729320332</v>
+        <v>0.06571531038544082</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01270670483353212</v>
+        <v>0.01355208308667135</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07179585918496967</v>
+        <v>0.01539323961862735</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01381247830007334</v>
+        <v>0.0138194531848568</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01413916011828483</v>
+        <v>0.01589740470312516</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0145343868463524</v>
+        <v>0.01463236219573073</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01439944391193428</v>
+        <v>0.04317291933391776</v>
       </c>
       <c r="K83" t="n">
-        <v>0.014734917219579</v>
+        <v>0.01435409202302171</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03781016586490826</v>
+        <v>0.06800108874641064</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01345415805903401</v>
+        <v>0.01434926444471084</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07561629856908458</v>
+        <v>0.01589740470312516</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01465897846639411</v>
+        <v>0.01463236219573073</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01398161281110869</v>
+        <v>0.01619725887113113</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01534185278226087</v>
+        <v>0.01544527120660466</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0147361350965491</v>
+        <v>0.04554730982405192</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01555352373177783</v>
+        <v>0.01548066304138907</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03896989492686562</v>
+        <v>0.07179585918496967</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01420161128453589</v>
+        <v>0.01541181789271342</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07997351931202806</v>
+        <v>0.01619725887113113</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01547336615897157</v>
+        <v>0.01544527120660466</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01486486459477879</v>
+        <v>0.01669972117601728</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01614931871816933</v>
+        <v>0.01625818021747859</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01552707296285755</v>
+        <v>0.04562463526608743</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01637213024397667</v>
+        <v>0.01594899113669078</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04054837719513502</v>
+        <v>0.07256070716091506</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01494906451003778</v>
+        <v>0.01594362716078982</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0858141266962929</v>
+        <v>0.01669972117601728</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01628775385154902</v>
+        <v>0.01625818021747859</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01477341731967236</v>
+        <v>0.01741171067115563</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0169567846540778</v>
+        <v>0.01707108922835252</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01628347567125017</v>
+        <v>0.04751294683194029</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0171907367561755</v>
+        <v>0.01674644069352533</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04247358538577578</v>
+        <v>0.07560743562461641</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01569651773553967</v>
+        <v>0.01674080851882931</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09082456023433516</v>
+        <v>0.01741171067115563</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01710214154412647</v>
+        <v>0.01707108922835252</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01569177283616659</v>
+        <v>0.0178401464099182</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01776425058998626</v>
+        <v>0.01788399823922645</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01711656138211749</v>
+        <v>0.04992771337116952</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01800934326837433</v>
+        <v>0.01754389025035986</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04554730982405192</v>
+        <v>0.07830851751360979</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01664587423805277</v>
+        <v>0.0175379898768688</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09699125943861092</v>
+        <v>0.0178401464099182</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01791652923670392</v>
+        <v>0.01788399823922645</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01860443299463871</v>
+        <v>0.01849194744567693</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01857171652589473</v>
+        <v>0.01869690725010038</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01793754825585007</v>
+        <v>0.05156430817258453</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01882794978057317</v>
+        <v>0.0183413398071944</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0465095136694437</v>
+        <v>0.08045610325468822</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01719142418654345</v>
+        <v>0.01833517123490829</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1026006638215762</v>
+        <v>0.01849194744567693</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01873091692928137</v>
+        <v>0.01869690725010038</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01949589964546593</v>
+        <v>0.01929876046313414</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0193791824618032</v>
+        <v>0.01967784325794571</v>
       </c>
       <c r="J89" t="n">
+        <v>0.05261810452499471</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.01913878936402894</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0831423432746447</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.01913235259294778</v>
+      </c>
+      <c r="N89" t="n">
         <v>0.01929876046313414</v>
       </c>
-      <c r="K89" t="n">
+      <c r="O89" t="n">
         <v>0.01967784325794571</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.05007757859076079</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.01793887741204534</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.108139212895687</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.01954530462185882</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01835067463902546</v>
+        <v>0.01949672585954826</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02018664839771166</v>
+        <v>0.02032272527184824</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02069335862989678</v>
+        <v>0.05428447571720951</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02046516280497084</v>
+        <v>0.01993623892086348</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05326289234866843</v>
+        <v>0.0863593880002726</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01868633063754723</v>
+        <v>0.01992953395098728</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1132933461733995</v>
+        <v>0.01949672585954826</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02035969231443627</v>
+        <v>0.02032272527184824</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02115325982569453</v>
+        <v>0.02016772513713896</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02099411433362013</v>
+        <v>0.02113563428272217</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02266681511818759</v>
+        <v>0.05605879503803846</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02128376931716967</v>
+        <v>0.02073368847769802</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05673040034799895</v>
+        <v>0.08859938785836469</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01943378386304912</v>
+        <v>0.02072671530902677</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1189495031671697</v>
+        <v>0.02016772513713896</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02117408000701372</v>
+        <v>0.02113563428272217</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02188815705585033</v>
+        <v>0.02108231834568178</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0218015802695286</v>
+        <v>0.0219485432935961</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02506632655742044</v>
+        <v>0.05783643577629088</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0221023758293685</v>
+        <v>0.02153113803453256</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06094504799358491</v>
+        <v>0.09175449327571422</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02018123708855101</v>
+        <v>0.02152389666706626</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1231941233894536</v>
+        <v>0.02108231834568178</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02198846769959117</v>
+        <v>0.0219485432935961</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02153986817987011</v>
+        <v>0.02183547698191136</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02260904620543706</v>
+        <v>0.02276145230447003</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02767965913229058</v>
+        <v>0.0602127712207762</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02292098234156734</v>
+        <v>0.0223285875913671</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06587178069025862</v>
+        <v>0.09491685467911426</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02092869031405289</v>
+        <v>0.02232107802510575</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1282136463527074</v>
+        <v>0.02183547698191136</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02280285539216862</v>
+        <v>0.02276145230447003</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02209289504813106</v>
+        <v>0.02252217254256243</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02341651214134553</v>
+        <v>0.02357436131534396</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03069457902749317</v>
+        <v>0.06148317466030392</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02373958885376617</v>
+        <v>0.02312603714820164</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07017554384285246</v>
+        <v>0.09647862249535771</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02167614353955478</v>
+        <v>0.02311825938314524</v>
       </c>
       <c r="N94" t="n">
-        <v>0.131794511569387</v>
+        <v>0.02252217254256243</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02361724308474607</v>
+        <v>0.02357436131534396</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02253173951101037</v>
+        <v>0.02333737652436968</v>
       </c>
       <c r="G95" t="n">
-        <v>0.024223978077254</v>
+        <v>0.02438727032621789</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03289885242772349</v>
+        <v>0.06364301938368339</v>
       </c>
       <c r="K95" t="n">
-        <v>0.024558195365965</v>
+        <v>0.02392348670503618</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07332128285619893</v>
+        <v>0.09933194715123789</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02242359676505667</v>
+        <v>0.02391544074118473</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1335231585519486</v>
+        <v>0.02333737652436968</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02443163077732352</v>
+        <v>0.02438727032621789</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02184090341888531</v>
+        <v>0.0242760604240678</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02503144401316246</v>
+        <v>0.02520017933709182</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03528024551767671</v>
+        <v>0.06578767867972407</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02537680187816383</v>
+        <v>0.02472093626187071</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07727394313513039</v>
+        <v>0.1031689790735477</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02317104999055856</v>
+        <v>0.02471262209922422</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1354860268128482</v>
+        <v>0.0242760604240678</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02524601846990098</v>
+        <v>0.02520017933709182</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02200488862213305</v>
+        <v>0.02503319573839143</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02583890994907093</v>
+        <v>0.02601308834796575</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03672652448204806</v>
+        <v>0.06661252583723537</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02619540839036267</v>
+        <v>0.02551838581870526</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0804984700844793</v>
+        <v>0.1055818686890803</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02391850321606045</v>
+        <v>0.02550980345726371</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1375695558645418</v>
+        <v>0.02503319573839143</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02606040616247843</v>
+        <v>0.02601308834796575</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02302047729479753</v>
+        <v>0.02580375396407533</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0266463758849794</v>
+        <v>0.02682599735883968</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03702545550553279</v>
+        <v>0.06881293414502676</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0270140149025615</v>
+        <v>0.0263158353755398</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08395980910907797</v>
+        <v>0.1080627664246288</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02466595644156234</v>
+        <v>0.0263069848153032</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1375678036552399</v>
+        <v>0.02580375396407533</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02687479385505588</v>
+        <v>0.02682599735883968</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02396138996579567</v>
+        <v>0.02668270659785416</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02745384182088786</v>
+        <v>0.02763890636971361</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03699968475916048</v>
+        <v>0.07038427689190765</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02783262141476034</v>
+        <v>0.02711328493237433</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08582290561375891</v>
+        <v>0.1110038227069863</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02541340966706423</v>
+        <v>0.02710416617334269</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1372022708415471</v>
+        <v>0.02668270659785416</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02768918154763333</v>
+        <v>0.02763890636971361</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02384839156046675</v>
+        <v>0.02776502513646259</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02826130775679633</v>
+        <v>0.02845181538058754</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03719810623973736</v>
+        <v>0.07192192736668745</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02865122792695917</v>
+        <v>0.02791073448920887</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0872527050033545</v>
+        <v>0.1137971879629457</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02616086289256612</v>
+        <v>0.02790134753138219</v>
       </c>
       <c r="N100" t="n">
-        <v>0.134892021459829</v>
+        <v>0.02776502513646259</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02850356924021078</v>
+        <v>0.02845181538058754</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02168845666473078</v>
+        <v>0.02864568107663532</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0290687736927048</v>
+        <v>0.02926472439146147</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03673348239469766</v>
+        <v>0.07362125885817561</v>
       </c>
       <c r="K101" t="n">
-        <v>0.029469834439158</v>
+        <v>0.02870818404604341</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08704322657110905</v>
+        <v>0.1157350126193002</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02690831611806801</v>
+        <v>0.02869852888942168</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1342099478155249</v>
+        <v>0.02864568107663532</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02931795693278823</v>
+        <v>0.02926472439146147</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02148855986450783</v>
+        <v>0.02951964591510708</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02987623962861326</v>
+        <v>0.0300776334023354</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03681382956633675</v>
+        <v>0.07567764465518151</v>
       </c>
       <c r="K102" t="n">
-        <v>0.03028844095135684</v>
+        <v>0.02950563360287795</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0866537569334816</v>
+        <v>0.117609447102843</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0276557693435699</v>
+        <v>0.02949571024746117</v>
       </c>
       <c r="N102" t="n">
-        <v>0.132428942214074</v>
+        <v>0.02951964591510708</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03013234462536568</v>
+        <v>0.0300776334023354</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02125567574571792</v>
+        <v>0.03048189114861252</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03068370556452173</v>
+        <v>0.03089054241320933</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03654716409695011</v>
+        <v>0.07638645804651467</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03110704746355566</v>
+        <v>0.03030308315971249</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08705233354711264</v>
+        <v>0.120712641840367</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02840322256907179</v>
+        <v>0.03029289160550066</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1312218969609157</v>
+        <v>0.03048189114861252</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03094673231794313</v>
+        <v>0.03089054241320933</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0229967788942811</v>
+        <v>0.03102738827388633</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0314911715004302</v>
+        <v>0.03170345142408326</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03604150232883312</v>
+        <v>0.07804307232098442</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0319256539757545</v>
+        <v>0.03110053271654703</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08634864548143828</v>
+        <v>0.1234367472586653</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02915067579457368</v>
+        <v>0.03109007296354015</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1287617043614891</v>
+        <v>0.03102738827388633</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03176112001052058</v>
+        <v>0.03170345142408326</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0217188438961174</v>
+        <v>0.03185110878766323</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03229863743633866</v>
+        <v>0.03251636043495718</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03560486060428124</v>
+        <v>0.07984286076740019</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03274426048795333</v>
+        <v>0.03189798227338157</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08595238180589471</v>
+        <v>0.124873913784531</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02989812902007557</v>
+        <v>0.03188725432157964</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1259212567212335</v>
+        <v>0.03185110878766323</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03257550770309803</v>
+        <v>0.03251636043495718</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02042884533714685</v>
+        <v>0.03294802418667786</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03310610337224713</v>
+        <v>0.03332926944583112</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03554525526558988</v>
+        <v>0.08068119667457149</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03356286700015217</v>
+        <v>0.03269543183021611</v>
       </c>
       <c r="L106" t="n">
-        <v>0.086073231589918</v>
+        <v>0.1278162918447572</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03064558224557746</v>
+        <v>0.03268443567961913</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1241734463455881</v>
+        <v>0.03294802418667786</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03338989539567548</v>
+        <v>0.03332926944583112</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02113375780328949</v>
+        <v>0.03351310596766495</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0339135693081556</v>
+        <v>0.03414217845670504</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03507070265505446</v>
+        <v>0.08235345333130772</v>
       </c>
       <c r="K107" t="n">
-        <v>0.034381473512351</v>
+        <v>0.03349288138705065</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08562088390294426</v>
+        <v>0.1298560318661371</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03139303547107935</v>
+        <v>0.03348161703765862</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1217911655399923</v>
+        <v>0.03351310596766495</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03420428308825293</v>
+        <v>0.03414217845670504</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02084055588046536</v>
+        <v>0.03414132562735918</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03472103524406406</v>
+        <v>0.03495508746757897</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03448921911497042</v>
+        <v>0.08305500402641827</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03520008002454984</v>
+        <v>0.03429033094388519</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08430502781440968</v>
+        <v>0.1313852842754635</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03214048869658124</v>
+        <v>0.03427879839569812</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1208473066098851</v>
+        <v>0.03414132562735918</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03501867078083038</v>
+        <v>0.03495508746757897</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02055621415459451</v>
+        <v>0.03482765466249525</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03552850117997253</v>
+        <v>0.03576799647845291</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0341088209876332</v>
+        <v>0.0848812220487126</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03601868653674867</v>
+        <v>0.03508778050071972</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08343535239375036</v>
+        <v>0.1322961994995297</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03288794192208313</v>
+        <v>0.03507597975373761</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1180147618607061</v>
+        <v>0.03482765466249525</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03583305847340784</v>
+        <v>0.03576799647845291</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02128770721159695</v>
+        <v>0.03566706456980782</v>
       </c>
       <c r="G110" t="n">
-        <v>0.036335967115881</v>
+        <v>0.03658090548932683</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03383752461533818</v>
+        <v>0.08572748068700009</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03683729304894751</v>
+        <v>0.03588523005755426</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08362154671040242</v>
+        <v>0.1351809279651288</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03363539514758501</v>
+        <v>0.0358731611117771</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1176664235978943</v>
+        <v>0.03566706456980782</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03664744616598529</v>
+        <v>0.03658090548932683</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02004200963739273</v>
+        <v>0.03635452684603162</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03714343305178947</v>
+        <v>0.03739381450020076</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03358334634038082</v>
+        <v>0.08668915323009027</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03765589956114633</v>
+        <v>0.03668267961438881</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08197329983380197</v>
+        <v>0.1360316200990536</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0343828483730869</v>
+        <v>0.03667034246981658</v>
       </c>
       <c r="N111" t="n">
-        <v>0.116475184126889</v>
+        <v>0.03635452684603162</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03746183385856274</v>
+        <v>0.03739381450020076</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0208260960179019</v>
+        <v>0.03658501298790133</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03795089898769793</v>
+        <v>0.03820672351107469</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03315430250505655</v>
+        <v>0.0873616129667924</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03847450607334517</v>
+        <v>0.03748012917122334</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0814003008333852</v>
+        <v>0.1380404263280974</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03513030159858879</v>
+        <v>0.03746752382785608</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1153139357531294</v>
+        <v>0.03658501298790133</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03827622155114019</v>
+        <v>0.03820672351107469</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01864694093904447</v>
+        <v>0.03725349449215158</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0387583649236064</v>
+        <v>0.03901963252194863</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03305840945166078</v>
+        <v>0.08804023318591614</v>
       </c>
       <c r="K113" t="n">
-        <v>0.039293112585544</v>
+        <v>0.03827757872805788</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08071223877858819</v>
+        <v>0.1383994970790534</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03587775482409068</v>
+        <v>0.03826470518589557</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1151470563017294</v>
+        <v>0.03725349449215158</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03909060924371763</v>
+        <v>0.03901963252194863</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01851151898674051</v>
+        <v>0.03765494285551715</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03956583085951487</v>
+        <v>0.03983254153282256</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03280368352248893</v>
+        <v>0.08882038717627069</v>
       </c>
       <c r="K114" t="n">
-        <v>0.04011171909774283</v>
+        <v>0.03907502828489242</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07971880273884704</v>
+        <v>0.1404009827787144</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03662520804959257</v>
+        <v>0.03906188654393506</v>
       </c>
       <c r="N114" t="n">
-        <v>0.115262284589997</v>
+        <v>0.03765494285551715</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03990499693629509</v>
+        <v>0.03983254153282256</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02042680474691003</v>
+        <v>0.03788432957473267</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04037329679542333</v>
+        <v>0.04064545054369648</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03229814105983646</v>
+        <v>0.08949744822666561</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04093032560994167</v>
+        <v>0.03987247784172696</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07932968178359792</v>
+        <v>0.1415370338538736</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03737266127509446</v>
+        <v>0.03985906790197456</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1148324559623792</v>
+        <v>0.03788432957473267</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04071938462887254</v>
+        <v>0.04064545054369648</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01839972996850505</v>
+        <v>0.03813662614653286</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0411807627313318</v>
+        <v>0.04145835955457042</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03214979840599876</v>
+        <v>0.09016678962591027</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0417489321221405</v>
+        <v>0.0406699273985615</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07875456498227695</v>
+        <v>0.1421998007313241</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03812011450059635</v>
+        <v>0.04065624926001404</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1165473203701218</v>
+        <v>0.03813662614653286</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04153377232145</v>
+        <v>0.04145835955457042</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0204236391589237</v>
+        <v>0.03820680406765242</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04198822866724026</v>
+        <v>0.04227126856544434</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03226667190327125</v>
+        <v>0.09032378466281413</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04256753863433933</v>
+        <v>0.04146737695539604</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07740314140432025</v>
+        <v>0.1418814338378591</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03886756772609824</v>
+        <v>0.04145343061805353</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1157966277644705</v>
+        <v>0.03820680406765242</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04234816001402744</v>
+        <v>0.04227126856544434</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02048745894568186</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04279569460314873</v>
+        <v>0.04308417757631827</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03205645981851497</v>
+        <v>0.09076380662618658</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04338614514653817</v>
+        <v>0.04226482651223058</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07678510011916392</v>
+        <v>0.1429740836002713</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03961502095160013</v>
+        <v>0.04225061197609302</v>
       </c>
       <c r="N118" t="n">
-        <v>0.116570128096671</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0431625477066049</v>
+        <v>0.04308417757631827</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02058770241594086</v>
+        <v>0.03829484975137869</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0436031605390572</v>
+        <v>0.04389708658719221</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03241913123373892</v>
+        <v>0.09109461964810381</v>
       </c>
       <c r="K119" t="n">
-        <v>0.044204751658737</v>
+        <v>0.04306227606906512</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07631013019624414</v>
+        <v>0.1435917183699393</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04036247417710202</v>
+        <v>0.04304779333413251</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1186575713179694</v>
+        <v>0.03829484975137869</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04397693539918234</v>
+        <v>0.04389708658719221</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02072088265686203</v>
+        <v>0.03827860913725918</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04441062647496566</v>
+        <v>0.04470999559806613</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03224796706456859</v>
+        <v>0.09048818551484136</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04502335817093583</v>
+        <v>0.04385972562589966</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07568792070499702</v>
+        <v>0.1429892221363724</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04110992740260391</v>
+        <v>0.04384497469217201</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1191487073796111</v>
+        <v>0.03827860913725918</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0447913230917598</v>
+        <v>0.04470999559806613</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02088351275560673</v>
+        <v>0.03834824450302135</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04521809241087413</v>
+        <v>0.04552290460894006</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0325361998309148</v>
+        <v>0.09014538800022157</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04584196468313467</v>
+        <v>0.0446571751827342</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07522816071485866</v>
+        <v>0.1421715375962063</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04185738062810579</v>
+        <v>0.0446421560502115</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1204332862328422</v>
+        <v>0.03834824450302135</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04560571078433725</v>
+        <v>0.04552290460894006</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01907210579933628</v>
+        <v>0.0384044623056803</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04602555834678259</v>
+        <v>0.046335813619814</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03267706205268846</v>
+        <v>0.09056409695302101</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0466605711953335</v>
+        <v>0.04545462473956874</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0742405392952652</v>
+        <v>0.1426370485780829</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04260483385360768</v>
+        <v>0.04543933740825099</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1214010578289082</v>
+        <v>0.0384044623056803</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0464200984769147</v>
+        <v>0.046335813619814</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01928317487521201</v>
+        <v>0.0383479690022511</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04683302428269107</v>
+        <v>0.04714872263068792</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03326378624980035</v>
+        <v>0.09034624003971392</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04747917770753234</v>
+        <v>0.04625207429640327</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07393474551565279</v>
+        <v>0.1422859429111178</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04335228707910957</v>
+        <v>0.04623651876629048</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1221417721190551</v>
+        <v>0.0383479690022511</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04723448616949215</v>
+        <v>0.04714872263068792</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01951323307039528</v>
+        <v>0.03827947104974881</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04764049021859953</v>
+        <v>0.04796163164156185</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0335896049421614</v>
+        <v>0.08979374492677453</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04829778421973117</v>
+        <v>0.04704952385323782</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07382046844545753</v>
+        <v>0.1433184084244265</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04409974030461146</v>
+        <v>0.04703370012432997</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1233451790545286</v>
+        <v>0.03827947104974881</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0480488738620696</v>
+        <v>0.04796163164156185</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01975879347204744</v>
+        <v>0.03809967490518855</v>
       </c>
       <c r="G125" t="n">
-        <v>0.048447956154508</v>
+        <v>0.04877454065243578</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03384775064968241</v>
+        <v>0.09030853928067717</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04911639073193</v>
+        <v>0.04784697341007236</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07410739715411557</v>
+        <v>0.1426346329471245</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04484719353011335</v>
+        <v>0.04783088148236946</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1241010285865744</v>
+        <v>0.03809967490518855</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04886326155464705</v>
+        <v>0.04877454065243578</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0220163691673298</v>
+        <v>0.03810928702558539</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04925542209041647</v>
+        <v>0.04958744966330971</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03423145589227429</v>
+        <v>0.08979255076789605</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04993499724412884</v>
+        <v>0.04864442296690689</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07390522071106295</v>
+        <v>0.1419348043083273</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04559464675561524</v>
+        <v>0.04862806284040895</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1258990706664385</v>
+        <v>0.03810928702558539</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0496776492472245</v>
+        <v>0.04958744966330971</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0212824732434037</v>
+        <v>0.0381090138679544</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05006288802632493</v>
+        <v>0.05040035867418364</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03453395318984785</v>
+        <v>0.08954770705490545</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05075360375632767</v>
+        <v>0.04944187252374143</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0740458373874413</v>
+        <v>0.1420191103371505</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04634209998111713</v>
+        <v>0.04942524419844845</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1267290552453665</v>
+        <v>0.0381090138679544</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05049203693980196</v>
+        <v>0.05040035867418364</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02155361878743049</v>
+        <v>0.03769956188931069</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0508703539622334</v>
+        <v>0.05121326768505757</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03514847506231397</v>
+        <v>0.08897593580817961</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0515722102685265</v>
+        <v>0.05023932208057597</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07350221579485977</v>
+        <v>0.1417877388627096</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04708955320661902</v>
+        <v>0.05022242555648793</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1281807322746041</v>
+        <v>0.03769956188931069</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0513064246323794</v>
+        <v>0.05121326768505757</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02082631888657151</v>
+        <v>0.0378816375466693</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05167781989814186</v>
+        <v>0.0520261766959315</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03526825402958352</v>
+        <v>0.08897916469419279</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05239081678072534</v>
+        <v>0.05103677163741051</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07455881123354943</v>
+        <v>0.1415408777141201</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04783700643212091</v>
+        <v>0.05101960691452743</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1292438517053973</v>
+        <v>0.0378816375466693</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05212081232495686</v>
+        <v>0.0520261766959315</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02209708662798809</v>
+        <v>0.03775594729704537</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05248528583405033</v>
+        <v>0.05283908570680543</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03568652261156732</v>
+        <v>0.08865932137941929</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05320942329292416</v>
+        <v>0.05183422119424505</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07469262337738042</v>
+        <v>0.1421787147204975</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04858445965762279</v>
+        <v>0.05181678827256692</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1305081634889919</v>
+        <v>0.03775594729704537</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0529352000175343</v>
+        <v>0.05283908570680543</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02336243509884157</v>
+        <v>0.03742319759745394</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0532927517699588</v>
+        <v>0.05365199471767936</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03629651332817624</v>
+        <v>0.08841833353033335</v>
       </c>
       <c r="K131" t="n">
-        <v>0.054028029805123</v>
+        <v>0.05263167075107959</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07618065190022302</v>
+        <v>0.1417014377109573</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04933191288312468</v>
+        <v>0.0526139696306064</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1319634175766335</v>
+        <v>0.03742319759745394</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05374958771011176</v>
+        <v>0.05365199471767936</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02261887738629331</v>
+        <v>0.03728409490491011</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05410021770586727</v>
+        <v>0.05446490372855329</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03679145869932114</v>
+        <v>0.0876581288134092</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05484663631732184</v>
+        <v>0.05342912030791413</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07679989647594745</v>
+        <v>0.1416092345146153</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05007936610862657</v>
+        <v>0.05341115098864589</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1341993639195679</v>
+        <v>0.03728409490491011</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0545639754026892</v>
+        <v>0.05446490372855329</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02186292657750462</v>
+        <v>0.03723934567642896</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05490768364177573</v>
+        <v>0.05527781273942722</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0368645912449129</v>
+        <v>0.08718063489512115</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05566524282952067</v>
+        <v>0.05422656986474866</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07742735677842408</v>
+        <v>0.1416022929605867</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05082681933412846</v>
+        <v>0.05420833234668539</v>
       </c>
       <c r="N133" t="n">
-        <v>0.135305752469041</v>
+        <v>0.03723934567642896</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05537836309526666</v>
+        <v>0.05527781273942722</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02409109575963685</v>
+        <v>0.03708965636902557</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0557151495776842</v>
+        <v>0.05609072175030114</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03740914348486232</v>
+        <v>0.08728777944194341</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05648384934171951</v>
+        <v>0.05502401942158321</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07844003248152295</v>
+        <v>0.1416808008779871</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05157427255963035</v>
+        <v>0.05500551370472488</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1362723331762984</v>
+        <v>0.03708965636902557</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0561927507878441</v>
+        <v>0.05609072175030114</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02329989801985134</v>
+        <v>0.03703573343971504</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05652261551359267</v>
+        <v>0.05690363076117508</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03781834793908033</v>
+        <v>0.0867814901203503</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05730245585391833</v>
+        <v>0.05582146897841774</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07961492325911451</v>
+        <v>0.1412449460959321</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05232172578513224</v>
+        <v>0.05580269506276438</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1370888559925862</v>
+        <v>0.03703573343971504</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05700713848042156</v>
+        <v>0.05690363076117508</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02248584644530942</v>
+        <v>0.03657828334551246</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05733008144950113</v>
+        <v>0.05771653977204901</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03808543712747771</v>
+        <v>0.08606369459681606</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05812106236611717</v>
+        <v>0.05661891853525229</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08172902878506888</v>
+        <v>0.1407949164435372</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05306917901063413</v>
+        <v>0.05659987642080386</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1390450708691499</v>
+        <v>0.03657828334551246</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05782152617299902</v>
+        <v>0.05771653977204901</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02364545412317244</v>
+        <v>0.03641801254343287</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0581375473854096</v>
+        <v>0.05852944878292293</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03830364356996538</v>
+        <v>0.0855363205378149</v>
       </c>
       <c r="K137" t="n">
-        <v>0.058939668878316</v>
+        <v>0.05741636809208683</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08275934873325633</v>
+        <v>0.1402308997499179</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05381663223613602</v>
+        <v>0.05739705777884335</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1406307277572353</v>
+        <v>0.03641801254343287</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05863591386557646</v>
+        <v>0.05852944878292293</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02377523414060173</v>
+        <v>0.03655562749049138</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05894501332131806</v>
+        <v>0.05934235779379687</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03826619978645415</v>
+        <v>0.08550129560982117</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05975827539051484</v>
+        <v>0.05821381764892136</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08388288277754713</v>
+        <v>0.1399530838441897</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05456408546163791</v>
+        <v>0.05819423913688284</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1409355766080883</v>
+        <v>0.03655562749049138</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05945030155815392</v>
+        <v>0.05934235779379687</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02287169958475864</v>
+        <v>0.03629183464370309</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05975247925722653</v>
+        <v>0.06015526680467079</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03859752092626828</v>
+        <v>0.08486054747930905</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06057688190271367</v>
+        <v>0.0590112672057559</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08447663059181151</v>
+        <v>0.1398616565554682</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0553115386871398</v>
+        <v>0.05899142049492234</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1419493673729546</v>
+        <v>0.03629183464370309</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06026468925073136</v>
+        <v>0.06015526680467079</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02495078173924056</v>
+        <v>0.03612734046008304</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06055994519313499</v>
+        <v>0.06096817581554472</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0383975027708604</v>
+        <v>0.08501600381275284</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06139548841491251</v>
+        <v>0.05980871676259044</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08591759184991973</v>
+        <v>0.1388568057128689</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05605899191264169</v>
+        <v>0.05978860185296183</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1435917183699393</v>
+        <v>0.03612734046008304</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06107907694330881</v>
+        <v>0.06096817581554472</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02395077946992336</v>
+        <v>0.03586285139664634</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06136741112904346</v>
+        <v>0.06178108482641866</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03839409201788384</v>
+        <v>0.08446959227662681</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06221409492711133</v>
+        <v>0.06060616631942498</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08708276622574201</v>
+        <v>0.1391387191455074</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05680644513814358</v>
+        <v>0.06058578321100132</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1429931498365007</v>
+        <v>0.03586285139664634</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06189346463588627</v>
+        <v>0.06178108482641866</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0239495262776445</v>
+        <v>0.03559907391040809</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06217487706495193</v>
+        <v>0.06259399383729258</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03838495811849166</v>
+        <v>0.08362324053740522</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06303270143931017</v>
+        <v>0.06140361587625952</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08844915339314866</v>
+        <v>0.1385075846824991</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05755389836364546</v>
+        <v>0.06138296456904081</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1436282959964431</v>
+        <v>0.03559907391040809</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06270785232846371</v>
+        <v>0.06259399383729258</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02394601510733409</v>
+        <v>0.03553671445838334</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06298234300086039</v>
+        <v>0.06340690284816651</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03847035074882554</v>
+        <v>0.08347887626156228</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06385130795150901</v>
+        <v>0.06220106543309406</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0885937530260098</v>
+        <v>0.1380635901529595</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05830135158914736</v>
+        <v>0.0621801459270803</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1455716825435676</v>
+        <v>0.03553671445838334</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06352224002104116</v>
+        <v>0.06340690284816651</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02494031049689022</v>
+        <v>0.03537647949758721</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06378980893676886</v>
+        <v>0.06421981185904044</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03825051958502716</v>
+        <v>0.08303842711557233</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06466991446370784</v>
+        <v>0.0629985149899286</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08979356479819581</v>
+        <v>0.1377069233860043</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05904880481464924</v>
+        <v>0.06297732728511979</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1454216972377085</v>
+        <v>0.03537647949758721</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06433662771361862</v>
+        <v>0.06421981185904044</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02493247698421093</v>
+        <v>0.03531907548503475</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06459727487267733</v>
+        <v>0.06503272086991436</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03852571430323817</v>
+        <v>0.08250382076590956</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06548852097590667</v>
+        <v>0.06379596454676313</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08992558838357687</v>
+        <v>0.1371377722107488</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05979625804015114</v>
+        <v>0.06377450864315928</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1457767278387001</v>
+        <v>0.03531907548503475</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06515101540619607</v>
+        <v>0.06503272086991436</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02392257910719435</v>
+        <v>0.03496520887774107</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06540474080858578</v>
+        <v>0.06584562988078831</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03819618457960029</v>
+        <v>0.08237698487904829</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06630712748810549</v>
+        <v>0.06459341410359767</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09109461964810381</v>
+        <v>0.1373563244563087</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06054371126565302</v>
+        <v>0.06457169000119878</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1477351621063768</v>
+        <v>0.03496520887774107</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06596540309877351</v>
+        <v>0.06584562988078831</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02491068140373855</v>
+        <v>0.03491558613272122</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06621220674449425</v>
+        <v>0.06665853889166223</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03816218009025515</v>
+        <v>0.08125984712146275</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06712573400030433</v>
+        <v>0.06539086366043222</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09019426968940508</v>
+        <v>0.1370627679517995</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06129116449115492</v>
+        <v>0.06536887135923826</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1477953878005728</v>
+        <v>0.03491558613272122</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06677979079135096</v>
+        <v>0.06665853889166223</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02389684841174156</v>
+        <v>0.0348709137069903</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06701967268040272</v>
+        <v>0.06747144790253616</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03812395051134446</v>
+        <v>0.08165433515962717</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06794434051250317</v>
+        <v>0.06618831321726676</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09068583134394445</v>
+        <v>0.1365572905263366</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0620386177166568</v>
+        <v>0.06616605271727775</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1482557926811226</v>
+        <v>0.0348709137069903</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06759417848392842</v>
+        <v>0.06747144790253616</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02488114466910149</v>
+        <v>0.03453189805756342</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06782713861631119</v>
+        <v>0.06828435691341009</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03808174551900986</v>
+        <v>0.08126237666001587</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06876294702470201</v>
+        <v>0.0669857627741013</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09075799844910587</v>
+        <v>0.1367400800090358</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0627860709421587</v>
+        <v>0.06696323407531725</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1500147645078604</v>
+        <v>0.03453189805756342</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06840856617650587</v>
+        <v>0.06828435691341009</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02286363471371643</v>
+        <v>0.03469924564145563</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06863460455221966</v>
+        <v>0.06909726592428402</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03803581478939304</v>
+        <v>0.08038520414813111</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06958155353690083</v>
+        <v>0.06778321233093583</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09021200809301488</v>
+        <v>0.1361113242290123</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06353352416766057</v>
+        <v>0.06776041543335674</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1494706910406206</v>
+        <v>0.03469924564145563</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06922295386908332</v>
+        <v>0.06909726592428402</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02484438308348441</v>
+        <v>0.0344724629089692</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06944207048812812</v>
+        <v>0.06991017493515794</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03818640799863567</v>
+        <v>0.08031587155719275</v>
       </c>
       <c r="K151" t="n">
-        <v>0.07040016004909967</v>
+        <v>0.06858066188777037</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09024877679743085</v>
+        <v>0.1346712110153818</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06428097739316248</v>
+        <v>0.06855759679139624</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1516219600392374</v>
+        <v>0.0344724629089692</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07003734156166076</v>
+        <v>0.06991017493515794</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02482345431630356</v>
+        <v>0.03444671069473815</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07024953642403658</v>
+        <v>0.07072308394603188</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03803377482287945</v>
+        <v>0.07925170606075452</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0712187665612985</v>
+        <v>0.06937811144460491</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09006922108411311</v>
+        <v>0.1346199281972599</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06502843061866435</v>
+        <v>0.06935477814943572</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1519669592635454</v>
+        <v>0.03444671069473815</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07085172925423822</v>
+        <v>0.07072308394603188</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02380091295007193</v>
+        <v>0.03422135906526001</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07105700235994505</v>
+        <v>0.07153599295690581</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03817816493826602</v>
+        <v>0.07979220261569903</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07203737307349733</v>
+        <v>0.07017556100143944</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09047425747482102</v>
+        <v>0.1345576636037619</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06577588384416626</v>
+        <v>0.07015195950747521</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1523040764733787</v>
+        <v>0.03422135906526001</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07166611694681568</v>
+        <v>0.07153599295690581</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02277682352268759</v>
+        <v>0.03389636668028048</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07186446829585352</v>
+        <v>0.07234890196777974</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03801982802093706</v>
+        <v>0.07923685617890883</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07285597958569617</v>
+        <v>0.070973010558274</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08986480249131396</v>
+        <v>0.1346846050640035</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06652333706966813</v>
+        <v>0.0709491408655147</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1524316994285717</v>
+        <v>0.03389636668028048</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07248050463939312</v>
+        <v>0.07234890196777974</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02375125057204863</v>
+        <v>0.03387169219954517</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07267193423176199</v>
+        <v>0.07316181097865367</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03785901374703426</v>
+        <v>0.07888516170726659</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07367458609789501</v>
+        <v>0.07177046011510853</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08974177265535122</v>
+        <v>0.1339009404071002</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06727079029517002</v>
+        <v>0.07174632222355419</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1533482158889587</v>
+        <v>0.03387169219954517</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07329489233197058</v>
+        <v>0.07316181097865367</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02372425863605314</v>
+        <v>0.03364729428279976</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07347940016767046</v>
+        <v>0.07397471998952759</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03769597179269932</v>
+        <v>0.07843661415765482</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07449319261009384</v>
+        <v>0.07256790967194307</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09000608448869218</v>
+        <v>0.1336068574621674</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06801824352067191</v>
+        <v>0.07254350358159369</v>
       </c>
       <c r="N156" t="n">
-        <v>0.153852013614374</v>
+        <v>0.03364729428279976</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07410928002454802</v>
+        <v>0.07397471998952759</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02469591225259915</v>
+        <v>0.03362313158978987</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07428686610357893</v>
+        <v>0.07478762900040152</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03763095183407385</v>
+        <v>0.0783907084869562</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07531179912229266</v>
+        <v>0.07336535922877761</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0899586545130962</v>
+        <v>0.1331025440583208</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0687656967461738</v>
+        <v>0.07334068493963317</v>
       </c>
       <c r="N157" t="n">
-        <v>0.155741480364652</v>
+        <v>0.03362313158978987</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07492366771712548</v>
+        <v>0.07478762900040152</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0236662759595848</v>
+        <v>0.03359916278026116</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0750943320394874</v>
+        <v>0.07560053801127546</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03766420354729956</v>
+        <v>0.07804693965205328</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0761304056344915</v>
+        <v>0.07416280878561214</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08950039925032263</v>
+        <v>0.1322881880246759</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06951314997167569</v>
+        <v>0.07413786629767266</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1564150038996271</v>
+        <v>0.03359916278026116</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07573805540970292</v>
+        <v>0.07560053801127546</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02463541429490811</v>
+        <v>0.03347534651395928</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07590179797539587</v>
+        <v>0.07641344702214939</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03779597660851812</v>
+        <v>0.07700480260982873</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07694901214669034</v>
+        <v>0.07496025834244668</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0893322352221308</v>
+        <v>0.1314639771903482</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07026060319717758</v>
+        <v>0.07493504765571216</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1562709719791335</v>
+        <v>0.03347534651395928</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07655244310228038</v>
+        <v>0.07641344702214939</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02460339179646719</v>
+        <v>0.03315164145062989</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07670926391130432</v>
+        <v>0.07722635603302332</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0375265206938712</v>
+        <v>0.07646379231716507</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07776761865888918</v>
+        <v>0.07575770789928123</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08915507895028005</v>
+        <v>0.1302300993844531</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07100805642267947</v>
+        <v>0.07573222901375165</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1576077723630055</v>
+        <v>0.03315164145062989</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07736683079485783</v>
+        <v>0.07722635603302332</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02357027300216009</v>
+        <v>0.03322800625001859</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07751672984721279</v>
+        <v>0.07803926504389726</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03735608547950051</v>
+        <v>0.07662340373094495</v>
       </c>
       <c r="K161" t="n">
-        <v>0.078586225171088</v>
+        <v>0.07655515745611577</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08876984695652979</v>
+        <v>0.1296867424361062</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07175550964818135</v>
+        <v>0.07652941037179113</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1572237928110776</v>
+        <v>0.03322800625001859</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07818121848743527</v>
+        <v>0.07803926504389726</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02353612244988491</v>
+        <v>0.03290439957187111</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07832419578312126</v>
+        <v>0.07885217405477118</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03758492064154766</v>
+        <v>0.07578313180805094</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07940483168328684</v>
+        <v>0.07735260701295031</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08887745576263928</v>
+        <v>0.1300340941744231</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07250296287368325</v>
+        <v>0.07732659172983063</v>
       </c>
       <c r="N162" t="n">
-        <v>0.158217421083184</v>
+        <v>0.03290439957187111</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07899560618001274</v>
+        <v>0.07885217405477118</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02350100467753974</v>
+        <v>0.03278078007593303</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07913166171902973</v>
+        <v>0.07966508306564511</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03721327585615437</v>
+        <v>0.07614247150536563</v>
       </c>
       <c r="K163" t="n">
-        <v>0.08022343819548566</v>
+        <v>0.07815005656978484</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08867882189036794</v>
+        <v>0.1290723424285193</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07325041609918513</v>
+        <v>0.07812377308787012</v>
       </c>
       <c r="N163" t="n">
-        <v>0.159587044939159</v>
+        <v>0.03278078007593303</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07980999387259018</v>
+        <v>0.07966508306564511</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02246498422302261</v>
+        <v>0.03295710642195002</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0799391276549382</v>
+        <v>0.08047799207651904</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03714140079946231</v>
+        <v>0.07580091777977169</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0810420447076845</v>
+        <v>0.07894750612661938</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08857486186147506</v>
+        <v>0.1289016750275103</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07399786932468704</v>
+        <v>0.07892095444590962</v>
       </c>
       <c r="N164" t="n">
-        <v>0.160131052138837</v>
+        <v>0.03295710642195002</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08062438156516763</v>
+        <v>0.08047799207651904</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02442812562423165</v>
+        <v>0.03263333726966773</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08074659359084665</v>
+        <v>0.08129090108739297</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03706954514761314</v>
+        <v>0.07535796558815167</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08186065121988334</v>
+        <v>0.07974495568345392</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08806649219772003</v>
+        <v>0.1286222798005117</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07474532255018891</v>
+        <v>0.07971813580394911</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1602478304420524</v>
+        <v>0.03263333726966773</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08143876925774508</v>
+        <v>0.08129090108739297</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02439049341906489</v>
+        <v>0.03240943127883181</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08155405952675512</v>
+        <v>0.08210381009826691</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03699795857674854</v>
+        <v>0.07471310988738813</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08267925773208218</v>
+        <v>0.08054240524028847</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08775462942086226</v>
+        <v>0.1272343445766389</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0754927757756908</v>
+        <v>0.08051531716198859</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1608357676086393</v>
+        <v>0.03240943127883181</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08225315695032254</v>
+        <v>0.08210381009826691</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02235215214542044</v>
+        <v>0.0322853471091879</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08236152546266359</v>
+        <v>0.08291671910914084</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03702689076301016</v>
+        <v>0.07426584563436373</v>
       </c>
       <c r="K167" t="n">
-        <v>0.083497864244281</v>
+        <v>0.08133985479712301</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08774019005266098</v>
+        <v>0.1271380571850075</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07624022900119269</v>
+        <v>0.08131249852002809</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1608932513984323</v>
+        <v>0.0322853471091879</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08306754464289999</v>
+        <v>0.08291671910914084</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02331316634119635</v>
+        <v>0.03236104342048164</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08316899139857206</v>
+        <v>0.08372962812001476</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03695659138253973</v>
+        <v>0.07411566778596104</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08431647075647983</v>
+        <v>0.08213730435395754</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08752409061487559</v>
+        <v>0.125933605454733</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07698768222669458</v>
+        <v>0.08210967987806757</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1615186695712656</v>
+        <v>0.03236104342048164</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08388193233547743</v>
+        <v>0.08372962812001476</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02327360054429072</v>
+        <v>0.03223647887245872</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08397645733448052</v>
+        <v>0.08454253713088869</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03698731011147889</v>
+        <v>0.07336207129906272</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08513507726867867</v>
+        <v>0.08293475391079208</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08700724762926546</v>
+        <v>0.1257211772149309</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07773513545219647</v>
+        <v>0.08290686123610706</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1624104098869735</v>
+        <v>0.03223647887245872</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08469632002805488</v>
+        <v>0.08454253713088869</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02323351929260162</v>
+        <v>0.03221161212486476</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08478392327038899</v>
+        <v>0.08535544614176262</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03701929662596933</v>
+        <v>0.07310455113055131</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0859536837808775</v>
+        <v>0.08373220346762662</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08689057761758992</v>
+        <v>0.1245009602947167</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07848258867769836</v>
+        <v>0.08370404259414656</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1628668601053903</v>
+        <v>0.03221161212486476</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08551070772063234</v>
+        <v>0.08535544614176262</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02419298712402711</v>
+        <v>0.03208640183744541</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08559138920629746</v>
+        <v>0.08616835515263654</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03685280060215269</v>
+        <v>0.07354260223730941</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08677229029307634</v>
+        <v>0.08452965302446115</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08667499710160831</v>
+        <v>0.1249731425232061</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07923004190320025</v>
+        <v>0.08450122395218604</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1622864079863505</v>
+        <v>0.03208640183744541</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08632509541320979</v>
+        <v>0.08616835515263654</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02415206857646529</v>
+        <v>0.03166080666994631</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08639885514220592</v>
+        <v>0.08698126416351049</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03688807171617069</v>
+        <v>0.07297571957621962</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08759089680527517</v>
+        <v>0.08532710258129571</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08646142260307998</v>
+        <v>0.1242379117295144</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07997749512870214</v>
+        <v>0.08529840531022553</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1632674412896883</v>
+        <v>0.03166080666994631</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08713948310578724</v>
+        <v>0.08698126416351049</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02311082818781422</v>
+        <v>0.03153478528211312</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08720632107811439</v>
+        <v>0.08779417317438441</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03672535964416496</v>
+        <v>0.07230339810416456</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08840950331747401</v>
+        <v>0.08612455213813024</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08635077064376429</v>
+        <v>0.1236954557427574</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08072494835420403</v>
+        <v>0.08609558666826503</v>
       </c>
       <c r="N173" t="n">
-        <v>0.163208347775238</v>
+        <v>0.03153478528211312</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08795387079836468</v>
+        <v>0.08779417317438441</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02206933049597198</v>
+        <v>0.03170829633369147</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08801378701402285</v>
+        <v>0.08860708218525834</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03676491406227721</v>
+        <v>0.07232513277802685</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08922810982967283</v>
+        <v>0.08692200169496478</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08644395774542057</v>
+        <v>0.1229323465425221</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08147240157970592</v>
+        <v>0.08689276802630452</v>
       </c>
       <c r="N174" t="n">
-        <v>0.163807515202834</v>
+        <v>0.03170829633369147</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08876825849094214</v>
+        <v>0.08860708218525834</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02402764003883667</v>
+        <v>0.03158129848442703</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08882125294993132</v>
+        <v>0.08941999119613227</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0364069617926884</v>
+        <v>0.07194041855468908</v>
       </c>
       <c r="K175" t="n">
-        <v>0.09004671634187167</v>
+        <v>0.08771945125179932</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08614190042980824</v>
+        <v>0.1221006307079514</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08221985480520781</v>
+        <v>0.08768994938434402</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1633633313323107</v>
+        <v>0.03158129848442703</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08958264618351959</v>
+        <v>0.08941999119613227</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02398582135430634</v>
+        <v>0.03115375039406545</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08962871888583979</v>
+        <v>0.09023290020700619</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03635098464955532</v>
+        <v>0.07154875039103378</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09086532285407051</v>
+        <v>0.08851690080863385</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08574551521868656</v>
+        <v>0.1202780189875457</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0829673080307097</v>
+        <v>0.0884871307423835</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1633741839235022</v>
+        <v>0.03115375039406545</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09039703387609704</v>
+        <v>0.09023290020700619</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02294393898027906</v>
+        <v>0.03132561072235236</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09043618482174826</v>
+        <v>0.09104580921788012</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0364965280074834</v>
+        <v>0.0707496232439436</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09168392936626935</v>
+        <v>0.08931435036546839</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08565571863381496</v>
+        <v>0.1194876427849973</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08371476125621158</v>
+        <v>0.08928431210042299</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1638384607362431</v>
+        <v>0.03132561072235236</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0912114215686745</v>
+        <v>0.09104580921788012</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02290205745465294</v>
+        <v>0.03099683812903344</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09124365075765672</v>
+        <v>0.09185871822875406</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03624339353172693</v>
+        <v>0.07084253207030117</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09250253587846817</v>
+        <v>0.09011179992230293</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08587342719695271</v>
+        <v>0.1182526335039987</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08446221448171348</v>
+        <v>0.09008149345846249</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1633513508004921</v>
+        <v>0.03099683812903344</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09202580926125194</v>
+        <v>0.09185871822875406</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02286024131532602</v>
+        <v>0.03086739127385429</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09205111669356518</v>
+        <v>0.09267162723962799</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03639138288754008</v>
+        <v>0.06952697182698905</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09332114239066701</v>
+        <v>0.09090924947913748</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08569955742985916</v>
+        <v>0.1161961225482424</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08520966770721536</v>
+        <v>0.09087867481650198</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1640766859641067</v>
+        <v>0.03086739127385429</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09284019695382939</v>
+        <v>0.09267162723962799</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02281722702841596</v>
+        <v>0.03083722881656061</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09285858262947365</v>
+        <v>0.09348453625050192</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03644029774017714</v>
+        <v>0.0691024374708899</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09413974890286583</v>
+        <v>0.09170669903597202</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08513502585429375</v>
+        <v>0.1144412413214208</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08595712093271726</v>
+        <v>0.09167585617454148</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1636555349388179</v>
+        <v>0.03083722881656061</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09365458464640684</v>
+        <v>0.09348453625050192</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02377167712047561</v>
+        <v>0.030706309416898</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09366604856538213</v>
+        <v>0.09429744526137585</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0360899397548923</v>
+        <v>0.06946842395888628</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09495835541506467</v>
+        <v>0.09250414859280655</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08488074899201575</v>
+        <v>0.1137111212272263</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08670457415821914</v>
+        <v>0.09247303753258096</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1616052428385466</v>
+        <v>0.030706309416898</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0944689723389843</v>
+        <v>0.09429744526137585</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02172363034536386</v>
+        <v>0.03037459173461216</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0944735145012906</v>
+        <v>0.09511035427224977</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03634011059693977</v>
+        <v>0.06882442624786075</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09577696192726351</v>
+        <v>0.09330159814964109</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08473663608459869</v>
+        <v>0.1112288936693515</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08745202738372104</v>
+        <v>0.09327021889062044</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1610431547772138</v>
+        <v>0.03037459173461216</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09528336003156175</v>
+        <v>0.09511035427224977</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0236731256087156</v>
+        <v>0.03024203442944869</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09528098043719906</v>
+        <v>0.0959232632831237</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03629061193157387</v>
+        <v>0.06856993929469596</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09659556843946233</v>
+        <v>0.09409904770647563</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08449915875983707</v>
+        <v>0.1099176900514887</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08819948060922292</v>
+        <v>0.09406740024865994</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1606866158687402</v>
+        <v>0.03024203442944869</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09609774772413919</v>
+        <v>0.0959232632831237</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02162020181616568</v>
+        <v>0.03020859616115325</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09608844637310753</v>
+        <v>0.09673617229399763</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03624124542404875</v>
+        <v>0.06760445805627446</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09741417495166117</v>
+        <v>0.09489649726331018</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08476748046976071</v>
+        <v>0.1080006417773304</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08894693383472481</v>
+        <v>0.09486458160669943</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1589529712270469</v>
+        <v>0.03020859616115325</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09691213541671666</v>
+        <v>0.09673617229399763</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02356489787334903</v>
+        <v>0.02997423558947152</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09689591230901599</v>
+        <v>0.09754908130487157</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03599181273961867</v>
+        <v>0.0675274774894789</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09823278146386</v>
+        <v>0.09569394682014472</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08424110210432187</v>
+        <v>0.107400880250569</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0896943870602267</v>
+        <v>0.09566176296473893</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1573595659660548</v>
+        <v>0.02997423558947152</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0977265231092941</v>
+        <v>0.09754908130487157</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02250725268590049</v>
+        <v>0.0299389113741491</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09770337824492446</v>
+        <v>0.0983619903157455</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03604211554353789</v>
+        <v>0.06723849255119188</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09905138797605884</v>
+        <v>0.09649139637697925</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0845195245534727</v>
+        <v>0.1049415368748971</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09044184028572859</v>
+        <v>0.09645894432277841</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1560237451996845</v>
+        <v>0.0299389113741491</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09854091080187155</v>
+        <v>0.0983619903157455</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02344730515945499</v>
+        <v>0.02980258217493166</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09851084418083293</v>
+        <v>0.09917489932661942</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03609195550106059</v>
+        <v>0.06663699819829602</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09986999448825767</v>
+        <v>0.09728884593381379</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08450224870716561</v>
+        <v>0.1040457430540071</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09118929351123048</v>
+        <v>0.0972561256808179</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1552628540418572</v>
+        <v>0.02980258217493166</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09935529849444899</v>
+        <v>0.09917489932661942</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02238509419964735</v>
+        <v>0.02986520665156488</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09931831011674139</v>
+        <v>0.09998780833749335</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03584113427744103</v>
+        <v>0.06562248938767384</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1006886010004565</v>
+        <v>0.09808629549064833</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08448877545535263</v>
+        <v>0.1024366301915914</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09193674673673237</v>
+        <v>0.0980533070388574</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1527942376064939</v>
+        <v>0.02986520665156488</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1001696861870264</v>
+        <v>0.09998780833749335</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02332065871211247</v>
+        <v>0.02952674346379436</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1001257760526499</v>
+        <v>0.1008007173483673</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03588945353793345</v>
+        <v>0.06509446107620803</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1015072075126553</v>
+        <v>0.09888374504748286</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08377860568798612</v>
+        <v>0.1009373296913422</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09268419996223426</v>
+        <v>0.09885048839689689</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1515352410075151</v>
+        <v>0.02952674346379436</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1009840738796039</v>
+        <v>0.1008007173483673</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02225403760248526</v>
+        <v>0.02948715127136579</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1009332419885583</v>
+        <v>0.1016136263592412</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03573671494779207</v>
+        <v>0.06485240822078109</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1023258140248542</v>
+        <v>0.09968119460431742</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08377124029501828</v>
+        <v>0.09927097295695259</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09343165318773615</v>
+        <v>0.09964766975493639</v>
       </c>
       <c r="N190" t="n">
-        <v>0.148803209358842</v>
+        <v>0.02948715127136579</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1017984615721814</v>
+        <v>0.1016136263592412</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02218526977640058</v>
+        <v>0.02934638873402477</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1017407079244668</v>
+        <v>0.1024265353701151</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0357827201722711</v>
+        <v>0.06369582577827568</v>
       </c>
       <c r="K191" t="n">
-        <v>0.103144420537053</v>
+        <v>0.1004786441611519</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08356618016640133</v>
+        <v>0.09786069139211445</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09417910641323804</v>
+        <v>0.1004448511129759</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1468154877743955</v>
+        <v>0.02934638873402477</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1026128492647588</v>
+        <v>0.1024265353701151</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0211143941394933</v>
+        <v>0.02920441451151701</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1025481738603752</v>
+        <v>0.1032394443809891</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03562727087662483</v>
+        <v>0.06362420870557445</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1039630270492518</v>
+        <v>0.1012760937179865</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08376292619208756</v>
+        <v>0.09711526571661483</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09492655963873993</v>
+        <v>0.1012420324710154</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1447894213680964</v>
+        <v>0.02920441451151701</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1034272369573362</v>
+        <v>0.1032394443809891</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0210414495973983</v>
+        <v>0.02886118726358811</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1033556397962837</v>
+        <v>0.104052353391863</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03557016872610744</v>
+        <v>0.06293705195955995</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1047816335614507</v>
+        <v>0.102073543274821</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08336097926202915</v>
+        <v>0.09592388650507</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09567401286424182</v>
+        <v>0.1020392138290549</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1432423552538656</v>
+        <v>0.02886118726358811</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1042416246499137</v>
+        <v>0.104052353391863</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02096647505575049</v>
+        <v>0.02871666564998374</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1041631057321922</v>
+        <v>0.1048652624027369</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03541121538597321</v>
+        <v>0.06243385049711472</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1056002400736495</v>
+        <v>0.1028709928316556</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08395984026617836</v>
+        <v>0.09475761239937552</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0964214660897437</v>
+        <v>0.1028363951870944</v>
       </c>
       <c r="N194" t="n">
-        <v>0.141291634545624</v>
+        <v>0.02871666564998374</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1050560123424912</v>
+        <v>0.1048652624027369</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02088950942018473</v>
+        <v>0.02877077710705254</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1049705716681007</v>
+        <v>0.1056781714136109</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0354502125214763</v>
+        <v>0.06211409927512143</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1064188465858483</v>
+        <v>0.1036684423884901</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08305901009448738</v>
+        <v>0.0944155331595809</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09716891931524559</v>
+        <v>0.1036335765451338</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1382546043572926</v>
+        <v>0.02877077710705254</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1058704000350686</v>
+        <v>0.1056781714136109</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0208105915963359</v>
+        <v>0.02862065304420876</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1057780376040091</v>
+        <v>0.1064910804244848</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03538696179787101</v>
+        <v>0.06087729325046271</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1072374530980472</v>
+        <v>0.1044658919453246</v>
       </c>
       <c r="L196" t="n">
-        <v>0.08375798963690853</v>
+        <v>0.09319673854573568</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09791637254074748</v>
+        <v>0.1044307579031733</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1362486098027922</v>
+        <v>0.02862065304420876</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1066847877276461</v>
+        <v>0.1064910804244848</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02172976048983887</v>
+        <v>0.02846492711008994</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1065855035399176</v>
+        <v>0.1073039894353587</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03552126488041155</v>
+        <v>0.06002292738002107</v>
       </c>
       <c r="K197" t="n">
-        <v>0.108056059610246</v>
+        <v>0.1052633415021592</v>
       </c>
       <c r="L197" t="n">
-        <v>0.08295627978339398</v>
+        <v>0.09350031831788924</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09866382576624937</v>
+        <v>0.1052279392612128</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1345909959960438</v>
+        <v>0.02846492711008994</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1074991754202235</v>
+        <v>0.1073039894353587</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02164705500632855</v>
+        <v>0.02840428581880482</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1073929694758261</v>
+        <v>0.1081168984462327</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03545292343435213</v>
+        <v>0.0596504966206792</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1088746661224449</v>
+        <v>0.1060607910589937</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08355338142389596</v>
+        <v>0.09292536223609099</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09941127899175126</v>
+        <v>0.1060251206192523</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1324991080509682</v>
+        <v>0.02840428581880482</v>
       </c>
       <c r="O198" t="n">
-        <v>0.108313563112801</v>
+        <v>0.1081168984462327</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02156251405143979</v>
+        <v>0.0281394156844621</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1082004354117345</v>
+        <v>0.1089298074571066</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03508173912494703</v>
+        <v>0.05915949592931963</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1096932726346437</v>
+        <v>0.1068582406158283</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08354879544836674</v>
+        <v>0.09087096006039058</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1001587322172531</v>
+        <v>0.1068223019772918</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1309902910814864</v>
+        <v>0.0281394156844621</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1091279508053784</v>
+        <v>0.1089298074571066</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02047617653080752</v>
+        <v>0.02807100322117054</v>
       </c>
       <c r="G200" t="n">
-        <v>0.109007901347643</v>
+        <v>0.1097427164679805</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03530751361745042</v>
+        <v>0.05878344387893761</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1105118791468425</v>
+        <v>0.1076556901726628</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08294202274675849</v>
+        <v>0.09093620155083737</v>
       </c>
       <c r="M200" t="n">
-        <v>0.100906185442755</v>
+        <v>0.1076194833353313</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1295818902015192</v>
+        <v>0.02807100322117054</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1099423384979559</v>
+        <v>0.1097427164679805</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02038808135006656</v>
+        <v>0.02779973494303883</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1098153672835515</v>
+        <v>0.1105556254788544</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03493004857711658</v>
+        <v>0.05684764074699353</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1113304856590413</v>
+        <v>0.1084531397294973</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08313256420902354</v>
+        <v>0.08992017646748085</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1016536386682569</v>
+        <v>0.1084166646933708</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1277912505249875</v>
+        <v>0.02779973494303883</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1107567261905333</v>
+        <v>0.1105556254788544</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02229826741485182</v>
+        <v>0.02772629736417574</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1106228332194599</v>
+        <v>0.1113685344897284</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03484914566919975</v>
+        <v>0.05568526420471007</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1121490921712402</v>
+        <v>0.1092505892863319</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08311992072511409</v>
+        <v>0.08882197457037061</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1024010918937588</v>
+        <v>0.1092138460514103</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1267357171658123</v>
+        <v>0.02772629736417574</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1115711138831108</v>
+        <v>0.1113685344897284</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02020668396778159</v>
+        <v>0.02725137699868996</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1114302991553684</v>
+        <v>0.1121814435006023</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03476460655895412</v>
+        <v>0.05424338486282382</v>
       </c>
       <c r="K203" t="n">
-        <v>0.112967698683439</v>
+        <v>0.1100480388431664</v>
       </c>
       <c r="L203" t="n">
-        <v>0.08260359318498234</v>
+        <v>0.08914068561955596</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1031485451192607</v>
+        <v>0.1100110274094498</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1244589451334359</v>
+        <v>0.02725137699868996</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1123855015756882</v>
+        <v>0.1121814435006023</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02211262224834107</v>
+        <v>0.02717566036069022</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1122377650912769</v>
+        <v>0.1129943525114762</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03467623291163394</v>
+        <v>0.05296907333207149</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1137863051956378</v>
+        <v>0.110845488400001</v>
       </c>
       <c r="L204" t="n">
-        <v>0.08258308247858051</v>
+        <v>0.08857539937508652</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1038959983447626</v>
+        <v>0.1108082087674893</v>
       </c>
       <c r="N204" t="n">
-        <v>0.124285557812254</v>
+        <v>0.02717566036069022</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1131998892682657</v>
+        <v>0.1129943525114762</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02101592792662819</v>
+        <v>0.02719983396428526</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1130452310271853</v>
+        <v>0.1138072615223502</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03458382585674592</v>
+        <v>0.05140940022318971</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1146049117078367</v>
+        <v>0.1116429379568355</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08215788949586092</v>
+        <v>0.0875252055970116</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1046434515702645</v>
+        <v>0.1116053901255288</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1229156093414173</v>
+        <v>0.02719983396428526</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1140142769608431</v>
+        <v>0.1138072615223502</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02191660820950544</v>
+        <v>0.02672458432358378</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1138526969630938</v>
+        <v>0.1146201705332241</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03468491983912696</v>
+        <v>0.04921143614691517</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1154235182200355</v>
+        <v>0.11244038751367</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08262751512677577</v>
+        <v>0.08638919404538087</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1053909047957664</v>
+        <v>0.1124025714835682</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1216492032916631</v>
+        <v>0.02672458432358378</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1148286646534206</v>
+        <v>0.1146201705332241</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02181467030383533</v>
+        <v>0.02675059795269455</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1146601628990023</v>
+        <v>0.115433079544098</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03437737433819406</v>
+        <v>0.04782225171398455</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1162421247322343</v>
+        <v>0.1132378370705046</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08209146026127725</v>
+        <v>0.08566645448024363</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1061383580212683</v>
+        <v>0.1131997528416077</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1188864432337288</v>
+        <v>0.02675059795269455</v>
       </c>
       <c r="O207" t="n">
-        <v>0.115643052345998</v>
+        <v>0.115433079544098</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02171012141648039</v>
+        <v>0.02667856136572626</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1154676288349107</v>
+        <v>0.116245988554972</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03436127282347723</v>
+        <v>0.04598891753513454</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1170607312444332</v>
+        <v>0.1140352866273391</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08174922578931759</v>
+        <v>0.08575607666164942</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1068858112467702</v>
+        <v>0.1139969341996472</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1182274327383515</v>
+        <v>0.02667856136572626</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1164574400385755</v>
+        <v>0.116245988554972</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0216029687543031</v>
+        <v>0.02620916107678764</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1162750947708192</v>
+        <v>0.1170588975658459</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03433669876450662</v>
+        <v>0.04505850422110172</v>
       </c>
       <c r="K209" t="n">
-        <v>0.117879337756632</v>
+        <v>0.1148327361841737</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08230031260084911</v>
+        <v>0.08545715034964779</v>
       </c>
       <c r="M209" t="n">
-        <v>0.107633264472272</v>
+        <v>0.1147941155576867</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1168722753762683</v>
+        <v>0.02620916107678764</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1172718277311529</v>
+        <v>0.1170588975658459</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02149321952416598</v>
+        <v>0.02614308359998742</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1170825607067277</v>
+        <v>0.1178718065767198</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03420373563081228</v>
+        <v>0.04347808238262288</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1186979442688308</v>
+        <v>0.1156301857410082</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08144422158582398</v>
+        <v>0.08376876530428823</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1083807176977739</v>
+        <v>0.1155912969157262</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1155210747182164</v>
+        <v>0.02614308359998742</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1180862154237304</v>
+        <v>0.1178718065767198</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01938088093293156</v>
+        <v>0.02588101544943434</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1178900266426361</v>
+        <v>0.1186847155875937</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03386246689192424</v>
+        <v>0.0422947226304346</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1195165507810297</v>
+        <v>0.1164276352978427</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08168045363419446</v>
+        <v>0.08389001128562007</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1091281709232758</v>
+        <v>0.1163884782737657</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1138739343349332</v>
+        <v>0.02588101544943434</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1189006031163078</v>
+        <v>0.1186847155875937</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01926596018746232</v>
+        <v>0.02602364313923709</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1186974925785446</v>
+        <v>0.1194976245984677</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03391297601737263</v>
+        <v>0.04095549557527361</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1203351572932285</v>
+        <v>0.1172250848546773</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08130850963591277</v>
+        <v>0.0828199780536929</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1098756241487777</v>
+        <v>0.1171856596318052</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1126309577971557</v>
+        <v>0.02602364313923709</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1197149908088853</v>
+        <v>0.1194976245984677</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01914846449462078</v>
+        <v>0.02587165318350444</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1195049585144531</v>
+        <v>0.1203105336093416</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03355534647668749</v>
+        <v>0.04030747182787656</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1211537638054273</v>
+        <v>0.1180225344115118</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08112789048093111</v>
+        <v>0.08225775536855617</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1106230773742796</v>
+        <v>0.1179828409898447</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1118922486756213</v>
+        <v>0.02587165318350444</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1205293785014627</v>
+        <v>0.1203105336093416</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01902840106126946</v>
+        <v>0.0256257320963451</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1203124244503615</v>
+        <v>0.1211234426202155</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03338966173939895</v>
+        <v>0.04019772199898008</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1219723703176262</v>
+        <v>0.1188199839683464</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08063809705920177</v>
+        <v>0.08210243299025927</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1113705305997815</v>
+        <v>0.1187800223478842</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1104579105410669</v>
+        <v>0.0256257320963451</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1213437661940402</v>
+        <v>0.1211234426202155</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01990577709427085</v>
+        <v>0.02528656639186778</v>
       </c>
       <c r="G215" t="n">
-        <v>0.12111989038627</v>
+        <v>0.1219363516310894</v>
       </c>
       <c r="J215" t="n">
-        <v>0.033316005275037</v>
+        <v>0.04036466988526274</v>
       </c>
       <c r="K215" t="n">
-        <v>0.122790976829825</v>
+        <v>0.1196174335251809</v>
       </c>
       <c r="L215" t="n">
-        <v>0.081138630260677</v>
+        <v>0.08165310067885184</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1121179838252834</v>
+        <v>0.1195772037059237</v>
       </c>
       <c r="N215" t="n">
-        <v>0.10842804696423</v>
+        <v>0.02528656639186778</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1221581538866176</v>
+        <v>0.1219363516310894</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01978059980048747</v>
+        <v>0.02525449908415095</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1219273563221784</v>
+        <v>0.1227492606419634</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03323446055313178</v>
+        <v>0.0398466334437621</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1236095833420238</v>
+        <v>0.1204148830820154</v>
       </c>
       <c r="L216" t="n">
-        <v>0.08032899097530893</v>
+        <v>0.08140884819438332</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1128654370507853</v>
+        <v>0.1203743850639632</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1071027615158477</v>
+        <v>0.02525449908415095</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1229725415791951</v>
+        <v>0.1227492606419634</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02065287638678183</v>
+        <v>0.02532471618391233</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1227348222580869</v>
+        <v>0.1235621696528373</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03284511104321337</v>
+        <v>0.03982915428272715</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1244281898542227</v>
+        <v>0.12121233263885</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08040074307932094</v>
+        <v>0.08076876529690297</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1136128902762872</v>
+        <v>0.1211715664220026</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1067821577666571</v>
+        <v>0.02532471618391233</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1237869292717725</v>
+        <v>0.1235621696528373</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01952261406001644</v>
+        <v>0.02489549317471838</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1235422881939954</v>
+        <v>0.1243750786637113</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0327480402148118</v>
+        <v>0.04041222459576715</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1252467963664215</v>
+        <v>0.1220097821956845</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07993930085906026</v>
+        <v>0.07943194174646068</v>
       </c>
       <c r="M218" t="n">
-        <v>0.114360343501789</v>
+        <v>0.1219687477800421</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1055663392873956</v>
+        <v>0.02489549317471838</v>
       </c>
       <c r="O218" t="n">
-        <v>0.12460131696435</v>
+        <v>0.1243750786637113</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01838982002705379</v>
+        <v>0.02476686811681049</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1243497541299039</v>
+        <v>0.1251879876745852</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03254333153745718</v>
+        <v>0.04009583657649135</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1260654028786203</v>
+        <v>0.122807231752519</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08024487519197901</v>
+        <v>0.07949746730310553</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1151077967272909</v>
+        <v>0.1227659291380816</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1037554096488002</v>
+        <v>0.02476686811681049</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1254157046569274</v>
+        <v>0.1251879876745852</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02025450149475641</v>
+        <v>0.02493887907042995</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1251572200658123</v>
+        <v>0.1260008966854591</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03223106848067959</v>
+        <v>0.03997998241850897</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1268840093908192</v>
+        <v>0.1236046813093536</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07991800508773009</v>
+        <v>0.07836443172688723</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1158552499527928</v>
+        <v>0.1235631104961211</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1021494724216082</v>
+        <v>0.02493887907042995</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1262300923495049</v>
+        <v>0.1260008966854591</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01911666566998682</v>
+        <v>0.02451156409581813</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1259646860017208</v>
+        <v>0.126813805696333</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03201133451400909</v>
+        <v>0.04016465431542929</v>
       </c>
       <c r="K221" t="n">
-        <v>0.127702615903018</v>
+        <v>0.1244021308661881</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07875922955596626</v>
+        <v>0.0784319247778551</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1166027031782947</v>
+        <v>0.1243602918541606</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1011486311765569</v>
+        <v>0.02451156409581813</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1270444800420823</v>
+        <v>0.126813805696333</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0199763197596075</v>
+        <v>0.02458496125321635</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1267721519376293</v>
+        <v>0.127626714707207</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03198421310697573</v>
+        <v>0.04004984446086154</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1285212224152168</v>
+        <v>0.1251995804230226</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0787690876063403</v>
+        <v>0.07819903621605878</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1173501564037966</v>
+        <v>0.1251574732122001</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0999529894843833</v>
+        <v>0.02458496125321635</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1278588677346598</v>
+        <v>0.127626714707207</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01883347097048098</v>
+        <v>0.02425910860286594</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1275796178735377</v>
+        <v>0.1284396237180809</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03164978772910962</v>
+        <v>0.04043554504841496</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1293398289274157</v>
+        <v>0.1259970299798572</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0783481182485051</v>
+        <v>0.07746485580154755</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1180976096292985</v>
+        <v>0.1259546545702396</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09786265091582474</v>
+        <v>0.02425910860286594</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1286732554272372</v>
+        <v>0.1284396237180809</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01868812650946975</v>
+        <v>0.02423404420500823</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1283870838094462</v>
+        <v>0.1292525327289548</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03150814184994084</v>
+        <v>0.03992174827169875</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1301584354396145</v>
+        <v>0.1267944795366918</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07759686049211342</v>
+        <v>0.07662847329437111</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1188450628548004</v>
+        <v>0.1267518359282791</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09777771904161842</v>
+        <v>0.02423404420500823</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1294876431198147</v>
+        <v>0.1292525327289548</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01754029358343633</v>
+        <v>0.02410980611988457</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1291945497453547</v>
+        <v>0.1300654417398287</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03115935893899945</v>
+        <v>0.04010844632432223</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1309770419518133</v>
+        <v>0.1275919290935263</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07771585334681808</v>
+        <v>0.07638897845457882</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1195925160803023</v>
+        <v>0.1275490172863186</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09609829743250137</v>
+        <v>0.02410980611988457</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1303020308123921</v>
+        <v>0.1300654417398287</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01938997939924325</v>
+        <v>0.02418643240773628</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1300020156812631</v>
+        <v>0.1308783507507027</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03090352246581553</v>
+        <v>0.03979563139989459</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1317956484640122</v>
+        <v>0.1283893786503608</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07720563582227183</v>
+        <v>0.07594546104222011</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1203399693058042</v>
+        <v>0.1283461986443581</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09492448965921102</v>
+        <v>0.02418643240773628</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1311164185049696</v>
+        <v>0.1308783507507027</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01723719116375298</v>
+        <v>0.02376396112880472</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1308094816171716</v>
+        <v>0.1316912597615766</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03064071589991917</v>
+        <v>0.04028329569202513</v>
       </c>
       <c r="K227" t="n">
-        <v>0.132614254976211</v>
+        <v>0.1291868282071953</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07596674692812758</v>
+        <v>0.07519780335026915</v>
       </c>
       <c r="M227" t="n">
-        <v>0.121087422531306</v>
+        <v>0.1291433800023976</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09335639929248457</v>
+        <v>0.02376396112880472</v>
       </c>
       <c r="O227" t="n">
-        <v>0.131930806197547</v>
+        <v>0.1316912597615766</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01708193608382805</v>
+        <v>0.02364243034333115</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1316169475530801</v>
+        <v>0.1325041687724506</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03037102271084041</v>
+        <v>0.04017143139432303</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1334328614884099</v>
+        <v>0.1299842777640299</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07589972567403805</v>
+        <v>0.07375182254524598</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1218348757568079</v>
+        <v>0.129940561360437</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09199412990305905</v>
+        <v>0.02364243034333115</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1327451938901245</v>
+        <v>0.1325041687724506</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01792422136633098</v>
+        <v>0.02382187811155696</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1324244134889885</v>
+        <v>0.1333170777833245</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03009452636810935</v>
+        <v>0.03976003070039758</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1342514680006087</v>
+        <v>0.1307817273208644</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07470511106965599</v>
+        <v>0.0740089195979195</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1225823289823098</v>
+        <v>0.1307377427184765</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09063778506167175</v>
+        <v>0.02382187811155696</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1335595815827019</v>
+        <v>0.1333170777833245</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01876405421812426</v>
+        <v>0.02370234249372347</v>
       </c>
       <c r="G230" t="n">
-        <v>0.133231879424897</v>
+        <v>0.1341299867941984</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02981131034125607</v>
+        <v>0.040249085803858</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1350700745128075</v>
+        <v>0.131579176877699</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0744834421246344</v>
+        <v>0.07306915102731593</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1233297822078117</v>
+        <v>0.131534924076516</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08988746833905981</v>
+        <v>0.02370234249372347</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1343739692752794</v>
+        <v>0.1341299867941984</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0176014418460704</v>
+        <v>0.02358386155007203</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1340393453608054</v>
+        <v>0.1349428958050723</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02942145809981064</v>
+        <v>0.04033858889831349</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1358886810250063</v>
+        <v>0.1323766264345335</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07433525784862594</v>
+        <v>0.07323257335246153</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1240772354333136</v>
+        <v>0.1323321054345555</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08784328330596058</v>
+        <v>0.02358386155007203</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1351883569678568</v>
+        <v>0.1349428958050723</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01743639145703192</v>
+        <v>0.02326647334084392</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1348468112967139</v>
+        <v>0.1357558048159463</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02912505311330313</v>
+        <v>0.03992853217737341</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1367072875372052</v>
+        <v>0.133174075991368</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07326109725128341</v>
+        <v>0.07209924309238258</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1248246886588155</v>
+        <v>0.133129286792595</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08660533353311117</v>
+        <v>0.02326647334084392</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1360027446604343</v>
+        <v>0.1357558048159463</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01726891025787133</v>
+        <v>0.02315021592628054</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1356542772326224</v>
+        <v>0.1365687138268202</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02882217885126361</v>
+        <v>0.03961890783464689</v>
       </c>
       <c r="K233" t="n">
-        <v>0.137525894049404</v>
+        <v>0.1339715255482026</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07236149934225972</v>
+        <v>0.07216921676610538</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1255721418843174</v>
+        <v>0.1339264681506345</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08507372259124873</v>
+        <v>0.02315021592628054</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1368171323530117</v>
+        <v>0.1365687138268202</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01709900545545112</v>
+        <v>0.02303512736662319</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1364617431685309</v>
+        <v>0.1373816228376941</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02871291878322217</v>
+        <v>0.03990970806374325</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1383445005616028</v>
+        <v>0.1347689751050371</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07153700313120756</v>
+        <v>0.07094255089265611</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1263195951098193</v>
+        <v>0.134723649508674</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08384855405111052</v>
+        <v>0.02303512736662319</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1376315200455892</v>
+        <v>0.1373816228376941</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01792668425663382</v>
+        <v>0.02302124572211318</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1372692091044393</v>
+        <v>0.138194531848568</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02829735637870888</v>
+        <v>0.04050092505827169</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1391631070738017</v>
+        <v>0.1355664246618717</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07058814762777979</v>
+        <v>0.07071930199106125</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1270670483353211</v>
+        <v>0.1355208308667135</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08312993148343378</v>
+        <v>0.02302124572211318</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1384459077381666</v>
+        <v>0.138194531848568</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01675195386828193</v>
+        <v>0.02270860905299191</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1380766750403478</v>
+        <v>0.139007440859442</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02807557510725384</v>
+        <v>0.03989255101184147</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1399817135860005</v>
+        <v>0.1363638742187062</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07021547184162927</v>
+        <v>0.07049952658034669</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1278145015608231</v>
+        <v>0.136318012224753</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08171795845895563</v>
+        <v>0.02270860905299191</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1392602954307441</v>
+        <v>0.139007440859442</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01657482149725796</v>
+        <v>0.02279725541950064</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1388841409762562</v>
+        <v>0.1398203498703159</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02764765843838705</v>
+        <v>0.04018457811806184</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1408003200981993</v>
+        <v>0.1371613237755407</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06921951478240865</v>
+        <v>0.07028328117953908</v>
       </c>
       <c r="M237" t="n">
-        <v>0.128561954786325</v>
+        <v>0.1371151935827925</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08101273854841345</v>
+        <v>0.02279725541950064</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1400746831233215</v>
+        <v>0.1398203498703159</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01539529435042442</v>
+        <v>0.02248722288188075</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1396916069121647</v>
+        <v>0.1406332588811898</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02741368984163868</v>
+        <v>0.03997699857054199</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1416189266103982</v>
+        <v>0.1379587733323753</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06900081545977094</v>
+        <v>0.06977062230766451</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1293094080118268</v>
+        <v>0.1379123749408319</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07911437532254417</v>
+        <v>0.02248722288188075</v>
       </c>
       <c r="O238" t="n">
-        <v>0.140889070815899</v>
+        <v>0.1406332588811898</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01521337963464382</v>
+        <v>0.02247854950037353</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1404990728480732</v>
+        <v>0.1414461678920638</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02707375278653874</v>
+        <v>0.04036980456289121</v>
       </c>
       <c r="K239" t="n">
-        <v>0.142437533122597</v>
+        <v>0.1387562228892098</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06805991288336879</v>
+        <v>0.06826160648374913</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1300568612373287</v>
+        <v>0.1387095562988714</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07882297235208513</v>
+        <v>0.02247854950037353</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1417034585084764</v>
+        <v>0.1414461678920638</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01502908455677867</v>
+        <v>0.02247127333522035</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1413065387839817</v>
+        <v>0.1422590769029377</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02652793074261735</v>
+        <v>0.03966298828871878</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1432561396347959</v>
+        <v>0.1395536724460444</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0669973460628551</v>
+        <v>0.06875629022681945</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1308043144628306</v>
+        <v>0.1395067376569109</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07663863320777353</v>
+        <v>0.02247127333522035</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1425178462010539</v>
+        <v>0.1422590769029377</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01584241632369148</v>
+        <v>0.02246543244666253</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1421140047198901</v>
+        <v>0.1430719859138116</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02647630717940455</v>
+        <v>0.04035654194163393</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1440747461469947</v>
+        <v>0.1403511220028789</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0659136540078826</v>
+        <v>0.06735473005590159</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1315517676883325</v>
+        <v>0.1403039190149504</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07686146146034667</v>
+        <v>0.02246543244666253</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1433322338936314</v>
+        <v>0.1430719859138116</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01465338214224475</v>
+        <v>0.02216106489494139</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1429214706557986</v>
+        <v>0.1438848949246856</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02581896556643043</v>
+        <v>0.03955045771524582</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1448933526591935</v>
+        <v>0.1411485715597134</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06540937572810415</v>
+        <v>0.06745698249002186</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1322992209138344</v>
+        <v>0.1411011003729899</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07439156068054154</v>
+        <v>0.02216106489494139</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1441466215862088</v>
+        <v>0.1438848949246856</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.016461989219301</v>
+        <v>0.02215820874029829</v>
       </c>
       <c r="G243" t="n">
-        <v>0.143728936591707</v>
+        <v>0.1446978039355595</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02565598937322505</v>
+        <v>0.03954472780316379</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1457119591713923</v>
+        <v>0.141946021116548</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06448505023317255</v>
+        <v>0.06686310404820661</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1330466741393363</v>
+        <v>0.1418982817310294</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07442903443909554</v>
+        <v>0.02215820874029829</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1449610092787862</v>
+        <v>0.1446978039355595</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01626824476172274</v>
+        <v>0.02195690204297454</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1445364025276155</v>
+        <v>0.1455107129464334</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02528746206931853</v>
+        <v>0.039639344398997</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1465305656835912</v>
+        <v>0.1427434706733825</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06304121653274056</v>
+        <v>0.06557315124948188</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1337941273648381</v>
+        <v>0.1426954630890689</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0727739863067457</v>
+        <v>0.02195690204297454</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1457753969713637</v>
+        <v>0.1455107129464334</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01507215597637246</v>
+        <v>0.02195718286321148</v>
       </c>
       <c r="G245" t="n">
-        <v>0.145343868463524</v>
+        <v>0.1463236219573073</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02501346712424091</v>
+        <v>0.03963429969635479</v>
       </c>
       <c r="K245" t="n">
-        <v>0.14734917219579</v>
+        <v>0.1435409202302171</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06277841363646103</v>
+        <v>0.06518718061287415</v>
       </c>
       <c r="M245" t="n">
-        <v>0.13454158059034</v>
+        <v>0.1434926444471084</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07222651985422934</v>
+        <v>0.02195718286321148</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1465897846639412</v>
+        <v>0.1463236219573073</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01487373007011269</v>
+        <v>0.02175908926125045</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1461513343994325</v>
+        <v>0.1471365309681813</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02463408800752227</v>
+        <v>0.04022958588884634</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1481677787079888</v>
+        <v>0.1443383697870516</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06099718055398679</v>
+        <v>0.06540524865740954</v>
       </c>
       <c r="M246" t="n">
-        <v>0.135289033815842</v>
+        <v>0.1442898258051479</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06968673865228375</v>
+        <v>0.02175908926125045</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1474041723565186</v>
+        <v>0.1471365309681813</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01467297424980593</v>
+        <v>0.02176265929733279</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1469588003353409</v>
+        <v>0.1479494399790552</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02414940818869267</v>
+        <v>0.04022519517008091</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1489863852201877</v>
+        <v>0.1451358193438861</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06019805629497058</v>
+        <v>0.06432741190211444</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1360364870413438</v>
+        <v>0.1450870071631874</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06915474627164592</v>
+        <v>0.02176265929733279</v>
       </c>
       <c r="O247" t="n">
-        <v>0.148218560049096</v>
+        <v>0.1479494399790552</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0154698957223147</v>
+        <v>0.02156793103169979</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1477662662712494</v>
+        <v>0.1487623489899291</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02385951113728221</v>
+        <v>0.04012111973366775</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1498049917323865</v>
+        <v>0.1459332689007207</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05968157986906525</v>
+        <v>0.06465372686601506</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1367839402668457</v>
+        <v>0.1458841885212268</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06793064628305318</v>
+        <v>0.02156793103169979</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1490329477416735</v>
+        <v>0.1487623489899291</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01526450169450149</v>
+        <v>0.02137494252459282</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1485737322071579</v>
+        <v>0.149575258000803</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02316448032282101</v>
+        <v>0.0401173517732161</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1506235982445853</v>
+        <v>0.1467307184575552</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05834829028592356</v>
+        <v>0.06408425006813767</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1375313934923476</v>
+        <v>0.1466813698792663</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06771454225724266</v>
+        <v>0.02137494252459282</v>
       </c>
       <c r="O249" t="n">
-        <v>0.149847335434251</v>
+        <v>0.149575258000803</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01305679937322883</v>
+        <v>0.0215837318362532</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1493811981430663</v>
+        <v>0.150388167011677</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02306439921483902</v>
+        <v>0.03951388348233517</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1514422047567842</v>
+        <v>0.1475281680143898</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05749872655519839</v>
+        <v>0.06341903802750859</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1382788467178495</v>
+        <v>0.1474785512373058</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06630653776495171</v>
+        <v>0.0215837318362532</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1506617231268284</v>
+        <v>0.150388167011677</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01484679596535921</v>
+        <v>0.02129433702692227</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1501886640789748</v>
+        <v>0.1512010760225509</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02265935128286643</v>
+        <v>0.04041070705463423</v>
       </c>
       <c r="K251" t="n">
-        <v>0.152260811268983</v>
+        <v>0.1483256175712243</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05663342768654253</v>
+        <v>0.06345814726315396</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1390262999433514</v>
+        <v>0.1482757325953453</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06470673637691737</v>
+        <v>0.02129433702692227</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1514761108194058</v>
+        <v>0.1512010760225509</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01263449867775515</v>
+        <v>0.02120679615684136</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1509961300148832</v>
+        <v>0.1520139850334249</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02204941999643326</v>
+        <v>0.03970781468372256</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1530794177811818</v>
+        <v>0.1491230671280588</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05505293268960876</v>
+        <v>0.06170163429410014</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1397737531688533</v>
+        <v>0.1490729139533848</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06441524166387685</v>
+        <v>0.02120679615684136</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1522904985119833</v>
+        <v>0.1520139850334249</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01441991471727916</v>
+        <v>0.02122114728625178</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1518035959507917</v>
+        <v>0.1528268940442988</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02183468882506961</v>
+        <v>0.04040519856320937</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1538980242933807</v>
+        <v>0.1499205166848934</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05385778057404983</v>
+        <v>0.06264955563937336</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1405212063943552</v>
+        <v>0.1498700953114243</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06273215719656744</v>
+        <v>0.02122114728625178</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1531048862045608</v>
+        <v>0.1528268940442988</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01320305129079375</v>
+        <v>0.02123742847539492</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1526110618867002</v>
+        <v>0.1536398030551727</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02111524123830555</v>
+        <v>0.04020285088670386</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1547166308055795</v>
+        <v>0.1507179662417279</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05324851034951866</v>
+        <v>0.06080196781799996</v>
       </c>
       <c r="M254" t="n">
-        <v>0.141268659619857</v>
+        <v>0.1506672766694638</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06085758654572626</v>
+        <v>0.02123742847539492</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1539192738971382</v>
+        <v>0.1536398030551727</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01398391560516142</v>
+        <v>0.02105567778451206</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1534185278226086</v>
+        <v>0.1544527120660466</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02079116070567112</v>
+        <v>0.03950076384781537</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1555352373177784</v>
+        <v>0.1515154157985625</v>
       </c>
       <c r="L255" t="n">
-        <v>0.051525661025668</v>
+        <v>0.06145892734900615</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1420161128453589</v>
+        <v>0.1514644580275033</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06049163328209062</v>
+        <v>0.02105567778451206</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1547336615897157</v>
+        <v>0.1544527120660466</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0137625148672447</v>
+        <v>0.02087593327384453</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1542259937585171</v>
+        <v>0.1552656210769206</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02026253069669648</v>
+        <v>0.04029892964015311</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1563538438299772</v>
+        <v>0.152312865355397</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05028977161215067</v>
+        <v>0.06052049075141819</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1427635660708608</v>
+        <v>0.1522616393855428</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06003440097639767</v>
+        <v>0.02087593327384453</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1555480492822931</v>
+        <v>0.1552656210769206</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01353885628390606</v>
+        <v>0.02099823300363371</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1550334596944256</v>
+        <v>0.1560785300877945</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02012943468091163</v>
+        <v>0.03949734045732622</v>
       </c>
       <c r="K257" t="n">
-        <v>0.157172450342176</v>
+        <v>0.1531103149122315</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04914138111861943</v>
+        <v>0.06038671454426237</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1435110192963627</v>
+        <v>0.1530588207435823</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05778599319938449</v>
+        <v>0.02099823300363371</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1563624369748705</v>
+        <v>0.1560785300877945</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01231294706200804</v>
+        <v>0.02062261503412091</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1558409256303341</v>
+        <v>0.1568914390986684</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01949195612784667</v>
+        <v>0.03989598849294407</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1579910568543748</v>
+        <v>0.1539077644690661</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04848102855472713</v>
+        <v>0.06015765524656486</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1442584725218646</v>
+        <v>0.1538560021016218</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05734651352178849</v>
+        <v>0.02062261503412091</v>
       </c>
       <c r="O258" t="n">
-        <v>0.157176824667448</v>
+        <v>0.1568914390986684</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01308479440841315</v>
+        <v>0.02074911742554743</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1566483915662425</v>
+        <v>0.1577043481095424</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01915017850703166</v>
+        <v>0.03999486594061585</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1588096633665737</v>
+        <v>0.1547052140259006</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04750925293012659</v>
+        <v>0.05953336937735215</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1450059257473665</v>
+        <v>0.1546531834596613</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05601606551434674</v>
+        <v>0.02074911742554743</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1579912123600255</v>
+        <v>0.1577043481095424</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01185440552998389</v>
+        <v>0.02077777823815465</v>
       </c>
       <c r="G260" t="n">
-        <v>0.157455857502151</v>
+        <v>0.1585172571204163</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01860418528799672</v>
+        <v>0.04009396499395088</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1596282698787725</v>
+        <v>0.1555026635827352</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04562659325447058</v>
+        <v>0.0592139134556503</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1457533789728684</v>
+        <v>0.1554503648177007</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05539475274779648</v>
+        <v>0.02077777823815465</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1588056000526029</v>
+        <v>0.1585172571204163</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01062178763358276</v>
+        <v>0.02050863553218386</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1582633234380595</v>
+        <v>0.1593301661312902</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01835405994027189</v>
+        <v>0.04019327784655827</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1604468763909713</v>
+        <v>0.1563001131395697</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04513358853741192</v>
+        <v>0.05809934400048561</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1465008321983703</v>
+        <v>0.1562475461757402</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05398267879287494</v>
+        <v>0.02050863553218386</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1596199877451804</v>
+        <v>0.1593301661312902</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0123869479260723</v>
+        <v>0.02044172736787643</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1590707893739679</v>
+        <v>0.1601430751421641</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01759988593338724</v>
+        <v>0.03999279669204736</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1612654829031702</v>
+        <v>0.1570975626964042</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04363077778860339</v>
+        <v>0.05758971753088449</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1472482854238722</v>
+        <v>0.1570447275337797</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05347994722031929</v>
+        <v>0.02044172736787643</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1604343754377578</v>
+        <v>0.1601430751421641</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01214989361431499</v>
+        <v>0.02047709180547368</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1598782553098764</v>
+        <v>0.1609559841530381</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01724174673687287</v>
+        <v>0.04019251372402738</v>
       </c>
       <c r="K263" t="n">
-        <v>0.162084089415369</v>
+        <v>0.1578950122532388</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04281870001769786</v>
+        <v>0.05748509056587292</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1479957386493741</v>
+        <v>0.1578419088918192</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05168666160086671</v>
+        <v>0.02047709180547368</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1612487631303353</v>
+        <v>0.1609559841530381</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009910631905173342</v>
+        <v>0.02051476690521693</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1606857212457848</v>
+        <v>0.161768893163912</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01667972582025883</v>
+        <v>0.03959242113610753</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1629026959275678</v>
+        <v>0.1586924618100733</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0412978942343481</v>
+        <v>0.05668551962447749</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1487431918748759</v>
+        <v>0.1586390902498587</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05200292550525443</v>
+        <v>0.02051476690521693</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1620631508229127</v>
+        <v>0.161768893163912</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1203.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1203.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.7920883091822406</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03960441545911203</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03960441545911203</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06336706473457925</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08676264927546722</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01929876046313414</v>
+        <v>0.03676264927546721</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01967784325794571</v>
+        <v>0.02537006494311765</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001154757776533878</v>
+        <v>0.000996386475610414</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008129090108739297</v>
+        <v>0.0007609349994254309</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003314168337238826</v>
+        <v>0.001273837494119447</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007974495568345393</v>
+        <v>0.0008129090108739297</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004752811671846269</v>
+        <v>0.003515968957040094</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007971813580394911</v>
+        <v>0.0007930167879747441</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001154757776533878</v>
+        <v>0.006530718591017115</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008129090108739297</v>
+        <v>0.0007908226725312539</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002581752322028022</v>
+        <v>0.002000553857064734</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001625818021747859</v>
+        <v>0.001521869998850862</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006545288380856606</v>
+        <v>0.002608545757345794</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001594899113669079</v>
+        <v>0.001625818021747859</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01116205903423728</v>
+        <v>0.007018730619201496</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001594362716078982</v>
+        <v>0.001586033575949488</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002581752322028022</v>
+        <v>0.01228077818259732</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001625818021747859</v>
+        <v>0.001581645345062508</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003672329191291859</v>
+        <v>0.00301232014190899</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002438727032621789</v>
+        <v>0.002282804998276293</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009934865178162583</v>
+        <v>0.004198240505547332</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002392348670503618</v>
+        <v>0.002438727032621789</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01623733082997314</v>
+        <v>0.01090643328654747</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002391544074118473</v>
+        <v>0.002379050363924232</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.003672329191291859</v>
+        <v>0.01875839255395806</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002438727032621789</v>
+        <v>0.002372468017593762</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004917833939134836</v>
+        <v>0.004031503327689201</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003251636043495719</v>
+        <v>0.003043739997701723</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
+        <v>0.005537037454592345</v>
+      </c>
+      <c r="K69" s="171" t="n">
+        <v>0.003251636043495719</v>
+      </c>
+      <c r="L69" s="172" t="n">
         <v>0.01299999999999998</v>
       </c>
-      <c r="K69" s="171" t="n">
-        <v>0.003092916666666663</v>
-      </c>
-      <c r="L69" s="172" t="n">
-        <v>0.02168821580185409</v>
-      </c>
       <c r="M69" s="170" t="n">
-        <v>0.003188725432157964</v>
+        <v>0.00283753822629969</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.004917833939134836</v>
+        <v>0.02397177548431634</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003251636043495719</v>
+        <v>0.003163290690125016</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.007851249999999999</v>
+        <v>0.01696059092036473</v>
       </c>
       <c r="B70" t="n">
-        <v>0.011</v>
+        <v>0.02376264927546722</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00620961212036638</v>
+        <v>0.005057921411951397</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004064545054369648</v>
+        <v>0.003804674997127154</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01596998425203308</v>
+        <v>0.00691905232034911</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003987247784172696</v>
+        <v>0.004064545054369648</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0277243026926805</v>
+        <v>0.01706558780759529</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003985906790197455</v>
+        <v>0.00396508393987372</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.00620961212036638</v>
+        <v>0.02800000000000002</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004064545054369648</v>
+        <v>0.00370092592592593</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00753900928979595</v>
+        <v>0.006091392392241608</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004877454065243579</v>
+        <v>0.004565609996552585</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01851708189536155</v>
+        <v>0.007938400818685909</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004784697341007236</v>
+        <v>0.004877454065243579</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03399999999999997</v>
+        <v>0.0196059297089034</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00510894736842105</v>
+        <v>0.004758100727848464</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.00753900928979595</v>
+        <v>0.03330924331909207</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004877454065243579</v>
+        <v>0.004744936035187524</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008397371002232951</v>
+        <v>0.00713173426610586</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005690363076117508</v>
+        <v>0.005326544995978016</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0203731518579586</v>
+        <v>0.009189198665471021</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005582146897841775</v>
+        <v>0.005690363076117508</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03506433469320774</v>
+        <v>0.02185002644216563</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005580269506276437</v>
+        <v>0.005551117515823208</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008397371002232951</v>
+        <v>0.03715806358034529</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005690363076117508</v>
+        <v>0.005535758707718778</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009376042812486857</v>
+        <v>0.008178765031090197</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006503272086991438</v>
+        <v>0.006087479995403447</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02294235786295581</v>
+        <v>0.01026556157657275</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006379596454676314</v>
+        <v>0.006503272086991438</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03942100354236094</v>
+        <v>0.02439968131134662</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006377450864315929</v>
+        <v>0.006344134303797952</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.009376042812486857</v>
+        <v>0.0409185366221762</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006503272086991438</v>
+        <v>0.006326581380250032</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01036637027536708</v>
+        <v>0.009232302684740616</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007316181097865367</v>
+        <v>0.006848414994828877</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0248288636334851</v>
+        <v>0.01126160526785935</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007177046011510853</v>
+        <v>0.007316181097865367</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04247621758256093</v>
+        <v>0.02735669762041107</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007174632222355419</v>
+        <v>0.007137151091772696</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01036637027536708</v>
+        <v>0.04579755496217147</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007316181097865367</v>
+        <v>0.007117404052781286</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.011</v>
+        <v>0.01029216522460316</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007851249999999999</v>
+        <v>0.007609349994254308</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02753683289267797</v>
+        <v>0.0121714454551991</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007974495568345391</v>
+        <v>0.008129090108739296</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04544872476050427</v>
+        <v>0.02982287867332364</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00797181358039491</v>
+        <v>0.00793016787974744</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.011</v>
+        <v>0.04850201111791769</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007851249999999999</v>
+        <v>0.00790822672531254</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01179025287648001</v>
+        <v>0.01135817064822386</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008941999119613226</v>
+        <v>0.00837028499367974</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02987042936366624</v>
+        <v>0.01288919785446033</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00877194512517993</v>
+        <v>0.008941999119613226</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04875727302288757</v>
+        <v>0.03150002777404906</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008768994938434402</v>
+        <v>0.008723184667722183</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01179025287648001</v>
+        <v>0.05243879760700154</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008941999119613226</v>
+        <v>0.008699049397843795</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01256558358074085</v>
+        <v>0.01243013695314874</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009754908130487157</v>
+        <v>0.00913121999310517</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03123381676958156</v>
+        <v>0.014</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009569394682014471</v>
+        <v>0.009992500000000001</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05222061031640757</v>
+        <v>0.03398994822655194</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009566176296473891</v>
+        <v>0.009516201455696928</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01256558358074085</v>
+        <v>0.05661480694700965</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009754908130487157</v>
+        <v>0.009489872070375048</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01319508904827783</v>
+        <v>0.01350788213692383</v>
       </c>
       <c r="G78" t="n">
+        <v>0.009892154992530601</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01443302660626691</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01056781714136109</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03323115883355571</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01036684423884901</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.05505748458776089</v>
+        <v>0.03599444333479698</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01036335765451338</v>
+        <v>0.01030921824367167</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01319508904827783</v>
+        <v>0.05993693165552855</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01056781714136109</v>
+        <v>0.0102806947429063</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01378568833246298</v>
+        <v>0.01459122419709515</v>
       </c>
       <c r="G79" t="n">
+        <v>0.01065308999195603</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01478672025369886</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01138072615223502</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03546661927872027</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01116429379568355</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.0576866437836443</v>
+        <v>0.03801531640274888</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01116053901255287</v>
+        <v>0.01110223503164642</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01378568833246298</v>
+        <v>0.06271206425014503</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01138072615223502</v>
+        <v>0.01107151741543756</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01434430048666827</v>
+        <v>0.01567998113120874</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01141402499138146</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0153824555306111</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01219363516310895</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03784436182820708</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01196174335251809</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06032683585075432</v>
+        <v>0.04035437073437234</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01195772037059237</v>
+        <v>0.01189525181962116</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01434430048666827</v>
+        <v>0.06534709724844578</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01219363516310895</v>
+        <v>0.01186234008796881</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01477784456426573</v>
+        <v>0.01677397093681061</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01217495999080689</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01593148724297064</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01300654417398288</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03956855020514782</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01275919290935263</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06259680873578749</v>
+        <v>0.04221340963363199</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01275490172863186</v>
+        <v>0.0126882686075959</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01477784456426573</v>
+        <v>0.06784892316801722</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01300654417398288</v>
+        <v>0.01265316276050006</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01539323961862735</v>
+        <v>0.01787301161144681</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01293589499023232</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01614507019674451</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.0138194531848568</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04104334813267413</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01355664246618717</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.06571531038544082</v>
+        <v>0.04349423640449251</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01355208308667135</v>
+        <v>0.01348128539557065</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01539323961862735</v>
+        <v>0.07179585918496967</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0138194531848568</v>
+        <v>0.0135566916648868</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01589740470312516</v>
+        <v>0.01897692115266336</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01369682998965775</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0166344591978997</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01463236219573073</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04317291933391776</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01435409202302171</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.06800108874641064</v>
+        <v>0.04554730982405192</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01434926444471084</v>
+        <v>0.01420244315723768</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01589740470312516</v>
+        <v>0.07283273308514215</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01463236219573073</v>
+        <v>0.01423480810556257</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01619725887113113</v>
+        <v>0.02008551755800626</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01445776498908318</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01701090905240323</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01544527120660466</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04554730982405192</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01548066304138907</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.07179585918496967</v>
+        <v>0.04728347927639218</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01541181789271342</v>
+        <v>0.01506731897152013</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01619725887113113</v>
+        <v>0.07546219084054923</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01544527120660466</v>
+        <v>0.01502563077809383</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01669972117601728</v>
+        <v>0.02119861882502158</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01521869998850862</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01728567456622206</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01625818021747859</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04562463526608743</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01594899113669078</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.07256070716091506</v>
+        <v>0.04818373502780479</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01594362716078982</v>
+        <v>0.01586033575949488</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01669972117601728</v>
+        <v>0.07850921569438496</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01625818021747859</v>
+        <v>0.01581645345062508</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01741171067115563</v>
+        <v>0.02231604295125532</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01597963498793405</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01757001054532326</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01707108922835252</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04751294683194029</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01674644069352533</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.07560743562461641</v>
+        <v>0.05029627367767331</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01674080851882931</v>
+        <v>0.01665335254746962</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01741171067115563</v>
+        <v>0.08196873280564027</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01707108922835252</v>
+        <v>0.01660727612315633</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0178401464099182</v>
+        <v>0.02376264927546722</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01696059092036473</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01807517179567379</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01788399823922645</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04992771337116952</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01754389025035986</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.07830851751360979</v>
+        <v>0.0520175602266226</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0175379898768688</v>
+        <v>0.01744636933544437</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0178401464099182</v>
+        <v>0.08373566733330595</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01788399823922645</v>
+        <v>0.01739809879568759</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01849194744567693</v>
+        <v>0.02457989426544213</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01750150498678491</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01851241312324069</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01869690725010038</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05156430817258453</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0183413398071944</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.08045610325468822</v>
+        <v>0.05394405967527768</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01833517123490829</v>
+        <v>0.01823938612341911</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01849194744567693</v>
+        <v>0.08590494443637287</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01869690725010038</v>
+        <v>0.01818892146821884</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
+        <v>0.02578100276284513</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.01826243998621034</v>
+      </c>
+      <c r="J89" t="n">
         <v>0.01929876046313414</v>
       </c>
-      <c r="G89" t="n">
+      <c r="K89" t="n">
         <v>0.01967784325794571</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.05261810452499471</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01913878936402894</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.0831423432746447</v>
+        <v>0.05547223702426357</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01913235259294778</v>
+        <v>0.01903240291139386</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01929876046313414</v>
+        <v>0.08897148927383175</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01967784325794571</v>
+        <v>0.0189797441407501</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01949672585954826</v>
+        <v>0.02702629089623398</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01902337498563577</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0194292664775489</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.02032272527184824</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05428447571720951</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01993623892086348</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.0863593880002726</v>
+        <v>0.0574985572742053</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01992953395098728</v>
+        <v>0.0198254196993686</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01949672585954826</v>
+        <v>0.09253022700467356</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02032272527184824</v>
+        <v>0.01977056681328135</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02016772513713896</v>
+        <v>0.02829809921686628</v>
       </c>
       <c r="G91" t="n">
+        <v>0.0197843099850612</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02012577760859033</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02113563428272217</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05605879503803846</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02073368847769802</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.08859938785836469</v>
+        <v>0.05851948542572785</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02072671530902677</v>
+        <v>0.02061843648734334</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02016772513713896</v>
+        <v>0.0952760827878889</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02113563428272217</v>
+        <v>0.0205613894858126</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02108231834568178</v>
+        <v>0.02957876827599971</v>
       </c>
       <c r="G92" t="n">
+        <v>0.02054524498448663</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02077705777195199</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.0219485432935961</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05783643577629088</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02153113803453256</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.09175449327571422</v>
+        <v>0.06073148647945623</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02152389666706626</v>
+        <v>0.02141145327531809</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02108231834568178</v>
+        <v>0.09690398178246873</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0219485432935961</v>
+        <v>0.02135221215834386</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02183547698191136</v>
+        <v>0.03085063862489187</v>
       </c>
       <c r="G93" t="n">
+        <v>0.02130617998391206</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0216774461201831</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02276145230447003</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.0602127712207762</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.0223285875913671</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.09491685467911426</v>
+        <v>0.06213102543601542</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02232107802510575</v>
+        <v>0.02220447006329283</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02183547698191136</v>
+        <v>0.09950884914740393</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02276145230447003</v>
+        <v>0.02214303483087511</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02252217254256243</v>
+        <v>0.03209605081480038</v>
       </c>
       <c r="G94" t="n">
+        <v>0.02206711498333749</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02212128180583292</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02357436131534396</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.06148317466030392</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02312603714820164</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.09647862249535771</v>
+        <v>0.06431456729603047</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02311825938314524</v>
+        <v>0.02299748685126758</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02252217254256243</v>
+        <v>0.1028856100416852</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02357436131534396</v>
+        <v>0.02293385750340636</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02333737652436968</v>
+        <v>0.03329734539698291</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02282804998276293</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02320290398145065</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02438727032621789</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.06364301938368339</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02392348670503618</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09933194715123789</v>
+        <v>0.06577857706012638</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02391544074118473</v>
+        <v>0.02379050363924232</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02333737652436968</v>
+        <v>0.1051291896243035</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02438727032621789</v>
+        <v>0.02372468017593762</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0242760604240678</v>
+        <v>0.03443686292269707</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02358898498218836</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02371665179958553</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02520017933709182</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.06578767867972407</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02472093626187071</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1031689790735477</v>
+        <v>0.06721951972892817</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02471262209922422</v>
+        <v>0.02458352042721706</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0242760604240678</v>
+        <v>0.1079345130542496</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02520017933709182</v>
+        <v>0.02451550284846887</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02503319573839143</v>
+        <v>0.03549694394320051</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02434991998161379</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02455686441278682</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02601308834796575</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.06661252583723537</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02551838581870526</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1055818686890803</v>
+        <v>0.0690338603030608</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02550980345726371</v>
+        <v>0.02537653721519181</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02503319573839143</v>
+        <v>0.1105965054905141</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02601308834796575</v>
+        <v>0.02530632552100013</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02580375396407533</v>
+        <v>0.03676264927546721</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02537006494311765</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02541788097360374</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02682599735883968</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06881293414502676</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.0263158353755398</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1080627664246288</v>
+        <v>0.07051806378314929</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0263069848153032</v>
+        <v>0.02616955400316655</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02580375396407533</v>
+        <v>0.1126100920920882</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02682599735883968</v>
+        <v>0.02609714819353138</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02668270659785416</v>
+        <v>0.03733490745222275</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02587178998046465</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02639404063458553</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02763890636971361</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.07038427689190765</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02711328493237433</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1110038227069863</v>
+        <v>0.07256859516981867</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02710416617334269</v>
+        <v>0.02696257079114129</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02668270659785416</v>
+        <v>0.1145701980179625</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02763890636971361</v>
+        <v>0.02688797086606264</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02776502513646259</v>
+        <v>0.0381994771325038</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02663272497989008</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02737968254828142</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02845181538058754</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.07192192736668745</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02791073448920887</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1137971879629457</v>
+        <v>0.07378191946369397</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02790134753138219</v>
+        <v>0.02775558757911604</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02776502513646259</v>
+        <v>0.117271748427128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02845181538058754</v>
+        <v>0.02767879353859389</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02864568107663532</v>
+        <v>0.03905613478009516</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02739365997931551</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02806914586724066</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02926472439146147</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.07362125885817561</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02870818404604341</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1157350126193002</v>
+        <v>0.0754545016654001</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02869852888942168</v>
+        <v>0.02854860436709078</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02864568107663532</v>
+        <v>0.1195096684785752</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02926472439146147</v>
+        <v>0.02846961621112514</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02951964591510708</v>
+        <v>0.03990049419819647</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02815459497874094</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02905676974401246</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.0300776334023354</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.07567764465518151</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02950563360287795</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.117609447102843</v>
+        <v>0.07638280677556214</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02949571024746117</v>
+        <v>0.02934162115506553</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02951964591510708</v>
+        <v>0.1206788833312953</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0300776334023354</v>
+        <v>0.0292604388836564</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03048189114861252</v>
+        <v>0.04072816919000724</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02891552997816637</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03013689333114608</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03089054241320933</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.07638645804651467</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.03030308315971249</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.120712641840367</v>
+        <v>0.07826329979480512</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03029289160550066</v>
+        <v>0.03013463794304027</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03048189114861252</v>
+        <v>0.1235743181442789</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03089054241320933</v>
+        <v>0.03005126155618765</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03102738827388633</v>
+        <v>0.04153477355872709</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02967646497759181</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03090385578119074</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03170345142408326</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.07804307232098442</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03110053271654703</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1234367472586653</v>
+        <v>0.07919244572375397</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03109007296354015</v>
+        <v>0.03092765473101501</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03102738827388633</v>
+        <v>0.1254908980765169</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03170345142408326</v>
+        <v>0.03084208422871891</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03185110878766323</v>
+        <v>0.04231592110755557</v>
       </c>
       <c r="G105" t="n">
+        <v>0.03043739997701723</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03175199624669568</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03251636043495718</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.07984286076740019</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03189798227338157</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.124873913784531</v>
+        <v>0.08046670956303373</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03188725432157964</v>
+        <v>0.03172067151898976</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03185110878766323</v>
+        <v>0.127823548287</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03251636043495718</v>
+        <v>0.03163290690125016</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03294802418667786</v>
+        <v>0.04306722563969227</v>
       </c>
       <c r="G106" t="n">
+        <v>0.03119833497644267</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03237565388021015</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03332926944583112</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.08068119667457149</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03269543183021611</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1278162918447572</v>
+        <v>0.08198255631326948</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03268443567961913</v>
+        <v>0.0325136883069645</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03294802418667786</v>
+        <v>0.1291671939347191</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03332926944583112</v>
+        <v>0.03242372957378142</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03351310596766495</v>
+        <v>0.04378430095833677</v>
       </c>
       <c r="G107" t="n">
+        <v>0.03195926997586809</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03336916783428337</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03414217845670504</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.08235345333130772</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03349288138705065</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1298560318661371</v>
+        <v>0.08253645097508608</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03348161703765862</v>
+        <v>0.03330670509493925</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03351310596766495</v>
+        <v>0.1314167601786651</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03414217845670504</v>
+        <v>0.03321455224631267</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03414132562735918</v>
+        <v>0.04446276086668863</v>
       </c>
       <c r="G108" t="n">
+        <v>0.03272020497529353</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03402687726146456</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03495508746757897</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.08305500402641827</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03429033094388519</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1313852842754635</v>
+        <v>0.08422485854910869</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03427879839569812</v>
+        <v>0.03409972188291399</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03414132562735918</v>
+        <v>0.1321671721778289</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03495508746757897</v>
+        <v>0.03400537491884392</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03482765466249525</v>
+        <v>0.04509821916794746</v>
       </c>
       <c r="G109" t="n">
+        <v>0.03348113997471896</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.03484312131430298</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03576799647845291</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.0848812220487126</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03508778050071972</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1322961994995297</v>
+        <v>0.08504424403596217</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03507597975373761</v>
+        <v>0.03489273867088873</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03482765466249525</v>
+        <v>0.134113355091201</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03576799647845291</v>
+        <v>0.03479619759137518</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03566706456980782</v>
+        <v>0.04568628966531281</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03424207497414439</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03541223914534787</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03658090548932683</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.08572748068700009</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03588523005755426</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1351809279651288</v>
+        <v>0.08639107243627167</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0358731611117771</v>
+        <v>0.03568575545886348</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03566706456980782</v>
+        <v>0.1355502340777725</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03658090548932683</v>
+        <v>0.03558702026390643</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03635452684603162</v>
+        <v>0.04622258616198426</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03500300997356982</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03622856990714846</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03739381450020076</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.08668915323009027</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03668267961438881</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1360316200990536</v>
+        <v>0.08706180875066208</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03667034246981658</v>
+        <v>0.03647877224683822</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03635452684603162</v>
+        <v>0.1372727342965342</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03739381450020076</v>
+        <v>0.03637784293643768</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03658501298790133</v>
+        <v>0.04670272246116139</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03576394497299525</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.03678645275225395</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03820672351107469</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.0873616129667924</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03748012917122334</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1380404263280974</v>
+        <v>0.08715291797975844</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03746752382785608</v>
+        <v>0.03727178903481296</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03658501298790133</v>
+        <v>0.1380757809064768</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03820672351107469</v>
+        <v>0.03716866560896894</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03725349449215158</v>
+        <v>0.04712231236604378</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03652487997242068</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03708022683321363</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03901963252194863</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.08804023318591614</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03827757872805788</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1383994970790534</v>
+        <v>0.08836086512418584</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03826470518589557</v>
+        <v>0.03806480582278771</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03725349449215158</v>
+        <v>0.1386542990665912</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03901963252194863</v>
+        <v>0.03795948828150019</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03765494285551715</v>
+        <v>0.04747696967983099</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03728581497184611</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.0376042313025767</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03983254153282256</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.08882038717627069</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03907502828489242</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1404009827787144</v>
+        <v>0.08848211518456914</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03906188654393506</v>
+        <v>0.03885782261076245</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03765494285551715</v>
+        <v>0.1400032139358682</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03983254153282256</v>
+        <v>0.03875031095403145</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03788432957473267</v>
+        <v>0.0477670633867409</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03804674997127154</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03795280531289241</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.04064545054369648</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.08949744822666561</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03987247784172696</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1415370338538736</v>
+        <v>0.08951313316153348</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03985906790197456</v>
+        <v>0.0396508393987372</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03788432957473267</v>
+        <v>0.1416174506732987</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04064545054369648</v>
+        <v>0.0395411336265627</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03813662614653286</v>
+        <v>0.04803991545279095</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03880768497069698</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03812028801670998</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04145835955457042</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.09016678962591027</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.0406699273985615</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1421998007313241</v>
+        <v>0.0901503840557038</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04065624926001404</v>
+        <v>0.04044385618671194</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03813662614653286</v>
+        <v>0.1415919344378734</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04145835955457042</v>
+        <v>0.04033195629909395</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03820680406765242</v>
+        <v>0.04830869862561459</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03956861997012241</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0385010185665787</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04227126856544434</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.09032378466281413</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04146737695539604</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1418814338378591</v>
+        <v>0.09039033286770509</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04145343061805353</v>
+        <v>0.04123687297468669</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03820680406765242</v>
+        <v>0.1425215903885832</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04227126856544434</v>
+        <v>0.04112277897162521</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
+        <v>0.04857334734820598</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.04032955496954784</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.03859752092626828</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.04308417757631827</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.09076380662618658</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04226482651223058</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1429740836002713</v>
+        <v>0.09032944459816239</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04225061197609302</v>
+        <v>0.04202988976266143</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03859752092626828</v>
+        <v>0.1429013436844189</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04308417757631827</v>
+        <v>0.04191360164415646</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03829484975137869</v>
+        <v>0.0488337960635593</v>
       </c>
       <c r="G119" t="n">
+        <v>0.04109048996897326</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.03859453454383917</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04389708658719221</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.09109461964810381</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04306227606906512</v>
-      </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
+        <v>0.04282290655063618</v>
+      </c>
+      <c r="N119" t="n">
         <v>0.1435917183699393</v>
       </c>
-      <c r="M119" t="n">
-        <v>0.04304779333413251</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.03829484975137869</v>
-      </c>
       <c r="O119" t="n">
-        <v>0.04389708658719221</v>
+        <v>0.04270442431668772</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03827860913725918</v>
+        <v>0.04908997921466868</v>
       </c>
       <c r="G120" t="n">
+        <v>0.0418514249683987</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03847637051379781</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04470999559806613</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.09048818551484136</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04385972562589966</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1429892221363724</v>
+        <v>0.09039382920700204</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04384497469217201</v>
+        <v>0.04361592333861092</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03827860913725918</v>
+        <v>0.1429914408796298</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04470999559806613</v>
+        <v>0.04349524698921897</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03834824450302135</v>
+        <v>0.04934183124452826</v>
       </c>
       <c r="G121" t="n">
+        <v>0.04261235996782413</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03824239281817804</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04552290460894006</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.09014538800022157</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.0446571751827342</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1421715375962063</v>
+        <v>0.0908756916803776</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0446421560502115</v>
+        <v>0.04440894012658567</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03834824450302135</v>
+        <v>0.1424603163861257</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04552290460894006</v>
+        <v>0.04428606966175022</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0384044623056803</v>
+        <v>0.04958928659613224</v>
       </c>
       <c r="G122" t="n">
+        <v>0.04337329496724956</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03849337483314</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.046335813619814</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.09056409695302101</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04545462473956874</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1426370485780829</v>
+        <v>0.09083422460599394</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04543933740825099</v>
+        <v>0.04520195691456041</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0384044623056803</v>
+        <v>0.143378937497718</v>
       </c>
       <c r="O122" t="n">
-        <v>0.046335813619814</v>
+        <v>0.04507689233428148</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0383479690022511</v>
+        <v>0.04983227971247473</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04413422996667499</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03813008993484385</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04714872263068792</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.09034624003971392</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04625207429640327</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1422859429111178</v>
+        <v>0.09017027278153328</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04623651876629048</v>
+        <v>0.04599497370253516</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0383479690022511</v>
+        <v>0.1433491539631963</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04714872263068792</v>
+        <v>0.04586771500681273</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03827947104974881</v>
+        <v>0.05007074503654987</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04489516496610042</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03835331149944973</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04796163164156185</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.08979374492677453</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04704952385323782</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1433184084244265</v>
+        <v>0.0899846810046778</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04703370012432997</v>
+        <v>0.0467879904905099</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03827947104974881</v>
+        <v>0.1420728155313504</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04796163164156185</v>
+        <v>0.04665853767934398</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03809967490518855</v>
+        <v>0.05030461701135185</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04565609996552585</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03806381290311779</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04877454065243578</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.09030853928067717</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04784697341007236</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1426346329471245</v>
+        <v>0.09037829407310971</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04783088148236946</v>
+        <v>0.04758100727848464</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03809967490518855</v>
+        <v>0.1418517719509702</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04877454065243578</v>
+        <v>0.04744936035187524</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03810928702558539</v>
+        <v>0.05053383007987479</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04641703496495129</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03786236752200824</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04958744966330971</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.08979255076789605</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04864442296690689</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1419348043083273</v>
+        <v>0.09065195678451124</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04862806284040895</v>
+        <v>0.04837402406645939</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03810928702558539</v>
+        <v>0.1425878729708451</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04958744966330971</v>
+        <v>0.04824018302440649</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0381090138679544</v>
+        <v>0.05075831868511285</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04717796996437671</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03804974873228115</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.05040035867418364</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.08954770705490545</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04944187252374143</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1420191103371505</v>
+        <v>0.08970651393656462</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04942524419844845</v>
+        <v>0.04916704085443413</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0381090138679544</v>
+        <v>0.1414829683397652</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05040035867418364</v>
+        <v>0.04903100569693775</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03769956188931069</v>
+        <v>0.0509780172700602</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04793890496380215</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03782672991009671</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05121326768505757</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.08897593580817961</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.05023932208057597</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1417877388627096</v>
+        <v>0.09034281032695202</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05022242555648793</v>
+        <v>0.04996005764240887</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03769956188931069</v>
+        <v>0.1420389078065201</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05121326768505757</v>
+        <v>0.049821828369469</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0378816375466693</v>
+        <v>0.05119286027771094</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04869983996322758</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03749408443161509</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.0520261766959315</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.08897916469419279</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05103677163741051</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1415408777141201</v>
+        <v>0.09016169075335564</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05101960691452743</v>
+        <v>0.05075307443038362</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0378816375466693</v>
+        <v>0.1410575411198995</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0520261766959315</v>
+        <v>0.05061265104200025</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03775594729704537</v>
+        <v>0.0514027821510593</v>
       </c>
       <c r="G130" t="n">
+        <v>0.049460774962653</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.0376525856729964</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05283908570680543</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.08865932137941929</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05183422119424505</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1421787147204975</v>
+        <v>0.08956400001345774</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05181678827256692</v>
+        <v>0.05154609121835836</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03775594729704537</v>
+        <v>0.1403407180286932</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05283908570680543</v>
+        <v>0.05140347371453151</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03742319759745394</v>
+        <v>0.05160771733309936</v>
       </c>
       <c r="G131" t="n">
+        <v>0.05022170996207844</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03730300701040082</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05365199471767936</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.08841833353033335</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05263167075107959</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1417014377109573</v>
+        <v>0.08885058290494049</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0526139696306064</v>
+        <v>0.0523391080063331</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03742319759745394</v>
+        <v>0.140290288281691</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05365199471767936</v>
+        <v>0.05219429638706276</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03728409490491011</v>
+        <v>0.05180760026682533</v>
       </c>
       <c r="G132" t="n">
+        <v>0.05098264496150386</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.0373461218199885</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05446490372855329</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.0876581288134092</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05342912030791413</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1416092345146153</v>
+        <v>0.08942228422548615</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05341115098864589</v>
+        <v>0.05313212479430785</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03728409490491011</v>
+        <v>0.1399081016276825</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05446490372855329</v>
+        <v>0.05298511905959402</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03723934567642896</v>
+        <v>0.05200236539523131</v>
       </c>
       <c r="G133" t="n">
+        <v>0.0517435799609293</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0371827034779196</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05527781273942722</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.08718063489512115</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05422656986474866</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1416022929605867</v>
+        <v>0.08887994877277688</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05420833234668539</v>
+        <v>0.05392514158228259</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03723934567642896</v>
+        <v>0.1397960078154575</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05527781273942722</v>
+        <v>0.05377594173212528</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03708965636902557</v>
+        <v>0.05219194716131147</v>
       </c>
       <c r="G134" t="n">
+        <v>0.05250451496035473</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03681352536035425</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05609072175030114</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.08728777944194341</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05502401942158321</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1416808008779871</v>
+        <v>0.08882442134449489</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05500551370472488</v>
+        <v>0.05471815837025734</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03708965636902557</v>
+        <v>0.1381558565938058</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05609072175030114</v>
+        <v>0.05456676440465653</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03703573343971504</v>
+        <v>0.05237628000805997</v>
       </c>
       <c r="G135" t="n">
+        <v>0.05326544995978016</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03663936084345261</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05690363076117508</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.0867814901203503</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05582146897841774</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1412449460959321</v>
+        <v>0.08815654673832246</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05580269506276438</v>
+        <v>0.05551117515823208</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03703573343971504</v>
+        <v>0.1375894977115171</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05690363076117508</v>
+        <v>0.05535758707718778</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03657828334551246</v>
+        <v>0.05255529837847095</v>
       </c>
       <c r="G136" t="n">
+        <v>0.05402638495920559</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.03666098330337483</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05771653977204901</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.08606369459681606</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05661891853525229</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1407949164435372</v>
+        <v>0.0879771697519417</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05659987642080386</v>
+        <v>0.05630419194620682</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03657828334551246</v>
+        <v>0.1374987809173812</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05771653977204901</v>
+        <v>0.05614840974971904</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03641801254343287</v>
+        <v>0.05272893671553858</v>
       </c>
       <c r="G137" t="n">
+        <v>0.05478731995863102</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03637916611628109</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05852944878292293</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.0855363205378149</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05741636809208683</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1402308997499179</v>
+        <v>0.08728713518303491</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05739705777884335</v>
+        <v>0.05709720873418157</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03641801254343287</v>
+        <v>0.1365855559601877</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05852944878292293</v>
+        <v>0.05693923242225029</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03655562749049138</v>
+        <v>0.05289712946225697</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05554825495805646</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.03629468265833151</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05934235779379687</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.08550129560982117</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05821381764892136</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1399530838441897</v>
+        <v>0.08698728782928425</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05819423913688284</v>
+        <v>0.05789022552215631</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03655562749049138</v>
+        <v>0.1365516725887265</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05934235779379687</v>
+        <v>0.05773005509478155</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03629183464370309</v>
+        <v>0.0530598110616203</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05630918995748189</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03610830630568625</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.06015526680467079</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.08486054747930905</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.0590112672057559</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1398616565554682</v>
+        <v>0.08687847248837194</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05899142049492234</v>
+        <v>0.05868324231013106</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03629183464370309</v>
+        <v>0.1361989805517874</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06015526680467079</v>
+        <v>0.0585208777673128</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03612734046008304</v>
+        <v>0.05321691595662273</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05707012495690731</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.03572081043450545</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.06096817581554472</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.08501600381275284</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05980871676259044</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1388568057128689</v>
+        <v>0.0867615339579802</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05978860185296183</v>
+        <v>0.0594762590981058</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03612734046008304</v>
+        <v>0.1351293295981598</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06096817581554472</v>
+        <v>0.05931170043984405</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03586285139664634</v>
+        <v>0.05336837859025841</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05783105995633274</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03553296842094932</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06178108482641866</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.08446959227662681</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.06060616631942498</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1391387191455074</v>
+        <v>0.08693731703579122</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06058578321100132</v>
+        <v>0.06026927588608054</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03586285139664634</v>
+        <v>0.1337445694766339</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06178108482641866</v>
+        <v>0.06010252311237531</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03559907391040809</v>
+        <v>0.05351413340552147</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05859199495575818</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03544555364117793</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06259399383729258</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.08362324053740522</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06140361587625952</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1385075846824991</v>
+        <v>0.08650666651948724</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06138296456904081</v>
+        <v>0.06106229267405529</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03559907391040809</v>
+        <v>0.1329465499359991</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06259399383729258</v>
+        <v>0.06089334578490656</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03553671445838334</v>
+        <v>0.05365411484540607</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05935292995518361</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03505933947135151</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06340690284816651</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.08347887626156228</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06220106543309406</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1380635901529595</v>
+        <v>0.08577042720675046</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0621801459270803</v>
+        <v>0.06185530946203003</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03553671445838334</v>
+        <v>0.1321371207250452</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06340690284816651</v>
+        <v>0.06168416845743781</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03537647949758721</v>
+        <v>0.05378825735290636</v>
       </c>
       <c r="G144" t="n">
+        <v>0.06011386495460904</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03497509928763012</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06421981185904044</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.08303842711557233</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.0629985149899286</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1377069233860043</v>
+        <v>0.08582944389526309</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06297732728511979</v>
+        <v>0.06264832625000478</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03537647949758721</v>
+        <v>0.1325181315925621</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06421981185904044</v>
+        <v>0.06247499112996907</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03531907548503475</v>
+        <v>0.05391649537101649</v>
       </c>
       <c r="G145" t="n">
+        <v>0.06087479995403446</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.034893606466174</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06503272086991436</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.08250382076590956</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06379596454676313</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1371377722107488</v>
+        <v>0.08498456138270732</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06377450864315928</v>
+        <v>0.06344134303797952</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03531907548503475</v>
+        <v>0.1315914322873395</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06503272086991436</v>
+        <v>0.06326581380250032</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03496520887774107</v>
+        <v>0.05403876334273064</v>
       </c>
       <c r="G146" t="n">
+        <v>0.06163573495345991</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03481563438314327</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06584562988078831</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.08237698487904829</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06459341410359767</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1373563244563087</v>
+        <v>0.08493662446676539</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06457169000119878</v>
+        <v>0.06423435982595427</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03496520887774107</v>
+        <v>0.130458872558167</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06584562988078831</v>
+        <v>0.06405663647503157</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03491558613272122</v>
+        <v>0.05415499571104293</v>
       </c>
       <c r="G147" t="n">
+        <v>0.06239666995288533</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03464195641469807</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06665853889166223</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.08125984712146275</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06539086366043222</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1370627679517995</v>
+        <v>0.0845864779451195</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06536887135923826</v>
+        <v>0.065027376613929</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03491558613272122</v>
+        <v>0.1304223021538345</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06665853889166223</v>
+        <v>0.06484745914756283</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0348709137069903</v>
+        <v>0.0542651269189475</v>
       </c>
       <c r="G148" t="n">
+        <v>0.06315760495231076</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03447334593699856</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06747144790253616</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.08165433515962717</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06618831321726676</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1365572905263366</v>
+        <v>0.08403496661545184</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06616605271727775</v>
+        <v>0.06582039340190375</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0348709137069903</v>
+        <v>0.1284835708231317</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06747144790253616</v>
+        <v>0.06563828182009408</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03453189805756342</v>
+        <v>0.05436909140943853</v>
       </c>
       <c r="G149" t="n">
+        <v>0.06391853995173619</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03431057632620491</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06828435691341009</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.08126237666001587</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.0669857627741013</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1367400800090358</v>
+        <v>0.08398293527544465</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06696323407531725</v>
+        <v>0.0666134101898785</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03453189805756342</v>
+        <v>0.1283445283148483</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06828435691341009</v>
+        <v>0.06642910449262533</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03469924564145563</v>
+        <v>0.05446682362551017</v>
       </c>
       <c r="G150" t="n">
+        <v>0.06467947495116162</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03405442095847723</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06909726592428402</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.08038520414813111</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06778321233093583</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1361113242290123</v>
+        <v>0.08363122872278014</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06776041543335674</v>
+        <v>0.06740642697785325</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03469924564145563</v>
+        <v>0.1270070243777741</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06909726592428402</v>
+        <v>0.0672199271651566</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0344724629089692</v>
+        <v>0.05455825801015655</v>
       </c>
       <c r="G151" t="n">
+        <v>0.06544040995058706</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03390565320997573</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06991017493515794</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.08031587155719275</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06858066188777037</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1346712110153818</v>
+        <v>0.08288069175514054</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06855759679139624</v>
+        <v>0.06819944376582798</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0344724629089692</v>
+        <v>0.1263729087606988</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06991017493515794</v>
+        <v>0.06801074983768784</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03444671069473815</v>
+        <v>0.05464332900637185</v>
       </c>
       <c r="G152" t="n">
+        <v>0.06620134495001248</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0336650464568605</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.07072308394603188</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.07925170606075452</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06937811144460491</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1346199281972599</v>
+        <v>0.082832169170208</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06935477814943572</v>
+        <v>0.06899246055380273</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03444671069473815</v>
+        <v>0.1257440312124121</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07072308394603188</v>
+        <v>0.06880157251021909</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03422135906526001</v>
+        <v>0.05472197105715018</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06696227994943792</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03343337407529176</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07153599295690581</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.07979220261569903</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.07017556100143944</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1345576636037619</v>
+        <v>0.08218650576566477</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07015195950747521</v>
+        <v>0.06978547734177747</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03422135906526001</v>
+        <v>0.1256222414817039</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07153599295690581</v>
+        <v>0.06959239518275036</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03389636668028048</v>
+        <v>0.05479411860548573</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06772321494886335</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0336114094414296</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07234890196777974</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.07923685617890883</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.070973010558274</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1346846050640035</v>
+        <v>0.08194454633919304</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0709491408655147</v>
+        <v>0.07057849412975221</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03389636668028048</v>
+        <v>0.1254093893173638</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07234890196777974</v>
+        <v>0.07038321785528161</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03387169219954517</v>
+        <v>0.05485970609437266</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06848414994828878</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03319992593143421</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07316181097865367</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.07888516170726659</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07177046011510853</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1339009404071002</v>
+        <v>0.08120713568847504</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07174632222355419</v>
+        <v>0.07137151091772696</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03387169219954517</v>
+        <v>0.1246073244681817</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07316181097865367</v>
+        <v>0.07117404052781286</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03364729428279976</v>
+        <v>0.05491866796680506</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06924508494771421</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03339969692146572</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07397471998952759</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.07843661415765482</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07256790967194307</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1336068574621674</v>
+        <v>0.08087511861119295</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07254350358159369</v>
+        <v>0.07216452770570171</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03364729428279976</v>
+        <v>0.1240178966829471</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07397471998952759</v>
+        <v>0.07196486320034412</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03362313158978987</v>
+        <v>0.05497093866577714</v>
       </c>
       <c r="G157" t="n">
+        <v>0.07000601994713963</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03311149578768428</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07478762900040152</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.0783907084869562</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07336535922877761</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1331025440583208</v>
+        <v>0.08124933990502908</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07334068493963317</v>
+        <v>0.07295754449367645</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03362313158978987</v>
+        <v>0.12324295571045</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07478762900040152</v>
+        <v>0.07275568587287537</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03359916278026116</v>
+        <v>0.05501645263428301</v>
       </c>
       <c r="G158" t="n">
+        <v>0.07076695494656508</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03293297892870616</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07560053801127546</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.07804693965205328</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07416280878561214</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1322881880246759</v>
+        <v>0.08072600611444558</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07413786629767266</v>
+        <v>0.07375056128165119</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03359916278026116</v>
+        <v>0.1214689428991234</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07560053801127546</v>
+        <v>0.07354650854540662</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03347534651395928</v>
+        <v>0.05505514431531686</v>
       </c>
       <c r="G159" t="n">
+        <v>0.07152788994599051</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03285891187532926</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07641344702214939</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.07700480260982873</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07496025834244668</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1314639771903482</v>
+        <v>0.08009753509013143</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07493504765571216</v>
+        <v>0.07454357806962593</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03347534651395928</v>
+        <v>0.1210706483651084</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07641344702214939</v>
+        <v>0.07433733121793788</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03315164145062989</v>
+        <v>0.05508694815187283</v>
       </c>
       <c r="G160" t="n">
+        <v>0.07228882494541593</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03288891976765276</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07722635603302332</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.07646379231716507</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07575770789928123</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1302300993844531</v>
+        <v>0.07966376156447305</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07573222901375165</v>
+        <v>0.07533659485760069</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03315164145062989</v>
+        <v>0.1204489390398634</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07722635603302332</v>
+        <v>0.07512815389046913</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03322800625001859</v>
+        <v>0.05511179858694505</v>
       </c>
       <c r="G161" t="n">
+        <v>0.07304975994484136</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03272272015210735</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07803926504389726</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.07662340373094495</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07655515745611577</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1296867424361062</v>
+        <v>0.07992465094426504</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07652941037179113</v>
+        <v>0.07612961164557543</v>
       </c>
       <c r="N161" t="n">
-        <v>0.03322800625001859</v>
+        <v>0.1203051603957866</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07803926504389726</v>
+        <v>0.07591897656300038</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03290439957187111</v>
+        <v>0.0551296300635277</v>
       </c>
       <c r="G162" t="n">
+        <v>0.07381069494426679</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03276003057512372</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07885217405477118</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.07578313180805094</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07735260701295031</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1300340941744231</v>
+        <v>0.07958016863630202</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07732659172983063</v>
+        <v>0.07692262843355017</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03290439957187111</v>
+        <v>0.1195406579052766</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07885217405477118</v>
+        <v>0.07670979923553163</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03278078007593303</v>
+        <v>0.05514037702461488</v>
       </c>
       <c r="G163" t="n">
+        <v>0.07457162994369222</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03260056858313257</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07966508306564511</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.07614247150536563</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07815005656978484</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1290723424285193</v>
+        <v>0.07943028004737865</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07812377308787012</v>
+        <v>0.07771564522152491</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03278078007593303</v>
+        <v>0.1176567770407316</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07966508306564511</v>
+        <v>0.07750062190806289</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03295710642195002</v>
+        <v>0.05514397391320082</v>
       </c>
       <c r="G164" t="n">
+        <v>0.07533256494311766</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0326440517225646</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.08047799207651904</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.07580091777977169</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07894750612661938</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1289016750275103</v>
+        <v>0.07867495058428947</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07892095444590962</v>
+        <v>0.07850866200949966</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03295710642195002</v>
+        <v>0.1169548632745505</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08047799207651904</v>
+        <v>0.07829144458059414</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03263333726966773</v>
+        <v>0.05514397391320082</v>
       </c>
       <c r="G165" t="n">
+        <v>0.07533256494311766</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.03279019753985049</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.08129090108739297</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.07535796558815167</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07974495568345392</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1286222798005117</v>
+        <v>0.07781414565382908</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07971813580394911</v>
+        <v>0.07930167879747441</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03263333726966773</v>
+        <v>0.1173362620791313</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08129090108739297</v>
+        <v>0.07908226725312539</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03240943127883181</v>
+        <v>0.05422818383788601</v>
       </c>
       <c r="G166" t="n">
+        <v>0.07533229641465364</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03253872358142096</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08210381009826691</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.07471310988738813</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.08054240524028847</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1272343445766389</v>
+        <v>0.07814783066279216</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08051531716198859</v>
+        <v>0.08009469558544915</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03240943127883181</v>
+        <v>0.1152023189268727</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08210381009826691</v>
+        <v>0.07987308992565666</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0322853471091879</v>
+        <v>0.05332252137460124</v>
       </c>
       <c r="G167" t="n">
+        <v>0.07533202788618963</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.03268934739370673</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08291671910914084</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.07426584563436373</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08133985479712301</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1271380571850075</v>
+        <v>0.0771759710179733</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08131249852002809</v>
+        <v>0.08088771237342389</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0322853471091879</v>
+        <v>0.1153543792901731</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08291671910914084</v>
+        <v>0.08066391259818791</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03236104342048164</v>
+        <v>0.05242743799576828</v>
       </c>
       <c r="G168" t="n">
+        <v>0.0753317593577256</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03244178652313842</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08372962812001476</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.07411566778596104</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08213730435395754</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.125933605454733</v>
+        <v>0.07699853212616703</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08210967987806757</v>
+        <v>0.08168072916139864</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03236104342048164</v>
+        <v>0.113693788641431</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08372962812001476</v>
+        <v>0.08145473527071916</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03223647887245872</v>
+        <v>0.0515433851739255</v>
       </c>
       <c r="G169" t="n">
+        <v>0.07533149082926159</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.03259575851614682</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08454253713088869</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.07336207129906272</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08293475391079208</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1257211772149309</v>
+        <v>0.07661547939416799</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08290686123610706</v>
+        <v>0.08247374594937337</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03223647887245872</v>
+        <v>0.1129218924530448</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08454253713088869</v>
+        <v>0.08224555794325042</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03221161212486476</v>
+        <v>0.05067081438149422</v>
       </c>
       <c r="G170" t="n">
+        <v>0.07533122230079757</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.03235098091916257</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08535544614176262</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.07310455113055131</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08373220346762662</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1245009602947167</v>
+        <v>0.0762267782287708</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08370404259414656</v>
+        <v>0.08326676273734812</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03221161212486476</v>
+        <v>0.1128400361974131</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08535544614176262</v>
+        <v>0.08303638061578167</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03208640183744541</v>
+        <v>0.0498101770909349</v>
       </c>
       <c r="G171" t="n">
+        <v>0.07533095377233356</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03220717127861639</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08616835515263654</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.07354260223730941</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08452965302446115</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1249731425232061</v>
+        <v>0.07593239403677007</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08450122395218604</v>
+        <v>0.08405977952532287</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03208640183744541</v>
+        <v>0.1114495653469342</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08616835515263654</v>
+        <v>0.08382720328831292</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03166080666994631</v>
+        <v>0.04896192477467137</v>
       </c>
       <c r="G172" t="n">
+        <v>0.07533068524386953</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.03216404714093897</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08698126416351049</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.07297571957621962</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08532710258129571</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1242379117295144</v>
+        <v>0.07523229222496042</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08529840531022553</v>
+        <v>0.08485279631329762</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03166080666994631</v>
+        <v>0.1104518253740066</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08698126416351049</v>
+        <v>0.08461802596084418</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03153478528211312</v>
+        <v>0.04812650890523795</v>
       </c>
       <c r="G173" t="n">
+        <v>0.07533041671540552</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03222132605256098</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08779417317438441</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.07230339810416456</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08612455213813024</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1236954557427574</v>
+        <v>0.0751264382001364</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08609558666826503</v>
+        <v>0.08564581310127235</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03153478528211312</v>
+        <v>0.1092481617510287</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08779417317438441</v>
+        <v>0.08540884863337543</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03170829633369147</v>
+        <v>0.04730438095505797</v>
       </c>
       <c r="G174" t="n">
+        <v>0.0753301481869415</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03207872555991317</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08860708218525834</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.07232513277802685</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08692200169496478</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1229323465425221</v>
+        <v>0.07441479736909268</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08689276802630452</v>
+        <v>0.0864388298892471</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03170829633369147</v>
+        <v>0.1094399199503991</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08860708218525834</v>
+        <v>0.08619967130590668</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03158129848442703</v>
+        <v>0.04649599239659187</v>
       </c>
       <c r="G175" t="n">
+        <v>0.07532987965847748</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0321359632094262</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08941999119613227</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.07194041855468908</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08771945125179932</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1221006307079514</v>
+        <v>0.07399733513862383</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08768994938434402</v>
+        <v>0.08723184667722184</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03158129848442703</v>
+        <v>0.1072284454445162</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08941999119613227</v>
+        <v>0.08699049397843794</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03115375039406545</v>
+        <v>0.04570179470226585</v>
       </c>
       <c r="G176" t="n">
+        <v>0.07532961113001346</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.03199275654753081</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.09023290020700619</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.07154875039103378</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08851690080863385</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1202780189875457</v>
+        <v>0.07397401691552444</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0884871307423835</v>
+        <v>0.0880248634651966</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03115375039406545</v>
+        <v>0.1076150837057784</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09023290020700619</v>
+        <v>0.08778131665096919</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03132561072235236</v>
+        <v>0.04492223934460957</v>
       </c>
       <c r="G177" t="n">
+        <v>0.07532934260154944</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03224882312065765</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.09104580921788012</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.0707496232439436</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08931435036546839</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1194876427849973</v>
+        <v>0.07374480810658915</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08928431210042299</v>
+        <v>0.08881788025317133</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03132561072235236</v>
+        <v>0.1059011802065842</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09104580921788012</v>
+        <v>0.08857213932350044</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03099683812903344</v>
+        <v>0.04415777779604864</v>
       </c>
       <c r="G178" t="n">
+        <v>0.07532907407308544</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03190388047523744</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09185871822875406</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.07084253207030117</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.09011179992230293</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1182526335039987</v>
+        <v>0.07330967411861256</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09008149345846249</v>
+        <v>0.08961089704114608</v>
       </c>
       <c r="N178" t="n">
-        <v>0.03099683812903344</v>
+        <v>0.1049880804193321</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09185871822875406</v>
+        <v>0.08936296199603171</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03086739127385429</v>
+        <v>0.04340886152904348</v>
       </c>
       <c r="G179" t="n">
+        <v>0.07532880554462142</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.03185764615770088</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09267162723962799</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.06952697182698905</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.09090924947913748</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1161961225482424</v>
+        <v>0.07226858035838929</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09087867481650198</v>
+        <v>0.09040391382912082</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03086739127385429</v>
+        <v>0.1044771298164204</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09267162723962799</v>
+        <v>0.09015378466856296</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03083722881656061</v>
+        <v>0.04267594201602309</v>
       </c>
       <c r="G180" t="n">
+        <v>0.0753285370161574</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03210983771447865</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09348453625050192</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.0691024374708899</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09170669903597202</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1144412413214208</v>
+        <v>0.07212149223271386</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09167585617454148</v>
+        <v>0.09119693061709556</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03083722881656061</v>
+        <v>0.1028696738702479</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09348453625050192</v>
+        <v>0.09094460734109421</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.030706309416898</v>
+        <v>0.04195947072951171</v>
       </c>
       <c r="G181" t="n">
+        <v>0.07532826848769338</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.03206017269200147</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09429744526137585</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.06946842395888628</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09250414859280655</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1137111212272263</v>
+        <v>0.07196837514838098</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09247303753258096</v>
+        <v>0.09198994740507031</v>
       </c>
       <c r="N181" t="n">
-        <v>0.030706309416898</v>
+        <v>0.1028670580532127</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09429744526137585</v>
+        <v>0.09173543001362545</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03037459173461216</v>
+        <v>0.04125989914193759</v>
       </c>
       <c r="G182" t="n">
+        <v>0.07532799995922937</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.0319083686367</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09511035427224977</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.06882442624786075</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09330159814964109</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1112288936693515</v>
+        <v>0.07110919451218523</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09327021889062044</v>
+        <v>0.09278296419304506</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03037459173461216</v>
+        <v>0.1008706278377133</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09511035427224977</v>
+        <v>0.09252625268615672</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03024203442944869</v>
+        <v>0.04057767872576118</v>
       </c>
       <c r="G183" t="n">
+        <v>0.07532773143076535</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.03175414309500499</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.0959232632831237</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.06856993929469596</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09409904770647563</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1099176900514887</v>
+        <v>0.07054391573092117</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09406740024865994</v>
+        <v>0.0935759809810198</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03024203442944869</v>
+        <v>0.1003817286961484</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0959232632831237</v>
+        <v>0.09331707535868797</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03020859616115325</v>
+        <v>0.03991326095341446</v>
       </c>
       <c r="G184" t="n">
+        <v>0.07532746290230133</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.03159721361334711</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09673617229399763</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.06760445805627446</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09489649726331018</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1080006417773304</v>
+        <v>0.06987250421138347</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09486458160669943</v>
+        <v>0.09436899776899454</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03020859616115325</v>
+        <v>0.09970170610091628</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09673617229399763</v>
+        <v>0.09410789803121922</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02997423558947152</v>
+        <v>0.03926709729741575</v>
       </c>
       <c r="G185" t="n">
+        <v>0.07532719437383731</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03173729773815706</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09754908130487157</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.0675274774894789</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09569394682014472</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.107400880250569</v>
+        <v>0.0701949253603667</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09566176296473893</v>
+        <v>0.09516201455696928</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02997423558947152</v>
+        <v>0.09813190552441542</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09754908130487157</v>
+        <v>0.09489872070375048</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0299389113741491</v>
+        <v>0.0386396392301962</v>
       </c>
       <c r="G186" t="n">
+        <v>0.0753269258453733</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03167411301586553</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.0983619903157455</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.06723849255119188</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09649139637697925</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1049415368748971</v>
+        <v>0.06961114458466544</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09645894432277841</v>
+        <v>0.09595503134494403</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0299389113741491</v>
+        <v>0.09797367243904431</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0983619903157455</v>
+        <v>0.09568954337628173</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02980258217493166</v>
+        <v>0.03803133822421631</v>
       </c>
       <c r="G187" t="n">
+        <v>0.07532665731690928</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03140737699290323</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09917489932661942</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.06663699819829602</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09728884593381379</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1040457430540071</v>
+        <v>0.06892112729107433</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0972561256808179</v>
+        <v>0.09674804813291878</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02980258217493166</v>
+        <v>0.09642835231720137</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09917489932661942</v>
+        <v>0.09648036604881298</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02986520665156488</v>
+        <v>0.03744264575191135</v>
       </c>
       <c r="G188" t="n">
+        <v>0.07532638878844526</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.03133680721570087</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09998780833749335</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.06562248938767384</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09808629549064833</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1024366301915914</v>
+        <v>0.068524838886388</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0980533070388574</v>
+        <v>0.09754106492089352</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02986520665156488</v>
+        <v>0.09679729063128512</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09998780833749335</v>
+        <v>0.09727118872134424</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02952674346379436</v>
+        <v>0.03687401328579307</v>
       </c>
       <c r="G189" t="n">
+        <v>0.07532612025998124</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03126212123068911</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.1008007173483673</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.06509446107620803</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09888374504748286</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1009373296913422</v>
+        <v>0.06782224477740101</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09885048839689689</v>
+        <v>0.09833408170886826</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02952674346379436</v>
+        <v>0.09588183285369389</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1008007173483673</v>
+        <v>0.09806201139387549</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02948715127136579</v>
+        <v>0.03632404878574874</v>
       </c>
       <c r="G190" t="n">
+        <v>0.07532585173151722</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.03148303658429867</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.1016136263592412</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.06485240822078109</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09968119460431742</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.09927097295695259</v>
+        <v>0.06691331037090797</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09964766975493639</v>
+        <v>0.09912709849684301</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02948715127136579</v>
+        <v>0.09418332445682631</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1016136263592412</v>
+        <v>0.09885283406640674</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02934638873402477</v>
+        <v>0.03578214264895713</v>
       </c>
       <c r="G191" t="n">
+        <v>0.07532558320305321</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03119927082296023</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1024265353701151</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.06369582577827568</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.1004786441611519</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.09786069139211445</v>
+        <v>0.06679800107370351</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1004448511129759</v>
+        <v>0.09992011528481774</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02934638873402477</v>
+        <v>0.09350311091308072</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1024265353701151</v>
+        <v>0.09964365673893801</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02920441451151701</v>
+        <v>0.03524690283530876</v>
       </c>
       <c r="G192" t="n">
+        <v>0.07532531467458918</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.03101054149310455</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1032394443809891</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.06362420870557445</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1012760937179865</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.09711526571661483</v>
+        <v>0.06677628229258226</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1012420324710154</v>
+        <v>0.1007131320727925</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02920441451151701</v>
+        <v>0.09374253769485563</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1032394443809891</v>
+        <v>0.1004344794114693</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02886118726358811</v>
+        <v>0.0347187808173107</v>
       </c>
       <c r="G193" t="n">
+        <v>0.07532504614612517</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.03121007264493224</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.104052353391863</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.06293705195955995</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.102073543274821</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.09592388650507</v>
+        <v>0.06612647193307378</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1020392138290549</v>
+        <v>0.1015061488607672</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02886118726358811</v>
+        <v>0.09249586295598333</v>
       </c>
       <c r="O193" t="n">
-        <v>0.104052353391863</v>
+        <v>0.1012253020840005</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02871666564998374</v>
+        <v>0.03419822806739999</v>
       </c>
       <c r="G194" t="n">
+        <v>0.07532477761766115</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.03099048558967256</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1048652624027369</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.06243385049711472</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1028709928316556</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.09475761239937552</v>
+        <v>0.06502349706567823</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1028363951870944</v>
+        <v>0.102299165648742</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02871666564998374</v>
+        <v>0.09115478659449144</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1048652624027369</v>
+        <v>0.1020161247565318</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02877077710705254</v>
+        <v>0.03368569605803708</v>
       </c>
       <c r="G195" t="n">
+        <v>0.07532450908919715</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03095272648292872</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1056781714136109</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.06211409927512143</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1036684423884901</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.0944155331595809</v>
+        <v>0.06417099840956336</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1036335765451338</v>
+        <v>0.1030921824367167</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02877077710705254</v>
+        <v>0.09161915830960904</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1056781714136109</v>
+        <v>0.102806947429063</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02862065304420876</v>
+        <v>0.03318163626166075</v>
       </c>
       <c r="G196" t="n">
+        <v>0.07532424056073311</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03079776019821</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1064910804244848</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.06087729325046271</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1044658919453246</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.09319673854573568</v>
+        <v>0.06417271153966281</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1044307579031733</v>
+        <v>0.1038851992246915</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02862065304420876</v>
+        <v>0.09068884981139574</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1064910804244848</v>
+        <v>0.1035977701015943</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02846492711008994</v>
+        <v>0.03268650015077532</v>
       </c>
       <c r="G197" t="n">
+        <v>0.07532397203226911</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.03062655160902564</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1073039894353587</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.06002292738002107</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1052633415021592</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.09350031831788924</v>
+        <v>0.06263237203090991</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1052279392612128</v>
+        <v>0.1046782160126662</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02846492711008994</v>
+        <v>0.09016373280991091</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1073039894353587</v>
+        <v>0.1043885927741255</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02840428581880482</v>
+        <v>0.03220073919781914</v>
       </c>
       <c r="G198" t="n">
+        <v>0.07532370350380509</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.0304400655888849</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1081168984462327</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.0596504966206792</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1060607910589937</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.09292536223609099</v>
+        <v>0.06215371545823836</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1060251206192523</v>
+        <v>0.105471232800641</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02840428581880482</v>
+        <v>0.08944367901521405</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1081168984462327</v>
+        <v>0.1051794154466568</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0281394156844621</v>
+        <v>0.03172480487525271</v>
       </c>
       <c r="G199" t="n">
+        <v>0.07532343497534107</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03013926701129706</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1089298074571066</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.05915949592931963</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1068582406158283</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.09087096006039058</v>
+        <v>0.06104047739658153</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1068223019772918</v>
+        <v>0.1062642495886157</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0281394156844621</v>
+        <v>0.08732856013736462</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1089298074571066</v>
+        <v>0.105970238119188</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02807100322117054</v>
+        <v>0.03125914865551645</v>
       </c>
       <c r="G200" t="n">
+        <v>0.07532316644687705</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02972512074977138</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1097427164679805</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.05878344387893761</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1076556901726628</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.09093620155083737</v>
+        <v>0.06089639342087302</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1076194833353313</v>
+        <v>0.1070572663765904</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02807100322117054</v>
+        <v>0.08741824788642227</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1097427164679805</v>
+        <v>0.1067610607917193</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02779973494303883</v>
+        <v>0.03080422201111137</v>
       </c>
       <c r="G201" t="n">
+        <v>0.07532289791841303</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02949859167781713</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1105556254788544</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.05684764074699353</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1084531397294973</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.08992017646748085</v>
+        <v>0.05932519910604628</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1084166646933708</v>
+        <v>0.1078502831645652</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02779973494303883</v>
+        <v>0.08731261397244622</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1105556254788544</v>
+        <v>0.1075518834642506</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02772629736417574</v>
+        <v>0.03036047641447748</v>
       </c>
       <c r="G202" t="n">
+        <v>0.07532262938994902</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02946064466894356</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1113685344897284</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.05568526420471007</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1092505892863319</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.08882197457037061</v>
+        <v>0.05843063002703483</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1092138460514103</v>
+        <v>0.1086432999525399</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02772629736417574</v>
+        <v>0.08571153010549615</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1113685344897284</v>
+        <v>0.1083427061367818</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02725137699868996</v>
+        <v>0.02992836333807526</v>
       </c>
       <c r="G203" t="n">
+        <v>0.075322360861485</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02921224459665994</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1121814435006023</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.05424338486282382</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1100480388431664</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.08914068561955596</v>
+        <v>0.0582164217587722</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1100110274094498</v>
+        <v>0.1094363167405147</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02725137699868996</v>
+        <v>0.08511486799563162</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1121814435006023</v>
+        <v>0.1091335288093131</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02717566036069022</v>
+        <v>0.02950833425434714</v>
       </c>
       <c r="G204" t="n">
+        <v>0.07532209233302098</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02875435633447554</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1129943525114762</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.05296907333207149</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.110845488400001</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.08857539937508652</v>
+        <v>0.05668630987619191</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1108082087674893</v>
+        <v>0.1102293335284894</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02717566036069022</v>
+        <v>0.08522249935291187</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1129943525114762</v>
+        <v>0.1099243514818443</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02719983396428526</v>
+        <v>0.02910084063579017</v>
       </c>
       <c r="G205" t="n">
+        <v>0.07532182380455696</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02868794475589963</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1138072615223502</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.05140940022318971</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1116429379568355</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.0875252055970116</v>
+        <v>0.05654402995422744</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1116053901255288</v>
+        <v>0.1110223503164642</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02719983396428526</v>
+        <v>0.08443429588739659</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1138072615223502</v>
+        <v>0.1107151741543756</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02672458432358378</v>
+        <v>0.0287063339548463</v>
       </c>
       <c r="G206" t="n">
+        <v>0.07532155527609295</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02851397473444148</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1146201705332241</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.04921143614691517</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.11244038751367</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.08638919404538087</v>
+        <v>0.05549331756781223</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1124025714835682</v>
+        <v>0.1118153671044389</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02672458432358378</v>
+        <v>0.08325012930914522</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1146201705332241</v>
+        <v>0.1115059968269068</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02675059795269455</v>
+        <v>0.02832526568397599</v>
       </c>
       <c r="G207" t="n">
+        <v>0.07532128674762893</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02823341114361032</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.115433079544098</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.04782225171398455</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1132378370705046</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.08566645448024363</v>
+        <v>0.05443790829187992</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1131997528416077</v>
+        <v>0.1126083838924136</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02675059795269455</v>
+        <v>0.08176987132821706</v>
       </c>
       <c r="O207" t="n">
-        <v>0.115433079544098</v>
+        <v>0.1122968194994381</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02667856136572626</v>
+        <v>0.02795808729562407</v>
       </c>
       <c r="G208" t="n">
+        <v>0.07532101821916491</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02794721885691545</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.116245988554972</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.04598891753513454</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1140352866273391</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.08575607666164942</v>
+        <v>0.05358153770136401</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1139969341996472</v>
+        <v>0.1134014006803884</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02667856136572626</v>
+        <v>0.08169339365467188</v>
       </c>
       <c r="O208" t="n">
-        <v>0.116245988554972</v>
+        <v>0.1130876421719693</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02620916107678764</v>
+        <v>0.02760525026228296</v>
       </c>
       <c r="G209" t="n">
+        <v>0.07532074969070089</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02755636274786612</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1170588975658459</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.04505850422110172</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1148327361841737</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.08545715034964779</v>
+        <v>0.05272794137119788</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1147941155576867</v>
+        <v>0.1141944174683631</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02620916107678764</v>
+        <v>0.08112056799856904</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1170588975658459</v>
+        <v>0.1138784648445006</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02614308359998742</v>
+        <v>0.02726720605639686</v>
       </c>
       <c r="G210" t="n">
+        <v>0.07532048116223689</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02716180768997159</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1178718065767198</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.04347808238262288</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1156301857410082</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.08376876530428823</v>
+        <v>0.05148085487631515</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1155912969157262</v>
+        <v>0.1149874342563379</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02614308359998742</v>
+        <v>0.08065126606996803</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1178718065767198</v>
+        <v>0.1146692875170318</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02588101544943434</v>
+        <v>0.02694440615042623</v>
       </c>
       <c r="G211" t="n">
+        <v>0.07532021263377287</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02706451855674115</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1186847155875937</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.0422947226304346</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1164276352978427</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.08389001128562007</v>
+        <v>0.05014401379164926</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1163884782737657</v>
+        <v>0.1157804510443126</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02588101544943434</v>
+        <v>0.08008535957892832</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1186847155875937</v>
+        <v>0.1154601101895631</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02602364313923709</v>
+        <v>0.02663730201681852</v>
       </c>
       <c r="G212" t="n">
+        <v>0.07531994410530884</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02676546022168402</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1194976245984677</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.04095549557527361</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1172250848546773</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.0828199780536929</v>
+        <v>0.04932115369213383</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1171856596318052</v>
+        <v>0.1165734678322874</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02602364313923709</v>
+        <v>0.07922272023550947</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1194976245984677</v>
+        <v>0.1162509328620943</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02587165318350444</v>
+        <v>0.026346345128061</v>
       </c>
       <c r="G213" t="n">
+        <v>0.07531967557684482</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02626559755830953</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1203105336093416</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.04030747182787656</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1180225344115118</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.08225775536855617</v>
+        <v>0.04871601015270224</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1179828409898447</v>
+        <v>0.1173664846202621</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02587165318350444</v>
+        <v>0.07796321974977083</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1203105336093416</v>
+        <v>0.1170417555346256</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0256257320963451</v>
+        <v>0.0260719869566004</v>
       </c>
       <c r="G214" t="n">
+        <v>0.0753194070483808</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02586589544012688</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1211234426202155</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.04019772199898008</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1188199839683464</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.08210243299025927</v>
+        <v>0.04773231874828804</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1187800223478842</v>
+        <v>0.1181595014082369</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0256257320963451</v>
+        <v>0.07720672983177196</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1211234426202155</v>
+        <v>0.1178325782071569</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02528656639186778</v>
+        <v>0.0260719869566004</v>
       </c>
       <c r="G215" t="n">
+        <v>0.0753194070483808</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02576731874064536</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1219363516310894</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.04036466988526274</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1196174335251809</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.08165310067885184</v>
+        <v>0.0465738150538248</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1195772037059237</v>
+        <v>0.1189525181962116</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02528656639186778</v>
+        <v>0.07685312219157248</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1219363516310894</v>
+        <v>0.1186234008796881</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02525449908415095</v>
+        <v>0.02542032377970764</v>
       </c>
       <c r="G216" t="n">
+        <v>0.07518216952890347</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02537083233337423</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1227492606419634</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.0398466334437621</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1204148830820154</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.08140884819438332</v>
+        <v>0.045844234644246</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1203743850639632</v>
+        <v>0.1197455349841863</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02525449908415095</v>
+        <v>0.07630226853923172</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1227492606419634</v>
+        <v>0.1194142235522194</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02532471618391233</v>
+        <v>0.02477573736691126</v>
       </c>
       <c r="G217" t="n">
+        <v>0.07504493200942612</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02497740109182278</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1235621696528373</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03982915428272715</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.12121233263885</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.08076876529690297</v>
+        <v>0.04494731309448508</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1211715664220026</v>
+        <v>0.1205385517721611</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02532471618391233</v>
+        <v>0.07525404058480917</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1235621696528373</v>
+        <v>0.1202050462247506</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02489549317471838</v>
+        <v>0.02413852206376373</v>
       </c>
       <c r="G218" t="n">
+        <v>0.07490769448994876</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02468798988950024</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1243750786637113</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.04041222459576715</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1220097821956845</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.07943194174646068</v>
+        <v>0.04468678597947562</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1219687477800421</v>
+        <v>0.1213315685601358</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02489549317471838</v>
+        <v>0.07560831003836432</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1243750786637113</v>
+        <v>0.1209958688972819</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02476686811681049</v>
+        <v>0.02350897221581762</v>
       </c>
       <c r="G219" t="n">
+        <v>0.07477045697047142</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.0246035635999159</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1251879876745852</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.04009583657649135</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.122807231752519</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.07949746730310553</v>
+        <v>0.0432663888741511</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1227659291380816</v>
+        <v>0.1221245853481106</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02476686811681049</v>
+        <v>0.07506494860995677</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1251879876745852</v>
+        <v>0.1217866915698131</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02493887907042995</v>
+        <v>0.02288738216862542</v>
       </c>
       <c r="G220" t="n">
+        <v>0.07463321945099408</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02422508709657901</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1260008966854591</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03997998241850897</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1236046813093536</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.07836443172688723</v>
+        <v>0.04318985735344508</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1235631104961211</v>
+        <v>0.1229176021360853</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02493887907042995</v>
+        <v>0.07432382800964588</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1260008966854591</v>
+        <v>0.1225775142423444</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02451156409581813</v>
+        <v>0.02227404626773957</v>
       </c>
       <c r="G221" t="n">
+        <v>0.07449598193151671</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02385352525299886</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.126813805696333</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.04016465431542929</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1244021308661881</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.0784319247778551</v>
+        <v>0.042560926992291</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1243602918541606</v>
+        <v>0.1237106189240601</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02451156409581813</v>
+        <v>0.0737848199474912</v>
       </c>
       <c r="O221" t="n">
-        <v>0.126813805696333</v>
+        <v>0.1233683369148756</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02458496125321635</v>
+        <v>0.02166925885871268</v>
       </c>
       <c r="G222" t="n">
+        <v>0.07435874441203938</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02388984294268466</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.127626714707207</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.04004984446086154</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1251995804230226</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.07819903621605878</v>
+        <v>0.04158333336562231</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1251574732122001</v>
+        <v>0.1245036357120348</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02458496125321635</v>
+        <v>0.07304779613355217</v>
       </c>
       <c r="O222" t="n">
-        <v>0.127626714707207</v>
+        <v>0.1241591595874069</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02425910860286594</v>
+        <v>0.0210733142870972</v>
       </c>
       <c r="G223" t="n">
+        <v>0.07422150689256203</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02333500503914575</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1284396237180809</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.04043554504841496</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1259970299798572</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.07746485580154755</v>
+        <v>0.04176081204837273</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1259546545702396</v>
+        <v>0.1252966525000096</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02425910860286594</v>
+        <v>0.07171262827788832</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1284396237180809</v>
+        <v>0.1249499822599381</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02423404420500823</v>
+        <v>0.02048650689844564</v>
       </c>
       <c r="G224" t="n">
+        <v>0.07408426937308468</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02328997641589131</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1292525327289548</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.03992174827169875</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1267944795366918</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.07662847329437111</v>
+        <v>0.04129709861547559</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1267518359282791</v>
+        <v>0.1260896692879843</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02423404420500823</v>
+        <v>0.07067918809055912</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1292525327289548</v>
+        <v>0.1257408049324694</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02410980611988457</v>
+        <v>0.01990913103831051</v>
       </c>
       <c r="G225" t="n">
+        <v>0.07394703185360733</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02315572194643067</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1300654417398287</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.04010844632432223</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1275919290935263</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.07638897845457882</v>
+        <v>0.04029592864186449</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1275490172863186</v>
+        <v>0.126882686075959</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02410980611988457</v>
+        <v>0.07094734728162411</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1300654417398287</v>
+        <v>0.1265316276050006</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02418643240773628</v>
+        <v>0.01934148105224427</v>
       </c>
       <c r="G226" t="n">
+        <v>0.07380979433412999</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02273320650427307</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1308783507507027</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.03979563139989459</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1283893786503608</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.07594546104222011</v>
+        <v>0.04046103770247284</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1283461986443581</v>
+        <v>0.1276757028639338</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02418643240773628</v>
+        <v>0.07021697756114276</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1308783507507027</v>
+        <v>0.1273224502775319</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02376396112880472</v>
+        <v>0.0187838512857995</v>
       </c>
       <c r="G227" t="n">
+        <v>0.07367255681465264</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02262339496292778</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1316912597615766</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.04028329569202513</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1291868282071953</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.07519780335026915</v>
+        <v>0.03969616137223425</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1291433800023976</v>
+        <v>0.1284687196519085</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02376396112880472</v>
+        <v>0.06988795063917441</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1316912597615766</v>
+        <v>0.1281132729500631</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02364243034333115</v>
+        <v>0.01823653608452867</v>
       </c>
       <c r="G228" t="n">
+        <v>0.07353531929517529</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02232725219590405</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1325041687724506</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.04017143139432303</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1299842777640299</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.07375182254524598</v>
+        <v>0.03960503522608216</v>
       </c>
       <c r="M228" t="n">
-        <v>0.129940561360437</v>
+        <v>0.1292617364398833</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02364243034333115</v>
+        <v>0.06816013822577871</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1325041687724506</v>
+        <v>0.1289040956225944</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02382187811155696</v>
+        <v>0.01769982979398429</v>
       </c>
       <c r="G229" t="n">
+        <v>0.07339808177569795</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02234574307671119</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1333170777833245</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03976003070039758</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1307817273208644</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.0740089195979195</v>
+        <v>0.03999139483895017</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1307377427184765</v>
+        <v>0.130054753227858</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02382187811155696</v>
+        <v>0.06823341203101524</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1333170777833245</v>
+        <v>0.1296949182951257</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02370234249372347</v>
+        <v>0.01717402675971882</v>
       </c>
       <c r="G230" t="n">
+        <v>0.07326084425622059</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02187973139890129</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1341299867941984</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.040249085803858</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.131579176877699</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.07306915102731593</v>
+        <v>0.03975845097840081</v>
       </c>
       <c r="M230" t="n">
-        <v>0.131534924076516</v>
+        <v>0.1308477700158328</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02370234249372347</v>
+        <v>0.06690765207833055</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1341299867941984</v>
+        <v>0.1304857409676569</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02358386155007203</v>
+        <v>0.01665942132728486</v>
       </c>
       <c r="G231" t="n">
+        <v>0.07312360673674324</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02192083205962617</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1349428958050723</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.04033858889831349</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1323766264345335</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.07323257335246153</v>
+        <v>0.03995860756850991</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1323321054345555</v>
+        <v>0.1316407868038075</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02358386155007203</v>
+        <v>0.06738358161869501</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1349428958050723</v>
+        <v>0.1312765636401882</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02326647334084392</v>
+        <v>0.01615630784223485</v>
       </c>
       <c r="G232" t="n">
+        <v>0.07298636921726591</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.0216632882252825</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1357558048159463</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.03992853217737341</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.133174075991368</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.07209924309238258</v>
+        <v>0.03935952562511541</v>
       </c>
       <c r="M232" t="n">
-        <v>0.133129286792595</v>
+        <v>0.1324338035917823</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02326647334084392</v>
+        <v>0.06636173605675244</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1357558048159463</v>
+        <v>0.1320673863127194</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02315021592628054</v>
+        <v>0.01566498065012131</v>
       </c>
       <c r="G233" t="n">
+        <v>0.07284913169778856</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.0215071917412416</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1365687138268202</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.03961890783464689</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1339715255482026</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.07216921676610538</v>
+        <v>0.03926189032066438</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1339264681506345</v>
+        <v>0.133226820379757</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02315021592628054</v>
+        <v>0.06584212282192126</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1365687138268202</v>
+        <v>0.1328582089852507</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02303512736662319</v>
+        <v>0.01518573409649671</v>
       </c>
       <c r="G234" t="n">
+        <v>0.0727118941783112</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02145263445287472</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1373816228376941</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.03990970806374325</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1347689751050371</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.07094255089265611</v>
+        <v>0.03996638682760398</v>
       </c>
       <c r="M234" t="n">
-        <v>0.134723649508674</v>
+        <v>0.1340198371677317</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02303512736662319</v>
+        <v>0.06472474934361988</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1373816228376941</v>
+        <v>0.1336490316577819</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02302124572211318</v>
+        <v>0.01471886252691362</v>
       </c>
       <c r="G235" t="n">
+        <v>0.07257465665883385</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02129970820555314</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.138194531848568</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.04050092505827169</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1355664246618717</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.07071930199106125</v>
+        <v>0.03997370031838132</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1355208308667135</v>
+        <v>0.1348128539557065</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02302124572211318</v>
+        <v>0.06460962305126672</v>
       </c>
       <c r="O235" t="n">
-        <v>0.138194531848568</v>
+        <v>0.1344398543303132</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02270860905299191</v>
+        <v>0.01426466028692452</v>
       </c>
       <c r="G236" t="n">
+        <v>0.07243741913935652</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02104850484464812</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.139007440859442</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.03989255101184147</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1363638742187062</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.07049952658034669</v>
+        <v>0.03968451596544351</v>
       </c>
       <c r="M236" t="n">
-        <v>0.136318012224753</v>
+        <v>0.1356058707436812</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02270860905299191</v>
+        <v>0.06369675137428016</v>
       </c>
       <c r="O236" t="n">
-        <v>0.139007440859442</v>
+        <v>0.1352306770028444</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02279725541950064</v>
+        <v>0.01382342172208192</v>
       </c>
       <c r="G237" t="n">
+        <v>0.07230018161987917</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.021099116215531</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1398203498703159</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.04018457811806184</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1371613237755407</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.07028328117953908</v>
+        <v>0.03959951894123764</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1371151935827925</v>
+        <v>0.136398887531656</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02279725541950064</v>
+        <v>0.06298614174207862</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1398203498703159</v>
+        <v>0.1360214996753757</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02248722288188075</v>
+        <v>0.01339544117793827</v>
       </c>
       <c r="G238" t="n">
+        <v>0.0721629441004018</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02065163416357299</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1406332588811898</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.03997699857054199</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1379587733323753</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.06977062230766451</v>
+        <v>0.03981939441821089</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1379123749408319</v>
+        <v>0.1371919043196307</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02248722288188075</v>
+        <v>0.06237780158408057</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1406332588811898</v>
+        <v>0.1368123223479069</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02247854950037353</v>
+        <v>0.01298101300004615</v>
       </c>
       <c r="G239" t="n">
+        <v>0.07202570658092447</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02060615053414541</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1414461678920638</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.04036980456289121</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1387562228892098</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.06826160648374913</v>
+        <v>0.04004482756881034</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1387095562988714</v>
+        <v>0.1379849211076055</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02247854950037353</v>
+        <v>0.06257173832970436</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1414461678920638</v>
+        <v>0.1376031450204382</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02247127333522035</v>
+        <v>0.01257922962295199</v>
       </c>
       <c r="G240" t="n">
+        <v>0.07188846906144712</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02036275717261953</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1422590769029377</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.03966298828871878</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1395536724460444</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.06875629022681945</v>
+        <v>0.0397765035654831</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1395067376569109</v>
+        <v>0.1387779378955802</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02247127333522035</v>
+        <v>0.06086795940836842</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1422590769029377</v>
+        <v>0.1383939676929694</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02246543244666253</v>
+        <v>0.01218317392617188</v>
       </c>
       <c r="G241" t="n">
+        <v>0.07175123154196977</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02052154592436663</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1430719859138116</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.04035654194163393</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1403511220028789</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.06735473005590159</v>
+        <v>0.04001510758067628</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1403039190149504</v>
+        <v>0.1395709546835549</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02246543244666253</v>
+        <v>0.06066647224949118</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1430719859138116</v>
+        <v>0.1391847903655007</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02216106489494139</v>
+        <v>0.01179193834425225</v>
       </c>
       <c r="G242" t="n">
+        <v>0.07161399402249242</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02028260863475799</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1438848949246856</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.03955045771524582</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1411485715597134</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.06745698249002186</v>
+        <v>0.03936132478683702</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1411011003729899</v>
+        <v>0.1403639714715297</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02216106489494139</v>
+        <v>0.060367284282491</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1438848949246856</v>
+        <v>0.139975613038032</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02215820874029829</v>
+        <v>0.01140581722274565</v>
       </c>
       <c r="G243" t="n">
+        <v>0.07147675650301508</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02004603714916489</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1446978039355595</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.03954472780316379</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.141946021116548</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.06686310404820661</v>
+        <v>0.0400158403564124</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1418982817310294</v>
+        <v>0.1411569882595044</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02215820874029829</v>
+        <v>0.0603704029367863</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1446978039355595</v>
+        <v>0.1407664357105632</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02195690204297454</v>
+        <v>0.01102510490720458</v>
       </c>
       <c r="G244" t="n">
+        <v>0.07133951898353773</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01991192331295859</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1455107129464334</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.039639344398997</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1427434706733825</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.06557315124948188</v>
+        <v>0.04007933946184955</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1426954630890689</v>
+        <v>0.1419500050474792</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02195690204297454</v>
+        <v>0.05857583564179553</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1455107129464334</v>
+        <v>0.1415572583830945</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02195718286321148</v>
+        <v>0.01065009574318154</v>
       </c>
       <c r="G245" t="n">
+        <v>0.07120228146406038</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01978035897151044</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1463236219573073</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.03963429969635479</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1435409202302171</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.06518718061287415</v>
+        <v>0.03955250727559562</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1434926444471084</v>
+        <v>0.1427430218354539</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02195718286321148</v>
+        <v>0.05918358982693706</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1463236219573073</v>
+        <v>0.1423480810556257</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02175908926125045</v>
+        <v>0.01028108407622899</v>
       </c>
       <c r="G246" t="n">
+        <v>0.07106504394458303</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01985143597019165</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1471365309681813</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.04022958588884634</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1443383697870516</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.06540524865740954</v>
+        <v>0.0400360289700977</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1442898258051479</v>
+        <v>0.1435360386234287</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02175908926125045</v>
+        <v>0.05759367292162931</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1471365309681813</v>
+        <v>0.143138903728157</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02176265929733279</v>
+        <v>0.009918364251899507</v>
       </c>
       <c r="G247" t="n">
+        <v>0.07092780642510568</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01972524615437352</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1479494399790552</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.04022519517008091</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1451358193438861</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.06432741190211444</v>
+        <v>0.04023058971780291</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1450870071631874</v>
+        <v>0.1443290554114034</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02176265929733279</v>
+        <v>0.05720609235529067</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1479494399790552</v>
+        <v>0.1439297264006882</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02156793103169979</v>
+        <v>0.00956223061574555</v>
       </c>
       <c r="G248" t="n">
+        <v>0.07079056890562833</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01940188136942732</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1487623489899291</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.04012111973366775</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1459332689007207</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.06465372686601506</v>
+        <v>0.04033687469115835</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1458841885212268</v>
+        <v>0.1451220721993781</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02156793103169979</v>
+        <v>0.0570208555573396</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1487623489899291</v>
+        <v>0.1447205490732195</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02137494252459282</v>
+        <v>0.009212977513319648</v>
       </c>
       <c r="G249" t="n">
+        <v>0.070653331386151</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01918143346072436</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.149575258000803</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.0401173517732161</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1467307184575552</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.06408425006813767</v>
+        <v>0.03985556906261115</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1466813698792663</v>
+        <v>0.1459150889873529</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02137494252459282</v>
+        <v>0.05603796995719451</v>
       </c>
       <c r="O249" t="n">
-        <v>0.149575258000803</v>
+        <v>0.1455113717457507</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0215837318362532</v>
+        <v>0.008870899290174268</v>
       </c>
       <c r="G250" t="n">
+        <v>0.07051609386667364</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01936399427363591</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.150388167011677</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.03951388348233517</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1475281680143898</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.06341903802750859</v>
+        <v>0.04078735800460845</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1474785512373058</v>
+        <v>0.1467081057753277</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0215837318362532</v>
+        <v>0.05555744298427379</v>
       </c>
       <c r="O250" t="n">
-        <v>0.150388167011677</v>
+        <v>0.146302194418282</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02129433702692227</v>
+        <v>0.008536290291861974</v>
       </c>
       <c r="G251" t="n">
+        <v>0.07037885634719629</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01894965565353324</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1512010760225509</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.04041070705463423</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1483256175712243</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.06345814726315396</v>
+        <v>0.04063292668959731</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1482757325953453</v>
+        <v>0.1475011225633024</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02129433702692227</v>
+        <v>0.05477928206799582</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1512010760225509</v>
+        <v>0.1470930170908132</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02120679615684136</v>
+        <v>0.008209444863935218</v>
       </c>
       <c r="G252" t="n">
+        <v>0.07024161882771895</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.0190385094457876</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1520139850334249</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.03970781468372256</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1491230671280588</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.06170163429410014</v>
+        <v>0.04069296029002489</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1490729139533848</v>
+        <v>0.1482941393512771</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02120679615684136</v>
+        <v>0.05510349463777908</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1520139850334249</v>
+        <v>0.1478838397633445</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02122114728625178</v>
+        <v>0.007890657351946558</v>
       </c>
       <c r="G253" t="n">
+        <v>0.07010438130824161</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01903064749577034</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1528268940442988</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.04040519856320937</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1499205166848934</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.06264955563937336</v>
+        <v>0.04116814397833829</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1498700953114243</v>
+        <v>0.1490871561392519</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02122114728625178</v>
+        <v>0.05353008812304183</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1528268940442988</v>
+        <v>0.1486746624358758</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02123742847539492</v>
+        <v>0.007580222101448424</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06996714378876424</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01872616164885268</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1536398030551727</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.04020285088670386</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1507179662417279</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.06080196781799996</v>
+        <v>0.04155916292698467</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1506672766694638</v>
+        <v>0.1498801729272266</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02123742847539492</v>
+        <v>0.05335906995320266</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1536398030551727</v>
+        <v>0.149465485108407</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02105567778451206</v>
+        <v>0.007278433457993401</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06982990626928691</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01882514375040595</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1544527120660466</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.03950076384781537</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1515154157985625</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.06145892734900615</v>
+        <v>0.04136670230841105</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1514644580275033</v>
+        <v>0.1506731897152014</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02105567778451206</v>
+        <v>0.05339044755767985</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1544527120660466</v>
+        <v>0.1502563077809383</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02087593327384453</v>
+        <v>0.006985585767133963</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06969266874980956</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01872768564580138</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1552656210769206</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.04029892964015311</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.152312865355397</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.06052049075141819</v>
+        <v>0.04169144729506463</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1522616393855428</v>
+        <v>0.1514662065031761</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02087593327384453</v>
+        <v>0.0518242283658919</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1552656210769206</v>
+        <v>0.1510471304534695</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02099823300363371</v>
+        <v>0.006701973374422604</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06955543123033221</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.0185338791804103</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1560785300877945</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.03949734045732622</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1531103149122315</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.06038671454426237</v>
+        <v>0.04183408305939249</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1530588207435823</v>
+        <v>0.1522592232911509</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02099823300363371</v>
+        <v>0.05216041980725722</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1560785300877945</v>
+        <v>0.1518379531260008</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02062261503412091</v>
+        <v>0.006427890625411825</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06941819371085485</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01824381619960395</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1568914390986684</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.03989598849294407</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1539077644690661</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.06015765524656486</v>
+        <v>0.04229529477384175</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1538560021016218</v>
+        <v>0.1530522400791256</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02062261503412091</v>
+        <v>0.05119902931119408</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1568914390986684</v>
+        <v>0.152628775798532</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02074911742554743</v>
+        <v>0.006163631865654155</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06928095619137752</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01815758854875364</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1577043481095424</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.03999486594061585</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1547052140259006</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.05953336937735215</v>
+        <v>0.04217576761085956</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1546531834596613</v>
+        <v>0.1538452568671003</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02074911742554743</v>
+        <v>0.05104006430712105</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1577043481095424</v>
+        <v>0.1534195984710633</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02077777823815465</v>
+        <v>0.005909491440702103</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06914371867190017</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.0181752880732306</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1585172571204163</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.04009396499395088</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1555026635827352</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.0592139134556503</v>
+        <v>0.04257618674289296</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1554503648177007</v>
+        <v>0.1546382736550751</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02077777823815465</v>
+        <v>0.04918353222445648</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1585172571204163</v>
+        <v>0.1542104211435945</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02050863553218386</v>
+        <v>0.005665763696108148</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06900648115242282</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01809700661840616</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1593301661312902</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.04019327784655827</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1563001131395697</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.05809934400048561</v>
+        <v>0.04339723734238912</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1562475461757402</v>
+        <v>0.1554312904430498</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02050863553218386</v>
+        <v>0.04902944049261876</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1593301661312902</v>
+        <v>0.1550012438161258</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02044172736787643</v>
+        <v>0.005432742977424798</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06886924363294547</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.0179228360296516</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1601430751421641</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.03999279669204736</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1570975626964042</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.05758971753088449</v>
+        <v>0.04313960458179519</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1570447275337797</v>
+        <v>0.1562243072310246</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02044172736787643</v>
+        <v>0.04937779654102642</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1601430751421641</v>
+        <v>0.155792066488657</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02047709180547368</v>
+        <v>0.005210723630204583</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06873200611346812</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01785286815233818</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1609559841530381</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.04019251372402738</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1578950122532388</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.05748509056587292</v>
+        <v>0.0436039736335582</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1578419088918192</v>
+        <v>0.1570173240189993</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02047709180547368</v>
+        <v>0.04772860779909766</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1609559841530381</v>
+        <v>0.1565828891611883</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02051476690521693</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06859476859399077</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01808719483183717</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.161768893163912</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.03959242113610753</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1586924618100733</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.05668551962447749</v>
+        <v>0.04419102967012534</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1586390902498587</v>
+        <v>0.1578103408069741</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02051476690521693</v>
+        <v>0.04818188169625104</v>
       </c>
       <c r="O264" t="n">
-        <v>0.161768893163912</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1573737118337195</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06858161069925393</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005688044899036009</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06858187922771794</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006372430165704927</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06858214775618196</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007053116532205091</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06858241628464598</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007730064730646045</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06858268481311</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008403235493226267</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06858295334157401</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009072589552114561</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06858322187003803</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009738087639508605</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06858349039850205</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01039969048751922</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06858375892696607</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01105735882834427</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06858402745543009</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01171105339415254</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06858429598389409</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01236073491714099</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06858456451235813</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01300636412942188</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06858483304082214</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01364790176319235</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06858510156928616</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01428530855062118</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06858537009775016</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01491854522390464</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0685856386262142</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01554757251515639</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0685859071546782</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01617235115657287</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06858617568314222</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01679284188032287</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06858644421160624</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.0174090054186019</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06858671274007026</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01802080250352511</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06858698126853428</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01862819386728821</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06858724979699829</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01923114024205997</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06858751832546231</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01982960236003513</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06858778685392633</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0204235409533304</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06858805538239035</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02101307709778481</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06858832391085436</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02159913358743184</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06858859243931838</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.0221818314981097</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0685888609677824</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02276113156193646</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06858912949624642</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02333699451110632</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06858939802471042</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0239093810777881</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06858966655317444</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02447825199417528</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06858993508163846</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02504356799238706</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06859020361010248</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02560528980461714</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06859047213856651</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02616337816303428</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06859074066703051</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02671779379983129</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06859100919549455</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02726849744712874</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06859127772395855</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02781544983711962</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06859154625242257</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02835861170197268</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06859181478088658</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02889794377388014</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06859208330935061</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02943340678496383</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06859235183781462</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02996496146741608</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06859262036627864</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03049256855340568</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06859288889474265</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03101618877512413</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06859315742320668</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03153578286469465</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06859342595167069</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03205131155430889</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06859369448013471</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03256273557613563</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06859396300859873</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03307001566236566</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06859423153706275</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03357311254512359</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06859450006552677</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03407198695660041</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06859476859399077</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03407198695660041</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06858161069925393</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03459475969188142</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06871938527565931</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03511283650387649</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06885715985206468</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03562609889129069</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06899493442847007</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03613442835282896</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06913270900487546</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03663770638719625</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06927048358128085</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03713581449309754</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06940825815768621</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0376286341692379</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0695460327340916</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03811604691432223</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06968380731049699</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03859793422705554</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06982158188690238</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03907417760614278</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06995935646330775</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03954465855028896</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.07009713103971313</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04000925855819908</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.07023490561611852</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04046785912857809</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.07037268019252391</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04092034176013094</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.07051045476892928</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04136658795156269</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.07064822934533466</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04180647920157826</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.07078600392174005</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04223989700888267</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.07092377849814543</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04266672287218085</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.07106155307455081</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04308683829017783</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0711993276509562</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04350012476157859</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.07133710222736157</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04390646378508806</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.07147487680376695</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04430573685941129</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.07161265138017234</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04469782548325323</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.07175042595657773</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04508261115531886</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0718882005329831</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04546045925460111</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.07202597510938848</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.045834154561533</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.07216374968579387</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04620406245510748</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.07230152426219925</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04657006443402953</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.07243929883860463</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04693204199700408</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.07257707341501</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04728987664273619</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.07271484799141539</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04764344986993081</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.07285262256782078</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0479926431772929</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.07299039714422617</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04833733806352744</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.07312817172063153</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04867741602733947</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.07326594629703692</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04901275856743392</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.07340372087344231</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04934324718251575</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.07354149544984769</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04966876337129002</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.07367927002625307</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04998918863246164</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.07381704460265845</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05030440446473564</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.07395481917906384</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05061429236681693</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.07409259375546921</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05091873383741057</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0742303683318746</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0512176103752215</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.07436814290827998</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05151080347895473</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.07450591748468537</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05179819464731518</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.07464369206109074</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05207966537900791</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.07478146663749613</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05235509717273784</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.07491924121390152</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05262437152720999</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.07505701579030689</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05288736994112933</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.07519479036671227</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05314397391320082</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.07533256494311766</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04976264927546721</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.07533256494311766</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0533495613061114</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07762024852190863</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05354055397770642</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0799079321006996</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05371748927758449</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.08219561567949057</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05388090455534418</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.08448329925828155</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0540313371605841</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08677098283707252</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05416932444290289</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.0890586664158635</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.0542954037518991</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.09134634999465448</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05441011243717138</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.09363403357344545</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0545139878483183</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.09592171715223642</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05460756733493849</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09820940073102739</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05469138824663053</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.1004970843098184</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05476598793299305</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1027847678886094</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05483190374362462</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1050724514674003</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05488967302812385</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1073601350461913</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05493983313608937</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1096478186249823</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05498292141711977</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1119355022037732</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05501947522081366</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1142231857825642</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05505003189676962</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1165108693613552</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05507512879458627</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1187985529401462</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05509530326386219</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1210862365189371</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05511109265419604</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1233739200977281</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05512303431518638</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1256616036765191</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0551316655964318</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1279492872553101</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05513752384753094</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.130236970834101</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05514114641808238</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.132524654412892</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05514307065768476</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.134812337991683</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05514383391593661</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.137100021570474</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05514397354243659</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1393877051492649</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05510220530843998</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1416753887280559</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.0549487014895791</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1439630723068469</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05469127292799891</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1462507558856379</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05433929869921934</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1485384394644288</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05390215787876024</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05338922954214148</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1531138066220108</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05280989276488292</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1554014902008017</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05217352662250443</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1576891737795927</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05148951019052592</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1599768573583837</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05076722254446719</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1622645409371747</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05001604275984818</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1645522245159656</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04924534991218872</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1668399080947566</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04846452307700869</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1691275916735476</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04768294132982795</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1714152752523386</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04690998374616638</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1737029588311295</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04615502940154387</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1759906424099205</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04542745737148024</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1782783259887115</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04473664673149541</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1805660095675025</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04409197655710922</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1828536931462934</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04350282592384155</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1851413767250844</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04297857390721228</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1874290603038754</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04252859958274126</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1897167438826663</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04216228202594836</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1920044274614573</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04186754808598385</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1942921110402483</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04158599456244448</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1965797946190393</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.0413134530843377</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1988674781978302</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04104973077879839</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2011551617766212</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04079463477296146</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2034428453554122</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04054797219396176</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2057305289342032</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04030955016893421</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2080182125129941</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04007917582501366</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2103058960917851</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03985665628933502</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2125935796705761</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03964179868903317</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2148812632493671</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03943441015124298</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.217168946828158</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03923429780309937</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.219456630406949</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03904126877173719</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.22174431398574</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03885513018429132</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.224031997564531</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.0386756891678967</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2263196811433219</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03850275284968813</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2286073647221129</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03833612835680056</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2308950483009039</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03817562281636887</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2331827318796948</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03802104335552792</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2354704154584858</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03787219710141261</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2377580990372768</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03772889118115781</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2400457826160678</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03759093272189842</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2423334661948587</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03745812885076932</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2446211497736497</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03733028669490539</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2469088333524407</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03720721338144152</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2491965169312317</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03708811238846174</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2514842005100226</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03697059657968173</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2537718840888136</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03685463821882236</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2560595676676046</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03674046222648381</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2583472512463956</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03662829352326631</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2606349348251865</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03651835702977005</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2629226184039775</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03641087766659519</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2652103019827685</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03630608035434195</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2674979855615595</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03620419001361051</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2697856691403504</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03610543156500105</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2720733527191414</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03601002992911377</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2743610362979323</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03591821002654885</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2766487198767233</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03583019677790653</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2789364034555143</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03574621510378695</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2812240870343053</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.0356664899247903</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2835117706130963</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03559124616151682</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2857994541918872</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03552070873456664</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2880871377706782</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03545510256453997</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2903748213494692</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03539465257203703</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2926625049282602</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03533958367765799</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2949501885070512</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03529012080200304</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2972378720858422</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03524648886567237</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2995255556646331</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0352089127892662</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3018132392434241</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1203.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1203.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08676264927546722</v>
+        <v>0.06247539086962028</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03676264927546721</v>
+        <v>0.01247539086962028</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02537006494311765</v>
+        <v>0.01272044319027354</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.000996386475610414</v>
+        <v>0.002581880148983827</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007609349994254309</v>
+        <v>0.001646143978429769</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001273837494119447</v>
+        <v>0.002362290229465012</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008129090108739297</v>
+        <v>0.001662922530237439</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003515968957040094</v>
+        <v>0.008707447706319621</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007930167879747441</v>
+        <v>0.001655586132338856</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006530718591017115</v>
+        <v>0.01156329036341686</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007908226725312539</v>
+        <v>0.001668073618123679</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002000553857064734</v>
+        <v>0.00486073940814969</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001521869998850862</v>
+        <v>0.003292287956859537</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002608545757345794</v>
+        <v>0.004525200111977552</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001625818021747859</v>
+        <v>0.003325845060474879</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007018730619201496</v>
+        <v>0.01635351035873253</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001586033575949488</v>
+        <v>0.003311172264677711</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01228077818259732</v>
+        <v>0.02399078907268959</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001581645345062508</v>
+        <v>0.003336147236247358</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00301232014190899</v>
+        <v>0.0059406623188668</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002282804998276293</v>
+        <v>0.004240147730091179</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004198240505547332</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002438727032621789</v>
+        <v>0.005353124999999995</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01090643328654747</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002379050363924232</v>
+        <v>0.00486647727272727</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01875839255395806</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002372468017593762</v>
+        <v>0.00569481382978723</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004031503327689201</v>
+        <v>0.007141833002955955</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003043739997701723</v>
+        <v>0.006584575913719075</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005537037454592345</v>
+        <v>0.00880888954440788</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003251636043495719</v>
+        <v>0.006651690120949757</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01299999999999998</v>
+        <v>0.02738674521539453</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00283753822629969</v>
+        <v>0.006622344529355423</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02397177548431634</v>
+        <v>0.04041738831387626</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003163290690125016</v>
+        <v>0.006672294472494717</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01696059092036473</v>
+        <v>0.004240147730091179</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02376264927546722</v>
+        <v>0.0059406623188668</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005057921411951397</v>
+        <v>0.007471242694310702</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003804674997127154</v>
+        <v>0.008230719892148844</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.00691905232034911</v>
+        <v>0.01111835750529881</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004064545054369648</v>
+        <v>0.008314612651187197</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01706558780759529</v>
+        <v>0.03121596657759673</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00396508393987372</v>
+        <v>0.008277930661694279</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02800000000000002</v>
+        <v>0.04716819602952593</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00370092592592593</v>
+        <v>0.008340368090618396</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006091392392241608</v>
+        <v>0.008659561023287882</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004565609996552585</v>
+        <v>0.009876863870578611</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007938400818685909</v>
+        <v>0.01275675065678157</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004877454065243579</v>
+        <v>0.009977535181424635</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0196059297089034</v>
+        <v>0.03516476196233789</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004758100727848464</v>
+        <v>0.009933516794033134</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03330924331909207</v>
+        <v>0.05151502197456287</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004744936035187524</v>
+        <v>0.01000844170874208</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.00713173426610586</v>
+        <v>0.01073940807458437</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005326544995978016</v>
+        <v>0.01152300784900838</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009189198665471021</v>
+        <v>0.01460900129214737</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005690363076117508</v>
+        <v>0.01164045771166207</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02185002644216563</v>
+        <v>0.03908593609085464</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005551117515823208</v>
+        <v>0.01158910292637199</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03715806358034529</v>
+        <v>0.05640264635041198</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005535758707718778</v>
+        <v>0.01167651532686576</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008178765031090197</v>
+        <v>0.01247539086962028</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006087479995403447</v>
+        <v>0.01272044319027354</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01026556157657275</v>
+        <v>0.01646004170468741</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006503272086991438</v>
+        <v>0.01330338024189951</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02439968131134662</v>
+        <v>0.04243229368438359</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006344134303797952</v>
+        <v>0.01324468905871085</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0409185366221762</v>
+        <v>0.06087584935849844</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006326581380250032</v>
+        <v>0.01334458894498943</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009232302684740616</v>
+        <v>0.01273408984989476</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006848414994828877</v>
+        <v>0.01481529580586792</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01126160526785935</v>
+        <v>0.01799480418769291</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007316181097865367</v>
+        <v>0.01496630277213695</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02735669762041107</v>
+        <v>0.04554730982405192</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007137151091772696</v>
+        <v>0.01459943181818181</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04579755496217147</v>
+        <v>0.06577941120024727</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007117404052781286</v>
+        <v>0.01501266256311311</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01029216522460316</v>
+        <v>0.01271410007390852</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007609349994254308</v>
+        <v>0.01646143978429769</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0121714454551991</v>
+        <v>0.01929876046313414</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008129090108739296</v>
+        <v>0.01605937499999998</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02982287867332364</v>
+        <v>0.04925621284776838</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00793016787974744</v>
+        <v>0.01655586132338856</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04850201111791769</v>
+        <v>0.07179585918496967</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00790822672531254</v>
+        <v>0.01708444148936169</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01135817064822386</v>
+        <v>0.01367653107955583</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00837028499367974</v>
+        <v>0.01810758376272745</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01288919785446033</v>
+        <v>0.02100392064363245</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008941999119613226</v>
+        <v>0.01829214783261183</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03150002777404906</v>
+        <v>0.05240538681413984</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008723184667722183</v>
+        <v>0.01821144745572741</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05243879760700154</v>
+        <v>0.07439140496991076</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008699049397843795</v>
+        <v>0.01834880979936047</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01243013695314874</v>
+        <v>0.01561259377419406</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00913121999310517</v>
+        <v>0.01975372774115722</v>
       </c>
       <c r="J77" t="n">
-        <v>0.014</v>
+        <v>0.02280214786240181</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009992500000000001</v>
+        <v>0.01995507036284927</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03398994822655194</v>
+        <v>0.05646042907810059</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009516201455696928</v>
+        <v>0.01986703358806627</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05661480694700965</v>
+        <v>0.08009569889616625</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009489872070375048</v>
+        <v>0.02001688341748415</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01350788213692383</v>
+        <v>0.01751349906518058</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009892154992530601</v>
+        <v>0.02139987171958699</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01443302660626691</v>
+        <v>0.02428616173273067</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01056781714136109</v>
+        <v>0.02161799289308671</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03599444333479698</v>
+        <v>0.05897784091194563</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01030921824367167</v>
+        <v>0.02152261972040512</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05993693165552855</v>
+        <v>0.08527662156902965</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0102806947429063</v>
+        <v>0.02168495703560783</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01459122419709515</v>
+        <v>0.01837045785987271</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01065308999195603</v>
+        <v>0.02304601569801676</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01478672025369886</v>
+        <v>0.02553950844450803</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01138072615223502</v>
+        <v>0.02328091542332415</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03801531640274888</v>
+        <v>0.06291412358796997</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01110223503164642</v>
+        <v>0.02317820585274398</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06271206425014503</v>
+        <v>0.09034318287372367</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01107151741543756</v>
+        <v>0.02335303065373151</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01567998113120874</v>
+        <v>0.01817468106562783</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01141402499138146</v>
+        <v>0.02469215967644653</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0153824555306111</v>
+        <v>0.02694573418762297</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01219363516310895</v>
+        <v>0.02494383795356159</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04035437073437234</v>
+        <v>0.06552577837846862</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01189525181962116</v>
+        <v>0.02483379198508284</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06534709724844578</v>
+        <v>0.09660439269547089</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01186234008796881</v>
+        <v>0.02502110427185519</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01677397093681061</v>
+        <v>0.01891737958980332</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01217495999080689</v>
+        <v>0.0263383036548763</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01593148724297064</v>
+        <v>0.02818838515196452</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01300654417398288</v>
+        <v>0.02660676048379903</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04221340963363199</v>
+        <v>0.06906930655573668</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0126882686075959</v>
+        <v>0.02648937811742169</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06784892316801722</v>
+        <v>0.1010692609194939</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01265316276050006</v>
+        <v>0.02668917788997887</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01787301161144681</v>
+        <v>0.0205897643397565</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01293589499023232</v>
+        <v>0.02798444763330607</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01614507019674451</v>
+        <v>0.02955100752742169</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0138194531848568</v>
+        <v>0.02826968301403647</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04349423640449251</v>
+        <v>0.07170120939206909</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01348128539557065</v>
+        <v>0.02814496424976055</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07179585918496967</v>
+        <v>0.1067467974310153</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0135566916648868</v>
+        <v>0.02835725150810255</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01897692115266336</v>
+        <v>0.02118304622284475</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01369682998965775</v>
+        <v>0.02963059161173583</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0166344591978997</v>
+        <v>0.03081714750388355</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01463236219573073</v>
+        <v>0.0299326055442739</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04554730982405192</v>
+        <v>0.07477798815976092</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01420244315723768</v>
+        <v>0.0298005503820994</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07283273308514215</v>
+        <v>0.1117460121152579</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01423480810556257</v>
+        <v>0.03002532512622623</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02008551755800626</v>
+        <v>0.0196884361464254</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01445776498908318</v>
+        <v>0.0312767355901656</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01701090905240323</v>
+        <v>0.03197035127123914</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01544527120660466</v>
+        <v>0.03159552807451135</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04728347927639218</v>
+        <v>0.07675614413110721</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01506731897152013</v>
+        <v>0.03145613651443826</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07546219084054923</v>
+        <v>0.1161759148574441</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01502563077809383</v>
+        <v>0.03169339874434991</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02119861882502158</v>
+        <v>0.02109714501785586</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01521869998850862</v>
+        <v>0.03292287956859537</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01728567456622206</v>
+        <v>0.03279416501937746</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01625818021747859</v>
+        <v>0.03325845060474879</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04818373502780479</v>
+        <v>0.07829217857840295</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01586033575949488</v>
+        <v>0.03311172264677711</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07850921569438496</v>
+        <v>0.1187455155427967</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01581645345062508</v>
+        <v>0.03336147236247358</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02231604295125532</v>
+        <v>0.02041324197533423</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01597963498793405</v>
+        <v>0.03456902354702514</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01757001054532326</v>
+        <v>0.0335721349381876</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01707108922835252</v>
+        <v>0.03492137313498622</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05029627367767331</v>
+        <v>0.07984259277394318</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01665335254746962</v>
+        <v>0.03476730877911597</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08196873280564027</v>
+        <v>0.1221638240565381</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01660727612315633</v>
+        <v>0.03502954598059727</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02376264927546722</v>
+        <v>0.02170874110122573</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01696059092036473</v>
+        <v>0.03621516752545491</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01807517179567379</v>
+        <v>0.03408780721755859</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01788399823922645</v>
+        <v>0.03658429566522366</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0520175602266226</v>
+        <v>0.08161343522126407</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01744636933544437</v>
+        <v>0.03642289491145483</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08373566733330595</v>
+        <v>0.1255398502838911</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01739809879568759</v>
+        <v>0.03669761959872094</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02457989426544213</v>
+        <v>0.02099460163909371</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01750150498678491</v>
+        <v>0.03786131150388468</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01851241312324069</v>
+        <v>0.03446736329842487</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01869690725010038</v>
+        <v>0.03824721819546111</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05394405967527768</v>
+        <v>0.08219887199536424</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01823938612341911</v>
+        <v>0.03807848104379368</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08590494443637287</v>
+        <v>0.1274913001133506</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01818892146821884</v>
+        <v>0.03836569321684462</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02578100276284513</v>
+        <v>0.02226883899448855</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01826243998621034</v>
+        <v>0.03950745548231444</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01929876046313414</v>
+        <v>0.03522621850074896</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01967784325794571</v>
+        <v>0.03991014072569854</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05547223702426357</v>
+        <v>0.08344878348413573</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01903240291139386</v>
+        <v>0.03973406717613254</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08897148927383175</v>
+        <v>0.1293309200428787</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0189797441407501</v>
+        <v>0.04003376683496831</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02702629089623398</v>
+        <v>0.02352946857296059</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01902337498563577</v>
+        <v>0.04115359946074421</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0194292664775489</v>
+        <v>0.03566918020024418</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02032272527184824</v>
+        <v>0.04157306325593598</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0574985572742053</v>
+        <v>0.08425579858883731</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0198254196993686</v>
+        <v>0.04138965330847139</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09253022700467356</v>
+        <v>0.1315174677430098</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01977056681328135</v>
+        <v>0.04170184045309198</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02829809921686628</v>
+        <v>0.02277450578006024</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0197843099850612</v>
+        <v>0.04279974343917398</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02012577760859033</v>
+        <v>0.03589308349958183</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02113563428272217</v>
+        <v>0.04323598578617342</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05851948542572785</v>
+        <v>0.0852125462107278</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02061843648734334</v>
+        <v>0.04304523944081025</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0952760827878889</v>
+        <v>0.1333390593080687</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0205613894858126</v>
+        <v>0.04336991407121566</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02957876827599971</v>
+        <v>0.02400196602133789</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02054524498448663</v>
+        <v>0.04444588741760375</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02077705777195199</v>
+        <v>0.03639476350143328</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0219485432935961</v>
+        <v>0.04489890831641086</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06073148647945623</v>
+        <v>0.0866116552510659</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02141145327531809</v>
+        <v>0.0447008255731491</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09690398178246873</v>
+        <v>0.1344838108323802</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02135221215834386</v>
+        <v>0.04503798768933934</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03085063862489187</v>
+        <v>0.02320986470234389</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02130617998391206</v>
+        <v>0.04609203139603352</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0216774461201831</v>
+        <v>0.03677105530846983</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02276145230447003</v>
+        <v>0.0465618308466483</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06213102543601542</v>
+        <v>0.0874457546111104</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02220447006329283</v>
+        <v>0.04635641170548796</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09950884914740393</v>
+        <v>0.1360398384102693</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02214303483087511</v>
+        <v>0.04670606130746302</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03209605081480038</v>
+        <v>0.02339621722862859</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02206711498333749</v>
+        <v>0.04773817537446329</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02212128180583292</v>
+        <v>0.03691879402336287</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02357436131534396</v>
+        <v>0.04822475337688574</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06431456729603047</v>
+        <v>0.08820747319212002</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02299748685126758</v>
+        <v>0.04801199783782682</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1028856100416852</v>
+        <v>0.1373952581360608</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02293385750340636</v>
+        <v>0.0483741349255867</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03329734539698291</v>
+        <v>0.02355903900574241</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02282804998276293</v>
+        <v>0.04938431935289306</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02320290398145065</v>
+        <v>0.03723481474878371</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02438727032621789</v>
+        <v>0.04988767590712318</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06577857706012638</v>
+        <v>0.08908943989535362</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02379050363924232</v>
+        <v>0.04966758397016567</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1051291896243035</v>
+        <v>0.1382381861040796</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02372468017593762</v>
+        <v>0.05004220854371038</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03443686292269707</v>
+        <v>0.02269634543923572</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02358898498218836</v>
+        <v>0.05103046333132283</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02371665179958553</v>
+        <v>0.03781595258740367</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02520017933709182</v>
+        <v>0.05155059843736062</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06721951972892817</v>
+        <v>0.08918428362206987</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02458352042721706</v>
+        <v>0.05132317010250453</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1079345130542496</v>
+        <v>0.1388567384086504</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02451550284846887</v>
+        <v>0.05171028216183406</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03549694394320051</v>
+        <v>0.0228061519346589</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02434991998161379</v>
+        <v>0.0526766073097526</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02455686441278682</v>
+        <v>0.03795904264189409</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02601308834796575</v>
+        <v>0.05321352096759806</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0690338603030608</v>
+        <v>0.08948463327352754</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02537653721519181</v>
+        <v>0.05297875623484338</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1105965054905141</v>
+        <v>0.1406390311440983</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02530632552100013</v>
+        <v>0.05337835577995773</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03676264927546721</v>
+        <v>0.02288647389756231</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02537006494311765</v>
+        <v>0.05432275128818236</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02541788097360374</v>
+        <v>0.03816092001492637</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02682599735883968</v>
+        <v>0.05487644349783549</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07051806378314929</v>
+        <v>0.09018311775098542</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02616955400316655</v>
+        <v>0.05463434236718225</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1126100920920882</v>
+        <v>0.1408731804047479</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02609714819353138</v>
+        <v>0.05504642939808142</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03733490745222275</v>
+        <v>0.02495078173924056</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02587178998046465</v>
+        <v>0.05596889526661214</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02639404063458553</v>
+        <v>0.03821841980917175</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02763890636971361</v>
+        <v>0.05653936602807294</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07256859516981867</v>
+        <v>0.09077236595570232</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02696257079114129</v>
+        <v>0.05628992849952109</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1145701980179625</v>
+        <v>0.1416473022849242</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02688797086606264</v>
+        <v>0.0567145030162051</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0381994771325038</v>
+        <v>0.02495075440493405</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02663272497989008</v>
+        <v>0.0576150392450419</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02737968254828142</v>
+        <v>0.03852837712730162</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02845181538058754</v>
+        <v>0.05820228855831037</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07378191946369397</v>
+        <v>0.09109461964810381</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02775558757911604</v>
+        <v>0.05794551463185995</v>
       </c>
       <c r="N100" t="n">
-        <v>0.117271748427128</v>
+        <v>0.1428495128789521</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02767879353859389</v>
+        <v>0.05838257663432877</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03905613478009516</v>
+        <v>0.02294132892391947</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02739365997931551</v>
+        <v>0.05926118322347167</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02806914586724066</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02926472439146147</v>
+        <v>0.05986521108854781</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0754545016654001</v>
+        <v>0.09019415596973884</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02854860436709078</v>
+        <v>0.0596011007641988</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1195096684785752</v>
+        <v>0.1435917183699393</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02846961621112514</v>
+        <v>0.06005065025245245</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03990049419819647</v>
+        <v>0.0249156934109063</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02815459497874094</v>
+        <v>0.06090732720190144</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02905676974401246</v>
+        <v>0.03859534197818262</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0300776334023354</v>
+        <v>0.06152813361878526</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07638280677556214</v>
+        <v>0.09015538441150994</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02934162115506553</v>
+        <v>0.06125668689653766</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1206788833312953</v>
+        <v>0.142390664585862</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0292604388836564</v>
+        <v>0.06171872387057614</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04072816919000724</v>
+        <v>0.02487489380440205</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02891552997816637</v>
+        <v>0.06255347118033121</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03013689333114608</v>
+        <v>0.03837146259549454</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03089054241320933</v>
+        <v>0.06319105614902269</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07826329979480512</v>
+        <v>0.09015702299185963</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03013463794304027</v>
+        <v>0.06291227302887652</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1235743181442789</v>
+        <v>0.1422510914388158</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03005126155618765</v>
+        <v>0.06338679748869981</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04153477355872709</v>
+        <v>0.02481997604291419</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02967646497759181</v>
+        <v>0.06419961515876098</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03090385578119074</v>
+        <v>0.0384225861181155</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03170345142408326</v>
+        <v>0.06485397867926013</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07919244572375397</v>
+        <v>0.08990295649239513</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03092765473101501</v>
+        <v>0.06456785916121537</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1254908980765169</v>
+        <v>0.1425142971619082</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03084208422871891</v>
+        <v>0.06505487110682348</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04231592110755557</v>
+        <v>0.02275198606495023</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03043739997701723</v>
+        <v>0.06584575913719075</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03175199624669568</v>
+        <v>0.03825038053820831</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03251636043495718</v>
+        <v>0.06651690120949758</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08046670956303373</v>
+        <v>0.08979706969472392</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03172067151898976</v>
+        <v>0.06622344529355423</v>
       </c>
       <c r="N105" t="n">
-        <v>0.127823548287</v>
+        <v>0.141787080157101</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03163290690125016</v>
+        <v>0.06672294472494716</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04306722563969227</v>
+        <v>0.0236719698090176</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03119833497644267</v>
+        <v>0.06749190311562052</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03237565388021015</v>
+        <v>0.03805651384793574</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03332926944583112</v>
+        <v>0.06817982373973501</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08198255631326948</v>
+        <v>0.0899432473804532</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0325136883069645</v>
+        <v>0.06787903142589308</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1291671939347191</v>
+        <v>0.1418757035853976</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03242372957378142</v>
+        <v>0.06839101834307085</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04378430095833677</v>
+        <v>0.02358097321362382</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03195926997586809</v>
+        <v>0.06913804709405028</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03336916783428337</v>
+        <v>0.03794265403946057</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03414217845670504</v>
+        <v>0.06984274626997244</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08253645097508608</v>
+        <v>0.0894453743311904</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03330670509493925</v>
+        <v>0.06953461755823194</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1314167601786651</v>
+        <v>0.141386430607802</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03321455224631267</v>
+        <v>0.07005909196119453</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04446276086668863</v>
+        <v>0.02348004221727637</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03272020497529353</v>
+        <v>0.07078419107248006</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03402687726146456</v>
+        <v>0.03811046910494555</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03495508746757897</v>
+        <v>0.07150566880020989</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08422485854910869</v>
+        <v>0.08930733532854279</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03409972188291399</v>
+        <v>0.0711902036905708</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1321671721778289</v>
+        <v>0.1407255243853175</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03400537491884392</v>
+        <v>0.07172716557931821</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04509821916794746</v>
+        <v>0.02337022275848272</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03348113997471896</v>
+        <v>0.07243033505090982</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03484312131430298</v>
+        <v>0.03766162703655353</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03576799647845291</v>
+        <v>0.07316859133044733</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08504424403596217</v>
+        <v>0.08893301515411772</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03489273867088873</v>
+        <v>0.07284578982290965</v>
       </c>
       <c r="N109" t="n">
-        <v>0.134113355091201</v>
+        <v>0.140399248078948</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03479619759137518</v>
+        <v>0.07339523919744188</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04568628966531281</v>
+        <v>0.02425256077575035</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03424207497414439</v>
+        <v>0.07407647902933959</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03541223914534787</v>
+        <v>0.03779779582644723</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03658090548932683</v>
+        <v>0.07483151386068476</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08639107243627167</v>
+        <v>0.08892629858952258</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03568575545886348</v>
+        <v>0.07450137595524851</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1355502340777725</v>
+        <v>0.1399138648496969</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03558702026390643</v>
+        <v>0.07506331281556557</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04622258616198426</v>
+        <v>0.02212810220758675</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03500300997356982</v>
+        <v>0.07572262300776936</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03622856990714846</v>
+        <v>0.03752064346678947</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03739381450020076</v>
+        <v>0.07649443639092221</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08706180875066208</v>
+        <v>0.0880910704163646</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03647877224683822</v>
+        <v>0.07615696208758736</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1372727342965342</v>
+        <v>0.139975637858568</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03637784293643768</v>
+        <v>0.07673138643368925</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04670272246116139</v>
+        <v>0.02199789299249941</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03576394497299525</v>
+        <v>0.07736876698619913</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03678645275225395</v>
+        <v>0.03713183794974306</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03820672351107469</v>
+        <v>0.07815735892115964</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08715291797975844</v>
+        <v>0.08713121541625121</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03727178903481296</v>
+        <v>0.07781254821992623</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1380757809064768</v>
+        <v>0.138590830266565</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03716866560896894</v>
+        <v>0.07839946005181293</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04712231236604378</v>
+        <v>0.02386297906899582</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03652487997242068</v>
+        <v>0.07901491096462888</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03708022683321363</v>
+        <v>0.03723304726747073</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03901963252194863</v>
+        <v>0.07982028145139708</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08836086512418584</v>
+        <v>0.08695061837078974</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03806480582278771</v>
+        <v>0.07946813435226507</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1386542990665912</v>
+        <v>0.1376657052346914</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03795948828150019</v>
+        <v>0.08006753366993662</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04747696967983099</v>
+        <v>0.02272440637558341</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03728581497184611</v>
+        <v>0.08066105494305867</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0376042313025767</v>
+        <v>0.03672593941213528</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03983254153282256</v>
+        <v>0.08148320398163453</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08848211518456914</v>
+        <v>0.08615316406158743</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03885782261076245</v>
+        <v>0.08112372048460392</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1400032139358682</v>
+        <v>0.1369065259239509</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03875031095403145</v>
+        <v>0.08173560728806029</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0477670633867409</v>
+        <v>0.02258322085076973</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03804674997127154</v>
+        <v>0.08230719892148843</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03795280531289241</v>
+        <v>0.03661218237589953</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04064545054369648</v>
+        <v>0.08314612651187196</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08951313316153348</v>
+        <v>0.0859427372702517</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0396508393987372</v>
+        <v>0.08277930661694279</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1416174506732987</v>
+        <v>0.135919555495347</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0395411336265627</v>
+        <v>0.08340368090618396</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04803991545279095</v>
+        <v>0.02344046843306222</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03880768497069698</v>
+        <v>0.08395334289991821</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03812028801670998</v>
+        <v>0.0363934441509262</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04145835955457042</v>
+        <v>0.08480904904210941</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0901503840557038</v>
+        <v>0.08592322277838987</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04044385618671194</v>
+        <v>0.08443489274928163</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1415919344378734</v>
+        <v>0.1364110571098835</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04033195629909395</v>
+        <v>0.08507175452430764</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04830869862561459</v>
+        <v>0.02329719506096838</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03956861997012241</v>
+        <v>0.08559948687834797</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0385010185665787</v>
+        <v>0.03607139272937814</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04227126856544434</v>
+        <v>0.08647197157234685</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09039033286770509</v>
+        <v>0.08549850536760925</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04123687297468669</v>
+        <v>0.0860904788816205</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1425215903885832</v>
+        <v>0.1354872939285641</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04112277897162521</v>
+        <v>0.08673982814243132</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04857334734820598</v>
+        <v>0.02215444667299568</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04032955496954784</v>
+        <v>0.08724563085677774</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03859752092626828</v>
+        <v>0.03614769610341807</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04308417757631827</v>
+        <v>0.08813489410258428</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09032944459816239</v>
+        <v>0.0844724698195172</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04202988976266143</v>
+        <v>0.08774606501395935</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1429013436844189</v>
+        <v>0.1342545291123923</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04191360164415646</v>
+        <v>0.08840790176055499</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0488337960635593</v>
+        <v>0.02101326920765161</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04109048996897326</v>
+        <v>0.08889177483520751</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03859453454383917</v>
+        <v>0.03562402226520883</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04389708658719221</v>
+        <v>0.08979781663282173</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09109461964810381</v>
+        <v>0.08384900091572101</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04282290655063618</v>
+        <v>0.08940165114629821</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1435917183699393</v>
+        <v>0.1338190258223718</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04270442431668772</v>
+        <v>0.09007597537867867</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04908997921466868</v>
+        <v>0.02286326787273793</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0418514249683987</v>
+        <v>0.09053791881363728</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03847637051379781</v>
+        <v>0.03560203920691317</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04470999559806613</v>
+        <v>0.09146073916305916</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09039382920700204</v>
+        <v>0.08333137072566627</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04361592333861092</v>
+        <v>0.09105723727863707</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1429914408796298</v>
+        <v>0.131787047219506</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04349524698921897</v>
+        <v>0.09174404899680236</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04934183124452826</v>
+        <v>0.02069246303115666</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04261235996782413</v>
+        <v>0.09218406279206703</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03824239281817804</v>
+        <v>0.03517870530847125</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04552290460894006</v>
+        <v>0.0931236616932966</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0908756916803776</v>
+        <v>0.08326631544939275</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04440894012658567</v>
+        <v>0.09271282341097592</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1424603163861257</v>
+        <v>0.1322647718199735</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04428606966175022</v>
+        <v>0.09341212261492604</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04958928659613224</v>
+        <v>0.02050421134632227</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04337329496724956</v>
+        <v>0.09383020677049682</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03849337483314</v>
+        <v>0.03512587641574484</v>
       </c>
       <c r="K122" t="n">
-        <v>0.046335813619814</v>
+        <v>0.09478658422353405</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09083422460599394</v>
+        <v>0.082526506801784</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04520195691456041</v>
+        <v>0.09436840954331478</v>
       </c>
       <c r="N122" t="n">
-        <v>0.143378937497718</v>
+        <v>0.1307770660380882</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04507689233428148</v>
+        <v>0.09508019623304972</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04983227971247473</v>
+        <v>0.02230192061091863</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04413422996667499</v>
+        <v>0.09547635074892658</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03813008993484385</v>
+        <v>0.03494309857580415</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04714872263068792</v>
+        <v>0.09644950675377148</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09017027278153328</v>
+        <v>0.08192460186568501</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04599497370253516</v>
+        <v>0.09602399567565363</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1433491539631963</v>
+        <v>0.1295683037748572</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04586771500681273</v>
+        <v>0.09674826985117339</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05007074503654987</v>
+        <v>0.02208899861762962</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04489516496610042</v>
+        <v>0.09712249472735635</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03835331149944973</v>
+        <v>0.03433580630649935</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04796163164156185</v>
+        <v>0.09811242928400891</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0899846810046778</v>
+        <v>0.08117325772394068</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0467879904905099</v>
+        <v>0.09767958180799248</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1420728155313504</v>
+        <v>0.1279588911574988</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04665853767934398</v>
+        <v>0.09841634346929708</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05030461701135185</v>
+        <v>0.01986885315913908</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04565609996552585</v>
+        <v>0.09876863870578612</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03806381290311779</v>
+        <v>0.03430943412568058</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04877454065243578</v>
+        <v>0.09977535181424636</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09037829407310971</v>
+        <v>0.07988513145939596</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04758100727848464</v>
+        <v>0.09933516794033134</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1418517719509702</v>
+        <v>0.1267692343132312</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04744936035187524</v>
+        <v>0.1000844170874208</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05053383007987479</v>
+        <v>0.01964489202813093</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04641703496495129</v>
+        <v>0.1004147826842159</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03786236752200824</v>
+        <v>0.03386941655119802</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04958744966330971</v>
+        <v>0.1014382743444838</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09065195678451124</v>
+        <v>0.07957288015489575</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04837402406645939</v>
+        <v>0.1009907540726702</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1425878729708451</v>
+        <v>0.1266197393692725</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04824018302440649</v>
+        <v>0.1017524907055444</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05075831868511285</v>
+        <v>0.01942052301728899</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04717796996437671</v>
+        <v>0.1020609266626457</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03804974873228115</v>
+        <v>0.03362118810090187</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05040035867418364</v>
+        <v>0.1031011968747212</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08970651393656462</v>
+        <v>0.07844916089328499</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04916704085443413</v>
+        <v>0.1026463402050091</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1414829683397652</v>
+        <v>0.125430812452841</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04903100569693775</v>
+        <v>0.1034205643236681</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0509780172700602</v>
+        <v>0.02119915391929718</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04793890496380215</v>
+        <v>0.1037070706410754</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03782672991009671</v>
+        <v>0.03307018329264226</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05121326768505757</v>
+        <v>0.1047641194049587</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09034281032695202</v>
+        <v>0.07722663075740868</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04996005764240887</v>
+        <v>0.1043019263373479</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1420389078065201</v>
+        <v>0.123122859691155</v>
       </c>
       <c r="O128" t="n">
-        <v>0.049821828369469</v>
+        <v>0.1050886379417918</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05119286027771094</v>
+        <v>0.01998419252683933</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04869983996322758</v>
+        <v>0.1053532146195052</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03749408443161509</v>
+        <v>0.03292183664426938</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0520261766959315</v>
+        <v>0.1064270419351961</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09016169075335564</v>
+        <v>0.07711794683011172</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05075307443038362</v>
+        <v>0.1059575124696868</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1410575411198995</v>
+        <v>0.1225162872114324</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05061265104200025</v>
+        <v>0.1067567115599155</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0514027821510593</v>
+        <v>0.01977904663259933</v>
       </c>
       <c r="G130" t="n">
-        <v>0.049460774962653</v>
+        <v>0.106999358597935</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0376525856729964</v>
+        <v>0.03248158267363335</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05283908570680543</v>
+        <v>0.1080899644654336</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08956400001345774</v>
+        <v>0.076435766194239</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05154609121835836</v>
+        <v>0.1076130986020256</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1403407180286932</v>
+        <v>0.1210315011408917</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05140347371453151</v>
+        <v>0.1084247851780391</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05160771733309936</v>
+        <v>0.01957090555479973</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05022170996207844</v>
+        <v>0.1086455025763647</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03730300701040082</v>
+        <v>0.03205485589858441</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05365199471767936</v>
+        <v>0.109752886995671</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08885058290494049</v>
+        <v>0.0754906798565371</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0523391080063331</v>
+        <v>0.1092686847343645</v>
       </c>
       <c r="N131" t="n">
-        <v>0.140290288281691</v>
+        <v>0.119588907606751</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05219429638706276</v>
+        <v>0.1100928587961628</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05180760026682533</v>
+        <v>0.01834344532870334</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05098264496150386</v>
+        <v>0.1102916465547945</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0373461218199885</v>
+        <v>0.03183704414363803</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05446490372855329</v>
+        <v>0.1114158095259084</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08942228422548615</v>
+        <v>0.0745079612879051</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05313212479430785</v>
+        <v>0.1109242708667033</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1399081016276825</v>
+        <v>0.1193054896689165</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05298511905959402</v>
+        <v>0.1117609324142865</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05200236539523131</v>
+        <v>0.0191014699965121</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0517435799609293</v>
+        <v>0.1119377905332243</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0371827034779196</v>
+        <v>0.03149105386856002</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05527781273942722</v>
+        <v>0.1130787320561459</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08887994877277688</v>
+        <v>0.07395799865659836</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05392514158228259</v>
+        <v>0.1125798569990422</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1397960078154575</v>
+        <v>0.1176614229017797</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05377594173212528</v>
+        <v>0.1134290060324102</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05219194716131147</v>
+        <v>0.01984985781445131</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05250451496035473</v>
+        <v>0.113583934511654</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03681352536035425</v>
+        <v>0.03111956778007698</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05609072175030114</v>
+        <v>0.1147416545863833</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08882442134449489</v>
+        <v>0.07225891058041728</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05471815837025734</v>
+        <v>0.1142354431313811</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1381558565938058</v>
+        <v>0.1166101002784347</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05456676440465653</v>
+        <v>0.1150970796505339</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05237628000805997</v>
+        <v>0.01859348703874625</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05326544995978016</v>
+        <v>0.1152300784900838</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03663936084345261</v>
+        <v>0.03083036539208345</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05690363076117508</v>
+        <v>0.1164045771166207</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08815654673832246</v>
+        <v>0.07132881567716237</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05551117515823208</v>
+        <v>0.1158910292637199</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1375894977115171</v>
+        <v>0.114880733175972</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05535758707718778</v>
+        <v>0.1167651532686575</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05255529837847095</v>
+        <v>0.01833723592562217</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05402638495920559</v>
+        <v>0.1168762224685136</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03666098330337483</v>
+        <v>0.03013122621847399</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05771653977204901</v>
+        <v>0.1180674996468582</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0879771697519417</v>
+        <v>0.070485832564634</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05630419194620682</v>
+        <v>0.1175466153960588</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1374987809173812</v>
+        <v>0.1129025329714827</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05614840974971904</v>
+        <v>0.1184332268867812</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05272893671553858</v>
+        <v>0.01908598273130437</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05478731995863102</v>
+        <v>0.1185223664469433</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03637916611628109</v>
+        <v>0.02992992977314317</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05852944878292293</v>
+        <v>0.1197304221770956</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08728713518303491</v>
+        <v>0.07014807986063262</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05709720873418157</v>
+        <v>0.1192022015283976</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1365855559601877</v>
+        <v>0.1119047110420577</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05693923242225029</v>
+        <v>0.1201013005049049</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05289712946225697</v>
+        <v>0.01684460571201813</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05554825495805646</v>
+        <v>0.1201685104253731</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03629468265833151</v>
+        <v>0.02933425556998558</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05934235779379687</v>
+        <v>0.1213933447073331</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08698728782928425</v>
+        <v>0.06873367618295864</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05789022552215631</v>
+        <v>0.1208577876607365</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1365516725887265</v>
+        <v>0.1108164787647878</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05773005509478155</v>
+        <v>0.1217693741230286</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0530598110616203</v>
+        <v>0.01761798312398872</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05630918995748189</v>
+        <v>0.1218146544038029</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03610830630568625</v>
+        <v>0.02915198312289573</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06015526680467079</v>
+        <v>0.1230562672375705</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08687847248837194</v>
+        <v>0.06776074014941252</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05868324231013106</v>
+        <v>0.1225133737930753</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1361989805517874</v>
+        <v>0.1086670475167639</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0585208777673128</v>
+        <v>0.1234374477411523</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05321691595662273</v>
+        <v>0.01641099322344143</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05707012495690731</v>
+        <v>0.1234607983822326</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03572081043450545</v>
+        <v>0.02889089194576823</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06096817581554472</v>
+        <v>0.1247191897678079</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0867615339579802</v>
+        <v>0.0670473903777947</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0594762590981058</v>
+        <v>0.1241689599254142</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1351293295981598</v>
+        <v>0.1078856286750767</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05931170043984405</v>
+        <v>0.1251055213592759</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05336837859025841</v>
+        <v>0.01622851426660153</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05783105995633274</v>
+        <v>0.1251069423606624</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03553296842094932</v>
+        <v>0.02825876155249764</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06178108482641866</v>
+        <v>0.1263821122980454</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08693731703579122</v>
+        <v>0.06621174548590558</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06026927588608054</v>
+        <v>0.125824546057753</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1337445694766339</v>
+        <v>0.1060014336168174</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06010252311237531</v>
+        <v>0.1267735949773996</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05351413340552147</v>
+        <v>0.01807542450969431</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05859199495575818</v>
+        <v>0.1267530863390922</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03544555364117793</v>
+        <v>0.02826337145697848</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06259399383729258</v>
+        <v>0.1280450348282828</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08650666651948724</v>
+        <v>0.06557192409154566</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06106229267405529</v>
+        <v>0.1274801321900919</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1329465499359991</v>
+        <v>0.1052436737190766</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06089334578490656</v>
+        <v>0.1284416685955233</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05365411484540607</v>
+        <v>0.01695660220894504</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05935292995518361</v>
+        <v>0.128399230317522</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03505933947135151</v>
+        <v>0.02801250117310536</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06340690284816651</v>
+        <v>0.1297079573585203</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08577042720675046</v>
+        <v>0.06534604481251527</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06185530946203003</v>
+        <v>0.1291357183224307</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1321371207250452</v>
+        <v>0.1037415603589452</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06168416845743781</v>
+        <v>0.130109742213647</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05378825735290636</v>
+        <v>0.01787692562057899</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06011386495460904</v>
+        <v>0.1300453742959517</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03497509928763012</v>
+        <v>0.02761393021477282</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06421981185904044</v>
+        <v>0.1313708798887577</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08582944389526309</v>
+        <v>0.06505222626661489</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06264832625000478</v>
+        <v>0.1307913044547696</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1325181315925621</v>
+        <v>0.1029243049135142</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06247499112996907</v>
+        <v>0.1317778158317707</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05391649537101649</v>
+        <v>0.01784127300082148</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06087479995403446</v>
+        <v>0.1316915182743815</v>
       </c>
       <c r="J145" t="n">
-        <v>0.034893606466174</v>
+        <v>0.02737543809587543</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06503272086991436</v>
+        <v>0.1330338024189952</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08498456138270732</v>
+        <v>0.064308587071645</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06344134303797952</v>
+        <v>0.1324468905871085</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1315914322873395</v>
+        <v>0.1022211187598743</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06326581380250032</v>
+        <v>0.1334458894498943</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05403876334273064</v>
+        <v>0.01684187705746069</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06163573495345991</v>
+        <v>0.1333376622528112</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03481563438314327</v>
+        <v>0.02760480433030776</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06584562988078831</v>
+        <v>0.1346967249492326</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08493662446676539</v>
+        <v>0.0647327391512022</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06423435982595427</v>
+        <v>0.1341024767194473</v>
       </c>
       <c r="N146" t="n">
-        <v>0.130458872558167</v>
+        <v>0.1020612132751166</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06405663647503157</v>
+        <v>0.135113963068018</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05415499571104293</v>
+        <v>0.01585076126370784</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06239666995288533</v>
+        <v>0.134983806231241</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03464195641469807</v>
+        <v>0.02759901233978818</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06665853889166223</v>
+        <v>0.13635964747947</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0845864779451195</v>
+        <v>0.06474810231307374</v>
       </c>
       <c r="M147" t="n">
-        <v>0.065027376613929</v>
+        <v>0.1357580628517862</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1304223021538345</v>
+        <v>0.1018689048590606</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06484745914756283</v>
+        <v>0.1367820366861417</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0542651269189475</v>
+        <v>0.01686631914818394</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06315760495231076</v>
+        <v>0.1366299502096708</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03447334593699856</v>
+        <v>0.02761087814739038</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06747144790253616</v>
+        <v>0.1380225700097075</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08403496661545184</v>
+        <v>0.06468899958580107</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06582039340190375</v>
+        <v>0.137413648984125</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1284835708231317</v>
+        <v>0.1017983340381713</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06563828182009408</v>
+        <v>0.1384501103042654</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05436909140943853</v>
+        <v>0.01688819225839856</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06391853995173619</v>
+        <v>0.1382760941881006</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03431057632620491</v>
+        <v>0.0275333824876374</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06828435691341009</v>
+        <v>0.1396854925399449</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08398293527544465</v>
+        <v>0.06525409961994821</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0666134101898785</v>
+        <v>0.1390692351164639</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1283445283148483</v>
+        <v>0.1020683554799488</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06642910449262533</v>
+        <v>0.1401181839223891</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05446682362551017</v>
+        <v>0.01591602214186126</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06467947495116162</v>
+        <v>0.1399222381665303</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03405442095847723</v>
+        <v>0.02766595372468209</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06909726592428402</v>
+        <v>0.1413484150701823</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08363122872278014</v>
+        <v>0.06494207106607916</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06740642697785325</v>
+        <v>0.1407248212488027</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1270070243777741</v>
+        <v>0.1017768227430451</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0672199271651566</v>
+        <v>0.1417862575405127</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05455825801015655</v>
+        <v>0.0159494503460816</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06544040995058706</v>
+        <v>0.1415683821449601</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03390565320997573</v>
+        <v>0.02750802022267732</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06991017493515794</v>
+        <v>0.1430113376004198</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08288069175514054</v>
+        <v>0.06485158257475809</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06819944376582798</v>
+        <v>0.1423804073811416</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1263729087606988</v>
+        <v>0.1023215893861125</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06801074983768784</v>
+        <v>0.1434543311586364</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05464332900637185</v>
+        <v>0.01598811841856913</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06620134495001248</v>
+        <v>0.1432145261233899</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0336650464568605</v>
+        <v>0.02755901034577593</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07072308394603188</v>
+        <v>0.1446742601306572</v>
       </c>
       <c r="L152" t="n">
-        <v>0.082832169170208</v>
+        <v>0.06518130279654893</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06899246055380273</v>
+        <v>0.1440359935134804</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1257440312124121</v>
+        <v>0.1018005089678029</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06880157251021909</v>
+        <v>0.1451224047767601</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05472197105715018</v>
+        <v>0.01603166790683343</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06696227994943792</v>
+        <v>0.1448606701018196</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03343337407529176</v>
+        <v>0.02761835245813081</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07153599295690581</v>
+        <v>0.1463371826608947</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08218650576566477</v>
+        <v>0.0652299003820159</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06978547734177747</v>
+        <v>0.1456915796458193</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1256222414817039</v>
+        <v>0.1022114350467687</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06959239518275036</v>
+        <v>0.1467904783948838</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05479411860548573</v>
+        <v>0.01607974035838404</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06772321494886335</v>
+        <v>0.1465068140802494</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0336114094414296</v>
+        <v>0.0278854749238948</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07234890196777974</v>
+        <v>0.1480001051911321</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08194454633919304</v>
+        <v>0.06519604398172291</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07057849412975221</v>
+        <v>0.1473471657781582</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1254093893173638</v>
+        <v>0.1027522211816619</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07038321785528161</v>
+        <v>0.1484585520130074</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05485970609437266</v>
+        <v>0.01613197732073052</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06848414994828878</v>
+        <v>0.1481529580586792</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03319992593143421</v>
+        <v>0.02795980610722072</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07316181097865367</v>
+        <v>0.1496630277213695</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08120713568847504</v>
+        <v>0.06607840224623412</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07137151091772696</v>
+        <v>0.149002751910497</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1246073244681817</v>
+        <v>0.1039207209311347</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07117404052781286</v>
+        <v>0.1501266256311311</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05491866796680506</v>
+        <v>0.01818802034138246</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06924508494771421</v>
+        <v>0.1497991020371089</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03339969692146572</v>
+        <v>0.02784077437226148</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07397471998952759</v>
+        <v>0.151325950251607</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08087511861119295</v>
+        <v>0.06627564382611351</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07216452770570171</v>
+        <v>0.1506583380428359</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1240178966829471</v>
+        <v>0.1041147878538392</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07196486320034412</v>
+        <v>0.1517946992492548</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05497093866577714</v>
+        <v>0.01824751096784937</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07000601994713963</v>
+        <v>0.1514452460155387</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03311149578768428</v>
+        <v>0.02782780808316991</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07478762900040152</v>
+        <v>0.1529888727818444</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08124933990502908</v>
+        <v>0.06558643737192521</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07295754449367645</v>
+        <v>0.1523139241751747</v>
       </c>
       <c r="N157" t="n">
-        <v>0.12324295571045</v>
+        <v>0.1032322755084274</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07275568587287537</v>
+        <v>0.1534627728673785</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05501645263428301</v>
+        <v>0.01633017087775413</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07076695494656508</v>
+        <v>0.1530913899939685</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03293297892870616</v>
+        <v>0.02822033560409888</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07560053801127546</v>
+        <v>0.1546517953120818</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08072600611444558</v>
+        <v>0.06621427927570203</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07375056128165119</v>
+        <v>0.1539695103075136</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1214689428991234</v>
+        <v>0.1042710374535517</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07354650854540662</v>
+        <v>0.1551308464855022</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05505514431531686</v>
+        <v>0.01746951052119949</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07152788994599051</v>
+        <v>0.1547375339723983</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03285891187532926</v>
+        <v>0.02824381877919455</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07641344702214939</v>
+        <v>0.1563147178423193</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08009753509013143</v>
+        <v>0.06620221466229742</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07454357806962593</v>
+        <v>0.1556250964398525</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1210706483651084</v>
+        <v>0.1046596189887539</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07433733121793788</v>
+        <v>0.1567989201036259</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05508694815187283</v>
+        <v>0.01665583068856152</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07228882494541593</v>
+        <v>0.156383677950828</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03288891976765276</v>
+        <v>0.02855618407247182</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07722635603302332</v>
+        <v>0.1579776403725567</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07966376156447305</v>
+        <v>0.06728771539247175</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07533659485760069</v>
+        <v>0.1572806825721913</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1204489390398634</v>
+        <v>0.104547472876459</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07512815389046913</v>
+        <v>0.1584669937217495</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05511179858694505</v>
+        <v>0.01687831056430975</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07304975994484136</v>
+        <v>0.1580298219292578</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03272272015210735</v>
+        <v>0.02854374031482963</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07803926504389726</v>
+        <v>0.1596405629027942</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07992465094426504</v>
+        <v>0.06813059124008028</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07612961164557543</v>
+        <v>0.1589362687045301</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1203051603957866</v>
+        <v>0.1056375998082669</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07591897656300038</v>
+        <v>0.1601350673398732</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0551296300635277</v>
+        <v>0.01912612933291373</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07381069494426679</v>
+        <v>0.1596759659076875</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03276003057512372</v>
+        <v>0.02908923119973501</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07885217405477118</v>
+        <v>0.1613034854330316</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07958016863630202</v>
+        <v>0.06839065197897848</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07692262843355017</v>
+        <v>0.160591854836869</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1195406579052766</v>
+        <v>0.1078652039005067</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07670979923553163</v>
+        <v>0.1618031409579969</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05514037702461488</v>
+        <v>0.01738846617884298</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07457162994369222</v>
+        <v>0.1613221098861173</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03260056858313257</v>
+        <v>0.02957540042065501</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07966508306564511</v>
+        <v>0.1629664079632691</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07943028004737865</v>
+        <v>0.06952770738302161</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07771564522152491</v>
+        <v>0.1622474409692078</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1176567770407316</v>
+        <v>0.1083654892695071</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07750062190806289</v>
+        <v>0.1634712145761206</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05514397391320082</v>
+        <v>0.01965450028656705</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07533256494311766</v>
+        <v>0.1629682538645471</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0326440517225646</v>
+        <v>0.02978499167105667</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08047799207651904</v>
+        <v>0.1646293304935065</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07867495058428947</v>
+        <v>0.07070156722606508</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07850866200949966</v>
+        <v>0.1639030271015467</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1169548632745505</v>
+        <v>0.1105736600315971</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07829144458059414</v>
+        <v>0.1651392881942443</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05514397391320082</v>
+        <v>0.01991341084055545</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07533256494311766</v>
+        <v>0.1646143978429769</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03279019753985049</v>
+        <v>0.03040074864440699</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08129090108739297</v>
+        <v>0.1662922530237439</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07781414565382908</v>
+        <v>0.07147204128196416</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07930167879747441</v>
+        <v>0.1655586132338856</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1173362620791313</v>
+        <v>0.1118249203031054</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07908226725312539</v>
+        <v>0.1668073618123679</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05422818383788601</v>
+        <v>0.01815437702527772</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07533229641465364</v>
+        <v>0.1662605418214066</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03253872358142096</v>
+        <v>0.03080541503417303</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08210381009826691</v>
+        <v>0.1679551755539814</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07814783066279216</v>
+        <v>0.07279893932457432</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08009469558544915</v>
+        <v>0.1672141993662244</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1152023189268727</v>
+        <v>0.1130544742003609</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07987308992565666</v>
+        <v>0.1684754354304916</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05332252137460124</v>
+        <v>0.02036657802520341</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07533202788618963</v>
+        <v>0.1679066857998364</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03268934739370673</v>
+        <v>0.03098173453382178</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08291671910914084</v>
+        <v>0.1696180980842188</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0771759710179733</v>
+        <v>0.07334207112775079</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08088771237342389</v>
+        <v>0.1688697854985633</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1153543792901731</v>
+        <v>0.1142975258396925</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08066391259818791</v>
+        <v>0.1701435090486153</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05242743799576828</v>
+        <v>0.02055390427905435</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0753317593577256</v>
+        <v>0.1695528297782662</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03244178652313842</v>
+        <v>0.03151245083682033</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08372962812001476</v>
+        <v>0.1712810206144562</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07699853212616703</v>
+        <v>0.07386799226153776</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08168072916139864</v>
+        <v>0.1705253716309021</v>
       </c>
       <c r="N168" t="n">
-        <v>0.113693788641431</v>
+        <v>0.1168892793374292</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08145473527071916</v>
+        <v>0.171811582666739</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0515433851739255</v>
+        <v>0.01873619547542085</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07533149082926159</v>
+        <v>0.1711989737566959</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03259575851614682</v>
+        <v>0.0316048355255614</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08454253713088869</v>
+        <v>0.1729439431446937</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07661547939416799</v>
+        <v>0.07534667879319057</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08247374594937337</v>
+        <v>0.172180957763241</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1129218924530448</v>
+        <v>0.1173046058308837</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08224555794325042</v>
+        <v>0.1734796562848626</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05067081438149422</v>
+        <v>0.01891411462490564</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07533122230079757</v>
+        <v>0.1728451177351257</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03235098091916257</v>
+        <v>0.03178944405306711</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08535544614176262</v>
+        <v>0.1746068656749311</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0762267782287708</v>
+        <v>0.07510852868351653</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08326676273734812</v>
+        <v>0.1738365438955799</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1128400361974131</v>
+        <v>0.1188745969701872</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08303638061578167</v>
+        <v>0.1751477299029863</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0498101770909349</v>
+        <v>0.02008800499634566</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07533095377233356</v>
+        <v>0.1744912617135555</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03220717127861639</v>
+        <v>0.03226717338489593</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08616835515263654</v>
+        <v>0.1762697882051686</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07593239403677007</v>
+        <v>0.0758548168874528</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08405977952532287</v>
+        <v>0.1754921300279187</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1114495653469342</v>
+        <v>0.1201182404442576</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08382720328831292</v>
+        <v>0.17681580352111</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04896192477467137</v>
+        <v>0.01925820985857784</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07533068524386953</v>
+        <v>0.1761374056919852</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03216404714093897</v>
+        <v>0.0324385709430289</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08698126416351049</v>
+        <v>0.177932710735406</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07523229222496042</v>
+        <v>0.0765868183599365</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08485279631329762</v>
+        <v>0.1771477161602576</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1104518253740066</v>
+        <v>0.1206375917735469</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08461802596084418</v>
+        <v>0.1784838771392337</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04812650890523795</v>
+        <v>0.02142507248043914</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07533041671540552</v>
+        <v>0.177783549670415</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03222132605256098</v>
+        <v>0.03270418414944694</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08779417317438441</v>
+        <v>0.1795956332656435</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0751264382001364</v>
+        <v>0.07740580805590494</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08564581310127235</v>
+        <v>0.1788033022925964</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1092481617510287</v>
+        <v>0.1220347064785066</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08540884863337543</v>
+        <v>0.1801519507573573</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04730438095505797</v>
+        <v>0.02158893613076649</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0753301481869415</v>
+        <v>0.1794296936488448</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03207872555991317</v>
+        <v>0.03306456042613108</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08860708218525834</v>
+        <v>0.1812585557958809</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07441479736909268</v>
+        <v>0.07771306093029523</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0864388298892471</v>
+        <v>0.1804588884249353</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1094399199503991</v>
+        <v>0.1225116400795883</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08619967130590668</v>
+        <v>0.1818200243754811</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04649599239659187</v>
+        <v>0.02175014407839682</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07532987965847748</v>
+        <v>0.1810758376272746</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0321359632094262</v>
+        <v>0.03342024719506226</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08941999119613227</v>
+        <v>0.1829214783261183</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07399733513862383</v>
+        <v>0.07830985193804463</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08723184667722184</v>
+        <v>0.1821144745572741</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1072284454445162</v>
+        <v>0.1236704480972436</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08699049397843794</v>
+        <v>0.1834880979936047</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04570179470226585</v>
+        <v>0.02190903959216709</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07532961113001346</v>
+        <v>0.1827219816057043</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03199275654753081</v>
+        <v>0.03337179187822144</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09023290020700619</v>
+        <v>0.1845844008563558</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07397401691552444</v>
+        <v>0.07879745603409025</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0880248634651966</v>
+        <v>0.183770060689613</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1076150837057784</v>
+        <v>0.1236131860519242</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08778131665096919</v>
+        <v>0.1851561716117284</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04492223934460957</v>
+        <v>0.02006596594091422</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07532934260154944</v>
+        <v>0.1843681255841341</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03224882312065765</v>
+        <v>0.03381974189758963</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09104580921788012</v>
+        <v>0.1862473233865932</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07374480810658915</v>
+        <v>0.07947714817336934</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08881788025317133</v>
+        <v>0.1854256468219518</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1059011802065842</v>
+        <v>0.1250419094640818</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08857213932350044</v>
+        <v>0.1868242452298521</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04415777779604864</v>
+        <v>0.02022126639347517</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07532907407308544</v>
+        <v>0.1860142695625639</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03190388047523744</v>
+        <v>0.03396464467514777</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09185871822875406</v>
+        <v>0.1879102459168306</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07330967411861256</v>
+        <v>0.0806502033108191</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08961089704114608</v>
+        <v>0.1870812329542907</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1049880804193321</v>
+        <v>0.125458673854168</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08936296199603171</v>
+        <v>0.1884923188479758</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04340886152904348</v>
+        <v>0.02137831723662567</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07532880554462142</v>
+        <v>0.1876604135409936</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03185764615770088</v>
+        <v>0.03430704763287688</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09267162723962799</v>
+        <v>0.1895731684470681</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07226858035838929</v>
+        <v>0.08081871649268157</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09040391382912082</v>
+        <v>0.1887368190866296</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1044771298164204</v>
+        <v>0.1276655347426344</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09015378466856296</v>
+        <v>0.1901603924660994</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04267594201602309</v>
+        <v>0.02254463480526406</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0753285370161574</v>
+        <v>0.1893065575194234</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03210983771447865</v>
+        <v>0.03445430292689605</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09348453625050192</v>
+        <v>0.1912360909773055</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07212149223271386</v>
+        <v>0.08141399306684038</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09119693061709556</v>
+        <v>0.1903924052189684</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1028696738702479</v>
+        <v>0.1275764937024387</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09094460734109421</v>
+        <v>0.1918284660842231</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04195947072951171</v>
+        <v>0.02071523748751227</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07532826848769338</v>
+        <v>0.1909527014978532</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03206017269200147</v>
+        <v>0.03461578296262427</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09429744526137585</v>
+        <v>0.192899013507543</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07196837514838098</v>
+        <v>0.08223558679417595</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09198994740507031</v>
+        <v>0.1920479913513073</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1028670580532127</v>
+        <v>0.1288414064084208</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09173543001362545</v>
+        <v>0.1934965397023468</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04125989914193759</v>
+        <v>0.02088422853018461</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07532799995922937</v>
+        <v>0.1925988454762829</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0319083686367</v>
+        <v>0.03488259399207164</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09511035427224977</v>
+        <v>0.1945619360377804</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07110919451218523</v>
+        <v>0.08306159619754147</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09278296419304506</v>
+        <v>0.1937035774836461</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1008706278377133</v>
+        <v>0.1305353249872303</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09252625268615672</v>
+        <v>0.1951646133204705</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04057767872576118</v>
+        <v>0.02304571118009542</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07532773143076535</v>
+        <v>0.1942449894547127</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03175414309500499</v>
+        <v>0.03544533227110862</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0959232632831237</v>
+        <v>0.1962248585680178</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07054391573092117</v>
+        <v>0.08357011979978998</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0935759809810198</v>
+        <v>0.195359163615985</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1003817286961484</v>
+        <v>0.1304229392228871</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09331707535868797</v>
+        <v>0.1968326869385942</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03991326095341446</v>
+        <v>0.02219378868405901</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07532746290230133</v>
+        <v>0.1958911334331425</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03159721361334711</v>
+        <v>0.03559459405560575</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09673617229399763</v>
+        <v>0.1978877810982553</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06987250421138347</v>
+        <v>0.08363925612377465</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09436899776899454</v>
+        <v>0.1970147497483238</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09970170610091628</v>
+        <v>0.1313689388994118</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09410789803121922</v>
+        <v>0.1985007605567178</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03926709729741575</v>
+        <v>0.02132256428888973</v>
       </c>
       <c r="G185" t="n">
-        <v>0.07532719437383731</v>
+        <v>0.1975372774115722</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03173729773815706</v>
+        <v>0.03572097560143352</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09754908130487157</v>
+        <v>0.1995507036284927</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0701949253603667</v>
+        <v>0.08454710369234852</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09516201455696928</v>
+        <v>0.1986703358806627</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09813190552441542</v>
+        <v>0.1326380138008248</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09489872070375048</v>
+        <v>0.2001688341748415</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0386396392301962</v>
+        <v>0.02342614124140191</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0753269258453733</v>
+        <v>0.199183421390002</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03167411301586553</v>
+        <v>0.03601507316446237</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0983619903157455</v>
+        <v>0.2012136261587301</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06961114458466544</v>
+        <v>0.08447176102836473</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09595503134494403</v>
+        <v>0.2003259220130015</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09797367243904431</v>
+        <v>0.1334948537111468</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09568954337628173</v>
+        <v>0.2018369077929652</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03803133822421631</v>
+        <v>0.02349940270763058</v>
       </c>
       <c r="G187" t="n">
-        <v>0.07532665731690928</v>
+        <v>0.2008295653684318</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03140737699290323</v>
+        <v>0.03616748300056284</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09917489932661942</v>
+        <v>0.2028765486889676</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06892112729107433</v>
+        <v>0.08539132665467647</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09674804813291878</v>
+        <v>0.2019815081453404</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09642835231720137</v>
+        <v>0.1348041484143979</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09648036604881298</v>
+        <v>0.2035049814110889</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03744264575191135</v>
+        <v>0.02256111424536122</v>
       </c>
       <c r="G188" t="n">
-        <v>0.07532638878844526</v>
+        <v>0.2024757093468615</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03133680721570087</v>
+        <v>0.03617401071239243</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09998780833749335</v>
+        <v>0.204539471219205</v>
       </c>
       <c r="L188" t="n">
-        <v>0.068524838886388</v>
+        <v>0.08592336800404432</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09754106492089352</v>
+        <v>0.2036370942776793</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09679729063128512</v>
+        <v>0.1344345604309916</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09727118872134424</v>
+        <v>0.2051730550292125</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03687401328579307</v>
+        <v>0.02162146890211789</v>
       </c>
       <c r="G189" t="n">
-        <v>0.07532612025998124</v>
+        <v>0.2041218533252913</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03126212123068911</v>
+        <v>0.03636996250145375</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1008007173483673</v>
+        <v>0.2062023937494425</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06782224477740101</v>
+        <v>0.085947152540054</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09833408170886826</v>
+        <v>0.2052926804100181</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09588183285369389</v>
+        <v>0.1352944868643322</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09806201139387549</v>
+        <v>0.2068411286473362</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03632404878574874</v>
+        <v>0.02168044497705093</v>
       </c>
       <c r="G190" t="n">
-        <v>0.07532585173151722</v>
+        <v>0.2057679973037211</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03148303658429867</v>
+        <v>0.03636376419170562</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1016136263592412</v>
+        <v>0.2078653162796799</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06691331037090797</v>
+        <v>0.08636588048243968</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09912709849684301</v>
+        <v>0.206948266542357</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09418332445682631</v>
+        <v>0.1358463948965854</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09885283406640674</v>
+        <v>0.2085092022654599</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03578214264895713</v>
+        <v>0.02373802076931072</v>
       </c>
       <c r="G191" t="n">
-        <v>0.07532558320305321</v>
+        <v>0.2074141412821509</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03119927082296023</v>
+        <v>0.03655538117609718</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1024265353701151</v>
+        <v>0.2095282388099174</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06679800107370351</v>
+        <v>0.08577947123080185</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09992011528481774</v>
+        <v>0.2086038526746958</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09350311091308072</v>
+        <v>0.1354901545813781</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09964365673893801</v>
+        <v>0.2101772758835836</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03524690283530876</v>
+        <v>0.02179417457804757</v>
       </c>
       <c r="G192" t="n">
-        <v>0.07532531467458918</v>
+        <v>0.2090602852605806</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03101054149310455</v>
+        <v>0.03674477884757754</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1032394443809891</v>
+        <v>0.2111911613401548</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06677628229258226</v>
+        <v>0.08658784418474094</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1007131320727925</v>
+        <v>0.2102594388070347</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09374253769485563</v>
+        <v>0.1357256359723374</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1004344794114693</v>
+        <v>0.2118453495017072</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0347187808173107</v>
+        <v>0.02284888470241184</v>
       </c>
       <c r="G193" t="n">
-        <v>0.07532504614612517</v>
+        <v>0.2107064292390104</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03121007264493224</v>
+        <v>0.03673192259909579</v>
       </c>
       <c r="K193" t="n">
-        <v>0.104052353391863</v>
+        <v>0.2128540838703922</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06612647193307378</v>
+        <v>0.08669091874385745</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1015061488607672</v>
+        <v>0.2119150249393735</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09249586295598333</v>
+        <v>0.1359527091230907</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1012253020840005</v>
+        <v>0.2135134231198309</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03419822806739999</v>
+        <v>0.0239021294415539</v>
       </c>
       <c r="G194" t="n">
-        <v>0.07532477761766115</v>
+        <v>0.2123525732174402</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03099048558967256</v>
+        <v>0.03661677782360109</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1048652624027369</v>
+        <v>0.2145170064006297</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06502349706567823</v>
+        <v>0.08708861430775183</v>
       </c>
       <c r="M194" t="n">
-        <v>0.102299165648742</v>
+        <v>0.2135706110717124</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09115478659449144</v>
+        <v>0.1367712440872648</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1020161247565318</v>
+        <v>0.2151814967379546</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03368569605803708</v>
+        <v>0.02295388709462404</v>
       </c>
       <c r="G195" t="n">
-        <v>0.07532450908919715</v>
+        <v>0.2139987171958699</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03095272648292872</v>
+        <v>0.03669930991404255</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1056781714136109</v>
+        <v>0.2161799289308671</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06417099840956336</v>
+        <v>0.08678085027602445</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1030921824367167</v>
+        <v>0.2152261972040513</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09161915830960904</v>
+        <v>0.1375811109184869</v>
       </c>
       <c r="O195" t="n">
-        <v>0.102806947429063</v>
+        <v>0.2168495703560783</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03318163626166075</v>
+        <v>0.02200413596077265</v>
       </c>
       <c r="G196" t="n">
-        <v>0.07532424056073311</v>
+        <v>0.2156448611742997</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03079776019821</v>
+        <v>0.03697948426336924</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1064910804244848</v>
+        <v>0.2178428514611046</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06417271153966281</v>
+        <v>0.08676754604827586</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1038851992246915</v>
+        <v>0.2168817833363901</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09068884981139574</v>
+        <v>0.1366821796703843</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1035977701015943</v>
+        <v>0.218517643974202</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03268650015077532</v>
+        <v>0.02405285433915007</v>
       </c>
       <c r="G197" t="n">
-        <v>0.07532397203226911</v>
+        <v>0.2172910051527294</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03062655160902564</v>
+        <v>0.03705726626453031</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1073039894353587</v>
+        <v>0.219505773991342</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06263237203090991</v>
+        <v>0.0874486210241065</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1046782160126662</v>
+        <v>0.218537369468729</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09016373280991091</v>
+        <v>0.137974320396584</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1043885927741255</v>
+        <v>0.2201857175923257</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03220073919781914</v>
+        <v>0.02210002052890661</v>
       </c>
       <c r="G198" t="n">
-        <v>0.07532370350380509</v>
+        <v>0.2189371491311592</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0304400655888849</v>
+        <v>0.0370326213104749</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1081168984462327</v>
+        <v>0.2211686965215794</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06215371545823836</v>
+        <v>0.08752399460311677</v>
       </c>
       <c r="M198" t="n">
-        <v>0.105471232800641</v>
+        <v>0.2201929556010678</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08944367901521405</v>
+        <v>0.138057403150713</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1051794154466568</v>
+        <v>0.2218537912104493</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03172480487525271</v>
+        <v>0.02314561282919268</v>
       </c>
       <c r="G199" t="n">
-        <v>0.07532343497534107</v>
+        <v>0.220583293109589</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03013926701129706</v>
+        <v>0.03730551479415209</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1089298074571066</v>
+        <v>0.2228316190518169</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06104047739658153</v>
+        <v>0.0880935861849072</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1062642495886157</v>
+        <v>0.2218485417334067</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08732856013736462</v>
+        <v>0.1384312979863986</v>
       </c>
       <c r="O199" t="n">
-        <v>0.105970238119188</v>
+        <v>0.223521864828573</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03125914865551645</v>
+        <v>0.02318960953915858</v>
       </c>
       <c r="G200" t="n">
-        <v>0.07532316644687705</v>
+        <v>0.2222294370880188</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02972512074977138</v>
+        <v>0.03737591210851102</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1097427164679805</v>
+        <v>0.2244945415820543</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06089639342087302</v>
+        <v>0.08815731516907827</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1070572663765904</v>
+        <v>0.2235041278657455</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08741824788642227</v>
+        <v>0.137695874957268</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1067610607917193</v>
+        <v>0.2251899384466967</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03080422201111137</v>
+        <v>0.02423198895795466</v>
       </c>
       <c r="G201" t="n">
-        <v>0.07532289791841303</v>
+        <v>0.2238755810664486</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02949859167781713</v>
+        <v>0.03724377864650079</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1105556254788544</v>
+        <v>0.2261574641122918</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05932519910604628</v>
+        <v>0.0877151009552303</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1078502831645652</v>
+        <v>0.2251597139980844</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08731261397244622</v>
+        <v>0.1382510041169481</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1075518834642506</v>
+        <v>0.2268580120648204</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03036047641447748</v>
+        <v>0.02427272938473125</v>
       </c>
       <c r="G202" t="n">
-        <v>0.07532262938994902</v>
+        <v>0.2255217250448783</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02946064466894356</v>
+        <v>0.03730907980107051</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1113685344897284</v>
+        <v>0.2278203866425292</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05843063002703483</v>
+        <v>0.08776686294296385</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1086432999525399</v>
+        <v>0.2268153001304232</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08571153010549615</v>
+        <v>0.1380965555190661</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1083427061367818</v>
+        <v>0.2285260856829441</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02992836333807526</v>
+        <v>0.02331180911863873</v>
       </c>
       <c r="G203" t="n">
-        <v>0.075322360861485</v>
+        <v>0.227167869023308</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02921224459665994</v>
+        <v>0.03737178096516934</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1121814435006023</v>
+        <v>0.2294833091727666</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0582164217587722</v>
+        <v>0.08781252053187938</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1094363167405147</v>
+        <v>0.2284708862627621</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08511486799563162</v>
+        <v>0.1391323992172492</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1091335288093131</v>
+        <v>0.2301941593010677</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02950833425434714</v>
+        <v>0.02334920645882745</v>
       </c>
       <c r="G204" t="n">
-        <v>0.07532209233302098</v>
+        <v>0.2288140130017378</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02875435633447554</v>
+        <v>0.03733184753174636</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1129943525114762</v>
+        <v>0.2311462317030041</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05668630987619191</v>
+        <v>0.08865199312157732</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1102293335284894</v>
+        <v>0.230126472395101</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08522249935291187</v>
+        <v>0.1397584052651245</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1099243514818443</v>
+        <v>0.2318622329191914</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02910084063579017</v>
+        <v>0.02338489970444772</v>
       </c>
       <c r="G205" t="n">
-        <v>0.07532182380455696</v>
+        <v>0.2304601569801676</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02868794475589963</v>
+        <v>0.03748924489375066</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1138072615223502</v>
+        <v>0.2328091542332415</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05654402995422744</v>
+        <v>0.08898520011165814</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1110223503164642</v>
+        <v>0.2317820585274398</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08443429588739659</v>
+        <v>0.1398744437163189</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1107151741543756</v>
+        <v>0.2335303065373151</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0287063339548463</v>
+        <v>0.02341886715464991</v>
       </c>
       <c r="G206" t="n">
-        <v>0.07532155527609295</v>
+        <v>0.2321063009585974</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02851397473444148</v>
+        <v>0.03774393844413142</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1146201705332241</v>
+        <v>0.2344720767634789</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05549331756781223</v>
+        <v>0.08871206090172226</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1118153671044389</v>
+        <v>0.2334376446597787</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08325012930914522</v>
+        <v>0.1389803846244598</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1115059968269068</v>
+        <v>0.2351983801554388</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02832526568397599</v>
+        <v>0.02345108710858437</v>
       </c>
       <c r="G207" t="n">
-        <v>0.07532128674762893</v>
+        <v>0.2337524449370272</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02823341114361032</v>
+        <v>0.03779589357583772</v>
       </c>
       <c r="K207" t="n">
-        <v>0.115433079544098</v>
+        <v>0.2361349992937164</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05443790829187992</v>
+        <v>0.08873249489137019</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1126083838924136</v>
+        <v>0.2350932307921175</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08176987132821706</v>
+        <v>0.1399760980431743</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1122968194994381</v>
+        <v>0.2368664537735625</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02795808729562407</v>
+        <v>0.02448153786540143</v>
       </c>
       <c r="G208" t="n">
-        <v>0.07532101821916491</v>
+        <v>0.2353985889154569</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02794721885691545</v>
+        <v>0.0375450756818187</v>
       </c>
       <c r="K208" t="n">
-        <v>0.116245988554972</v>
+        <v>0.2377979218239538</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05358153770136401</v>
+        <v>0.08894642148020235</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1134014006803884</v>
+        <v>0.2367488169244563</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08169339365467188</v>
+        <v>0.1393614540260893</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1130876421719693</v>
+        <v>0.2385345273916861</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02760525026228296</v>
+        <v>0.02451019772425141</v>
       </c>
       <c r="G209" t="n">
-        <v>0.07532074969070089</v>
+        <v>0.2370447328938867</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02755636274786612</v>
+        <v>0.03759145015502344</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1170588975658459</v>
+        <v>0.2394608443541912</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05272794137119788</v>
+        <v>0.08945376006781919</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1141944174683631</v>
+        <v>0.2384044030567952</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08112056799856904</v>
+        <v>0.1396363226268321</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1138784648445006</v>
+        <v>0.2402026010098098</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02726720605639686</v>
+        <v>0.0235370449842847</v>
       </c>
       <c r="G210" t="n">
-        <v>0.07532048116223689</v>
+        <v>0.2386908768723164</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02716180768997159</v>
+        <v>0.03793498238840107</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1178718065767198</v>
+        <v>0.2411237668844287</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05148085487631515</v>
+        <v>0.08905443005382122</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1149874342563379</v>
+        <v>0.2400599891891341</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08065126606996803</v>
+        <v>0.1404005738990298</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1146692875170318</v>
+        <v>0.2418706746279335</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02694440615042623</v>
+        <v>0.02356205794465165</v>
       </c>
       <c r="G211" t="n">
-        <v>0.07532021263377287</v>
+        <v>0.2403370208507462</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02706451855674115</v>
+        <v>0.03767563777490074</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1186847155875937</v>
+        <v>0.2427866894146661</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05014401379164926</v>
+        <v>0.08894835083780889</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1157804510443126</v>
+        <v>0.2417155753214729</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08008535957892832</v>
+        <v>0.1398540778963095</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1154601101895631</v>
+        <v>0.2435387482460572</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02663730201681852</v>
+        <v>0.02258521490450258</v>
       </c>
       <c r="G212" t="n">
-        <v>0.07531994410530884</v>
+        <v>0.241983164829176</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02676546022168402</v>
+        <v>0.03771338170747154</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1194976245984677</v>
+        <v>0.2444496119449036</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04932115369213383</v>
+        <v>0.08913544181938257</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1165734678322874</v>
+        <v>0.2433711614538118</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07922272023550947</v>
+        <v>0.1411967046722984</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1162509328620943</v>
+        <v>0.2452068218641808</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.026346345128061</v>
+        <v>0.02360649416298784</v>
       </c>
       <c r="G213" t="n">
-        <v>0.07531967557684482</v>
+        <v>0.2436293088076058</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02626559755830953</v>
+        <v>0.03774817957906258</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1203105336093416</v>
+        <v>0.246112534475141</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04871601015270224</v>
+        <v>0.08901562239814279</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1173664846202621</v>
+        <v>0.2450267475861506</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07796321974977083</v>
+        <v>0.1404283242806235</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1170417555346256</v>
+        <v>0.2468748954823045</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0260719869566004</v>
+        <v>0.02362587401925777</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0753194070483808</v>
+        <v>0.2452754527860355</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02586589544012688</v>
+        <v>0.03777999678262296</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1211234426202155</v>
+        <v>0.2477754570053785</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04773231874828804</v>
+        <v>0.08958881197369001</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1181595014082369</v>
+        <v>0.2466823337184895</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07720672983177196</v>
+        <v>0.140248806774912</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1178325782071569</v>
+        <v>0.2485429691004282</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0260719869566004</v>
+        <v>0.02464333277246274</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0753194070483808</v>
+        <v>0.2469215967644653</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02576731874064536</v>
+        <v>0.03810879871110186</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1219363516310894</v>
+        <v>0.2494383795356159</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0465738150538248</v>
+        <v>0.08975492994562462</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1189525181962116</v>
+        <v>0.2483379198508284</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07685312219157248</v>
+        <v>0.141358022208791</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1186234008796881</v>
+        <v>0.2502110427185519</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02542032377970764</v>
+        <v>0.02265884872175307</v>
       </c>
       <c r="G216" t="n">
-        <v>0.07518216952890347</v>
+        <v>0.2485677407428951</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02537083233337423</v>
+        <v>0.03813455075744832</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1227492606419634</v>
+        <v>0.2511013020658533</v>
       </c>
       <c r="L216" t="n">
-        <v>0.045844234644246</v>
+        <v>0.09001389571354718</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1197455349841863</v>
+        <v>0.2499935059831672</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07630226853923172</v>
+        <v>0.1408558406358876</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1194142235522194</v>
+        <v>0.2518791163366756</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02477573736691126</v>
+        <v>0.02267240016627911</v>
       </c>
       <c r="G217" t="n">
-        <v>0.07504493200942612</v>
+        <v>0.2502138847213248</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02497740109182278</v>
+        <v>0.03805721831461152</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1235621696528373</v>
+        <v>0.2527642245960908</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04494731309448508</v>
+        <v>0.08976562867705803</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1205385517721611</v>
+        <v>0.2516490921155061</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07525404058480917</v>
+        <v>0.1411421321098289</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1202050462247506</v>
+        <v>0.2535471899547992</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02413852206376373</v>
+        <v>0.02468396540519122</v>
       </c>
       <c r="G218" t="n">
-        <v>0.07490769448994876</v>
+        <v>0.2518600286997546</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02468798988950024</v>
+        <v>0.03787676677554055</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1243750786637113</v>
+        <v>0.2544271471263282</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04468678597947562</v>
+        <v>0.09011004823575777</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1213315685601358</v>
+        <v>0.2533046782478449</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07560831003836432</v>
+        <v>0.141216766684242</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1209958688972819</v>
+        <v>0.2552152635729229</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02350897221581762</v>
+        <v>0.02369352273763974</v>
       </c>
       <c r="G219" t="n">
-        <v>0.07477045697047142</v>
+        <v>0.2535061726781844</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0246035635999159</v>
+        <v>0.03819316153318451</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1251879876745852</v>
+        <v>0.2560900696565657</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0432663888741511</v>
+        <v>0.09014707378924675</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1221245853481106</v>
+        <v>0.2549602643801838</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07506494860995677</v>
+        <v>0.1413796144127543</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1217866915698131</v>
+        <v>0.2568833371910466</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02288738216862542</v>
+        <v>0.02270105046277499</v>
       </c>
       <c r="G220" t="n">
-        <v>0.07463321945099408</v>
+        <v>0.2551523166566141</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02422508709657901</v>
+        <v>0.03790636798049256</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1260008966854591</v>
+        <v>0.2577529921868031</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04318985735344508</v>
+        <v>0.08947662473712539</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1229176021360853</v>
+        <v>0.2566158505125226</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07432382800964588</v>
+        <v>0.1414305453489926</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1225775142423444</v>
+        <v>0.2585514108091703</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02227404626773957</v>
+        <v>0.02470652687974735</v>
       </c>
       <c r="G221" t="n">
-        <v>0.07449598193151671</v>
+        <v>0.2567984606350439</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02385352525299886</v>
+        <v>0.03821635151041378</v>
       </c>
       <c r="K221" t="n">
-        <v>0.126813805696333</v>
+        <v>0.2594159147170405</v>
       </c>
       <c r="L221" t="n">
-        <v>0.042560926992291</v>
+        <v>0.0896986204789943</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1237106189240601</v>
+        <v>0.2582714366448615</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0737848199474912</v>
+        <v>0.1420694295465841</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1233683369148756</v>
+        <v>0.2602194844272939</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02166925885871268</v>
+        <v>0.02470993028770717</v>
       </c>
       <c r="G222" t="n">
-        <v>0.07435874441203938</v>
+        <v>0.2584446046134737</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02388984294268466</v>
+        <v>0.03812307751589727</v>
       </c>
       <c r="K222" t="n">
-        <v>0.127626714707207</v>
+        <v>0.2610788372472779</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04158333336562231</v>
+        <v>0.08931298041445379</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1245036357120348</v>
+        <v>0.2599270227772004</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07304779613355217</v>
+        <v>0.141496137059156</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1241591595874069</v>
+        <v>0.2618875580454176</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0210733142870972</v>
+        <v>0.02371123898580477</v>
       </c>
       <c r="G223" t="n">
-        <v>0.07422150689256203</v>
+        <v>0.2600907485919035</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02333500503914575</v>
+        <v>0.03822651138989222</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1284396237180809</v>
+        <v>0.2627417597775154</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04176081204837273</v>
+        <v>0.08961962394310435</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1252966525000096</v>
+        <v>0.2615826089095392</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07171262827788832</v>
+        <v>0.1408105379403353</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1249499822599381</v>
+        <v>0.2635556316635413</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02048650689844564</v>
+        <v>0.02468605823944237</v>
       </c>
       <c r="G224" t="n">
-        <v>0.07408426937308468</v>
+        <v>0.2617368925703332</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02328997641589131</v>
+        <v>0.03801559884317565</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1292525327289548</v>
+        <v>0.2644046823077528</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04129709861547559</v>
+        <v>0.08946943607345756</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1260896692879843</v>
+        <v>0.2632381950418781</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07067918809055912</v>
+        <v>0.1419902580564292</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1257408049324694</v>
+        <v>0.265223705281665</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01990913103831051</v>
+        <v>0.02360024463666134</v>
       </c>
       <c r="G225" t="n">
-        <v>0.07394703185360733</v>
+        <v>0.263383036548763</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02315572194643067</v>
+        <v>0.03781867771988162</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1300654417398287</v>
+        <v>0.2660676048379903</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04029592864186449</v>
+        <v>0.08940300483697508</v>
       </c>
       <c r="M225" t="n">
-        <v>0.126882686075959</v>
+        <v>0.2648937811742169</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07094734728162411</v>
+        <v>0.140972452139526</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1265316276050006</v>
+        <v>0.2668917788997887</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01934148105224427</v>
+        <v>0.02446009383463589</v>
       </c>
       <c r="G226" t="n">
-        <v>0.07380979433412999</v>
+        <v>0.2650291805271928</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02273320650427307</v>
+        <v>0.03783173230658526</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1308783507507027</v>
+        <v>0.2677305273682277</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04046103770247284</v>
+        <v>0.08913031882656033</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1276757028639338</v>
+        <v>0.2665493673065558</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07021697756114276</v>
+        <v>0.1404127781845028</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1273224502775319</v>
+        <v>0.2685598525179124</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0187838512857995</v>
+        <v>0.02327237092964057</v>
       </c>
       <c r="G227" t="n">
-        <v>0.07367255681465264</v>
+        <v>0.2666753245056225</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02262339496292778</v>
+        <v>0.03746555112238757</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1316912597615766</v>
+        <v>0.2693934498984651</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03969616137223425</v>
+        <v>0.08857650468339842</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1284687196519085</v>
+        <v>0.2682049534388947</v>
       </c>
       <c r="N227" t="n">
-        <v>0.06988795063917441</v>
+        <v>0.1398517461131852</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1281132729500631</v>
+        <v>0.2702279261360361</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01823653608452867</v>
+        <v>0.02204384101794989</v>
       </c>
       <c r="G228" t="n">
-        <v>0.07353531929517529</v>
+        <v>0.2683214684840523</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02232725219590405</v>
+        <v>0.0372309226863895</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1325041687724506</v>
+        <v>0.2710563724287026</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03960503522608216</v>
+        <v>0.08736668904867442</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1292617364398833</v>
+        <v>0.2698605395712335</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06816013822577871</v>
+        <v>0.1388298658473988</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1289040956225944</v>
+        <v>0.2718959997541597</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01769982979398429</v>
+        <v>0.02278126919583838</v>
       </c>
       <c r="G229" t="n">
-        <v>0.07339808177569795</v>
+        <v>0.2699676124624821</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02234574307671119</v>
+        <v>0.03683863551769198</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1333170777833245</v>
+        <v>0.27271929495894</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03999139483895017</v>
+        <v>0.08702599856357324</v>
       </c>
       <c r="M229" t="n">
-        <v>0.130054753227858</v>
+        <v>0.2715161257035723</v>
       </c>
       <c r="N229" t="n">
-        <v>0.06823341203101524</v>
+        <v>0.1363876473089691</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1296949182951257</v>
+        <v>0.2735640733722834</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01717402675971882</v>
+        <v>0.02349142055958058</v>
       </c>
       <c r="G230" t="n">
-        <v>0.07326084425622059</v>
+        <v>0.2716137564409118</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02187973139890129</v>
+        <v>0.03619947813539598</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1341299867941984</v>
+        <v>0.2743822174891775</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03975845097840081</v>
+        <v>0.08577955986928007</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1308477700158328</v>
+        <v>0.2731717118359112</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06690765207833055</v>
+        <v>0.1345656004197217</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1304857409676569</v>
+        <v>0.2752321469904071</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01665942132728486</v>
+        <v>0.021181060205451</v>
       </c>
       <c r="G231" t="n">
-        <v>0.07312360673674324</v>
+        <v>0.2732599004193416</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02192083205962617</v>
+        <v>0.03582423905860242</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1349428958050723</v>
+        <v>0.2760451400194149</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03995860756850991</v>
+        <v>0.08485249960697991</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1316407868038075</v>
+        <v>0.2748272979682501</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06738358161869501</v>
+        <v>0.1339042351014822</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1312765636401882</v>
+        <v>0.2769002206085308</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01615630784223485</v>
+        <v>0.0208569532297242</v>
       </c>
       <c r="G232" t="n">
-        <v>0.07298636921726591</v>
+        <v>0.2749060443977714</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0216632882252825</v>
+        <v>0.0355237068064123</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1357558048159463</v>
+        <v>0.2777080625496524</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03935952562511541</v>
+        <v>0.08336994441785781</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1324338035917823</v>
+        <v>0.2764828841005889</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06636173605675244</v>
+        <v>0.1320440612760764</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1320673863127194</v>
+        <v>0.2785682942266544</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01566498065012131</v>
+        <v>0.0215258647286747</v>
       </c>
       <c r="G233" t="n">
-        <v>0.07284913169778856</v>
+        <v>0.2765521883762011</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0215071917412416</v>
+        <v>0.03470866989792655</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1365687138268202</v>
+        <v>0.2793709850798898</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03926189032066438</v>
+        <v>0.08185702094309882</v>
       </c>
       <c r="M233" t="n">
-        <v>0.133226820379757</v>
+        <v>0.2781384702329278</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06584212282192126</v>
+        <v>0.1296255888653297</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1328582089852507</v>
+        <v>0.2802363678447781</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01518573409649671</v>
+        <v>0.02019455979857701</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0727118941783112</v>
+        <v>0.2781983323546309</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02145263445287472</v>
+        <v>0.03438991685224611</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1373816228376941</v>
+        <v>0.2810339076101272</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03996638682760398</v>
+        <v>0.08053885582388798</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1340198371677317</v>
+        <v>0.2797940563652666</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06472474934361988</v>
+        <v>0.1274893277910677</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1336490316577819</v>
+        <v>0.2819044414629018</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01471886252691362</v>
+        <v>0.01986980353570568</v>
       </c>
       <c r="G235" t="n">
-        <v>0.07257465665883385</v>
+        <v>0.2798444763330606</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02129970820555314</v>
+        <v>0.03377823618847194</v>
       </c>
       <c r="K235" t="n">
-        <v>0.138194531848568</v>
+        <v>0.2826968301403647</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03997370031838132</v>
+        <v>0.07924057570141041</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1348128539557065</v>
+        <v>0.2814496424976055</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06460962305126672</v>
+        <v>0.1251757879751162</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1344398543303132</v>
+        <v>0.2835725150810255</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01426466028692452</v>
+        <v>0.02155836103633522</v>
       </c>
       <c r="G236" t="n">
-        <v>0.07243741913935652</v>
+        <v>0.2814906203114904</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02104850484464812</v>
+        <v>0.03318441642570499</v>
       </c>
       <c r="K236" t="n">
-        <v>0.139007440859442</v>
+        <v>0.2843597526706021</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03968451596544351</v>
+        <v>0.07858730721685109</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1356058707436812</v>
+        <v>0.2831052286299444</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06369675137428016</v>
+        <v>0.1237254793393006</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1352306770028444</v>
+        <v>0.2852405886991491</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01382342172208192</v>
+        <v>0.02126699739674019</v>
       </c>
       <c r="G237" t="n">
-        <v>0.07230018161987917</v>
+        <v>0.2831367642899202</v>
       </c>
       <c r="J237" t="n">
-        <v>0.021099116215531</v>
+        <v>0.03281924608304619</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1398203498703159</v>
+        <v>0.2860226752008396</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03959951894123764</v>
+        <v>0.07710417701139508</v>
       </c>
       <c r="M237" t="n">
-        <v>0.136398887531656</v>
+        <v>0.2847608147622832</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06298614174207862</v>
+        <v>0.1223789118054465</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1360214996753757</v>
+        <v>0.2869086623172729</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01339544117793827</v>
+        <v>0.01900048564162959</v>
       </c>
       <c r="G238" t="n">
-        <v>0.0721629441004018</v>
+        <v>0.28478290826835</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02065163416357299</v>
+        <v>0.03259334361912856</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1406332588811898</v>
+        <v>0.287685597731077</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03981939441821089</v>
+        <v>0.07641396740629511</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1371919043196307</v>
+        <v>0.286416400894622</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06237780158408057</v>
+        <v>0.1211765952041718</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1368123223479069</v>
+        <v>0.2885767359353965</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01298101300004615</v>
+        <v>0.01873954345273687</v>
       </c>
       <c r="G239" t="n">
-        <v>0.07202570658092447</v>
+        <v>0.2864290522467797</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02060615053414541</v>
+        <v>0.03208596662526113</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1414461678920638</v>
+        <v>0.2893485202613144</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04004482756881034</v>
+        <v>0.07545634075536847</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1379849211076055</v>
+        <v>0.2880719870269609</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06257173832970436</v>
+        <v>0.1187568219928397</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1376031450204382</v>
+        <v>0.2902448095535202</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01257922962295199</v>
+        <v>0.01947760390938044</v>
       </c>
       <c r="G240" t="n">
-        <v>0.07188846906144712</v>
+        <v>0.2880751962252095</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02036275717261953</v>
+        <v>0.031677021612724</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1422590769029377</v>
+        <v>0.2910114427915518</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0397765035654831</v>
+        <v>0.0740950393854905</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1387779378955802</v>
+        <v>0.2897275731592998</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06086795940836842</v>
+        <v>0.1170311866026644</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1383939676929694</v>
+        <v>0.2919128831716439</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01218317392617188</v>
+        <v>0.01821465098479638</v>
       </c>
       <c r="G241" t="n">
-        <v>0.07175123154196977</v>
+        <v>0.2897213402036393</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02052154592436663</v>
+        <v>0.03126648302311531</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1430719859138116</v>
+        <v>0.2926743653217893</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04001510758067628</v>
+        <v>0.07303000377071639</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1395709546835549</v>
+        <v>0.2913831592916386</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06066647224949118</v>
+        <v>0.116299593064139</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1391847903655007</v>
+        <v>0.2935809567897675</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01179193834425225</v>
+        <v>0.01995066865222071</v>
       </c>
       <c r="G242" t="n">
-        <v>0.07161399402249242</v>
+        <v>0.291367484182069</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02028260863475799</v>
+        <v>0.0306543252980333</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1438848949246856</v>
+        <v>0.2943372878520267</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03936132478683702</v>
+        <v>0.07236117438510145</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1403639714715297</v>
+        <v>0.2930387454239775</v>
       </c>
       <c r="N242" t="n">
-        <v>0.060367284282491</v>
+        <v>0.1139619454077561</v>
       </c>
       <c r="O242" t="n">
-        <v>0.139975613038032</v>
+        <v>0.2952490304078912</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01140581722274565</v>
+        <v>0.0176856408848895</v>
       </c>
       <c r="G243" t="n">
-        <v>0.07147675650301508</v>
+        <v>0.2930136281604988</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02004603714916489</v>
+        <v>0.03024052287907607</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1446978039355595</v>
+        <v>0.2960002103822642</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0400158403564124</v>
+        <v>0.0715884917027009</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1411569882595044</v>
+        <v>0.2946943315563163</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0603704029367863</v>
+        <v>0.1124181476640089</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1407664357105632</v>
+        <v>0.2969171040260149</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01102510490720458</v>
+        <v>0.01741955165603881</v>
       </c>
       <c r="G244" t="n">
-        <v>0.07133951898353773</v>
+        <v>0.2946597721389286</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01991192331295859</v>
+        <v>0.03012505020784181</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1455107129464334</v>
+        <v>0.2976631329125016</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04007933946184955</v>
+        <v>0.07041189619757005</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1419500050474792</v>
+        <v>0.2963499176886552</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05857583564179553</v>
+        <v>0.1109681038633903</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1415572583830945</v>
+        <v>0.2985851776441386</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01065009574318154</v>
+        <v>0.01915238493890467</v>
       </c>
       <c r="G245" t="n">
-        <v>0.07120228146406038</v>
+        <v>0.2963059161173583</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01978035897151044</v>
+        <v>0.02960788172592874</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1463236219573073</v>
+        <v>0.299326055442739</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03955250727559562</v>
+        <v>0.06933132834376401</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1427430218354539</v>
+        <v>0.2980055038209941</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05918358982693706</v>
+        <v>0.1094117180363932</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1423480810556257</v>
+        <v>0.3002532512622623</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01028108407622899</v>
+        <v>0.01888412470672315</v>
       </c>
       <c r="G246" t="n">
-        <v>0.07106504394458303</v>
+        <v>0.2979520600957881</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01985143597019165</v>
+        <v>0.02898899187493499</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1471365309681813</v>
+        <v>0.3009889779729765</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0400360289700977</v>
+        <v>0.0687467286153382</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1435360386234287</v>
+        <v>0.2996610899533329</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05759367292162931</v>
+        <v>0.1083488942135105</v>
       </c>
       <c r="O246" t="n">
-        <v>0.143138903728157</v>
+        <v>0.301921324880386</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009918364251899507</v>
+        <v>0.01761475493273029</v>
       </c>
       <c r="G247" t="n">
-        <v>0.07092780642510568</v>
+        <v>0.2995982040742179</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01972524615437352</v>
+        <v>0.02886835509645874</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1479494399790552</v>
+        <v>0.3026519005032139</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04023058971780291</v>
+        <v>0.06785803748634775</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1443290554114034</v>
+        <v>0.3013166760856718</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05720609235529067</v>
+        <v>0.1060795364252352</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1439297264006882</v>
+        <v>0.3035893984985096</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.00956223061574555</v>
+        <v>0.01834425959016216</v>
       </c>
       <c r="G248" t="n">
-        <v>0.07079056890562833</v>
+        <v>0.3012443480526477</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01940188136942732</v>
+        <v>0.02824594583209818</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1487623489899291</v>
+        <v>0.3043148230334514</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04033687469115835</v>
+        <v>0.06626519543084797</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1451220721993781</v>
+        <v>0.3029722622180106</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0570208555573396</v>
+        <v>0.1058035487020603</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1447205490732195</v>
+        <v>0.3052574721166333</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009212977513319648</v>
+        <v>0.01807262265225479</v>
       </c>
       <c r="G249" t="n">
-        <v>0.070653331386151</v>
+        <v>0.3028904920310774</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01918143346072436</v>
+        <v>0.02782173852345145</v>
       </c>
       <c r="K249" t="n">
-        <v>0.149575258000803</v>
+        <v>0.3059777455636888</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03985556906261115</v>
+        <v>0.06566814292289408</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1459150889873529</v>
+        <v>0.3046278483503495</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05603796995719451</v>
+        <v>0.1038208350744786</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1455113717457507</v>
+        <v>0.306925545734757</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008870899290174268</v>
+        <v>0.01579982809224425</v>
       </c>
       <c r="G250" t="n">
-        <v>0.07051609386667364</v>
+        <v>0.3045366360095072</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01936399427363591</v>
+        <v>0.02739570761211677</v>
       </c>
       <c r="K250" t="n">
-        <v>0.150388167011677</v>
+        <v>0.3076406680939263</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04078735800460845</v>
+        <v>0.0650668204365413</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1467081057753277</v>
+        <v>0.3062834344826883</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05555744298427379</v>
+        <v>0.1017312995729833</v>
       </c>
       <c r="O250" t="n">
-        <v>0.146302194418282</v>
+        <v>0.3085936193528807</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008536290291861974</v>
+        <v>0.01652585988336659</v>
       </c>
       <c r="G251" t="n">
-        <v>0.07037885634719629</v>
+        <v>0.3061827799879369</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01894965565353324</v>
+        <v>0.02716782753969228</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1512010760225509</v>
+        <v>0.3093035906241637</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04063292668959731</v>
+        <v>0.06316116844584493</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1475011225633024</v>
+        <v>0.3079390206150271</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05477928206799582</v>
+        <v>0.09983484622806704</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1470930170908132</v>
+        <v>0.3102616929710043</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008209444863935218</v>
+        <v>0.01725070199885784</v>
       </c>
       <c r="G252" t="n">
-        <v>0.07024161882771895</v>
+        <v>0.3078289239663667</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0190385094457876</v>
+        <v>0.02653807274777618</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1520139850334249</v>
+        <v>0.3109665131544011</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04069296029002489</v>
+        <v>0.06245112742486023</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1482941393512771</v>
+        <v>0.309594606747366</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05510349463777908</v>
+        <v>0.09863137907022301</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1478838397633445</v>
+        <v>0.311929766589128</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007890657351946558</v>
+        <v>0.01597433841195409</v>
       </c>
       <c r="G253" t="n">
-        <v>0.07010438130824161</v>
+        <v>0.3094750679447965</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01903064749577034</v>
+        <v>0.02620641767796664</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1528268940442988</v>
+        <v>0.3126294356846386</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04116814397833829</v>
+        <v>0.06163663784764237</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1490871561392519</v>
+        <v>0.3112501928797049</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05353008812304183</v>
+        <v>0.09662080212994401</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1486746624358758</v>
+        <v>0.3135978402072517</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007580222101448424</v>
+        <v>0.01469675309589136</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06996714378876424</v>
+        <v>0.3111212119232263</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01872616164885268</v>
+        <v>0.02567283677186177</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1536398030551727</v>
+        <v>0.314292358214876</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04155916292698467</v>
+        <v>0.06071764018824671</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1498801729272266</v>
+        <v>0.3129057790120437</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05335906995320266</v>
+        <v>0.09550301943772305</v>
       </c>
       <c r="O254" t="n">
-        <v>0.149465485108407</v>
+        <v>0.3152659138253753</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007278433457993401</v>
+        <v>0.01441793002390573</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06982990626928691</v>
+        <v>0.3127673559016561</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01882514375040595</v>
+        <v>0.02523730447105986</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1544527120660466</v>
+        <v>0.3159552807451135</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04136670230841105</v>
+        <v>0.05999407492072839</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1506731897152014</v>
+        <v>0.3145613651443826</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05339044755767985</v>
+        <v>0.09437793502405306</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1502563077809383</v>
+        <v>0.316933987443499</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006985585767133963</v>
+        <v>0.01413785316923322</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06969266874980956</v>
+        <v>0.3144134998800858</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01872768564580138</v>
+        <v>0.02469979521715898</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1552656210769206</v>
+        <v>0.3176182032753509</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04169144729506463</v>
+        <v>0.05816588251914273</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1514662065031761</v>
+        <v>0.3162169512767214</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0518242283658919</v>
+        <v>0.09184545291942703</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1510471304534695</v>
+        <v>0.3186020610616228</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006701973374422604</v>
+        <v>0.01585650650510992</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06955543123033221</v>
+        <v>0.3160596438585155</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0185338791804103</v>
+        <v>0.02426028345175739</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1560785300877945</v>
+        <v>0.3192811258055883</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04183408305939249</v>
+        <v>0.05723300345754501</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1522592232911509</v>
+        <v>0.3178725374090603</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05216041980725722</v>
+        <v>0.09060547715433787</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1518379531260008</v>
+        <v>0.3202701346797465</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006427890625411825</v>
+        <v>0.01557387400477184</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06941819371085485</v>
+        <v>0.3177057878369453</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01824381619960395</v>
+        <v>0.02381874361645318</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1568914390986684</v>
+        <v>0.3209440483358257</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04229529477384175</v>
+        <v>0.05689537820999035</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1530522400791256</v>
+        <v>0.3195281235413991</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05119902931119408</v>
+        <v>0.08865791175927851</v>
       </c>
       <c r="O258" t="n">
-        <v>0.152628775798532</v>
+        <v>0.3219382082978701</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006163631865654155</v>
+        <v>0.01328993964145507</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06928095619137752</v>
+        <v>0.3193519318153751</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01815758854875364</v>
+        <v>0.02357515015284457</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1577043481095424</v>
+        <v>0.3226069708660632</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04217576761085956</v>
+        <v>0.0556529472505341</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1538452568671003</v>
+        <v>0.321183709673738</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05104006430712105</v>
+        <v>0.08780266076474186</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1534195984710633</v>
+        <v>0.3236062819159938</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005909491440702103</v>
+        <v>0.01300468738839564</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06914371867190017</v>
+        <v>0.3209980757938049</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0181752880732306</v>
+        <v>0.02292947750252974</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1585172571204163</v>
+        <v>0.3242698933963006</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04257618674289296</v>
+        <v>0.05460565105323151</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1546382736550751</v>
+        <v>0.3228392958060768</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04918353222445648</v>
+        <v>0.0851396282012209</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1542104211435945</v>
+        <v>0.3252743555341175</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005665763696108148</v>
+        <v>0.01271810121882961</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06900648115242282</v>
+        <v>0.3226442197722347</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01809700661840616</v>
+        <v>0.02268170010710682</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1593301661312902</v>
+        <v>0.3259328159265381</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04339723734238912</v>
+        <v>0.05325343009213779</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1554312904430498</v>
+        <v>0.3244948819384157</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04902944049261876</v>
+        <v>0.08336871809920871</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1550012438161258</v>
+        <v>0.3269424291522411</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005432742977424798</v>
+        <v>0.01243016510599303</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06886924363294547</v>
+        <v>0.3242903637506644</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0179228360296516</v>
+        <v>0.02213179240817405</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1601430751421641</v>
+        <v>0.3275957384567755</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04313960458179519</v>
+        <v>0.05189622484130818</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1562243072310246</v>
+        <v>0.3261504680707546</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04937779654102642</v>
+        <v>0.08268983448919803</v>
       </c>
       <c r="O262" t="n">
-        <v>0.155792066488657</v>
+        <v>0.3286105027703648</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005210723630204583</v>
+        <v>0.01414086302312196</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06873200611346812</v>
+        <v>0.3259365077290942</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01785286815233818</v>
+        <v>0.02167972884732955</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1609559841530381</v>
+        <v>0.329258660987013</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0436039736335582</v>
+        <v>0.05083397577479801</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1570173240189993</v>
+        <v>0.3278060542030934</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04772860779909766</v>
+        <v>0.08110288140168193</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1565828891611883</v>
+        <v>0.3302785763884885</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01385017894345245</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06859476859399077</v>
+        <v>0.327582651707524</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01808719483183717</v>
+        <v>0.02112548386617154</v>
       </c>
       <c r="K264" t="n">
-        <v>0.161768893163912</v>
+        <v>0.3309215835172504</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04419102967012534</v>
+        <v>0.05036662336666242</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1578103408069741</v>
+        <v>0.3294616403354323</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04818188169625104</v>
+        <v>0.0783077628671533</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1573737118337195</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06858161069925393</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005688044899036009</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06858187922771794</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006372430165704927</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06858214775618196</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007053116532205091</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06858241628464598</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007730064730646045</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06858268481311</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008403235493226267</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06858295334157401</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009072589552114561</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06858322187003803</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009738087639508605</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06858349039850205</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01039969048751922</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06858375892696607</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01105735882834427</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06858402745543009</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01171105339415254</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06858429598389409</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01236073491714099</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06858456451235813</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01300636412942188</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06858483304082214</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01364790176319235</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06858510156928616</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01428530855062118</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06858537009775016</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01491854522390464</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.0685856386262142</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01554757251515639</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0685859071546782</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01617235115657287</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06858617568314222</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01679284188032287</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06858644421160624</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.0174090054186019</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06858671274007026</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01802080250352511</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06858698126853428</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01862819386728821</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06858724979699829</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01923114024205997</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06858751832546231</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01982960236003513</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06858778685392633</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.0204235409533304</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06858805538239035</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02101307709778481</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06858832391085436</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02159913358743184</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06858859243931838</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.0221818314981097</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0685888609677824</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02276113156193646</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06858912949624642</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02333699451110632</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06858939802471042</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.0239093810777881</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06858966655317444</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02447825199417528</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06858993508163846</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02504356799238706</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06859020361010248</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02560528980461714</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06859047213856651</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02616337816303428</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06859074066703051</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02671779379983129</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06859100919549455</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02726849744712874</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06859127772395855</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02781544983711962</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06859154625242257</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02835861170197268</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06859181478088658</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02889794377388014</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06859208330935061</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02943340678496383</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06859235183781462</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02996496146741608</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06859262036627864</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03049256855340568</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06859288889474265</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03101618877512413</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06859315742320668</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03153578286469465</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06859342595167069</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03205131155430889</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06859369448013471</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03256273557613563</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06859396300859873</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03307001566236566</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06859423153706275</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03357311254512359</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06859450006552677</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03407198695660041</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06859476859399077</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03407198695660041</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06858161069925393</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03459475969188142</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06871938527565931</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03511283650387649</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06885715985206468</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03562609889129069</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06899493442847007</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03613442835282896</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06913270900487546</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03663770638719625</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06927048358128085</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03713581449309754</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06940825815768621</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.0376286341692379</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.0695460327340916</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03811604691432223</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06968380731049699</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03859793422705554</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06982158188690238</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03907417760614278</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06995935646330775</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03954465855028896</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.07009713103971313</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04000925855819908</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.07023490561611852</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04046785912857809</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.07037268019252391</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04092034176013094</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.07051045476892928</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04136658795156269</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.07064822934533466</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04180647920157826</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.07078600392174005</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04223989700888267</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.07092377849814543</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04266672287218085</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.07106155307455081</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04308683829017783</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.0711993276509562</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04350012476157859</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.07133710222736157</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04390646378508806</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.07147487680376695</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04430573685941129</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.07161265138017234</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04469782548325323</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.07175042595657773</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04508261115531886</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.0718882005329831</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04546045925460111</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.07202597510938848</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.045834154561533</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.07216374968579387</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04620406245510748</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.07230152426219925</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04657006443402953</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.07243929883860463</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04693204199700408</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.07257707341501</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04728987664273619</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.07271484799141539</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04764344986993081</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.07285262256782078</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.0479926431772929</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.07299039714422617</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04833733806352744</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.07312817172063153</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04867741602733947</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.07326594629703692</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04901275856743392</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.07340372087344231</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04934324718251575</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.07354149544984769</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04966876337129002</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.07367927002625307</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04998918863246164</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.07381704460265845</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05030440446473564</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.07395481917906384</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05061429236681693</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.07409259375546921</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05091873383741057</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.0742303683318746</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.0512176103752215</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.07436814290827998</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05151080347895473</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.07450591748468537</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05179819464731518</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.07464369206109074</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05207966537900791</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.07478146663749613</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05235509717273784</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.07491924121390152</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05262437152720999</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.07505701579030689</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05288736994112933</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.07519479036671227</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05314397391320082</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.07533256494311766</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04976264927546721</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.07533256494311766</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.0533495613061114</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07762024852190863</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05354055397770642</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.0799079321006996</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05371748927758449</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.08219561567949057</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05388090455534418</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.08448329925828155</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.0540313371605841</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.08677098283707252</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05416932444290289</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.0890586664158635</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.0542954037518991</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.09134634999465448</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05441011243717138</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.09363403357344545</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.0545139878483183</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.09592171715223642</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05460756733493849</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.09820940073102739</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05469138824663053</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.1004970843098184</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05476598793299305</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.1027847678886094</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05483190374362462</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.1050724514674003</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05488967302812385</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.1073601350461913</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05493983313608937</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.1096478186249823</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05498292141711977</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.1119355022037732</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05501947522081366</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1142231857825642</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05505003189676962</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1165108693613552</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05507512879458627</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1187985529401462</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05509530326386219</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1210862365189371</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05511109265419604</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1233739200977281</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05512303431518638</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1256616036765191</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.0551316655964318</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1279492872553101</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05513752384753094</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.130236970834101</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05514114641808238</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.132524654412892</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05514307065768476</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.134812337991683</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05514383391593661</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.137100021570474</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05514397354243659</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1393877051492649</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05510220530843998</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1416753887280559</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.0549487014895791</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1439630723068469</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05469127292799891</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1462507558856379</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05433929869921934</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1485384394644288</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05390215787876024</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05338922954214148</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1531138066220108</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05280989276488292</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1554014902008017</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05217352662250443</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1576891737795927</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05148951019052592</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1599768573583837</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05076722254446719</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1622645409371747</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05001604275984818</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1645522245159656</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04924534991218872</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1668399080947566</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04846452307700869</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1691275916735476</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04768294132982795</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1714152752523386</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04690998374616638</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1737029588311295</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04615502940154387</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1759906424099205</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04542745737148024</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1782783259887115</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04473664673149541</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1805660095675025</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04409197655710922</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1828536931462934</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04350282592384155</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1851413767250844</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04297857390721228</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1874290603038754</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04252859958274126</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1897167438826663</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04216228202594836</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1920044274614573</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04186754808598385</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1942921110402483</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04158599456244448</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1965797946190393</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.0413134530843377</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1988674781978302</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04104973077879839</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.2011551617766212</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04079463477296146</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.2034428453554122</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04054797219396176</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.2057305289342032</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04030955016893421</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.2080182125129941</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04007917582501366</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.2103058960917851</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03985665628933502</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.2125935796705761</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03964179868903317</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.2148812632493671</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03943441015124298</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.217168946828158</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03923429780309937</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.219456630406949</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03904126877173719</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.22174431398574</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03885513018429132</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.224031997564531</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.0386756891678967</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.2263196811433219</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03850275284968813</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.2286073647221129</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03833612835680056</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.2308950483009039</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03817562281636887</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2331827318796948</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03802104335552792</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2354704154584858</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03787219710141261</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2377580990372768</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03772889118115781</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2400457826160678</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03759093272189842</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2423334661948587</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03745812885076932</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2446211497736497</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03733028669490539</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2469088333524407</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03720721338144152</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2491965169312317</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03708811238846174</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2514842005100226</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03697059657968173</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2537718840888136</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03685463821882236</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2560595676676046</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03674046222648381</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2583472512463956</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03662829352326631</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2606349348251865</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03651835702977005</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2629226184039775</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03641087766659519</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2652103019827685</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03630608035434195</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2674979855615595</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03620419001361051</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2697856691403504</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03610543156500105</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2720733527191414</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03601002992911377</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2743610362979323</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03591821002654885</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2766487198767233</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03583019677790653</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2789364034555143</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03574621510378695</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2812240870343053</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.0356664899247903</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2835117706130963</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03559124616151682</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2857994541918872</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03552070873456664</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2880871377706782</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03545510256453997</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2903748213494692</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03539465257203703</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2926625049282602</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03533958367765799</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2949501885070512</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03529012080200304</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2972378720858422</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03524648886567237</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2995255556646331</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.0352089127892662</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.3018132392434241</v>
-      </c>
-    </row>
+        <v>0.3319466500066122</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1203.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1203.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002581880148983827</v>
+        <v>0.0008530375439927476</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001646143978429769</v>
+        <v>0.0005322266988916519</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002362290229465012</v>
+        <v>0.00107764933305559</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001662922530237439</v>
+        <v>0.0008860801451279807</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008707447706319621</v>
+        <v>0.003738960240359274</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001655586132338856</v>
+        <v>0.0008657745678274518</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01156329036341686</v>
+        <v>0.005947219295024064</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001668073618123679</v>
+        <v>0.000863836099223719</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00486073940814969</v>
+        <v>0.001691611286924057</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003292287956859537</v>
+        <v>0.001064453397783304</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004525200111977552</v>
+        <v>0.002633434464305133</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003325845060474879</v>
+        <v>0.001772160290255961</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01635351035873253</v>
+        <v>0.007264983096671812</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003311172264677711</v>
+        <v>0.001731549135654904</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02399078907268959</v>
+        <v>0.01249601854297289</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003336147236247358</v>
+        <v>0.001727672198447438</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0059406623188668</v>
+        <v>0.002507497289165626</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004240147730091179</v>
+        <v>0.001596680096674956</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.003743473836494954</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.005353124999999995</v>
+        <v>0.002658240435383942</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01121336360795905</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00486647727272727</v>
+        <v>0.002597323703482356</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.01854846520335679</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00569481382978723</v>
+        <v>0.002591508297671157</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007141833002955955</v>
+        <v>0.003292471611089219</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006584575913719075</v>
+        <v>0.002128906795566608</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00880888954440788</v>
+        <v>0.005183885892371363</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006651690120949757</v>
+        <v>0.003544320580511923</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02738674521539453</v>
+        <v>0.0148193968132426</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006622344529355423</v>
+        <v>0.003463098271309807</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04041738831387626</v>
+        <v>0.02450662673568654</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006672294472494717</v>
+        <v>0.003455344396894876</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.0059406623188668</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007471242694310702</v>
+        <v>0.004038310313066534</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008230719892148844</v>
+        <v>0.002661133494458259</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01111835750529881</v>
+        <v>0.0062307890746807</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008314612651187197</v>
+        <v>0.004430400725639903</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03121596657759673</v>
+        <v>0.0189183777515439</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008277930661694279</v>
+        <v>0.00432887283913726</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04716819602952593</v>
+        <v>0.03077257059947253</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008340368090618396</v>
+        <v>0.004319180496118595</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008659561023287882</v>
+        <v>0.004736789455469306</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009876863870578611</v>
+        <v>0.003193360193349912</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01275675065678157</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009977535181424635</v>
+        <v>0.005353124999999995</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03516476196233789</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009933516794033134</v>
+        <v>0.005407196969696967</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05151502197456287</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.01000844170874208</v>
+        <v>0.005576171874999996</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01073940807458437</v>
+        <v>0.005379685098669262</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01152300784900838</v>
+        <v>0.003725586892241564</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01460900129214737</v>
+        <v>0.008190400674027688</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01164045771166207</v>
+        <v>0.006202561015895865</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03908593609085464</v>
+        <v>0.02380973314930326</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01158910292637199</v>
+        <v>0.006060421974792163</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05640264635041198</v>
+        <v>0.03919380168140324</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01167651532686576</v>
+        <v>0.006046852694566032</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01247539086962028</v>
+        <v>0.0059406623188668</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01272044319027354</v>
+        <v>0.004240147730091179</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01646004170468741</v>
+        <v>0.009065503696662258</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01330338024189951</v>
+        <v>0.007088641161023846</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04243229368438359</v>
+        <v>0.02586968797788317</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01324468905871085</v>
+        <v>0.006926196542619614</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06087584935849844</v>
+        <v>0.04236002216632456</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01334458894498943</v>
+        <v>0.006910688793789752</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01273408984989476</v>
+        <v>0.006503506603309082</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01481529580586792</v>
+        <v>0.004790040290024868</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01799480418769291</v>
+        <v>0.009991735021027986</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01496630277213695</v>
+        <v>0.007974721306151827</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04554730982405192</v>
+        <v>0.02815919519490204</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01459943181818181</v>
+        <v>0.007791971110447066</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06577941120024727</v>
+        <v>0.04603062162249588</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01501266256311311</v>
+        <v>0.007774524893013471</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01271410007390852</v>
+        <v>0.007042375716991754</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01646143978429769</v>
+        <v>0.005322266988916519</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01929876046313414</v>
+        <v>0.01087514940914924</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01605937499999998</v>
+        <v>0.008860801451279807</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04925621284776838</v>
+        <v>0.03010513595904368</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01655586132338856</v>
+        <v>0.00865774567827452</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07179585918496967</v>
+        <v>0.04905397044956461</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01708444148936169</v>
+        <v>0.008638360992237189</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01367653107955583</v>
+        <v>0.007572769309701459</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01810758376272745</v>
+        <v>0.005854493687808171</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02100392064363245</v>
+        <v>0.01142180162305038</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01829214783261183</v>
+        <v>0.009746881596407788</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05240538681413984</v>
+        <v>0.03293439142899224</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01821144745572741</v>
+        <v>0.009523520246101969</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07439140496991076</v>
+        <v>0.05187843904717782</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01834880979936047</v>
+        <v>0.009502197091460907</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01561259377419406</v>
+        <v>0.008092038185513177</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01975372774115722</v>
+        <v>0.006386720386699823</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02280214786240181</v>
+        <v>0.01223774642475579</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01995507036284927</v>
+        <v>0.01063296174153577</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05646042907810059</v>
+        <v>0.03417384276343152</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01986703358806627</v>
+        <v>0.01038929481392942</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08009569889616625</v>
+        <v>0.05585239781498302</v>
       </c>
       <c r="O77" t="n">
-        <v>0.02001688341748415</v>
+        <v>0.01036603319068463</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01751349906518058</v>
+        <v>0.008597533148501882</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02139987171958699</v>
+        <v>0.006918947085591476</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02428616173273067</v>
+        <v>0.01282903857628981</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02161799289308671</v>
+        <v>0.01151904188666375</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05897784091194563</v>
+        <v>0.03655037112104556</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02152261972040512</v>
+        <v>0.01125506938175687</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08527662156902965</v>
+        <v>0.05842421715262736</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02168495703560783</v>
+        <v>0.01122986928990835</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01837045785987271</v>
+        <v>0.009086605002742554</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02304601569801676</v>
+        <v>0.007451173784483127</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02553950844450803</v>
+        <v>0.01360173283967683</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02328091542332415</v>
+        <v>0.01240512203179173</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06291412358796997</v>
+        <v>0.03799085766051835</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02317820585274398</v>
+        <v>0.01212084394958433</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09034318287372367</v>
+        <v>0.06014226745975815</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02335303065373151</v>
+        <v>0.01209370538913206</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01817468106562783</v>
+        <v>0.009556604552310187</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02469215967644653</v>
+        <v>0.007983400483374779</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02694573418762297</v>
+        <v>0.01406188397694121</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02494383795356159</v>
+        <v>0.01329120217691971</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06552577837846862</v>
+        <v>0.03992218354053384</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02483379198508284</v>
+        <v>0.01298661851741178</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09660439269547089</v>
+        <v>0.06375491913602266</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02502110427185519</v>
+        <v>0.01295754148835578</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01891737958980332</v>
+        <v>0.01000488260127975</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0263383036548763</v>
+        <v>0.008515627182266431</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02818838515196452</v>
+        <v>0.01471554675010732</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02660676048379903</v>
+        <v>0.01417728232204769</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06906930655573668</v>
+        <v>0.04177122991977603</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02648937811742169</v>
+        <v>0.01385239308523923</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1010692609194939</v>
+        <v>0.06661054258106819</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02668917788997887</v>
+        <v>0.0138213775875795</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0205897643397565</v>
+        <v>0.01042878995372624</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02798444763330607</v>
+        <v>0.009047853881158082</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02955100752742169</v>
+        <v>0.01566877592119949</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02826968301403647</v>
+        <v>0.01506336246717567</v>
       </c>
       <c r="L82" t="n">
-        <v>0.07170120939206909</v>
+        <v>0.04306487795692884</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02814496424976055</v>
+        <v>0.01471816765306668</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1067467974310153</v>
+        <v>0.06955750819454198</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02835725150810255</v>
+        <v>0.01468521368680322</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02118304622284475</v>
+        <v>0.01082567741372462</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02963059161173583</v>
+        <v>0.009580080580049735</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03081714750388355</v>
+        <v>0.01612762625224212</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0299326055442739</v>
+        <v>0.01594944261230365</v>
       </c>
       <c r="L83" t="n">
-        <v>0.07477798815976092</v>
+        <v>0.04554730982405192</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0298005503820994</v>
+        <v>0.01563703337514048</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1117460121152579</v>
+        <v>0.07179585918496967</v>
       </c>
       <c r="O83" t="n">
-        <v>0.03002532512622623</v>
+        <v>0.01525127812299765</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0196884361464254</v>
+        <v>0.01119289578534988</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0312767355901656</v>
+        <v>0.01011230727894139</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03197035127123914</v>
+        <v>0.01669815250525958</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03159552807451135</v>
+        <v>0.01683552275743163</v>
       </c>
       <c r="L84" t="n">
-        <v>0.07675614413110721</v>
+        <v>0.04710806663542377</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03145613651443826</v>
+        <v>0.01644971678872158</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1161759148574441</v>
+        <v>0.07464192463227287</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03169339874434991</v>
+        <v>0.01641288588525066</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02109714501785586</v>
+        <v>0.01152779587267701</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03292287956859537</v>
+        <v>0.01064453397783304</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03279416501937746</v>
+        <v>0.01748640944227622</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03325845060474879</v>
+        <v>0.01772160290255961</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07829217857840295</v>
+        <v>0.04871586863871233</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03311172264677711</v>
+        <v>0.01731549135654904</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1187455155427967</v>
+        <v>0.078728980617912</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03336147236247358</v>
+        <v>0.01727672198447438</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02041324197533423</v>
+        <v>0.011827728479781</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03456902354702514</v>
+        <v>0.01117676067672469</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0335721349381876</v>
+        <v>0.01809845182531644</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03492137313498622</v>
+        <v>0.01860768304768759</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07984259277394318</v>
+        <v>0.05093489805159959</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03476730877911597</v>
+        <v>0.01818126592437649</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1221638240565381</v>
+        <v>0.08287923935837233</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03502954598059727</v>
+        <v>0.0181405580836981</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02170874110122573</v>
+        <v>0.0120900444107368</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03621516752545491</v>
+        <v>0.01170898737561634</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03408780721755859</v>
+        <v>0.01929876046313414</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03658429566522366</v>
+        <v>0.01967784325794571</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08161343522126407</v>
+        <v>0.05314654744429331</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03642289491145483</v>
+        <v>0.01904704049220394</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1255398502838911</v>
+        <v>0.08566354057982545</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03669761959872094</v>
+        <v>0.01900439418292181</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02099460163909371</v>
+        <v>0.01231209446961942</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03786131150388468</v>
+        <v>0.01224121407450799</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03446736329842487</v>
+        <v>0.01962911502618458</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03824721819546111</v>
+        <v>0.02037984333794356</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08219887199536424</v>
+        <v>0.05593220938700141</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03807848104379368</v>
+        <v>0.01991281506003139</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1274913001133506</v>
+        <v>0.08945272400844262</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03836569321684462</v>
+        <v>0.01986823028214554</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02226883899448855</v>
+        <v>0.01247539086962028</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03950745548231444</v>
+        <v>0.01272044319027354</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03522621850074896</v>
+        <v>0.02078601576334824</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03991014072569854</v>
+        <v>0.02126592348307154</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08344878348413573</v>
+        <v>0.05807327644993168</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03973406717613254</v>
+        <v>0.02077858962785884</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1293309200428787</v>
+        <v>0.09301762937039521</v>
       </c>
       <c r="O89" t="n">
-        <v>0.04003376683496831</v>
+        <v>0.02073206638136925</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02352946857296059</v>
+        <v>0.01265158909885615</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04115359946074421</v>
+        <v>0.0133056674722913</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03566918020024418</v>
+        <v>0.02170276517859868</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04157306325593598</v>
+        <v>0.02215200362819952</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08425579858883731</v>
+        <v>0.06055114120329191</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04138965330847139</v>
+        <v>0.0216443641956863</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1315174677430098</v>
+        <v>0.09742909639185465</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04170184045309198</v>
+        <v>0.02159590248059297</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02277450578006024</v>
+        <v>0.0128097714645274</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04279974343917398</v>
+        <v>0.01383789417118295</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03589308349958183</v>
+        <v>0.02257022596913774</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04323598578617342</v>
+        <v>0.0230380837733275</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0852125462107278</v>
+        <v>0.06344719621729003</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04304523944081025</v>
+        <v>0.02251013876351375</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1333390593080687</v>
+        <v>0.1016579647989924</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04336991407121566</v>
+        <v>0.02245973857981669</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02400196602133789</v>
+        <v>0.01296598677810226</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04444588741760375</v>
+        <v>0.0143701208700746</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03639476350143328</v>
+        <v>0.02337926083216724</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04489890831641086</v>
+        <v>0.02392416391845548</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0866116552510659</v>
+        <v>0.0657428340621338</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0447008255731491</v>
+        <v>0.0233759133313412</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1344838108323802</v>
+        <v>0.1056750743179798</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04503798768933934</v>
+        <v>0.02332357467904041</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02320986470234389</v>
+        <v>0.01312022993359928</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04609203139603352</v>
+        <v>0.01490234756896625</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03677105530846983</v>
+        <v>0.02452073246488898</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0465618308466483</v>
+        <v>0.02481024406358346</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0874457546111104</v>
+        <v>0.06821944730803103</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04635641170548796</v>
+        <v>0.02424168789916865</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1360398384102693</v>
+        <v>0.1090512646749882</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04670606130746302</v>
+        <v>0.02418741077826413</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02339621722862859</v>
+        <v>0.01327249582503702</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04773817537446329</v>
+        <v>0.0154345742678579</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03691879402336287</v>
+        <v>0.02578550356450483</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04822475337688574</v>
+        <v>0.02569632420871144</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08820747319212002</v>
+        <v>0.07045842852518963</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04801199783782682</v>
+        <v>0.0251074624669961</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1373952581360608</v>
+        <v>0.113757375596189</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0483741349255867</v>
+        <v>0.02505124687748785</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02355903900574241</v>
+        <v>0.01342277934643402</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04938431935289306</v>
+        <v>0.01596680096674956</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03723481474878371</v>
+        <v>0.02656443682821664</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04988767590712318</v>
+        <v>0.02658240435383942</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08908943989535362</v>
+        <v>0.07284117028381737</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04966758397016567</v>
+        <v>0.02597323703482355</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1382381861040796</v>
+        <v>0.1174642468077536</v>
       </c>
       <c r="O95" t="n">
-        <v>0.05004220854371038</v>
+        <v>0.02591508297671157</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02269634543923572</v>
+        <v>0.01357107539180882</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05103046333132283</v>
+        <v>0.01649902766564121</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03781595258740367</v>
+        <v>0.02764839495322617</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05155059843736062</v>
+        <v>0.0274684844989674</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08918428362206987</v>
+        <v>0.07504906515412205</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05132317010250453</v>
+        <v>0.02683901160265101</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1388567384086504</v>
+        <v>0.1202427180358534</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05171028216183406</v>
+        <v>0.02677891907593528</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0228061519346589</v>
+        <v>0.01371737885517996</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0526766073097526</v>
+        <v>0.01703125436453286</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03795904264189409</v>
+        <v>0.02892824063673526</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05321352096759806</v>
+        <v>0.02835456464409538</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08948463327352754</v>
+        <v>0.07816350570631159</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05297875623484338</v>
+        <v>0.02770478617047846</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1406390311440983</v>
+        <v>0.1232636290066599</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05337835577995773</v>
+        <v>0.02764275517515901</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02288647389756231</v>
+        <v>0.01386168463056601</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05432275128818236</v>
+        <v>0.01756348106342451</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03816092001492637</v>
+        <v>0.03009483657594578</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05487644349783549</v>
+        <v>0.02924064478922336</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09018311775098542</v>
+        <v>0.07956588451059371</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05463434236718225</v>
+        <v>0.02857056073830591</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1408731804047479</v>
+        <v>0.1276978194463443</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05504642939808142</v>
+        <v>0.02850659127438273</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02495078173924056</v>
+        <v>0.01400398761198549</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05596889526661214</v>
+        <v>0.01809570776231616</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03821841980917175</v>
+        <v>0.03113904546805953</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05653936602807294</v>
+        <v>0.03012672493435134</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09077236595570232</v>
+        <v>0.08133759413717637</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05628992849952109</v>
+        <v>0.02943633530613336</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1416473022849242</v>
+        <v>0.130616129081078</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0567145030162051</v>
+        <v>0.02937042737360644</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02495075440493405</v>
+        <v>0.01414428269345697</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0576150392450419</v>
+        <v>0.01862793446120782</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03852837712730162</v>
+        <v>0.03215173001027835</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05820228855831037</v>
+        <v>0.03101280507947933</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09109461964810381</v>
+        <v>0.08406002715626729</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05794551463185995</v>
+        <v>0.03030210987396081</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1428495128789521</v>
+        <v>0.1333893976370326</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05838257663432877</v>
+        <v>0.03023426347283016</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02294132892391947</v>
+        <v>0.01428256476899898</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05926118322347167</v>
+        <v>0.01916016116009947</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03859752092626828</v>
+        <v>0.03312375289980404</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05986521108854781</v>
+        <v>0.03189888522460731</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09019415596973884</v>
+        <v>0.08541457613807435</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0596011007641988</v>
+        <v>0.03116788444178827</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1435917183699393</v>
+        <v>0.1348884648403793</v>
       </c>
       <c r="O101" t="n">
-        <v>0.06005065025245245</v>
+        <v>0.03109809957205388</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0249156934109063</v>
+        <v>0.01441882873263007</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06090732720190144</v>
+        <v>0.01969238785899112</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03859534197818262</v>
+        <v>0.03394597683383845</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06152813361878526</v>
+        <v>0.03278496536973528</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09015538441150994</v>
+        <v>0.08658263365280536</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06125668689653766</v>
+        <v>0.03203365900961572</v>
       </c>
       <c r="N102" t="n">
-        <v>0.142390664585862</v>
+        <v>0.1381841704172895</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06171872387057614</v>
+        <v>0.0319619356712776</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02487489380440205</v>
+        <v>0.01455306947836878</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06255347118033121</v>
+        <v>0.02022461455788277</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03837146259549454</v>
+        <v>0.03470926450958339</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06319105614902269</v>
+        <v>0.03367104551486327</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09015702299185963</v>
+        <v>0.08824559227066814</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06291227302887652</v>
+        <v>0.03289943357744317</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1422510914388158</v>
+        <v>0.1389473540939347</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06338679748869981</v>
+        <v>0.03282577177050132</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02481997604291419</v>
+        <v>0.01468528190023366</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06419961515876098</v>
+        <v>0.02075684125677443</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0384225861181155</v>
+        <v>0.03560447862424074</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06485397867926013</v>
+        <v>0.03455712565999125</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08990295649239513</v>
+        <v>0.08948484456187059</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06456785916121537</v>
+        <v>0.03376520814527062</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1425142971619082</v>
+        <v>0.1408488555964862</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06505487110682348</v>
+        <v>0.03368960786972504</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02275198606495023</v>
+        <v>0.01481546089224327</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06584575913719075</v>
+        <v>0.02128906795566608</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03825038053820831</v>
+        <v>0.03642248187501225</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06651690120949758</v>
+        <v>0.03544320580511923</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08979706969472392</v>
+        <v>0.08968178309662048</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06622344529355423</v>
+        <v>0.03463098271309808</v>
       </c>
       <c r="N105" t="n">
-        <v>0.141787080157101</v>
+        <v>0.1416595146511155</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06672294472494716</v>
+        <v>0.03455344396894876</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0236719698090176</v>
+        <v>0.01494360134841614</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06749190311562052</v>
+        <v>0.02182129465455773</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03805651384793574</v>
+        <v>0.03705413695909979</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06817982373973501</v>
+        <v>0.03632928595024721</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0899432473804532</v>
+        <v>0.09031780044512561</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06787903142589308</v>
+        <v>0.03549675728092552</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1418757035853976</v>
+        <v>0.1427501709839938</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06839101834307085</v>
+        <v>0.03541728006817248</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02358097321362382</v>
+        <v>0.01506969816277082</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06913804709405028</v>
+        <v>0.02235352135344938</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03794265403946057</v>
+        <v>0.03759030657370518</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06984274626997244</v>
+        <v>0.03721536609537519</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0894453743311904</v>
+        <v>0.09109461964810381</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06953461755823194</v>
+        <v>0.03636253184875297</v>
       </c>
       <c r="N107" t="n">
-        <v>0.141386430607802</v>
+        <v>0.1435917183699393</v>
       </c>
       <c r="O107" t="n">
-        <v>0.07005909196119453</v>
+        <v>0.0362811161673962</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02348004221727637</v>
+        <v>0.01519374622932584</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07078419107248006</v>
+        <v>0.02288574805234103</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03811046910494555</v>
+        <v>0.03792185341603026</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07150566880020989</v>
+        <v>0.03810144624050317</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08930733532854279</v>
+        <v>0.09079461964810381</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0711902036905708</v>
+        <v>0.03722830641658043</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1407255243853175</v>
+        <v>0.1426917183699393</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07172716557931821</v>
+        <v>0.03714495226661992</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02337022275848272</v>
+        <v>0.01531574044209977</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07243033505090982</v>
+        <v>0.02341797475123268</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03766162703655353</v>
+        <v>0.03833964018327686</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07316859133044733</v>
+        <v>0.03898752638563115</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08893301515411772</v>
+        <v>0.0901946196481038</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07284578982290965</v>
+        <v>0.03809408098440788</v>
       </c>
       <c r="N109" t="n">
-        <v>0.140399248078948</v>
+        <v>0.1434917183699393</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07339523919744188</v>
+        <v>0.03800878836584363</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02425256077575035</v>
+        <v>0.01543567569511116</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07407647902933959</v>
+        <v>0.02395020145012434</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03779779582644723</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07483151386068476</v>
+        <v>0.03987360653075913</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08892629858952258</v>
+        <v>0.0901946196481038</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07450137595524851</v>
+        <v>0.03895985555223534</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1399138648496969</v>
+        <v>0.1433917183699394</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07506331281556557</v>
+        <v>0.03887262446506735</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02212810220758675</v>
+        <v>0.01555354688237853</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07572262300776936</v>
+        <v>0.02448242814901599</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03752064346678947</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07649443639092221</v>
+        <v>0.04075968667588711</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0880910704163646</v>
+        <v>0.09079461964810381</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07615696208758736</v>
+        <v>0.03982563012006278</v>
       </c>
       <c r="N111" t="n">
-        <v>0.139975637858568</v>
+        <v>0.1431917183699393</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07673138643368925</v>
+        <v>0.03973646056429107</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02199789299249941</v>
+        <v>0.01566934889792045</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07736876698619913</v>
+        <v>0.02501465484790764</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03713183794974306</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07815735892115964</v>
+        <v>0.04164576682101509</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08713121541625121</v>
+        <v>0.0901946196481038</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07781254821992623</v>
+        <v>0.04069140468789024</v>
       </c>
       <c r="N112" t="n">
-        <v>0.138590830266565</v>
+        <v>0.1433917183699394</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07839946005181293</v>
+        <v>0.04060029666351479</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02386297906899582</v>
+        <v>0.01578307663575545</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07901491096462888</v>
+        <v>0.02554688154679929</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03723304726747073</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07982028145139708</v>
+        <v>0.04253184696614307</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08695061837078974</v>
+        <v>0.0903946196481038</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07946813435226507</v>
+        <v>0.04155717925571769</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1376657052346914</v>
+        <v>0.1421917183699393</v>
       </c>
       <c r="O113" t="n">
-        <v>0.08006753366993662</v>
+        <v>0.04146413276273851</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02272440637558341</v>
+        <v>0.01589472498990208</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08066105494305867</v>
+        <v>0.02607910824569094</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03672593941213528</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08148320398163453</v>
+        <v>0.04341792711127106</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08615316406158743</v>
+        <v>0.0903946196481038</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08112372048460392</v>
+        <v>0.04242295382354513</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1369065259239509</v>
+        <v>0.1427917183699393</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08173560728806029</v>
+        <v>0.04232796886196223</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02258322085076973</v>
+        <v>0.01600428885437889</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08230719892148843</v>
+        <v>0.02661133494458259</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03661218237589953</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08314612651187196</v>
+        <v>0.04430400725639903</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0859427372702517</v>
+        <v>0.09099461964810382</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08277930661694279</v>
+        <v>0.04328872839137259</v>
       </c>
       <c r="N115" t="n">
-        <v>0.135919555495347</v>
+        <v>0.1429917183699393</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08340368090618396</v>
+        <v>0.04319180496118594</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02344046843306222</v>
+        <v>0.01611176312320443</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08395334289991821</v>
+        <v>0.02714356164347425</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0363934441509262</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08480904904210941</v>
+        <v>0.04519008740152702</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08592322277838987</v>
+        <v>0.0903946196481038</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08443489274928163</v>
+        <v>0.04415450295920004</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1364110571098835</v>
+        <v>0.1426917183699393</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08507175452430764</v>
+        <v>0.04405564106040966</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02329719506096838</v>
+        <v>0.01621714269039723</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08559948687834797</v>
+        <v>0.0276757883423659</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03607139272937814</v>
+        <v>0.03849752092626828</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08647197157234685</v>
+        <v>0.04607616754665499</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08549850536760925</v>
+        <v>0.09029461964810381</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0860904788816205</v>
+        <v>0.0450202775270275</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1354872939285641</v>
+        <v>0.1424917183699393</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08673982814243132</v>
+        <v>0.04491947715963338</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02215444667299568</v>
+        <v>0.01632042244997584</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08724563085677774</v>
+        <v>0.02820801504125756</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03614769610341807</v>
+        <v>0.03849752092626828</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08813489410258428</v>
+        <v>0.04696224769178298</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0844724698195172</v>
+        <v>0.0901946196481038</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08774606501395935</v>
+        <v>0.04588605209485495</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1342545291123923</v>
+        <v>0.1426917183699393</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08840790176055499</v>
+        <v>0.0457833132588571</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02101326920765161</v>
+        <v>0.01642159729595882</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08889177483520751</v>
+        <v>0.0287402417401492</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03562402226520883</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08979781663282173</v>
+        <v>0.04784832783691096</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08384900091572101</v>
+        <v>0.0903946196481038</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08940165114629821</v>
+        <v>0.0467518266626824</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1338190258223718</v>
+        <v>0.1433917183699394</v>
       </c>
       <c r="O119" t="n">
-        <v>0.09007597537867867</v>
+        <v>0.04664714935808082</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02286326787273793</v>
+        <v>0.01652066212236471</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09053791881363728</v>
+        <v>0.02927246843904086</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03560203920691317</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09146073916305916</v>
+        <v>0.04873440798203894</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08333137072566627</v>
+        <v>0.0908946196481038</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09105723727863707</v>
+        <v>0.04761760123050985</v>
       </c>
       <c r="N120" t="n">
-        <v>0.131787047219506</v>
+        <v>0.1421917183699393</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09174404899680236</v>
+        <v>0.04751098545730454</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02069246303115666</v>
+        <v>0.01661761182321206</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09218406279206703</v>
+        <v>0.02980469513793251</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03517870530847125</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0931236616932966</v>
+        <v>0.04962048812716692</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08326631544939275</v>
+        <v>0.09029461964810381</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09271282341097592</v>
+        <v>0.0484833757983373</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1322647718199735</v>
+        <v>0.1428917183699394</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09341212261492604</v>
+        <v>0.04837482155652826</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02050421134632227</v>
+        <v>0.01671244129251939</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09383020677049682</v>
+        <v>0.03033692183682416</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03512587641574484</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09478658422353405</v>
+        <v>0.0505065682722949</v>
       </c>
       <c r="L122" t="n">
-        <v>0.082526506801784</v>
+        <v>0.0903946196481038</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09436840954331478</v>
+        <v>0.04934915036616475</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1307770660380882</v>
+        <v>0.1425917183699393</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09508019623304972</v>
+        <v>0.04923865765575198</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02230192061091863</v>
+        <v>0.01680514542430528</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09547635074892658</v>
+        <v>0.03086914853571581</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03494309857580415</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09644950675377148</v>
+        <v>0.05139264841742288</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08192460186568501</v>
+        <v>0.09079461964810381</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09602399567565363</v>
+        <v>0.0502149249339922</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1295683037748572</v>
+        <v>0.1426917183699393</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09674826985117339</v>
+        <v>0.0501024937549757</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02208899861762962</v>
+        <v>0.01689571911258826</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09712249472735635</v>
+        <v>0.03140137523460746</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03433580630649935</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09811242928400891</v>
+        <v>0.05227872856255086</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08117325772394068</v>
+        <v>0.09029461964810381</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09767958180799248</v>
+        <v>0.05108069950181966</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1279588911574988</v>
+        <v>0.1431917183699393</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09841634346929708</v>
+        <v>0.05096632985419942</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01986885315913908</v>
+        <v>0.01698415725138688</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09876863870578612</v>
+        <v>0.03193360193349912</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03430943412568058</v>
+        <v>0.03829752092626829</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09977535181424636</v>
+        <v>0.05316480870767885</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07988513145939596</v>
+        <v>0.09099461964810382</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09933516794033134</v>
+        <v>0.05194647406964711</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1267692343132312</v>
+        <v>0.1429917183699393</v>
       </c>
       <c r="O125" t="n">
-        <v>0.1000844170874208</v>
+        <v>0.05183016595342314</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01964489202813093</v>
+        <v>0.01707045473471967</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1004147826842159</v>
+        <v>0.03246582863239077</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03386941655119802</v>
+        <v>0.03829752092626829</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1014382743444838</v>
+        <v>0.05405088885280682</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07957288015489575</v>
+        <v>0.09059461964810381</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1009907540726702</v>
+        <v>0.05281224863747456</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1266197393692725</v>
+        <v>0.1426917183699393</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1017524907055444</v>
+        <v>0.05269400205264686</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01942052301728899</v>
+        <v>0.0171546064566052</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1020609266626457</v>
+        <v>0.03299805533128242</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03362118810090187</v>
+        <v>0.03829752092626829</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1031011968747212</v>
+        <v>0.05493696899793481</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07844916089328499</v>
+        <v>0.09109461964810381</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1026463402050091</v>
+        <v>0.05367802320530202</v>
       </c>
       <c r="N127" t="n">
-        <v>0.125430812452841</v>
+        <v>0.1427917183699393</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1034205643236681</v>
+        <v>0.05355783815187057</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02119915391929718</v>
+        <v>0.017236607311062</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1037070706410754</v>
+        <v>0.03353028203017407</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03307018329264226</v>
+        <v>0.03849752092626828</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1047641194049587</v>
+        <v>0.05582304914306278</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07722663075740868</v>
+        <v>0.09099461964810382</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1043019263373479</v>
+        <v>0.05454379777312946</v>
       </c>
       <c r="N128" t="n">
-        <v>0.123122859691155</v>
+        <v>0.1430917183699393</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1050886379417918</v>
+        <v>0.05442167425109429</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01998419252683933</v>
+        <v>0.01731645219210863</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1053532146195052</v>
+        <v>0.03406250872906572</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03292183664426938</v>
+        <v>0.03829752092626829</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1064270419351961</v>
+        <v>0.05670912928819077</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07711794683011172</v>
+        <v>0.0901946196481038</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1059575124696868</v>
+        <v>0.05540957234095691</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1225162872114324</v>
+        <v>0.1430917183699393</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1067567115599155</v>
+        <v>0.05528551035031801</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01977904663259933</v>
+        <v>0.01739413599376363</v>
       </c>
       <c r="G130" t="n">
-        <v>0.106999358597935</v>
+        <v>0.03459473542795738</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03248158267363335</v>
+        <v>0.03829752092626829</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1080899644654336</v>
+        <v>0.05759520943331875</v>
       </c>
       <c r="L130" t="n">
-        <v>0.076435766194239</v>
+        <v>0.0901946196481038</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1076130986020256</v>
+        <v>0.05627534690878437</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1210315011408917</v>
+        <v>0.1422917183699393</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1084247851780391</v>
+        <v>0.05614934644954173</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01957090555479973</v>
+        <v>0.01746965361004554</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1086455025763647</v>
+        <v>0.03512696212684903</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03205485589858441</v>
+        <v>0.03829752092626829</v>
       </c>
       <c r="K131" t="n">
-        <v>0.109752886995671</v>
+        <v>0.05848128957844673</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0754906798565371</v>
+        <v>0.09099461964810382</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1092686847343645</v>
+        <v>0.05714112147661182</v>
       </c>
       <c r="N131" t="n">
-        <v>0.119588907606751</v>
+        <v>0.1421917183699393</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1100928587961628</v>
+        <v>0.05701318254876545</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01834344532870334</v>
+        <v>0.01754299993497289</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1102916465547945</v>
+        <v>0.03565918882574068</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03183704414363803</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1114158095259084</v>
+        <v>0.05936736972357471</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0745079612879051</v>
+        <v>0.09029461964810381</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1109242708667033</v>
+        <v>0.05800689604443927</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1193054896689165</v>
+        <v>0.1426917183699393</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1117609324142865</v>
+        <v>0.05787701864798916</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0191014699965121</v>
+        <v>0.01761416986256427</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1119377905332243</v>
+        <v>0.03619141552463233</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03149105386856002</v>
+        <v>0.03849752092626828</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1130787320561459</v>
+        <v>0.06025344986870268</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07395799865659836</v>
+        <v>0.09049461964810382</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1125798569990422</v>
+        <v>0.05887267061226673</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1176614229017797</v>
+        <v>0.1433917183699394</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1134290060324102</v>
+        <v>0.05874085474721288</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01984985781445131</v>
+        <v>0.01768315828683819</v>
       </c>
       <c r="G134" t="n">
-        <v>0.113583934511654</v>
+        <v>0.03672364222352398</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03111956778007698</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1147416545863833</v>
+        <v>0.06113953001383067</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07225891058041728</v>
+        <v>0.0906946196481038</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1142354431313811</v>
+        <v>0.05973844518009418</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1166101002784347</v>
+        <v>0.1433917183699394</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1150970796505339</v>
+        <v>0.05960469084643661</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01859348703874625</v>
+        <v>0.01774996010181321</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1152300784900838</v>
+        <v>0.03725586892241563</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03083036539208345</v>
+        <v>0.03829752092626829</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1164045771166207</v>
+        <v>0.06202561015895865</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07132881567716237</v>
+        <v>0.0906946196481038</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1158910292637199</v>
+        <v>0.06060421974792162</v>
       </c>
       <c r="N135" t="n">
-        <v>0.114880733175972</v>
+        <v>0.1428917183699394</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1167651532686575</v>
+        <v>0.06046852694566032</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01833723592562217</v>
+        <v>0.01781457020150788</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1168762224685136</v>
+        <v>0.03778809562130728</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03013122621847399</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1180674996468582</v>
+        <v>0.06291169030408662</v>
       </c>
       <c r="L136" t="n">
-        <v>0.070485832564634</v>
+        <v>0.09059461964810381</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1175466153960588</v>
+        <v>0.06146999431574908</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1129025329714827</v>
+        <v>0.1432917183699393</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1184332268867812</v>
+        <v>0.06133236304488404</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01908598273130437</v>
+        <v>0.01787698347994073</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1185223664469433</v>
+        <v>0.03832032232019894</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02992992977314317</v>
+        <v>0.03829752092626829</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1197304221770956</v>
+        <v>0.06379777044921461</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07014807986063262</v>
+        <v>0.09109461964810381</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1192022015283976</v>
+        <v>0.06233576888357653</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1119047110420577</v>
+        <v>0.1427917183699393</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1201013005049049</v>
+        <v>0.06219619914410777</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01684460571201813</v>
+        <v>0.01793719483113031</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1201685104253731</v>
+        <v>0.03885254901909059</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02933425556998558</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1213933447073331</v>
+        <v>0.06468385059434259</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06873367618295864</v>
+        <v>0.09059461964810381</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1208577876607365</v>
+        <v>0.06320154345140398</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1108164787647878</v>
+        <v>0.1425917183699393</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1217693741230286</v>
+        <v>0.06306003524333148</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01761798312398872</v>
+        <v>0.01799519914909518</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1218146544038029</v>
+        <v>0.03938477571798225</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02915198312289573</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1230562672375705</v>
+        <v>0.06556993073947057</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06776074014941252</v>
+        <v>0.09059461964810381</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1225133737930753</v>
+        <v>0.06406731801923143</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1086670475167639</v>
+        <v>0.1430917183699393</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1234374477411523</v>
+        <v>0.0639238713425552</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01641099322344143</v>
+        <v>0.01805099132785389</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1234607983822326</v>
+        <v>0.03991700241687389</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02889089194576823</v>
+        <v>0.03849752092626828</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1247191897678079</v>
+        <v>0.06645601088459856</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0670473903777947</v>
+        <v>0.09029461964810381</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1241689599254142</v>
+        <v>0.06493309258705889</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1078856286750767</v>
+        <v>0.1423917183699394</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1251055213592759</v>
+        <v>0.06478770744177892</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01622851426660153</v>
+        <v>0.01810456626142495</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1251069423606624</v>
+        <v>0.04044922911576555</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02825876155249764</v>
+        <v>0.03849752092626828</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1263821122980454</v>
+        <v>0.06734209102972653</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06621174548590558</v>
+        <v>0.0906946196481038</v>
       </c>
       <c r="M141" t="n">
-        <v>0.125824546057753</v>
+        <v>0.06579886715488634</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1060014336168174</v>
+        <v>0.1428917183699394</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1267735949773996</v>
+        <v>0.06565154354100264</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01807542450969431</v>
+        <v>0.01815591884382695</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1267530863390922</v>
+        <v>0.0409814558146572</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02826337145697848</v>
+        <v>0.03829752092626829</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1280450348282828</v>
+        <v>0.06822817117485451</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06557192409154566</v>
+        <v>0.09049461964810382</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1274801321900919</v>
+        <v>0.06666464172271379</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1052436737190766</v>
+        <v>0.1430917183699393</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1284416685955233</v>
+        <v>0.06651537964022636</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01695660220894504</v>
+        <v>0.0182050439690784</v>
       </c>
       <c r="G143" t="n">
-        <v>0.128399230317522</v>
+        <v>0.04151368251354885</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02801250117310536</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1297079573585203</v>
+        <v>0.0691142513199825</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06534604481251527</v>
+        <v>0.09109461964810381</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1291357183224307</v>
+        <v>0.06753041629054124</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1037415603589452</v>
+        <v>0.1430917183699393</v>
       </c>
       <c r="O143" t="n">
-        <v>0.130109742213647</v>
+        <v>0.06737921573945008</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01787692562057899</v>
+        <v>0.01825193653119787</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1300453742959517</v>
+        <v>0.0420459092124405</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02761393021477282</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1313708798887577</v>
+        <v>0.07000033146511048</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06505222626661489</v>
+        <v>0.0908946196481038</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1307913044547696</v>
+        <v>0.06839619085836869</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1029243049135142</v>
+        <v>0.1434917183699393</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1317778158317707</v>
+        <v>0.0682430518386738</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01784127300082148</v>
+        <v>0.0182965914242039</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1316915182743815</v>
+        <v>0.04257813591133215</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02737543809587543</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1330338024189952</v>
+        <v>0.07088641161023845</v>
       </c>
       <c r="L145" t="n">
-        <v>0.064308587071645</v>
+        <v>0.09029461964810381</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1324468905871085</v>
+        <v>0.06926196542619616</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1022211187598743</v>
+        <v>0.1423917183699394</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1334458894498943</v>
+        <v>0.06910688793789752</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01684187705746069</v>
+        <v>0.01833900354211501</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1333376622528112</v>
+        <v>0.04311036261022381</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02760480433030776</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1346967249492326</v>
+        <v>0.07177249175536643</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0647327391512022</v>
+        <v>0.0908946196481038</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1341024767194473</v>
+        <v>0.07012773999402359</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1020612132751166</v>
+        <v>0.1427917183699393</v>
       </c>
       <c r="O146" t="n">
-        <v>0.135113963068018</v>
+        <v>0.06997072403712123</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01585076126370784</v>
+        <v>0.0183791677789498</v>
       </c>
       <c r="G147" t="n">
-        <v>0.134983806231241</v>
+        <v>0.04364258930911546</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02759901233978818</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K147" t="n">
-        <v>0.13635964747947</v>
+        <v>0.07265857190049442</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06474810231307374</v>
+        <v>0.09049461964810382</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1357580628517862</v>
+        <v>0.07099351456185105</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1018689048590606</v>
+        <v>0.1428917183699394</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1367820366861417</v>
+        <v>0.07083456013634495</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01686631914818394</v>
+        <v>0.01841707902872677</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1366299502096708</v>
+        <v>0.04417481600800711</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02761087814739038</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1380225700097075</v>
+        <v>0.0735446520456224</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06468899958580107</v>
+        <v>0.09099461964810382</v>
       </c>
       <c r="M148" t="n">
-        <v>0.137413648984125</v>
+        <v>0.0718592891296785</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1017983340381713</v>
+        <v>0.1434917183699393</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1384501103042654</v>
+        <v>0.07169839623556867</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01688819225839856</v>
+        <v>0.01845273218546448</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1382760941881006</v>
+        <v>0.04470704270689876</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0275333824876374</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1396854925399449</v>
+        <v>0.07443073219075037</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06525409961994821</v>
+        <v>0.09109461964810381</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1390692351164639</v>
+        <v>0.07272506369750595</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1020683554799488</v>
+        <v>0.1434917183699393</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1401181839223891</v>
+        <v>0.07256223233479239</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01591602214186126</v>
+        <v>0.01848612214318149</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1399222381665303</v>
+        <v>0.04523926940579041</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02766595372468209</v>
+        <v>0.03849752092626828</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1413484150701823</v>
+        <v>0.07531681233587836</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06494207106607916</v>
+        <v>0.0908946196481038</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1407248212488027</v>
+        <v>0.0735908382653334</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1017768227430451</v>
+        <v>0.1433917183699394</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1417862575405127</v>
+        <v>0.07342606843401611</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0159494503460816</v>
+        <v>0.01851724379589632</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1415683821449601</v>
+        <v>0.04577149610468206</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02750802022267732</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1430113376004198</v>
+        <v>0.07620289248100634</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06485158257475809</v>
+        <v>0.09049396653152883</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1423804073811416</v>
+        <v>0.07445661283316085</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1023215893861125</v>
+        <v>0.1430892453672324</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1434543311586364</v>
+        <v>0.07428990453323983</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01598811841856913</v>
+        <v>0.01854609203762753</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1432145261233899</v>
+        <v>0.04630372280357372</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02755901034577593</v>
+        <v>0.03859752092626828</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1446742601306572</v>
+        <v>0.07708897262613432</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06518130279654893</v>
+        <v>0.09038808621665101</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1440359935134804</v>
+        <v>0.07532238740098832</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1018005089678029</v>
+        <v>0.1428776188075342</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1451224047767601</v>
+        <v>0.07515374063246355</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01603166790683343</v>
+        <v>0.01857266176239367</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1448606701018196</v>
+        <v>0.04683594950246537</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02761835245813081</v>
+        <v>0.03839752092626827</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1463371826608947</v>
+        <v>0.07797505277126231</v>
       </c>
       <c r="L153" t="n">
-        <v>0.0652299003820159</v>
+        <v>0.09057629288060418</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1456915796458193</v>
+        <v>0.07618816196881575</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1022114350467687</v>
+        <v>0.1425568079674713</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1467904783948838</v>
+        <v>0.07601757673168726</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01607974035838404</v>
+        <v>0.01859694786421328</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1465068140802494</v>
+        <v>0.04736817620135702</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0278854749238948</v>
+        <v>0.0385965092218809</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1480001051911321</v>
+        <v>0.07886113291639028</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06519604398172291</v>
+        <v>0.0905588271146599</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1473471657781582</v>
+        <v>0.07705393653664321</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1027522211816619</v>
+        <v>0.1433271895474669</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1484585520130074</v>
+        <v>0.07688141283091099</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01613197732073052</v>
+        <v>0.01861894523710491</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1481529580586792</v>
+        <v>0.04790040290024868</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02795980610722072</v>
+        <v>0.03839283939105567</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1496630277213695</v>
+        <v>0.07974721306151826</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06607840224623412</v>
+        <v>0.09073592951008985</v>
       </c>
       <c r="M155" t="n">
-        <v>0.149002751910497</v>
+        <v>0.07791971110447067</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1039207209311347</v>
+        <v>0.1421891402479435</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1501266256311311</v>
+        <v>0.07774524893013471</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01818802034138246</v>
+        <v>0.0186386487750871</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1497991020371089</v>
+        <v>0.04843262959914033</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02784077437226148</v>
+        <v>0.03848659262796092</v>
       </c>
       <c r="K156" t="n">
-        <v>0.151325950251607</v>
+        <v>0.08063329320664624</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06627564382611351</v>
+        <v>0.09030784065816549</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1506583380428359</v>
+        <v>0.07878548567229811</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1041147878538392</v>
+        <v>0.1433430367693244</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1517946992492548</v>
+        <v>0.07860908502935841</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01824751096784937</v>
+        <v>0.0186560533721784</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1514452460155387</v>
+        <v>0.04896485629803198</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02782780808316991</v>
+        <v>0.03847787821521573</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1529888727818444</v>
+        <v>0.08151937335177423</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06558643737192521</v>
+        <v>0.09077480115015854</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1523139241751747</v>
+        <v>0.07965126024012556</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1032322755084274</v>
+        <v>0.1423892558120323</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1534627728673785</v>
+        <v>0.07947292112858215</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01633017087775413</v>
+        <v>0.01867115392239736</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1530913899939685</v>
+        <v>0.04949708299692362</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02822033560409888</v>
+        <v>0.03836680543543919</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1546517953120818</v>
+        <v>0.0824054534969022</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06621427927570203</v>
+        <v>0.09033705157734057</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1539695103075136</v>
+        <v>0.08051703480795303</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1042710374535517</v>
+        <v>0.1432281740764901</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1551308464855022</v>
+        <v>0.08033675722780587</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01746951052119949</v>
+        <v>0.01868394531976251</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1547375339723983</v>
+        <v>0.05002930969581528</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02824381877919455</v>
+        <v>0.03845348357125042</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1563147178423193</v>
+        <v>0.08329153364203018</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06620221466229742</v>
+        <v>0.09079483253098308</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1556250964398525</v>
+        <v>0.08138280937578048</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1046596189887539</v>
+        <v>0.1423601682631206</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1567989201036259</v>
+        <v>0.08120059332702957</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01665583068856152</v>
+        <v>0.01869442245829242</v>
       </c>
       <c r="G160" t="n">
-        <v>0.156383677950828</v>
+        <v>0.05056153639470693</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02855618407247182</v>
+        <v>0.03823802190526851</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1579776403725567</v>
+        <v>0.08417761378715817</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06728771539247175</v>
+        <v>0.09074838460235779</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1572806825721913</v>
+        <v>0.08224858394360791</v>
       </c>
       <c r="N160" t="n">
-        <v>0.104547472876459</v>
+        <v>0.1425856150723469</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1584669937217495</v>
+        <v>0.0820644294262533</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01687831056430975</v>
+        <v>0.01870258023200561</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1580298219292578</v>
+        <v>0.05109376309359859</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02854374031482963</v>
+        <v>0.03832052972011253</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1596405629027942</v>
+        <v>0.08506369393228615</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06813059124008028</v>
+        <v>0.09059794838273619</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1589362687045301</v>
+        <v>0.08311435851143538</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1056375998082669</v>
+        <v>0.1417048912045918</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1601350673398732</v>
+        <v>0.08292826552547701</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01912612933291373</v>
+        <v>0.01870841353492065</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1596759659076875</v>
+        <v>0.05162598979249024</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02908923119973501</v>
+        <v>0.03820111629840163</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1613034854330316</v>
+        <v>0.08594977407741412</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06839065197897848</v>
+        <v>0.09074376446339</v>
       </c>
       <c r="M162" t="n">
-        <v>0.160591854836869</v>
+        <v>0.08398013307926283</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1078652039005067</v>
+        <v>0.1416183733602781</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1618031409579969</v>
+        <v>0.08379210162470073</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01738846617884298</v>
+        <v>0.01871191726105607</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1613221098861173</v>
+        <v>0.05215821649138189</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02957540042065501</v>
+        <v>0.03817989092275488</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1629664079632691</v>
+        <v>0.08683585422254211</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06952770738302161</v>
+        <v>0.09068607343559071</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1622474409692078</v>
+        <v>0.08484590764709027</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1083654892695071</v>
+        <v>0.1420264382398288</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1634712145761206</v>
+        <v>0.08465593772392446</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01965450028656705</v>
+        <v>0.01871308630443042</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1629682538645471</v>
+        <v>0.05269044319027354</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02978499167105667</v>
+        <v>0.03815696287579136</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1646293304935065</v>
+        <v>0.08772193436767009</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07070156722606508</v>
+        <v>0.09002511589060994</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1639030271015467</v>
+        <v>0.08571168221491772</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1105736600315971</v>
+        <v>0.1414294625436668</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1651392881942443</v>
+        <v>0.08551977382314817</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01991341084055545</v>
+        <v>0.01871308630443042</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1646143978429769</v>
+        <v>0.05269044319027354</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03040074864440699</v>
+        <v>0.03843244144013019</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1662922530237439</v>
+        <v>0.08860801451279807</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07147204128196416</v>
+        <v>0.09056113241971928</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1655586132338856</v>
+        <v>0.08657745678274519</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1118249203031054</v>
+        <v>0.141727822972215</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1668073618123679</v>
+        <v>0.08638360992237189</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01815437702527772</v>
+        <v>0.01827799674042055</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1662605418214066</v>
+        <v>0.05269017466180953</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03080541503417303</v>
+        <v>0.03810643589839048</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1679551755539814</v>
+        <v>0.08949409465792606</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07279893932457432</v>
+        <v>0.08969436361419036</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1672141993662244</v>
+        <v>0.08744323135057264</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1130544742003609</v>
+        <v>0.1424218962258962</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1684754354304916</v>
+        <v>0.08724744602159562</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02036657802520341</v>
+        <v>0.01784795148506324</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1679066857998364</v>
+        <v>0.05268990613334551</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03098173453382178</v>
+        <v>0.03837905553319131</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1696180980842188</v>
+        <v>0.09038017480305403</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07334207112775079</v>
+        <v>0.08982505006529476</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1688697854985633</v>
+        <v>0.08830900591840007</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1142975258396925</v>
+        <v>0.1412120590051333</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1701435090486153</v>
+        <v>0.08811128212081933</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02055390427905435</v>
+        <v>0.01742347615113713</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1695528297782662</v>
+        <v>0.05268963760488149</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03151245083682033</v>
+        <v>0.03805040962715177</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1712810206144562</v>
+        <v>0.09126625494818201</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07386799226153776</v>
+        <v>0.09035343236430407</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1705253716309021</v>
+        <v>0.08917478048622754</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1168892793374292</v>
+        <v>0.1409986880103493</v>
       </c>
       <c r="O168" t="n">
-        <v>0.171811582666739</v>
+        <v>0.08897511822004305</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01873619547542085</v>
+        <v>0.01700509635147613</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1711989737566959</v>
+        <v>0.05268936907641747</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0316048355255614</v>
+        <v>0.03812060746289098</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1729439431446937</v>
+        <v>0.09215233509330999</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07534667879319057</v>
+        <v>0.08947975110248985</v>
       </c>
       <c r="M169" t="n">
-        <v>0.172180957763241</v>
+        <v>0.09004055505405499</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1173046058308837</v>
+        <v>0.1413821599419671</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1734796562848626</v>
+        <v>0.08983895431926676</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01891411462490564</v>
+        <v>0.01659333769885863</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1728451177351257</v>
+        <v>0.05268910054795346</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03178944405306711</v>
+        <v>0.03818975832302803</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1746068656749311</v>
+        <v>0.09303841523843798</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07510852868351653</v>
+        <v>0.08950424687112377</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1738365438955799</v>
+        <v>0.09090632962188243</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1188745969701872</v>
+        <v>0.1410628515004095</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1751477299029863</v>
+        <v>0.09070279041849048</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02008800499634566</v>
+        <v>0.01618872580608158</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1744912617135555</v>
+        <v>0.05268883201948944</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03226717338489593</v>
+        <v>0.038157971490182</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1762697882051686</v>
+        <v>0.09392449538356595</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0758548168874528</v>
+        <v>0.08942716026147737</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1754921300279187</v>
+        <v>0.09177210418970989</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1201182404442576</v>
+        <v>0.1412411393860994</v>
       </c>
       <c r="O171" t="n">
-        <v>0.17681580352111</v>
+        <v>0.0915666265177142</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01925820985857784</v>
+        <v>0.01579178628592486</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1761374056919852</v>
+        <v>0.05268856349102542</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0324385709430289</v>
+        <v>0.03792535624697202</v>
       </c>
       <c r="K172" t="n">
-        <v>0.177932710735406</v>
+        <v>0.09481057552869393</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0765868183599365</v>
+        <v>0.08994873186482227</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1771477161602576</v>
+        <v>0.09263787875753735</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1206375917735469</v>
+        <v>0.1412174002994598</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1784838771392337</v>
+        <v>0.09243046261693792</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02142507248043914</v>
+        <v>0.01540304475122001</v>
       </c>
       <c r="G173" t="n">
-        <v>0.177783549670415</v>
+        <v>0.0526882949625614</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03270418414944694</v>
+        <v>0.03819202187601717</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1795956332656435</v>
+        <v>0.09569665567382192</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07740580805590494</v>
+        <v>0.08936920227243006</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1788033022925964</v>
+        <v>0.0935036533253648</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1220347064785066</v>
+        <v>0.1416920109409134</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1801519507573573</v>
+        <v>0.09329429871616164</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02158893613076649</v>
+        <v>0.01502302681474654</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1794296936488448</v>
+        <v>0.05268802643409739</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03306456042613108</v>
+        <v>0.03805807765993655</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1812585557958809</v>
+        <v>0.0965827358189499</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07771306093029523</v>
+        <v>0.0891888120755723</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1804588884249353</v>
+        <v>0.09436942789319225</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1225116400795883</v>
+        <v>0.1412653480108833</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1818200243754811</v>
+        <v>0.09415813481538536</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02175014407839682</v>
+        <v>0.01465225808930141</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1810758376272746</v>
+        <v>0.05268775790563338</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03342024719506226</v>
+        <v>0.03802363288134926</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1829214783261183</v>
+        <v>0.09746881596407787</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07830985193804463</v>
+        <v>0.08970780186552066</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1821144745572741</v>
+        <v>0.0952352024610197</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1236704480972436</v>
+        <v>0.1406377882097923</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1834880979936047</v>
+        <v>0.09502197091460908</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02190903959216709</v>
+        <v>0.01429126418766613</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1827219816057043</v>
+        <v>0.05268748937716935</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03337179187822144</v>
+        <v>0.03778879682287441</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1845844008563558</v>
+        <v>0.09835489610920586</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07879745603409025</v>
+        <v>0.08892640667081728</v>
       </c>
       <c r="M176" t="n">
-        <v>0.183770060689613</v>
+        <v>0.09610097702884715</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1236131860519242</v>
+        <v>0.1413088404768672</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1851561716117284</v>
+        <v>0.0958858070138328</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02006596594091422</v>
+        <v>0.01394057072266908</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1843681255841341</v>
+        <v>0.05268722084870534</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03381974189758963</v>
+        <v>0.03775367876713107</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1862473233865932</v>
+        <v>0.09924097625433384</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07947714817336934</v>
+        <v>0.08883320947929682</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1854256468219518</v>
+        <v>0.0969667515966746</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1250419094640818</v>
+        <v>0.1411555702078022</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1868242452298521</v>
+        <v>0.09674964311305652</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02022126639347517</v>
+        <v>0.0136007033070913</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1860142695625639</v>
+        <v>0.05268695232024132</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03396464467514777</v>
+        <v>0.03771838787784149</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1879102459168306</v>
+        <v>0.1001270563994618</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0806502033108191</v>
+        <v>0.0891192983555549</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1870812329542907</v>
+        <v>0.09783252616450205</v>
       </c>
       <c r="N178" t="n">
-        <v>0.125458673854168</v>
+        <v>0.1406705597630815</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1884923188479758</v>
+        <v>0.09761347921228024</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02137831723662567</v>
+        <v>0.01327218755372978</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1876604135409936</v>
+        <v>0.0526866837917773</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03430704763287688</v>
+        <v>0.03777802585764835</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1895731684470681</v>
+        <v>0.1010131365445898</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08081871649268157</v>
+        <v>0.08888717587893513</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1887368190866296</v>
+        <v>0.09869830073232951</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1276655347426344</v>
+        <v>0.1408577275005523</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1901603924660994</v>
+        <v>0.09847731531150396</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02254463480526406</v>
+        <v>0.01295554907536795</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1893065575194234</v>
+        <v>0.05268641526331328</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03445430292689605</v>
+        <v>0.03772847781311614</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1912360909773055</v>
+        <v>0.1018992166897178</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08141399306684038</v>
+        <v>0.0883393446287811</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1903924052189684</v>
+        <v>0.09956407530015696</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1275764937024387</v>
+        <v>0.1393209917780618</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1918284660842231</v>
+        <v>0.09934115141072768</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02071523748751227</v>
+        <v>0.01265131348483037</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1909527014978532</v>
+        <v>0.05268614673484926</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03461578296262427</v>
+        <v>0.03767088047885443</v>
       </c>
       <c r="K181" t="n">
-        <v>0.192899013507543</v>
+        <v>0.1027852968348458</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08223558679417595</v>
+        <v>0.0883783071844364</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1920479913513073</v>
+        <v>0.1004298498679844</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1288414064084208</v>
+        <v>0.1400642709534576</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1934965397023468</v>
+        <v>0.1002049875099514</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02088422853018461</v>
+        <v>0.01236000639489997</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1925988454762829</v>
+        <v>0.05268587820638525</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03488259399207164</v>
+        <v>0.03760637058947267</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1945619360377804</v>
+        <v>0.1036713769799737</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08306159619754147</v>
+        <v>0.08820656612524463</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1937035774836461</v>
+        <v>0.1012956244358119</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1305353249872303</v>
+        <v>0.1400914833845871</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1951646133204705</v>
+        <v>0.1010688236091751</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02304571118009542</v>
+        <v>0.0120821534183737</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1942449894547127</v>
+        <v>0.05268560967792123</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03544533227110862</v>
+        <v>0.03753608487958042</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1962248585680178</v>
+        <v>0.1045574571251017</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08357011979978998</v>
+        <v>0.08842662403054946</v>
       </c>
       <c r="M183" t="n">
-        <v>0.195359163615985</v>
+        <v>0.1021613990036393</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1304229392228871</v>
+        <v>0.1386065474292976</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1968326869385942</v>
+        <v>0.1019326597083988</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02219378868405901</v>
+        <v>0.01181828016803738</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1958911334331425</v>
+        <v>0.05268534114945721</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03559459405560575</v>
+        <v>0.03766116008378717</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1978877810982553</v>
+        <v>0.1054435372702297</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08363925612377465</v>
+        <v>0.08854098347969444</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1970147497483238</v>
+        <v>0.1030271735714668</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1313689388994118</v>
+        <v>0.1394133814454364</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1985007605567178</v>
+        <v>0.1027964958076226</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02132256428888973</v>
+        <v>0.01156891225671092</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1975372774115722</v>
+        <v>0.05268507262099319</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03572097560143352</v>
+        <v>0.03728273293670246</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1995507036284927</v>
+        <v>0.1063296174153577</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08454710369234852</v>
+        <v>0.08765214705202318</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1986703358806627</v>
+        <v>0.1038929481392942</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1326380138008248</v>
+        <v>0.1384159037908508</v>
       </c>
       <c r="O185" t="n">
-        <v>0.2001688341748415</v>
+        <v>0.1036603319068463</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02342614124140191</v>
+        <v>0.01133457529717955</v>
       </c>
       <c r="G186" t="n">
-        <v>0.199183421390002</v>
+        <v>0.05268480409252918</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03601507316446237</v>
+        <v>0.03730194017293578</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2012136261587301</v>
+        <v>0.1072156975604857</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08447176102836473</v>
+        <v>0.08736261732687939</v>
       </c>
       <c r="M186" t="n">
-        <v>0.2003259220130015</v>
+        <v>0.1047587227071217</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1334948537111468</v>
+        <v>0.1387180328233883</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2018369077929652</v>
+        <v>0.10452416800607</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02349940270763058</v>
+        <v>0.01111579490224021</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2008295653684318</v>
+        <v>0.05268453556406517</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03616748300056284</v>
+        <v>0.03741991852709668</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2028765486889676</v>
+        <v>0.1081017777056136</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08539132665467647</v>
+        <v>0.08797489688360649</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2019815081453404</v>
+        <v>0.1056244972749491</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1348041484143979</v>
+        <v>0.1378236869008962</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2035049814110889</v>
+        <v>0.1053880041052937</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02256111424536122</v>
+        <v>0.0109130966846814</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2024757093468615</v>
+        <v>0.05268426703560114</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03617401071239243</v>
+        <v>0.03713780473379466</v>
       </c>
       <c r="K188" t="n">
-        <v>0.204539471219205</v>
+        <v>0.1089878578507416</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08592336800404432</v>
+        <v>0.08709148830154828</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2036370942776793</v>
+        <v>0.1064902718427766</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1344345604309916</v>
+        <v>0.138336784381222</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2051730550292125</v>
+        <v>0.1062518402045174</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02162146890211789</v>
+        <v>0.01072700625731776</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2041218533252913</v>
+        <v>0.05268399850713713</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03636996250145375</v>
+        <v>0.03705673552763925</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2062023937494425</v>
+        <v>0.1098739379958696</v>
       </c>
       <c r="L189" t="n">
-        <v>0.085947152540054</v>
+        <v>0.08691489416004824</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2052926804100181</v>
+        <v>0.107356046410604</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1352944868643322</v>
+        <v>0.137861243622213</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2068411286473362</v>
+        <v>0.1071156763037411</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02168044497705093</v>
+        <v>0.01055590298068296</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2057679973037211</v>
+        <v>0.05268372997867311</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03636376419170562</v>
+        <v>0.03687784764323995</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2078653162796799</v>
+        <v>0.1107600181409976</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08636588048243968</v>
+        <v>0.08654761703845004</v>
       </c>
       <c r="M190" t="n">
-        <v>0.206948266542357</v>
+        <v>0.1082218209784315</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1358463948965854</v>
+        <v>0.1368009829817163</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2085092022654599</v>
+        <v>0.1079795124029649</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02373802076931072</v>
+        <v>0.01038743495404808</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2074141412821509</v>
+        <v>0.0526834614502091</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03655538117609718</v>
+        <v>0.03710227781520628</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2095282388099174</v>
+        <v>0.1116460982861256</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08577947123080185</v>
+        <v>0.08659215951609728</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2086038526746958</v>
+        <v>0.1090875955462589</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1354901545813781</v>
+        <v>0.1370599208175797</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2101772758835836</v>
+        <v>0.1088433485021886</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02179417457804757</v>
+        <v>0.01021998153794836</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2090602852605806</v>
+        <v>0.05268319292174507</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03674477884757754</v>
+        <v>0.03683116277814777</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2111911613401548</v>
+        <v>0.1125321784312536</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08658784418474094</v>
+        <v>0.08685102417233359</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2102594388070347</v>
+        <v>0.1099533701140864</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1357256359723374</v>
+        <v>0.1366419754876502</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2118453495017072</v>
+        <v>0.1097071846014123</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02284888470241184</v>
+        <v>0.01005406834519536</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2107064292390104</v>
+        <v>0.05268292439328106</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03673192259909579</v>
+        <v>0.03696563926667394</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2128540838703922</v>
+        <v>0.1134182585763815</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08669091874385745</v>
+        <v>0.08652671358650249</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2119150249393735</v>
+        <v>0.1108191446819138</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1359527091230907</v>
+        <v>0.1367510653497753</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2135134231198309</v>
+        <v>0.110571020700636</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0239021294415539</v>
+        <v>0.009890220988578724</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2123525732174402</v>
+        <v>0.05268265586481704</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03661677782360109</v>
+        <v>0.03680684401539427</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2145170064006297</v>
+        <v>0.1143043387215095</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08708861430775183</v>
+        <v>0.08692173033794773</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2135706110717124</v>
+        <v>0.1116849192497413</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1367712440872648</v>
+        <v>0.1362911087618026</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2151814967379546</v>
+        <v>0.1114348567998597</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02295388709462404</v>
+        <v>0.009728965080895415</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2139987171958699</v>
+        <v>0.05268238733635303</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03669930991404255</v>
+        <v>0.03685591375891833</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2161799289308671</v>
+        <v>0.1151904188666375</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08678085027602445</v>
+        <v>0.08623780127819006</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2152261972040513</v>
+        <v>0.1125506938175687</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1375811109184869</v>
+        <v>0.1356629812140118</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2168495703560783</v>
+        <v>0.1122986928990835</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02200413596077265</v>
+        <v>0.00957082623493561</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2156448611742997</v>
+        <v>0.052682118807889</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03697948426336924</v>
+        <v>0.03651398523185563</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2178428514611046</v>
+        <v>0.1160764990117655</v>
       </c>
       <c r="L196" t="n">
-        <v>0.08676754604827586</v>
+        <v>0.08656187993113698</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2168817833363901</v>
+        <v>0.1134164683853962</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1366821796703843</v>
+        <v>0.1359441802623338</v>
       </c>
       <c r="O196" t="n">
-        <v>0.218517643974202</v>
+        <v>0.1131625289983072</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02405285433915007</v>
+        <v>0.009416330063510066</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2172910051527294</v>
+        <v>0.05268185027942499</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03705726626453031</v>
+        <v>0.03657995465517747</v>
       </c>
       <c r="K197" t="n">
-        <v>0.219505773991342</v>
+        <v>0.1169625791568935</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0874486210241065</v>
+        <v>0.08608843393452467</v>
       </c>
       <c r="M197" t="n">
-        <v>0.218537369468729</v>
+        <v>0.1142822429532236</v>
       </c>
       <c r="N197" t="n">
-        <v>0.137974320396584</v>
+        <v>0.1354292445731058</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2201857175923257</v>
+        <v>0.1140263650975309</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02210002052890661</v>
+        <v>0.009266002179408796</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2189371491311592</v>
+        <v>0.05268158175096097</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0370326213104749</v>
+        <v>0.03654750858247775</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2211686965215794</v>
+        <v>0.1178486593020214</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08752399460311677</v>
+        <v>0.08661738309596956</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2201929556010678</v>
+        <v>0.1151480175210511</v>
       </c>
       <c r="N198" t="n">
-        <v>0.138057403150713</v>
+        <v>0.13521804858689</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2218537912104493</v>
+        <v>0.1148902011967546</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02314561282919268</v>
+        <v>0.00912036819542876</v>
       </c>
       <c r="G199" t="n">
-        <v>0.220583293109589</v>
+        <v>0.05268131322249696</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03730551479415209</v>
+        <v>0.03651614502106401</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2228316190518169</v>
+        <v>0.1187347394471494</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0880935861849072</v>
+        <v>0.08564864722308818</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2218485417334067</v>
+        <v>0.1160137920888785</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1384312979863986</v>
+        <v>0.1364104667442491</v>
       </c>
       <c r="O199" t="n">
-        <v>0.223521864828573</v>
+        <v>0.1157540372959783</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02318960953915858</v>
+        <v>0.008979953724360938</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2222294370880188</v>
+        <v>0.05268104469403293</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03737591210851102</v>
+        <v>0.03658582754553463</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2244945415820543</v>
+        <v>0.1196208195922774</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08815731516907827</v>
+        <v>0.08628214612349713</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2235041278657455</v>
+        <v>0.116879566656706</v>
       </c>
       <c r="N200" t="n">
-        <v>0.137695874957268</v>
+        <v>0.1360063734857451</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2251899384466967</v>
+        <v>0.1166178733952021</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02423198895795466</v>
+        <v>0.008845284379014551</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2238755810664486</v>
+        <v>0.05268077616556892</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03724377864650079</v>
+        <v>0.03635651973048795</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2261574641122918</v>
+        <v>0.1205068997374054</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0877151009552303</v>
+        <v>0.08561779960481294</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2251597139980844</v>
+        <v>0.1177453412245335</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1382510041169481</v>
+        <v>0.1356056432519404</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2268580120648204</v>
+        <v>0.1174817094944258</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02427272938473125</v>
+        <v>0.008716885772180334</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2255217250448783</v>
+        <v>0.0526805076371049</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03730907980107051</v>
+        <v>0.03652818515052236</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2278203866425292</v>
+        <v>0.1213929798825334</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08776686294296385</v>
+        <v>0.08585552747465208</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2268153001304232</v>
+        <v>0.1186111157923609</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1380965555190661</v>
+        <v>0.1357081504833975</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2285260856829441</v>
+        <v>0.1183455455936495</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02331180911863873</v>
+        <v>0.008595283516655255</v>
       </c>
       <c r="G203" t="n">
-        <v>0.227167869023308</v>
+        <v>0.05268023910864089</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03737178096516934</v>
+        <v>0.03630078738023625</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2294833091727666</v>
+        <v>0.1222790600276613</v>
       </c>
       <c r="L203" t="n">
-        <v>0.08781252053187938</v>
+        <v>0.08549524954063115</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2284708862627621</v>
+        <v>0.1194768903601884</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1391323992172492</v>
+        <v>0.1346137696206787</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2301941593010677</v>
+        <v>0.1192093816928732</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02334920645882745</v>
+        <v>0.00848100322523148</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2288140130017378</v>
+        <v>0.05267997058017686</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03733184753174636</v>
+        <v>0.03647428999422792</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2311462317030041</v>
+        <v>0.1231651401727893</v>
       </c>
       <c r="L204" t="n">
-        <v>0.08865199312157732</v>
+        <v>0.08553688561036663</v>
       </c>
       <c r="M204" t="n">
-        <v>0.230126472395101</v>
+        <v>0.1203426649280158</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1397584052651245</v>
+        <v>0.1355223751043463</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2318622329191914</v>
+        <v>0.1200732177920969</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02338489970444772</v>
+        <v>0.008374570510715947</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2304601569801676</v>
+        <v>0.05267970205171285</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03748924489375066</v>
+        <v>0.03634865656709578</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2328091542332415</v>
+        <v>0.1240512203179173</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08898520011165814</v>
+        <v>0.08558035549147511</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2317820585274398</v>
+        <v>0.1212084394958432</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1398744437163189</v>
+        <v>0.1353338413749626</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2335303065373151</v>
+        <v>0.1209370538913206</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02341886715464991</v>
+        <v>0.00827651098590048</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2321063009585974</v>
+        <v>0.05267943352324883</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03774393844413142</v>
+        <v>0.03642385067343824</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2344720767634789</v>
+        <v>0.1249373004630453</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08871206090172226</v>
+        <v>0.085825578991573</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2334376446597787</v>
+        <v>0.1220742140636707</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1389803846244598</v>
+        <v>0.1352480428730902</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2351983801554388</v>
+        <v>0.1218008899905444</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02345108710858437</v>
+        <v>0.008187350263582069</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2337524449370272</v>
+        <v>0.05267916499478482</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03779589357583772</v>
+        <v>0.03639983588785359</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2361349992937164</v>
+        <v>0.1258233806081732</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08873249489137019</v>
+        <v>0.08587247591827693</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2350932307921175</v>
+        <v>0.1229399886314982</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1399760980431743</v>
+        <v>0.1356648540392911</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2368664537735625</v>
+        <v>0.1226647260897681</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02448153786540143</v>
+        <v>0.008107613956554391</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2353985889154569</v>
+        <v>0.05267889646632079</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0375450756818187</v>
+        <v>0.03637657578494026</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2377979218239538</v>
+        <v>0.1267094607533013</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08894642148020235</v>
+        <v>0.08592096607920349</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2367488169244563</v>
+        <v>0.1238057631993256</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1393614540260893</v>
+        <v>0.1344841493141279</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2385345273916861</v>
+        <v>0.1235285621889918</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02451019772425141</v>
+        <v>0.008037827677621408</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2370447328938867</v>
+        <v>0.05267862793785678</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03759145015502344</v>
+        <v>0.03635403393929657</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2394608443541912</v>
+        <v>0.1275955408984292</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08945376006781919</v>
+        <v>0.08597096928196907</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2384044030567952</v>
+        <v>0.1246715377671531</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1396363226268321</v>
+        <v>0.1355058031381629</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2402026010098098</v>
+        <v>0.1243923982882155</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0235370449842847</v>
+        <v>0.007978517039576395</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2386908768723164</v>
+        <v>0.05267835940939276</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03793498238840107</v>
+        <v>0.03643217392552089</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2411237668844287</v>
+        <v>0.1284816210435572</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08905443005382122</v>
+        <v>0.08572240533419032</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2400599891891341</v>
+        <v>0.1255373123349805</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1404005738990298</v>
+        <v>0.1345296899519583</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2418706746279335</v>
+        <v>0.1252562343874392</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02356205794465165</v>
+        <v>0.007930207655216327</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2403370208507462</v>
+        <v>0.05267809088092875</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03767563777490074</v>
+        <v>0.03621095931821164</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2427866894146661</v>
+        <v>0.1293677011886852</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08894835083780889</v>
+        <v>0.0858751940434837</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2417155753214729</v>
+        <v>0.126403086902808</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1398540778963095</v>
+        <v>0.1345556841960766</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2435387482460572</v>
+        <v>0.126120070486663</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02258521490450258</v>
+        <v>0.007893425137336825</v>
       </c>
       <c r="G212" t="n">
-        <v>0.241983164829176</v>
+        <v>0.05267782235246472</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03771338170747154</v>
+        <v>0.03629035369196712</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2444496119449036</v>
+        <v>0.1302537813338132</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08913544181938257</v>
+        <v>0.0857292552174658</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2433711614538118</v>
+        <v>0.1272688614706354</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1411967046722984</v>
+        <v>0.1346836603110802</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2452068218641808</v>
+        <v>0.1269839065858867</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02360649416298784</v>
+        <v>0.007868695098738075</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2436293088076058</v>
+        <v>0.05267755382400071</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03774817957906258</v>
+        <v>0.03617032062138577</v>
       </c>
       <c r="K213" t="n">
-        <v>0.246112534475141</v>
+        <v>0.1311398614789411</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08901562239814279</v>
+        <v>0.08528450866375303</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2450267475861506</v>
+        <v>0.1281346360384629</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1404283242806235</v>
+        <v>0.1352134927375314</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2468748954823045</v>
+        <v>0.1278477426851104</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02362587401925777</v>
+        <v>0.007856543152215206</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2452754527860355</v>
+        <v>0.0526772852955367</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03777999678262296</v>
+        <v>0.0363508236810659</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2477754570053785</v>
+        <v>0.1320259416240691</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08958881197369001</v>
+        <v>0.08534087418996206</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2466823337184895</v>
+        <v>0.1290004106062903</v>
       </c>
       <c r="N214" t="n">
-        <v>0.140248806774912</v>
+        <v>0.1350450559159924</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2485429691004282</v>
+        <v>0.1287115787843341</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02464333277246274</v>
+        <v>0.007856543152215206</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2469215967644653</v>
+        <v>0.0526772852955367</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03810879871110186</v>
+        <v>0.03613182644560588</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2494383795356159</v>
+        <v>0.1329120217691971</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08975492994562462</v>
+        <v>0.08489827160370941</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2483379198508284</v>
+        <v>0.1298661851741178</v>
       </c>
       <c r="N215" t="n">
-        <v>0.141358022208791</v>
+        <v>0.1344782242870257</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2502110427185519</v>
+        <v>0.1295754148835578</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02265884872175307</v>
+        <v>0.007611909953920762</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2485677407428951</v>
+        <v>0.05264813716196768</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03813455075744832</v>
+        <v>0.03611329248960411</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2511013020658533</v>
+        <v>0.1337981019143251</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09001389571354718</v>
+        <v>0.08555662071261158</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2499935059831672</v>
+        <v>0.1307319597419452</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1408558406358876</v>
+        <v>0.1350128722911936</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2518791163366756</v>
+        <v>0.1304392509827816</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02267240016627911</v>
+        <v>0.007370769477567936</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2502138847213248</v>
+        <v>0.05261898902839867</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03805721831461152</v>
+        <v>0.03599518538765896</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2527642245960908</v>
+        <v>0.1346841820594531</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08976562867705803</v>
+        <v>0.08471584132428503</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2516490921155061</v>
+        <v>0.1315977343097727</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1411421321098289</v>
+        <v>0.1347488743690585</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2535471899547992</v>
+        <v>0.1313030870820053</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02468396540519122</v>
+        <v>0.007133704448344762</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2518600286997546</v>
+        <v>0.05258984089482965</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03787676677554055</v>
+        <v>0.03627746871436874</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2544271471263282</v>
+        <v>0.135570262204581</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09011004823575777</v>
+        <v>0.08517585324634641</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2533046782478449</v>
+        <v>0.1324635088776001</v>
       </c>
       <c r="N218" t="n">
-        <v>0.141216766684242</v>
+        <v>0.1340861049611826</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2552152635729229</v>
+        <v>0.132166923181229</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02369352273763974</v>
+        <v>0.006901297591439426</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2535061726781844</v>
+        <v>0.05256069276126064</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03819316153318451</v>
+        <v>0.0361601060443319</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2560900696565657</v>
+        <v>0.136456342349709</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09014707378924675</v>
+        <v>0.08543657628641221</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2549602643801838</v>
+        <v>0.1333292834454276</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1413796144127543</v>
+        <v>0.1348244385081285</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2568833371910466</v>
+        <v>0.1330307592804527</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02270105046277499</v>
+        <v>0.006674131632039969</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2551523166566141</v>
+        <v>0.05253154462769163</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03790636798049256</v>
+        <v>0.03624306095214673</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2577529921868031</v>
+        <v>0.137342422494837</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08947662473712539</v>
+        <v>0.0851979302520989</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2566158505125226</v>
+        <v>0.134195058013255</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1414305453489926</v>
+        <v>0.1336637494504583</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2585514108091703</v>
+        <v>0.1338945953796764</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02470652687974735</v>
+        <v>0.006452789295334473</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2567984606350439</v>
+        <v>0.05250239649412262</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03821635151041378</v>
+        <v>0.03622629701241167</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2594159147170405</v>
+        <v>0.138228502639965</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0896986204789943</v>
+        <v>0.08475983495102307</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2582714366448615</v>
+        <v>0.1350608325810825</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1420694295465841</v>
+        <v>0.1341039122287346</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2602194844272939</v>
+        <v>0.1347584314789002</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02470993028770717</v>
+        <v>0.006237853306510985</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2584446046134737</v>
+        <v>0.0524732483605536</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03812307751589727</v>
+        <v>0.03620977779972502</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2610788372472779</v>
+        <v>0.139114582785093</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08931298041445379</v>
+        <v>0.0853222101908013</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2599270227772004</v>
+        <v>0.1359266071489099</v>
       </c>
       <c r="N222" t="n">
-        <v>0.141496137059156</v>
+        <v>0.1345448012835195</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2618875580454176</v>
+        <v>0.1356222675781239</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02371123898580477</v>
+        <v>0.006029906390757671</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2600907485919035</v>
+        <v>0.05244410022698459</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03822651138989222</v>
+        <v>0.03619346688868519</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2627417597775154</v>
+        <v>0.140000662930221</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08961962394310435</v>
+        <v>0.08478497577905006</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2615826089095392</v>
+        <v>0.1367923817167374</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1408105379403353</v>
+        <v>0.1331862910553755</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2635556316635413</v>
+        <v>0.1364861036773476</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02468605823944237</v>
+        <v>0.005829531273262571</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2617368925703332</v>
+        <v>0.05241495209341557</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03801559884317565</v>
+        <v>0.03617732785389054</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2644046823077528</v>
+        <v>0.1408867430753489</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08946943607345756</v>
+        <v>0.08484805152338587</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2632381950418781</v>
+        <v>0.1376581562845648</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1419902580564292</v>
+        <v>0.1344282559848649</v>
       </c>
       <c r="O224" t="n">
-        <v>0.265223705281665</v>
+        <v>0.1373499397765713</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02360024463666134</v>
+        <v>0.005637310679213782</v>
       </c>
       <c r="G225" t="n">
-        <v>0.263383036548763</v>
+        <v>0.05238580395984656</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03781867771988162</v>
+        <v>0.03616132426993943</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2660676048379903</v>
+        <v>0.1417728232204769</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08940300483697508</v>
+        <v>0.0845113572314253</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2648937811742169</v>
+        <v>0.1385239308523923</v>
       </c>
       <c r="N225" t="n">
-        <v>0.140972452139526</v>
+        <v>0.13317057051255</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2668917788997887</v>
+        <v>0.138213775875795</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02446009383463589</v>
+        <v>0.005453827333799385</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2650291805271928</v>
+        <v>0.05235665582627756</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03783173230658526</v>
+        <v>0.03584541971143022</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2677305273682277</v>
+        <v>0.1426589033656049</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08913031882656033</v>
+        <v>0.08447481271078483</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2665493673065558</v>
+        <v>0.1393897054202198</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1404127781845028</v>
+        <v>0.1338131090789933</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2685598525179124</v>
+        <v>0.1390776119750188</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02327237092964057</v>
+        <v>0.005279663962207436</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2666753245056225</v>
+        <v>0.05232750769270853</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03746555112238757</v>
+        <v>0.0360295777529613</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2693934498984651</v>
+        <v>0.1435449835107329</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08857650468339842</v>
+        <v>0.08443833776908105</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2682049534388947</v>
+        <v>0.1402554799880472</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1398517461131852</v>
+        <v>0.133355746124757</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2702279261360361</v>
+        <v>0.1399414480742425</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02204384101794989</v>
+        <v>0.005115403289626091</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2683214684840523</v>
+        <v>0.05229835955913952</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0372309226863895</v>
+        <v>0.03581376196913102</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2710563724287026</v>
+        <v>0.1444310636558609</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08736668904867442</v>
+        <v>0.08450185221393047</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2698605395712335</v>
+        <v>0.1411212545558747</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1388298658473988</v>
+        <v>0.1332983560904036</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2718959997541597</v>
+        <v>0.1408052841734662</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02278126919583838</v>
+        <v>0.004961628041243393</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2699676124624821</v>
+        <v>0.05226921142557051</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03683863551769198</v>
+        <v>0.03579793593453778</v>
       </c>
       <c r="K229" t="n">
-        <v>0.27271929495894</v>
+        <v>0.1453171438009888</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08702599856357324</v>
+        <v>0.0848652758529497</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2715161257035723</v>
+        <v>0.1419870291237021</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1363876473089691</v>
+        <v>0.1342408134164952</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2735640733722834</v>
+        <v>0.1416691202726899</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02349142055958058</v>
+        <v>0.00481892094224743</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2716137564409118</v>
+        <v>0.0522400632920015</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03619947813539598</v>
+        <v>0.0357820632237799</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2743822174891775</v>
+        <v>0.1462032239461168</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08577955986928007</v>
+        <v>0.08432852849375511</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2731717118359112</v>
+        <v>0.1428528036915295</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1345656004197217</v>
+        <v>0.1338829925435944</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2752321469904071</v>
+        <v>0.1425329563719136</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.021181060205451</v>
+        <v>0.004687864717826271</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2732599004193416</v>
+        <v>0.05221091515843248</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03582423905860242</v>
+        <v>0.03606610741145576</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2760451400194149</v>
+        <v>0.1470893040912448</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08485249960697991</v>
+        <v>0.08439152994396334</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2748272979682501</v>
+        <v>0.143718578259357</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1339042351014822</v>
+        <v>0.1330247679122635</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2769002206085308</v>
+        <v>0.1433967924711373</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0208569532297242</v>
+        <v>0.004569042093168052</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2749060443977714</v>
+        <v>0.05218176702486347</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0355237068064123</v>
+        <v>0.03585003207216376</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2777080625496524</v>
+        <v>0.1479753842363728</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08336994441785781</v>
+        <v>0.08465420001119087</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2764828841005889</v>
+        <v>0.1445843528271845</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1320440612760764</v>
+        <v>0.1326660139630647</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2785682942266544</v>
+        <v>0.1442606285703611</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0215258647286747</v>
+        <v>0.004463035793460829</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2765521883762011</v>
+        <v>0.05215261889129446</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03470866989792655</v>
+        <v>0.03603380078050225</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2793709850798898</v>
+        <v>0.1488614643815007</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08185702094309882</v>
+        <v>0.08491645981907783</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2781384702329278</v>
+        <v>0.1454501273950119</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1296255888653297</v>
+        <v>0.1330066154358943</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2802363678447781</v>
+        <v>0.1451244646695848</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02019455979857701</v>
+        <v>0.00437042854389269</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2781983323546309</v>
+        <v>0.05212347075772544</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03438991685224611</v>
+        <v>0.03601739900169175</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2810339076101272</v>
+        <v>0.1497475445266287</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08053885582388798</v>
+        <v>0.08457869946984065</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2797940563652666</v>
+        <v>0.1463159019628394</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1274893277910677</v>
+        <v>0.1329472634235253</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2819044414629018</v>
+        <v>0.1459883007688085</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01986980353570568</v>
+        <v>0.004291803069651712</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2798444763330606</v>
+        <v>0.05209432262415643</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03377823618847194</v>
+        <v>0.03580106936925968</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2826968301403647</v>
+        <v>0.1506336246717567</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07924057570141041</v>
+        <v>0.084641278080028</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2814496424976055</v>
+        <v>0.1471816765306668</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1251757879751162</v>
+        <v>0.1324884440538052</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2835725150810255</v>
+        <v>0.1468521368680322</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02155836103633522</v>
+        <v>0.004227742095925989</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2814906203114904</v>
+        <v>0.05206517449058742</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03318441642570499</v>
+        <v>0.03598489116034384</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2843597526706021</v>
+        <v>0.1515197048168847</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07858730721685109</v>
+        <v>0.08460420260881674</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2831052286299444</v>
+        <v>0.1480474510984942</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1237254793393006</v>
+        <v>0.1334301682229103</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2852405886991491</v>
+        <v>0.1477159729672559</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02126699739674019</v>
+        <v>0.004178828347903611</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2831367642899202</v>
+        <v>0.05203602635701841</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03281924608304619</v>
+        <v>0.03586886753597775</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2860226752008396</v>
+        <v>0.1524057849620127</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07710417701139508</v>
+        <v>0.08446748001538379</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2847608147622832</v>
+        <v>0.1489132256663217</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1223789118054465</v>
+        <v>0.1323724468270167</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2869086623172729</v>
+        <v>0.1485798090664797</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01900048564162959</v>
+        <v>0.004145644550772667</v>
       </c>
       <c r="G238" t="n">
-        <v>0.28478290826835</v>
+        <v>0.05200687822344939</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03259334361912856</v>
+        <v>0.03575300165719494</v>
       </c>
       <c r="K238" t="n">
-        <v>0.287685597731077</v>
+        <v>0.1532918651071407</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07641396740629511</v>
+        <v>0.08483111725890613</v>
       </c>
       <c r="M238" t="n">
-        <v>0.286416400894622</v>
+        <v>0.1497790002341492</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1211765952041718</v>
+        <v>0.1324152907623007</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2885767359353965</v>
+        <v>0.1494436451657034</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01873954345273687</v>
+        <v>0.00412877342972124</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2864290522467797</v>
+        <v>0.05197773008988038</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03208596662526113</v>
+        <v>0.035837296685029</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2893485202613144</v>
+        <v>0.1541779452522686</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07545634075536847</v>
+        <v>0.0839951212985606</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2880719870269609</v>
+        <v>0.1506447748019766</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1187568219928397</v>
+        <v>0.1336587109249384</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2902448095535202</v>
+        <v>0.1503074812649271</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01947760390938044</v>
+        <v>0.004126644647807723</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2880751962252095</v>
+        <v>0.05194858195631136</v>
       </c>
       <c r="J240" t="n">
-        <v>0.031677021612724</v>
+        <v>0.03562175578051344</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2910114427915518</v>
+        <v>0.1550640253973966</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0740950393854905</v>
+        <v>0.08415949909352419</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2897275731592998</v>
+        <v>0.1515105493698041</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1170311866026644</v>
+        <v>0.1331027182111062</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2919128831716439</v>
+        <v>0.1511713173641508</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01821465098479638</v>
+        <v>0.004126837657796478</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2897213402036393</v>
+        <v>0.05191943382274235</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03126648302311531</v>
+        <v>0.03560638210468182</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2926743653217893</v>
+        <v>0.1559501055425246</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07303000377071639</v>
+        <v>0.08452425760297375</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2913831592916386</v>
+        <v>0.1523763239376315</v>
       </c>
       <c r="N241" t="n">
-        <v>0.116299593064139</v>
+        <v>0.1327473235169801</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2935809567897675</v>
+        <v>0.1520351534633745</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01995066865222071</v>
+        <v>0.004127565156984869</v>
       </c>
       <c r="G242" t="n">
-        <v>0.291367484182069</v>
+        <v>0.05189028568917334</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0306543252980333</v>
+        <v>0.03569117881856768</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2943372878520267</v>
+        <v>0.1568361856876526</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07236117438510145</v>
+        <v>0.08388940378608628</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2930387454239775</v>
+        <v>0.153242098505459</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1139619454077561</v>
+        <v>0.1329925377387365</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2952490304078912</v>
+        <v>0.1528989895625983</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0176856408848895</v>
+        <v>0.004129183471505954</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2930136281604988</v>
+        <v>0.05186113755560433</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03024052287907607</v>
+        <v>0.0355761490832046</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2960002103822642</v>
+        <v>0.1577222658327806</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0715884917027009</v>
+        <v>0.08415494460203865</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2946943315563163</v>
+        <v>0.1541078730732864</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1124181476640089</v>
+        <v>0.1327383717725514</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2969171040260149</v>
+        <v>0.153762825661822</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01741955165603881</v>
+        <v>0.004132048927492853</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2946597721389286</v>
+        <v>0.05183198942203532</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03012505020784181</v>
+        <v>0.03566129605962608</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2976631329125016</v>
+        <v>0.1586083459779085</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07041189619757005</v>
+        <v>0.08462088701000783</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2963499176886552</v>
+        <v>0.1549736476411139</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1109681038633903</v>
+        <v>0.1319848365146011</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2985851776441386</v>
+        <v>0.1546266617610457</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01915238493890467</v>
+        <v>0.004136517851078637</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2963059161173583</v>
+        <v>0.05180284128846629</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02960788172592874</v>
+        <v>0.03574662290886571</v>
       </c>
       <c r="K245" t="n">
-        <v>0.299326055442739</v>
+        <v>0.1594944261230365</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06933132834376401</v>
+        <v>0.0840872379691707</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2980055038209941</v>
+        <v>0.1558394222089413</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1094117180363932</v>
+        <v>0.1332319428610619</v>
       </c>
       <c r="O245" t="n">
-        <v>0.3002532512622623</v>
+        <v>0.1554904978602694</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01888412470672315</v>
+        <v>0.004142946568396387</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2979520600957881</v>
+        <v>0.05177369315489729</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02898899187493499</v>
+        <v>0.03553213279195704</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3009889779729765</v>
+        <v>0.1603805062681645</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0687467286153382</v>
+        <v>0.08425400443870421</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2996610899533329</v>
+        <v>0.1567051967767688</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1083488942135105</v>
+        <v>0.13207970170811</v>
       </c>
       <c r="O246" t="n">
-        <v>0.301921324880386</v>
+        <v>0.1563543339594931</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01761475493273029</v>
+        <v>0.00415169140557918</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2995982040742179</v>
+        <v>0.05174454502132828</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02886835509645874</v>
+        <v>0.03561782886993355</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3026519005032139</v>
+        <v>0.1612665864132925</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06785803748634775</v>
+        <v>0.0845211933777853</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3013166760856718</v>
+        <v>0.1575709713445962</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1060795364252352</v>
+        <v>0.1329281239519214</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3035893984985096</v>
+        <v>0.1572181700587168</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01834425959016216</v>
+        <v>0.004163108688760131</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3012443480526477</v>
+        <v>0.05171539688775926</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02824594583209818</v>
+        <v>0.03560371430382885</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3043148230334514</v>
+        <v>0.1621526665584205</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06626519543084797</v>
+        <v>0.0837888117455908</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3029722622180106</v>
+        <v>0.1584367459124237</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1058035487020603</v>
+        <v>0.1323772204886725</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3052574721166333</v>
+        <v>0.1580820061579406</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01807262265225479</v>
+        <v>0.004177554744072304</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3028904920310774</v>
+        <v>0.05168624875419024</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02782173852345145</v>
+        <v>0.0357897922546765</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3059777455636888</v>
+        <v>0.1630387467035485</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06566814292289408</v>
+        <v>0.08375686650129771</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3046278483503495</v>
+        <v>0.1593025204802511</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1038208350744786</v>
+        <v>0.1320270022145394</v>
       </c>
       <c r="O249" t="n">
-        <v>0.306925545734757</v>
+        <v>0.1589458422571643</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01579982809224425</v>
+        <v>0.004195385897648778</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3045366360095072</v>
+        <v>0.05165710062062123</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02739570761211677</v>
+        <v>0.03547606588351</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3076406680939263</v>
+        <v>0.1639248268486764</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0650668204365413</v>
+        <v>0.08392536460408295</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3062834344826883</v>
+        <v>0.1601682950480786</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1017312995729833</v>
+        <v>0.1320774800256985</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3085936193528807</v>
+        <v>0.159809678356388</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01652585988336659</v>
+        <v>0.004216958475622659</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3061827799879369</v>
+        <v>0.05162795248705222</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02716782753969228</v>
+        <v>0.03546253835136294</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3093035906241637</v>
+        <v>0.1648109069938044</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06316116844584493</v>
+        <v>0.08419431301312341</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3079390206150271</v>
+        <v>0.1610340696159061</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09983484622806704</v>
+        <v>0.1319286648183258</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3102616929710043</v>
+        <v>0.1606735144556117</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01725070199885784</v>
+        <v>0.00424262880412702</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3078289239663667</v>
+        <v>0.05159880435348321</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02653807274777618</v>
+        <v>0.03564921281926883</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3109665131544011</v>
+        <v>0.1656969871389324</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06245112742486023</v>
+        <v>0.08426371868759605</v>
       </c>
       <c r="M252" t="n">
-        <v>0.309594606747366</v>
+        <v>0.1618998441837335</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09863137907022301</v>
+        <v>0.1319805674885976</v>
       </c>
       <c r="O252" t="n">
-        <v>0.311929766589128</v>
+        <v>0.1615373505548355</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01597433841195409</v>
+        <v>0.004272753209294947</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3094750679447965</v>
+        <v>0.05156965621991419</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02620641767796664</v>
+        <v>0.03563609244826124</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3126294356846386</v>
+        <v>0.1665830672840604</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06163663784764237</v>
+        <v>0.08423358858667779</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3112501928797049</v>
+        <v>0.162765618751561</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09662080212994401</v>
+        <v>0.1319331989326901</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3135978402072517</v>
+        <v>0.1624011866540591</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01469675309589136</v>
+        <v>0.004307688017259524</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3111212119232263</v>
+        <v>0.05154050808634518</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02567283677186177</v>
+        <v>0.03552318039937372</v>
       </c>
       <c r="K254" t="n">
-        <v>0.314292358214876</v>
+        <v>0.1674691474291884</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06071764018824671</v>
+        <v>0.08380392966954547</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3129057790120437</v>
+        <v>0.1636313933193884</v>
       </c>
       <c r="N254" t="n">
-        <v>0.09550301943772305</v>
+        <v>0.1320865700467795</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3152659138253753</v>
+        <v>0.1632650227532829</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01441793002390573</v>
+        <v>0.004347789554153846</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3127673559016561</v>
+        <v>0.05151135995277617</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02523730447105986</v>
+        <v>0.03571047983363981</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3159552807451135</v>
+        <v>0.1683552275743163</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05999407492072839</v>
+        <v>0.08427474889537612</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3145613651443826</v>
+        <v>0.1644971678872158</v>
       </c>
       <c r="N255" t="n">
-        <v>0.09437793502405306</v>
+        <v>0.132340691727042</v>
       </c>
       <c r="O255" t="n">
-        <v>0.316933987443499</v>
+        <v>0.1641288588525066</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01413785316923322</v>
+        <v>0.004393414146110983</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3144134998800858</v>
+        <v>0.05148221181920715</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02469979521715898</v>
+        <v>0.03559799391209305</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3176182032753509</v>
+        <v>0.1692413077194443</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05816588251914273</v>
+        <v>0.08364605322334662</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3162169512767214</v>
+        <v>0.1653629424550433</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09184545291942703</v>
+        <v>0.1315955748696538</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3186020610616228</v>
+        <v>0.1649926949517303</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01585650650510992</v>
+        <v>0.004444918119264028</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3160596438585155</v>
+        <v>0.05145306368563814</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02426028345175739</v>
+        <v>0.03548572579576699</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3192811258055883</v>
+        <v>0.1701273878645723</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05723300345754501</v>
+        <v>0.08381784961263389</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3178725374090603</v>
+        <v>0.1662287170228708</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09060547715433787</v>
+        <v>0.1317512303707912</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3202701346797465</v>
+        <v>0.165856531050954</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01557387400477184</v>
+        <v>0.004502657799746082</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3177057878369453</v>
+        <v>0.05142391555206913</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02381874361645318</v>
+        <v>0.03557367864569522</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3209440483358257</v>
+        <v>0.1710134680097003</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05689537820999035</v>
+        <v>0.08339014502241485</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3195281235413991</v>
+        <v>0.1670944915906982</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08865791175927851</v>
+        <v>0.1317076691266303</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3219382082978701</v>
+        <v>0.1667203671501778</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01328993964145507</v>
+        <v>0.004566989513690209</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3193519318153751</v>
+        <v>0.05139476741850011</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02357515015284457</v>
+        <v>0.03536185562291123</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3226069708660632</v>
+        <v>0.1718995481548282</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0556529472505341</v>
+        <v>0.08406294641186643</v>
       </c>
       <c r="M259" t="n">
-        <v>0.321183709673738</v>
+        <v>0.1679602661585257</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08780266076474186</v>
+        <v>0.1321649020333474</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3236062819159938</v>
+        <v>0.1675842032494015</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01300468738839564</v>
+        <v>0.004638269587229488</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3209980757938049</v>
+        <v>0.0513656192849311</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02292947750252974</v>
+        <v>0.03555025988844859</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3242698933963006</v>
+        <v>0.1727856282999562</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05460565105323151</v>
+        <v>0.08403626074016554</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3228392958060768</v>
+        <v>0.1688260407263531</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0851396282012209</v>
+        <v>0.1319229399871185</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3252743555341175</v>
+        <v>0.1684480393486252</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01271810121882961</v>
+        <v>0.004716854346497018</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3226442197722347</v>
+        <v>0.05133647115136209</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02268170010710682</v>
+        <v>0.03543889460334083</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3259328159265381</v>
+        <v>0.1736717084450842</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05325343009213779</v>
+        <v>0.08351009496648909</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3244948819384157</v>
+        <v>0.1696918152941805</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08336871809920871</v>
+        <v>0.1324817938841201</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3269424291522411</v>
+        <v>0.1693118754478489</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01243016510599303</v>
+        <v>0.004803100117625914</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3242903637506644</v>
+        <v>0.05130732301779307</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02213179240817405</v>
+        <v>0.03552776292862156</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3275957384567755</v>
+        <v>0.1745577885902122</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05189622484130818</v>
+        <v>0.08358445605001402</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3261504680707546</v>
+        <v>0.170557589862008</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08268983448919803</v>
+        <v>0.1314414746205282</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3286105027703648</v>
+        <v>0.1701757115470726</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01414086302312196</v>
+        <v>0.004897363226749198</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3259365077290942</v>
+        <v>0.05127817488422406</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02167972884732955</v>
+        <v>0.03541686802532425</v>
       </c>
       <c r="K263" t="n">
-        <v>0.329258660987013</v>
+        <v>0.1754438687353402</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05083397577479801</v>
+        <v>0.08355935094991729</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3278060542030934</v>
+        <v>0.1714233644298354</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08110288140168193</v>
+        <v>0.1325019930925191</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3302785763884885</v>
+        <v>0.1710395476462963</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01385017894345245</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.327582651707524</v>
+        <v>0.05124902675065505</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02112548386617154</v>
+        <v>0.0353062130544825</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3309215835172504</v>
+        <v>0.1763299488804682</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05036662336666242</v>
+        <v>0.08353478662537575</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3294616403354323</v>
+        <v>0.1722891389976629</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0783077628671533</v>
+        <v>0.131363360196269</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3319466500066122</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1719033837455201</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05123586885591821</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005301875828014592</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05123613738438222</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005600956889737649</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05123640591284624</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005897167926046443</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05123667444131026</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006190433677844165</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05123694296977428</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006480678886008333</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05123721149823829</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006767828291441874</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05123748002670231</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007051806635022563</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05123774855516633</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007332538657653057</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05123801708363035</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.00760994910021142</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05123828561209436</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.00788396270360002</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05123855414055838</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008154504208697219</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0512388226690224</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008421498356405065</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05123909119748642</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008684869887602253</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05123935972595043</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008944543543190499</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05123962825441445</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009200444064048817</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05123989678287846</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009452496191078616</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05124016531134248</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009700624665159231</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0512404338398065</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009944754227186457</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05124070236827052</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01018480961805578</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05124097089673454</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01042071557864703</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05124123942519855</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01065239684986077</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05124150795366257</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0108797781725772</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05124177648212658</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01110278428769651</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0512420450105906</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01132133993609927</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05124231353905462</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01153567716671663</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05124258206751864</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01174756456861748</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05124285059598265</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01195723419073264</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05124311912444667</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01216461077394326</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05124338765291069</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01236961905914869</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05124365618137471</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01257218378723025</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05124392470983872</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01277222969908709</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05124419323830274</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01296968153560075</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05124446176676676</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01316446403766593</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05124473029523077</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01335650194617705</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05124499882369479</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01354572000201606</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05124526735215881</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01373204294608146</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05124553588062283</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01391539551925545</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05124580440908684</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01409570246243628</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05124607293755086</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0142728885165064</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05124634146601487</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01444687842236381</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05124660999447889</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01461759692089122</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05124687852294291</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01478496875298636</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05124714705140693</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01494891865953221</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05124741557987095</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01510937138142622</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05124768410833497</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01526625165955167</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05124795263679898</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0154194842348057</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.051248221165263</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.0155689938480719</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05124848969372701</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.0157147052402471</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05124875822219103</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01585654315221521</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05124902675065505</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01585654315221521</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05123586885591821</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01596409351572739</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05126555404641525</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01606917172781892</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0512952392369123</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01617160305656984</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05132492442740935</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01627121277006013</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0513546096179064</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01636782613636983</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05138429480840345</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01646126842357899</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0514139799989005</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01655136489976762</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05144366518939754</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01663794083301574</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05147335037989459</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01672082149140341</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05150303557039164</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0167998321430106</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05153272076088868</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01687479805591735</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05156240595138573</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01694554449820371</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05159209114188278</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01701189673794968</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05162177633237983</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01707368004323531</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05165146152287688</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01713071968214059</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05168114671337393</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01718284092274557</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05171083190387097</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01722986903313027</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05174051709436802</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.0172716292813747</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05177020228486506</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01730794693555891</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05179988747536211</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01733864726376291</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05182957266585916</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01736355553406673</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05185925785635621</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01738249701455039</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05188894304685326</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01739529697329392</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0519186282373503</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01740178067837734</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05194831342784735</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01740248688655391</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0519779986183444</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01740152179794304</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05200768380884144</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01739942416929799</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05203736899933849</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.0173960192686988</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05206705418983554</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01739113236422547</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05209673938033259</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01738458872395805</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05212642457082964</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01737621361597654</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05215610976132669</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01736583230836099</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05218579495182373</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.0173532700691914</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05221548014232078</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01733835216654782</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05224516533281783</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01732090386851025</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05227485052331488</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01730075044315873</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05230453571381193</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01727771715857327</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05233422090430897</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01725162928283392</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05236390609480602</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01722231208402068</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05239359128530306</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0171895908302136</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05242327647580011</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01715329078949267</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05245296166629716</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01711323722993795</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05248264685679421</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01706925541962945</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05251233204729126</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01702117062664719</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05254201723778831</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01696880811907121</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05257170242828535</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01691199316498151</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05260138761878239</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01685055103245812</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05263107280927945</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.0167843069895811</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05266075799977649</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01671308630443042</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05269044319027354</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01671308630443042</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05269044319027354</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01711394025256673</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05427278769151114</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01750702677240474</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05585513219274875</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01789216300201177</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05743747669398633</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01826916607945516</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05901982119522394</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01863785314280223</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06060216569646154</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.0189980413301203</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06218451019769915</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01934954777947671</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06376685469893675</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01969218962893876</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06534919920017435</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0200257840165738</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06693154370141194</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02035014808044915</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06851388820264954</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02066509895863212</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07009623270388714</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02097045378919006</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07167857720512476</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02126602971019028</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07326092170636234</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02155164385970012</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07484326620759994</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0218271133757869</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07642561070883755</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02209225539651793</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07800795521007514</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02234688705996055</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07959029971131275</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02259082550418209</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08117264421255034</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02282388786724989</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08275498871378795</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02304589128723124</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08433733321502555</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02325665290219348</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08591967771626315</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02345598985020393</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08750202221750074</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02364371926932994</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08908436671873834</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.0238196582976388</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09066671121997595</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02398362407319789</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09224905572121356</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02413543373407449</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09383140022245114</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02427490441833594</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09541374472368874</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02440185326404955</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09699608922492635</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02451609740928266</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09857843372616394</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02461745399210262</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1001607782274015</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02470574015057672</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1017431227286391</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02478077302277228</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1033254672298767</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02484236974675666</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1049078117311144</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02489034746059718</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1064901562323519</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02492452330236114</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1080725007335896</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02495078173924056</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1096548452348271</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02495076426109519</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1112371897360647</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02494753482871755</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1128195342373024</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02493900826533751</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1144018787385399</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02492558688014354</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1159842232397775</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02490767298232409</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1175665677410151</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02488566888106761</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1191489122422528</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0248599768855626</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1207312567434903</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02483099930499746</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1223136012447279</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0247991384485607</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1238959457459656</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02476479662544075</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1254782902472031</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02472837614482606</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1270606347484407</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02469027931590512</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1286429792496784</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02465090844786637</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1302253237509159</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02461066584989825</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1318076682521535</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02456968251015473</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1333900127533912</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02451590234751987</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1349723572546288</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02444568877866901</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1365547017558663</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02436322653839366</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.138137046257104</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02427270036148536</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1397193907583416</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.0241782949827356</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1413017352595791</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02408419513693595</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1428840797608167</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02399458555887785</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1444664242620544</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02391365098335288</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.146048768763292</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02384557614515254</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1476311132645295</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02379454577906831</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02375639452715726</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1507958022670048</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0237205747019046</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1523781467682424</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02368685791265689</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1539604912694799</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02365511006422229</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1555428357707176</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.023625197061409</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1571251802719552</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02359698480902522</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1587075247731927</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02357033921187912</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1602898692744304</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.0235451261747789</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.161872213775668</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02352121160253272</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1634545582769056</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02349846139994879</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1650369027781432</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02347674147183529</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1666192472793807</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02345591772300037</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1682015917806184</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02343585605825228</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.169783936281856</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02341642238239919</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1713662807830935</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02339748260024924</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1729486252843312</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02337890261661064</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1745309697855688</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02336054833629159</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1761133142868063</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02334228566410025</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.177695658788044</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02332398050484483</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1792780032892816</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02330549876333349</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1808603477905192</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02328670634437445</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1824426922917567</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02326786191525193</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1840250367929943</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02324933240891629</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.185607381294232</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02323112948313623</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1871897257954696</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02321326477482943</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1887720702967072</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0231957499209136</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1903544147979448</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02317859655830638</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1919367592991824</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02316181632392542</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.19351910380042</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02314542085468844</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1951014483016575</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02312942178751309</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1966837928028952</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02311383075931704</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1982661373041328</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02309865940701797</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1998484818053703</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02308391936753353</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.201430826306608</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02306962227778139</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2030131708078456</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02305577977467924</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2045955153090832</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02304240349514475</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2061778598103208</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02302950507609558</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2077602043115584</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02301709615444941</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.209342548812796</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
